--- a/Achievement Tracker.xlsx
+++ b/Achievement Tracker.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Data\AchievementTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23BFEF95-CECA-43D1-AA45-A46F861BD02C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8866B7FC-CAAC-4D7A-A613-870BCA6B1C02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{01F7A889-C794-47A9-89C3-7F43CBAA3EFF}"/>
   </bookViews>
@@ -1287,8 +1287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0DD2CDF-28B5-4FF8-81AE-E2FDE175FB34}">
   <dimension ref="A1:P96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2455,10 +2455,10 @@
       </c>
       <c r="B47" s="13">
         <f t="shared" ref="B47:B55" si="5">ROUND((C47/D47)*100, 2)</f>
-        <v>15.79</v>
+        <v>21.05</v>
       </c>
       <c r="C47" s="31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" s="31">
         <v>19</v>
@@ -2997,7 +2997,7 @@
       </c>
       <c r="C75" s="43">
         <f>SUM(C1:C36, C38:C74)</f>
-        <v>7574</v>
+        <v>7575</v>
       </c>
       <c r="D75" s="43">
         <f>SUM(D1:D36, D38:D74)</f>
@@ -3048,7 +3048,7 @@
       </c>
       <c r="B78" s="37">
         <f>(C75/D75)*100</f>
-        <v>80.216055920355856</v>
+        <v>80.226646896843889</v>
       </c>
       <c r="E78" s="30"/>
       <c r="F78" s="30"/>
@@ -3059,11 +3059,11 @@
       </c>
       <c r="B79" s="43">
         <f>AVERAGEIF(B2:B74, "&gt;0")</f>
-        <v>84.27918367346939</v>
+        <v>84.386530612244911</v>
       </c>
       <c r="C79" s="43">
         <f>(C75/D76)*100</f>
-        <v>94.971786833855802</v>
+        <v>94.984326018808773</v>
       </c>
       <c r="D79" s="30" t="s">
         <v>125</v>

--- a/Achievement Tracker.xlsx
+++ b/Achievement Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Data\AchievementTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A33873A-1D37-403B-B6A7-9DDA2EC3B7CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B95C4F4C-E927-4AB6-8D6C-70239D37C22C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-4035" windowWidth="29040" windowHeight="15840" xr2:uid="{01F7A889-C794-47A9-89C3-7F43CBAA3EFF}"/>
   </bookViews>
@@ -386,9 +386,6 @@
     <t>Bury Me, My Love</t>
   </si>
   <si>
-    <t>Depression Quest</t>
-  </si>
-  <si>
     <t>Orion: Prelude</t>
   </si>
   <si>
@@ -464,7 +461,10 @@
     <t>Kingdom Rush Origins</t>
   </si>
   <si>
-    <t>Unlisted, bought by Epic Games</t>
+    <t>Unlisted, exclusivity bought by Epic Games</t>
+  </si>
+  <si>
+    <t>Kingdom Rush Vengeance</t>
   </si>
 </sst>
 </file>
@@ -759,7 +759,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -931,9 +931,6 @@
     <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -970,14 +967,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1303,8 +1306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0DD2CDF-28B5-4FF8-81AE-E2FDE175FB34}">
   <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C86" sqref="C86"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1368,7 +1371,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="10">
-        <f t="shared" ref="B2:B37" si="0">ROUND((C2/D2)*100, 2)</f>
+        <f t="shared" ref="B2:B35" si="0">ROUND((C2/D2)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C2" s="1">
@@ -1418,7 +1421,7 @@
       <c r="H3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="85" t="s">
+      <c r="J3" s="84" t="s">
         <v>8</v>
       </c>
       <c r="L3" s="26" t="s">
@@ -1432,7 +1435,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="87" t="s">
+      <c r="A4" s="86" t="s">
         <v>116</v>
       </c>
       <c r="B4" s="10">
@@ -1449,7 +1452,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>21</v>
@@ -1513,7 +1516,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H6" s="60" t="s">
         <v>112</v>
@@ -1547,7 +1550,7 @@
       </c>
       <c r="F7" s="29"/>
       <c r="H7" s="60" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N7" s="8" t="s">
         <v>22</v>
@@ -1575,7 +1578,7 @@
       </c>
       <c r="F8" s="29"/>
       <c r="H8" s="60" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N8" s="8" t="s">
         <v>23</v>
@@ -1604,8 +1607,8 @@
       <c r="F9" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="H9" s="25" t="s">
-        <v>29</v>
+      <c r="H9" s="60" t="s">
+        <v>143</v>
       </c>
       <c r="N9" s="8" t="s">
         <v>24</v>
@@ -1635,7 +1638,7 @@
         <v>84</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="N10" s="8" t="s">
         <v>25</v>
@@ -1663,7 +1666,7 @@
       </c>
       <c r="F11" s="29"/>
       <c r="H11" s="25" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="N11" s="8" t="s">
         <v>26</v>
@@ -1674,7 +1677,7 @@
     </row>
     <row r="12" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B12" s="10">
         <f t="shared" si="0"/>
@@ -1690,11 +1693,11 @@
         <v>39</v>
       </c>
       <c r="F12" s="29"/>
-      <c r="H12" s="2" t="s">
-        <v>45</v>
+      <c r="H12" s="25" t="s">
+        <v>44</v>
       </c>
       <c r="N12" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P12" s="17" t="s">
         <v>39</v>
@@ -1718,8 +1721,8 @@
         <v>75</v>
       </c>
       <c r="F13" s="29"/>
-      <c r="H13" s="60" t="s">
-        <v>114</v>
+      <c r="H13" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="N13" s="8" t="s">
         <v>28</v>
@@ -1730,7 +1733,7 @@
     </row>
     <row r="14" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B14" s="10">
         <f t="shared" si="0"/>
@@ -1746,11 +1749,11 @@
         <v>42</v>
       </c>
       <c r="F14" s="29"/>
-      <c r="H14" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="N14" s="88" t="s">
-        <v>140</v>
+      <c r="H14" s="60" t="s">
+        <v>114</v>
+      </c>
+      <c r="N14" s="87" t="s">
+        <v>139</v>
       </c>
       <c r="P14" s="17" t="s">
         <v>42</v>
@@ -1774,8 +1777,8 @@
         <v>3</v>
       </c>
       <c r="F15" s="29"/>
-      <c r="H15" s="25" t="s">
-        <v>61</v>
+      <c r="H15" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="N15" s="8" t="s">
         <v>30</v>
@@ -1802,6 +1805,9 @@
         <v>71</v>
       </c>
       <c r="F16" s="29"/>
+      <c r="H16" s="25" t="s">
+        <v>61</v>
+      </c>
       <c r="N16" s="8" t="s">
         <v>31</v>
       </c>
@@ -1836,7 +1842,7 @@
     </row>
     <row r="18" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="68" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B18" s="10">
         <f t="shared" si="0"/>
@@ -1852,10 +1858,10 @@
         <v>1</v>
       </c>
       <c r="F18" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N18" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P18" s="33" t="s">
         <v>51</v>
@@ -1890,7 +1896,7 @@
       <c r="A20" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="B20" s="91">
+      <c r="B20" s="89">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -1955,7 +1961,7 @@
         <v>558</v>
       </c>
       <c r="F22" s="29" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N22" s="8" t="s">
         <v>47</v>
@@ -2256,7 +2262,7 @@
         <v>39</v>
       </c>
       <c r="B36" s="11">
-        <f t="shared" si="0"/>
+        <f>ROUND((C36/D36)*100, 2)</f>
         <v>95.19</v>
       </c>
       <c r="C36" s="30">
@@ -2269,7 +2275,7 @@
         <v>11</v>
       </c>
       <c r="F36" s="29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
@@ -2277,7 +2283,7 @@
         <v>65</v>
       </c>
       <c r="B37" s="11">
-        <f t="shared" si="0"/>
+        <f>ROUND((C37/D37)*100, 2)</f>
         <v>94.81</v>
       </c>
       <c r="C37" s="30">
@@ -2298,7 +2304,7 @@
         <v>14</v>
       </c>
       <c r="B38" s="70">
-        <f t="shared" ref="B38:B46" si="1">ROUND((C38/D38)*100, 2)</f>
+        <f>ROUND((C38/D38)*100, 2)</f>
         <v>86.23</v>
       </c>
       <c r="C38" s="1">
@@ -2319,7 +2325,7 @@
         <v>99</v>
       </c>
       <c r="B39" s="72">
-        <f t="shared" si="1"/>
+        <f>ROUND((C39/D39)*100, 2)</f>
         <v>84.62</v>
       </c>
       <c r="C39" s="63">
@@ -2340,7 +2346,7 @@
         <v>41</v>
       </c>
       <c r="B40" s="70">
-        <f t="shared" si="1"/>
+        <f>ROUND((C40/D40)*100, 2)</f>
         <v>83.78</v>
       </c>
       <c r="C40" s="30">
@@ -2355,51 +2361,51 @@
       <c r="F40" s="29"/>
     </row>
     <row r="41" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="73" t="s">
+      <c r="A41" s="93" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" s="94">
+        <f>ROUND((C41/D41)*100, 2)</f>
+        <v>71.930000000000007</v>
+      </c>
+      <c r="C41" s="30">
+        <v>82</v>
+      </c>
+      <c r="D41" s="30">
+        <v>114</v>
+      </c>
+      <c r="E41" s="30">
+        <v>315</v>
+      </c>
+      <c r="F41" s="29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="B41" s="74">
-        <f t="shared" si="1"/>
+      <c r="B42" s="74">
+        <f>ROUND((C42/D42)*100, 2)</f>
         <v>69.33</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C42" s="1">
         <v>52</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D42" s="1">
         <v>75</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E42" s="1">
         <v>72</v>
       </c>
-      <c r="F41" s="29"/>
-    </row>
-    <row r="42" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="75" t="s">
-        <v>51</v>
-      </c>
-      <c r="B42" s="74">
-        <f t="shared" si="1"/>
-        <v>68.42</v>
-      </c>
-      <c r="C42" s="30">
-        <v>78</v>
-      </c>
-      <c r="D42" s="30">
-        <v>114</v>
-      </c>
-      <c r="E42" s="30">
-        <v>308</v>
-      </c>
-      <c r="F42" s="29" t="s">
-        <v>85</v>
-      </c>
+      <c r="F42" s="29"/>
     </row>
     <row r="43" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="76" t="s">
+      <c r="A43" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="B43" s="77">
-        <f t="shared" si="1"/>
+      <c r="B43" s="76">
+        <f>ROUND((C43/D43)*100, 2)</f>
         <v>58.67</v>
       </c>
       <c r="C43" s="1">
@@ -2416,11 +2422,11 @@
       </c>
     </row>
     <row r="44" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="78" t="s">
+      <c r="A44" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="B44" s="77">
-        <f t="shared" si="1"/>
+      <c r="B44" s="76">
+        <f t="shared" ref="B44:B46" si="1">ROUND((C44/D44)*100, 2)</f>
         <v>56.76</v>
       </c>
       <c r="C44" s="30">
@@ -2437,10 +2443,10 @@
       </c>
     </row>
     <row r="45" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="79" t="s">
+      <c r="A45" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="B45" s="77">
+      <c r="B45" s="76">
         <f t="shared" si="1"/>
         <v>56.25</v>
       </c>
@@ -2456,10 +2462,10 @@
       <c r="F45" s="29"/>
     </row>
     <row r="46" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="79" t="s">
+      <c r="A46" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="B46" s="77">
+      <c r="B46" s="76">
         <f t="shared" si="1"/>
         <v>55.32</v>
       </c>
@@ -2687,38 +2693,37 @@
       <c r="F57" s="29"/>
     </row>
     <row r="58" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A58" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="B58" s="14">
+      <c r="A58" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B58" s="15">
+        <f t="shared" ref="B58:B77" si="5">ROUND((C58/D58)*100, 2)</f>
         <v>0</v>
       </c>
       <c r="C58" s="30">
         <v>0</v>
       </c>
-      <c r="D58" s="30">
-        <v>0</v>
+      <c r="D58" s="1">
+        <v>170</v>
       </c>
       <c r="E58" s="30">
-        <v>32</v>
-      </c>
-      <c r="F58" s="29" t="s">
-        <v>122</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F58" s="29"/>
     </row>
     <row r="59" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A59" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B59" s="15">
-        <f t="shared" ref="B59:B77" si="5">ROUND((C59/D59)*100, 2)</f>
+      <c r="A59" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B59" s="14">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C59" s="30">
         <v>0</v>
       </c>
       <c r="D59" s="1">
-        <v>170</v>
+        <v>33</v>
       </c>
       <c r="E59" s="30">
         <v>0</v>
@@ -2726,8 +2731,8 @@
       <c r="F59" s="29"/>
     </row>
     <row r="60" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A60" s="6" t="s">
-        <v>21</v>
+      <c r="A60" s="66" t="s">
+        <v>115</v>
       </c>
       <c r="B60" s="14">
         <f t="shared" si="5"/>
@@ -2736,17 +2741,19 @@
       <c r="C60" s="30">
         <v>0</v>
       </c>
-      <c r="D60" s="1">
-        <v>33</v>
+      <c r="D60" s="30">
+        <v>95</v>
       </c>
       <c r="E60" s="30">
         <v>0</v>
       </c>
-      <c r="F60" s="29"/>
+      <c r="F60" s="29" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="61" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A61" s="66" t="s">
-        <v>115</v>
+      <c r="A61" s="65" t="s">
+        <v>112</v>
       </c>
       <c r="B61" s="14">
         <f t="shared" si="5"/>
@@ -2756,47 +2763,45 @@
         <v>0</v>
       </c>
       <c r="D61" s="30">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="E61" s="30">
         <v>0</v>
       </c>
-      <c r="F61" s="29" t="s">
+      <c r="F61" s="29"/>
+    </row>
+    <row r="62" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A62" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B62" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C62" s="30">
+        <v>0</v>
+      </c>
+      <c r="D62" s="30">
+        <v>88</v>
+      </c>
+      <c r="E62" s="30">
+        <v>0</v>
+      </c>
+      <c r="F62" s="29"/>
+    </row>
+    <row r="63" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A63" s="67" t="s">
+        <v>140</v>
+      </c>
+      <c r="B63" s="14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C63" s="30">
+        <v>0</v>
+      </c>
+      <c r="D63" s="30">
         <v>85</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A62" s="65" t="s">
-        <v>112</v>
-      </c>
-      <c r="B62" s="14">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="C62" s="30">
-        <v>0</v>
-      </c>
-      <c r="D62" s="30">
-        <v>35</v>
-      </c>
-      <c r="E62" s="30">
-        <v>0</v>
-      </c>
-      <c r="F62" s="29"/>
-    </row>
-    <row r="63" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A63" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B63" s="15">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="C63" s="30">
-        <v>0</v>
-      </c>
-      <c r="D63" s="30">
-        <v>88</v>
       </c>
       <c r="E63" s="30">
         <v>0</v>
@@ -2815,7 +2820,7 @@
         <v>0</v>
       </c>
       <c r="D64" s="30">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E64" s="30">
         <v>0</v>
@@ -2824,7 +2829,7 @@
     </row>
     <row r="65" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="67" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B65" s="14">
         <f t="shared" si="5"/>
@@ -2834,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="D65" s="30">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="E65" s="30">
         <v>0</v>
@@ -2862,7 +2867,7 @@
     </row>
     <row r="67" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="67" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B67" s="14">
         <f t="shared" si="5"/>
@@ -3079,15 +3084,15 @@
       </c>
       <c r="C78" s="41">
         <f>SUM(C1:C38, C40:C77)</f>
-        <v>7664</v>
+        <v>7668</v>
       </c>
       <c r="D78" s="41">
         <f>SUM(D1:D38, D40:D77)</f>
-        <v>9684</v>
+        <v>9754</v>
       </c>
       <c r="E78" s="41">
         <f>SUM(E1:E38, E40:E77)</f>
-        <v>3279</v>
+        <v>3254</v>
       </c>
       <c r="F78" s="29" t="s">
         <v>104</v>
@@ -3126,11 +3131,11 @@
     </row>
     <row r="81" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="35" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B81" s="36">
         <f>(C78/D78)*100</f>
-        <v>79.140850888062786</v>
+        <v>78.613901988927608</v>
       </c>
       <c r="E81" s="29"/>
       <c r="F81" s="29"/>
@@ -3141,19 +3146,19 @@
       </c>
       <c r="B82" s="41">
         <f>AVERAGEIF(B2:B77, "&gt;0")</f>
-        <v>86.277799999999985</v>
+        <v>86.347999999999971</v>
       </c>
       <c r="C82" s="41">
         <f>(C78/D79)*100</f>
-        <v>91.982717234757558</v>
+        <v>92.030724915986568</v>
       </c>
       <c r="D82" s="29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B83" s="39">
         <f>ROUND(((B80/B79)*100), 2)</f>
@@ -3161,20 +3166,20 @@
       </c>
     </row>
     <row r="84" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A84" s="90" t="s">
+      <c r="A84" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="B84" s="90"/>
-      <c r="C84" s="90"/>
+      <c r="B84" s="92"/>
+      <c r="C84" s="92"/>
     </row>
     <row r="85" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A85" s="89" t="s">
+      <c r="A85" s="88" t="s">
         <v>87</v>
       </c>
-      <c r="B85" s="86" t="s">
+      <c r="B85" s="85" t="s">
         <v>89</v>
       </c>
-      <c r="C85" s="86" t="s">
+      <c r="C85" s="85" t="s">
         <v>90</v>
       </c>
     </row>
@@ -3191,29 +3196,29 @@
     </row>
     <row r="87" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="43" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B87" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="C87" s="92" t="s">
+      <c r="C87" s="90" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A88" s="80" t="s">
-        <v>133</v>
+      <c r="A88" s="79" t="s">
+        <v>132</v>
       </c>
       <c r="B88" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="C88" s="93" t="s">
+      <c r="C88" s="91" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B89" s="57" t="s">
         <v>95</v>
@@ -3223,8 +3228,8 @@
       </c>
     </row>
     <row r="90" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A90" s="81" t="s">
-        <v>134</v>
+      <c r="A90" s="80" t="s">
+        <v>133</v>
       </c>
       <c r="B90" s="58" t="s">
         <v>98</v>
@@ -3232,8 +3237,8 @@
       <c r="C90" s="29"/>
     </row>
     <row r="91" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A91" s="82" t="s">
-        <v>131</v>
+      <c r="A91" s="81" t="s">
+        <v>130</v>
       </c>
       <c r="B91" s="55" t="s">
         <v>96</v>
@@ -3242,16 +3247,16 @@
     </row>
     <row r="92" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="45" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B92" s="61" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C92" s="29"/>
     </row>
     <row r="93" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A93" s="83" t="s">
-        <v>135</v>
+      <c r="A93" s="82" t="s">
+        <v>134</v>
       </c>
       <c r="B93" s="59" t="s">
         <v>109</v>
@@ -3259,8 +3264,8 @@
       <c r="C93" s="29"/>
     </row>
     <row r="94" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A94" s="84" t="s">
-        <v>136</v>
+      <c r="A94" s="83" t="s">
+        <v>135</v>
       </c>
       <c r="B94" s="60" t="s">
         <v>105</v>
@@ -3269,16 +3274,16 @@
     </row>
     <row r="95" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="46" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B95" s="62" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C95" s="29"/>
     </row>
     <row r="96" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B96" s="29"/>
       <c r="C96" s="29"/>
@@ -3310,8 +3315,8 @@
       <c r="C100" s="29"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="N2:N35">
-    <sortCondition ref="N35"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A36:F43">
+    <sortCondition descending="1" ref="B36:B43"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A84:C84"/>

--- a/Achievement Tracker.xlsx
+++ b/Achievement Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Data\AchievementTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B95C4F4C-E927-4AB6-8D6C-70239D37C22C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DCBE7FB-2E3C-4C8A-8D23-A9BD42A04BFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-4035" windowWidth="29040" windowHeight="15840" xr2:uid="{01F7A889-C794-47A9-89C3-7F43CBAA3EFF}"/>
   </bookViews>
@@ -759,7 +759,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -972,14 +972,17 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1306,8 +1309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0DD2CDF-28B5-4FF8-81AE-E2FDE175FB34}">
   <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2262,7 +2265,7 @@
         <v>39</v>
       </c>
       <c r="B36" s="11">
-        <f>ROUND((C36/D36)*100, 2)</f>
+        <f t="shared" ref="B36:B43" si="1">ROUND((C36/D36)*100, 2)</f>
         <v>95.19</v>
       </c>
       <c r="C36" s="30">
@@ -2283,7 +2286,7 @@
         <v>65</v>
       </c>
       <c r="B37" s="11">
-        <f>ROUND((C37/D37)*100, 2)</f>
+        <f t="shared" si="1"/>
         <v>94.81</v>
       </c>
       <c r="C37" s="30">
@@ -2304,7 +2307,7 @@
         <v>14</v>
       </c>
       <c r="B38" s="70">
-        <f>ROUND((C38/D38)*100, 2)</f>
+        <f t="shared" si="1"/>
         <v>86.23</v>
       </c>
       <c r="C38" s="1">
@@ -2325,7 +2328,7 @@
         <v>99</v>
       </c>
       <c r="B39" s="72">
-        <f>ROUND((C39/D39)*100, 2)</f>
+        <f t="shared" si="1"/>
         <v>84.62</v>
       </c>
       <c r="C39" s="63">
@@ -2346,7 +2349,7 @@
         <v>41</v>
       </c>
       <c r="B40" s="70">
-        <f>ROUND((C40/D40)*100, 2)</f>
+        <f t="shared" si="1"/>
         <v>83.78</v>
       </c>
       <c r="C40" s="30">
@@ -2361,11 +2364,11 @@
       <c r="F40" s="29"/>
     </row>
     <row r="41" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="93" t="s">
+      <c r="A41" s="92" t="s">
         <v>51</v>
       </c>
-      <c r="B41" s="94">
-        <f>ROUND((C41/D41)*100, 2)</f>
+      <c r="B41" s="93">
+        <f t="shared" si="1"/>
         <v>71.930000000000007</v>
       </c>
       <c r="C41" s="30">
@@ -2386,7 +2389,7 @@
         <v>7</v>
       </c>
       <c r="B42" s="74">
-        <f>ROUND((C42/D42)*100, 2)</f>
+        <f t="shared" si="1"/>
         <v>69.33</v>
       </c>
       <c r="C42" s="1">
@@ -2405,7 +2408,7 @@
         <v>8</v>
       </c>
       <c r="B43" s="76">
-        <f>ROUND((C43/D43)*100, 2)</f>
+        <f t="shared" si="1"/>
         <v>58.67</v>
       </c>
       <c r="C43" s="1">
@@ -2426,7 +2429,7 @@
         <v>71</v>
       </c>
       <c r="B44" s="76">
-        <f t="shared" ref="B44:B46" si="1">ROUND((C44/D44)*100, 2)</f>
+        <f t="shared" ref="B44:B46" si="2">ROUND((C44/D44)*100, 2)</f>
         <v>56.76</v>
       </c>
       <c r="C44" s="30">
@@ -2447,7 +2450,7 @@
         <v>16</v>
       </c>
       <c r="B45" s="76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>56.25</v>
       </c>
       <c r="C45" s="1">
@@ -2466,7 +2469,7 @@
         <v>49</v>
       </c>
       <c r="B46" s="76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>55.32</v>
       </c>
       <c r="C46" s="30">
@@ -2485,7 +2488,7 @@
         <v>32</v>
       </c>
       <c r="B47" s="12">
-        <f t="shared" ref="B47:B48" si="2">ROUND((C47/D47)*100, 2)</f>
+        <f>ROUND((C47/D47)*100, 2)</f>
         <v>45.83</v>
       </c>
       <c r="C47" s="30">
@@ -2504,7 +2507,7 @@
         <v>50</v>
       </c>
       <c r="B48" s="12">
-        <f t="shared" si="2"/>
+        <f>ROUND((C48/D48)*100, 2)</f>
         <v>43.66</v>
       </c>
       <c r="C48" s="30">
@@ -2521,96 +2524,96 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
-        <v>34</v>
+      <c r="A49" s="95" t="s">
+        <v>140</v>
       </c>
       <c r="B49" s="13">
-        <f t="shared" ref="B49:B56" si="3">ROUND((C49/D49)*100, 2)</f>
-        <v>7.69</v>
+        <f>ROUND((C49/D49)*100, 2)</f>
+        <v>8.24</v>
       </c>
       <c r="C49" s="30">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D49" s="30">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="E49" s="30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F49" s="29"/>
     </row>
     <row r="50" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B50" s="13">
-        <f t="shared" si="3"/>
-        <v>5.26</v>
+        <f>ROUND((C50/D50)*100, 2)</f>
+        <v>7.69</v>
       </c>
       <c r="C50" s="30">
+        <v>4</v>
+      </c>
+      <c r="D50" s="30">
+        <v>52</v>
+      </c>
+      <c r="E50" s="30">
         <v>2</v>
-      </c>
-      <c r="D50" s="30">
-        <v>38</v>
-      </c>
-      <c r="E50" s="30">
-        <v>3</v>
       </c>
       <c r="F50" s="29"/>
     </row>
     <row r="51" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B51" s="13">
+        <f>ROUND((C51/D51)*100, 2)</f>
+        <v>5.26</v>
+      </c>
+      <c r="C51" s="30">
+        <v>2</v>
+      </c>
+      <c r="D51" s="30">
+        <v>38</v>
+      </c>
+      <c r="E51" s="30">
+        <v>3</v>
+      </c>
+      <c r="F51" s="29"/>
+    </row>
+    <row r="52" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B51" s="13">
-        <f t="shared" si="3"/>
+      <c r="B52" s="13">
+        <f>ROUND((C52/D52)*100, 2)</f>
         <v>2.0699999999999998</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C52" s="1">
         <v>4</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D52" s="1">
         <v>193</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E52" s="1">
         <v>3</v>
       </c>
-      <c r="F51" s="29" t="s">
+      <c r="F52" s="29" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A52" s="31" t="s">
+    <row r="53" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A53" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B52" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="C52" s="30">
-        <v>0</v>
-      </c>
-      <c r="D52" s="30">
+      <c r="B53" s="14">
+        <f>ROUND((C53/D53)*100, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="C53" s="30">
+        <v>0</v>
+      </c>
+      <c r="D53" s="30">
         <v>18</v>
-      </c>
-      <c r="E52" s="30">
-        <v>0</v>
-      </c>
-      <c r="F52" s="29"/>
-    </row>
-    <row r="53" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A53" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="B53" s="15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="C53" s="30">
-        <v>0</v>
-      </c>
-      <c r="D53" s="30">
-        <v>74</v>
       </c>
       <c r="E53" s="30">
         <v>0</v>
@@ -2619,73 +2622,73 @@
     </row>
     <row r="54" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" s="15">
+        <f>ROUND((C54/D54)*100, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="C54" s="30">
+        <v>0</v>
+      </c>
+      <c r="D54" s="30">
+        <v>74</v>
+      </c>
+      <c r="E54" s="30">
+        <v>0</v>
+      </c>
+      <c r="F54" s="29"/>
+    </row>
+    <row r="55" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A55" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B54" s="15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="C54" s="30">
-        <v>0</v>
-      </c>
-      <c r="D54" s="30">
+      <c r="B55" s="15">
+        <f>ROUND((C55/D55)*100, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="C55" s="30">
+        <v>0</v>
+      </c>
+      <c r="D55" s="30">
         <v>54</v>
       </c>
-      <c r="E54" s="30">
-        <v>0</v>
-      </c>
-      <c r="F54" s="29"/>
-    </row>
-    <row r="55" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A55" s="6" t="s">
+      <c r="E55" s="30">
+        <v>0</v>
+      </c>
+      <c r="F55" s="29"/>
+    </row>
+    <row r="56" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A56" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B55" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="C55" s="1">
-        <v>0</v>
-      </c>
-      <c r="D55" s="1">
+      <c r="B56" s="14">
+        <f>ROUND((C56/D56)*100, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="C56" s="1">
+        <v>0</v>
+      </c>
+      <c r="D56" s="1">
         <v>63</v>
       </c>
-      <c r="E55" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B56" s="15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="C56" s="1">
-        <v>0</v>
-      </c>
-      <c r="D56" s="1">
-        <v>12</v>
-      </c>
       <c r="E56" s="1">
         <v>0</v>
       </c>
-      <c r="F56" s="29"/>
     </row>
     <row r="57" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B57" s="15">
-        <f t="shared" ref="B57" si="4">ROUND((C57/D57)*100, 2)</f>
+        <f>ROUND((C57/D57)*100, 2)</f>
         <v>0</v>
       </c>
       <c r="C57" s="1">
         <v>0</v>
       </c>
       <c r="D57" s="1">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="E57" s="1">
         <v>0</v>
@@ -2694,114 +2697,114 @@
     </row>
     <row r="58" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B58" s="15">
+        <f>ROUND((C58/D58)*100, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="C58" s="1">
+        <v>0</v>
+      </c>
+      <c r="D58" s="1">
+        <v>54</v>
+      </c>
+      <c r="E58" s="1">
+        <v>0</v>
+      </c>
+      <c r="F58" s="29"/>
+    </row>
+    <row r="59" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B58" s="15">
-        <f t="shared" ref="B58:B77" si="5">ROUND((C58/D58)*100, 2)</f>
-        <v>0</v>
-      </c>
-      <c r="C58" s="30">
-        <v>0</v>
-      </c>
-      <c r="D58" s="1">
+      <c r="B59" s="15">
+        <f>ROUND((C59/D59)*100, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="C59" s="30">
+        <v>0</v>
+      </c>
+      <c r="D59" s="1">
         <v>170</v>
       </c>
-      <c r="E58" s="30">
-        <v>0</v>
-      </c>
-      <c r="F58" s="29"/>
-    </row>
-    <row r="59" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A59" s="6" t="s">
+      <c r="E59" s="30">
+        <v>0</v>
+      </c>
+      <c r="F59" s="29"/>
+    </row>
+    <row r="60" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A60" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B59" s="14">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="C59" s="30">
-        <v>0</v>
-      </c>
-      <c r="D59" s="1">
+      <c r="B60" s="14">
+        <f>ROUND((C60/D60)*100, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="C60" s="30">
+        <v>0</v>
+      </c>
+      <c r="D60" s="1">
         <v>33</v>
       </c>
-      <c r="E59" s="30">
-        <v>0</v>
-      </c>
-      <c r="F59" s="29"/>
-    </row>
-    <row r="60" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A60" s="66" t="s">
+      <c r="E60" s="30">
+        <v>0</v>
+      </c>
+      <c r="F60" s="29"/>
+    </row>
+    <row r="61" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A61" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="B60" s="14">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="C60" s="30">
-        <v>0</v>
-      </c>
-      <c r="D60" s="30">
+      <c r="B61" s="14">
+        <f>ROUND((C61/D61)*100, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="C61" s="30">
+        <v>0</v>
+      </c>
+      <c r="D61" s="30">
         <v>95</v>
       </c>
-      <c r="E60" s="30">
-        <v>0</v>
-      </c>
-      <c r="F60" s="29" t="s">
+      <c r="E61" s="30">
+        <v>0</v>
+      </c>
+      <c r="F61" s="29" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A61" s="65" t="s">
+    <row r="62" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A62" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="B61" s="14">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="C61" s="30">
-        <v>0</v>
-      </c>
-      <c r="D61" s="30">
+      <c r="B62" s="14">
+        <f>ROUND((C62/D62)*100, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="C62" s="30">
+        <v>0</v>
+      </c>
+      <c r="D62" s="30">
         <v>35</v>
       </c>
-      <c r="E61" s="30">
-        <v>0</v>
-      </c>
-      <c r="F61" s="29"/>
-    </row>
-    <row r="62" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A62" s="5" t="s">
+      <c r="E62" s="30">
+        <v>0</v>
+      </c>
+      <c r="F62" s="29"/>
+    </row>
+    <row r="63" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A63" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B62" s="15">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="C62" s="30">
-        <v>0</v>
-      </c>
-      <c r="D62" s="30">
+      <c r="B63" s="15">
+        <f>ROUND((C63/D63)*100, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="C63" s="30">
+        <v>0</v>
+      </c>
+      <c r="D63" s="30">
         <v>88</v>
-      </c>
-      <c r="E62" s="30">
-        <v>0</v>
-      </c>
-      <c r="F62" s="29"/>
-    </row>
-    <row r="63" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A63" s="67" t="s">
-        <v>140</v>
-      </c>
-      <c r="B63" s="14">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="C63" s="30">
-        <v>0</v>
-      </c>
-      <c r="D63" s="30">
-        <v>85</v>
       </c>
       <c r="E63" s="30">
         <v>0</v>
@@ -2813,7 +2816,7 @@
         <v>141</v>
       </c>
       <c r="B64" s="14">
-        <f t="shared" si="5"/>
+        <f>ROUND((C64/D64)*100, 2)</f>
         <v>0</v>
       </c>
       <c r="C64" s="30">
@@ -2832,7 +2835,7 @@
         <v>143</v>
       </c>
       <c r="B65" s="14">
-        <f t="shared" si="5"/>
+        <f>ROUND((C65/D65)*100, 2)</f>
         <v>0</v>
       </c>
       <c r="C65" s="30">
@@ -2851,7 +2854,7 @@
         <v>29</v>
       </c>
       <c r="B66" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="B58:B77" si="3">ROUND((C66/D66)*100, 2)</f>
         <v>0</v>
       </c>
       <c r="C66" s="30">
@@ -2870,7 +2873,7 @@
         <v>119</v>
       </c>
       <c r="B67" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C67" s="30">
@@ -2889,7 +2892,7 @@
         <v>36</v>
       </c>
       <c r="B68" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C68" s="30">
@@ -2908,7 +2911,7 @@
         <v>38</v>
       </c>
       <c r="B69" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C69" s="30">
@@ -2927,7 +2930,7 @@
         <v>42</v>
       </c>
       <c r="B70" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C70" s="30">
@@ -2946,7 +2949,7 @@
         <v>44</v>
       </c>
       <c r="B71" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C71" s="30">
@@ -2965,7 +2968,7 @@
         <v>46</v>
       </c>
       <c r="B72" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C72" s="30">
@@ -2984,7 +2987,7 @@
         <v>45</v>
       </c>
       <c r="B73" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C73" s="30">
@@ -3003,7 +3006,7 @@
         <v>114</v>
       </c>
       <c r="B74" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C74" s="30">
@@ -3022,7 +3025,7 @@
         <v>54</v>
       </c>
       <c r="B75" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C75" s="30">
@@ -3041,7 +3044,7 @@
         <v>56</v>
       </c>
       <c r="B76" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C76" s="30">
@@ -3060,7 +3063,7 @@
         <v>61</v>
       </c>
       <c r="B77" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C77" s="30">
@@ -3084,7 +3087,7 @@
       </c>
       <c r="C78" s="41">
         <f>SUM(C1:C38, C40:C77)</f>
-        <v>7668</v>
+        <v>7675</v>
       </c>
       <c r="D78" s="41">
         <f>SUM(D1:D38, D40:D77)</f>
@@ -3092,7 +3095,7 @@
       </c>
       <c r="E78" s="41">
         <f>SUM(E1:E38, E40:E77)</f>
-        <v>3254</v>
+        <v>3255</v>
       </c>
       <c r="F78" s="29" t="s">
         <v>104</v>
@@ -3104,12 +3107,12 @@
       </c>
       <c r="B79" s="40">
         <f>COUNTIF(B1:B77, "&gt;0")-1</f>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C79" s="29"/>
       <c r="D79" s="41">
         <f>SUM(D1:D38, D40:D51)</f>
-        <v>8332</v>
+        <v>8224</v>
       </c>
       <c r="E79" s="29" t="s">
         <v>110</v>
@@ -3135,7 +3138,7 @@
       </c>
       <c r="B81" s="36">
         <f>(C78/D78)*100</f>
-        <v>78.613901988927608</v>
+        <v>78.685667418494972</v>
       </c>
       <c r="E81" s="29"/>
       <c r="F81" s="29"/>
@@ -3146,11 +3149,11 @@
       </c>
       <c r="B82" s="41">
         <f>AVERAGEIF(B2:B77, "&gt;0")</f>
-        <v>86.347999999999971</v>
+        <v>84.816470588235262</v>
       </c>
       <c r="C82" s="41">
         <f>(C78/D79)*100</f>
-        <v>92.030724915986568</v>
+        <v>93.324416342412448</v>
       </c>
       <c r="D82" s="29" t="s">
         <v>124</v>
@@ -3162,15 +3165,15 @@
       </c>
       <c r="B83" s="39">
         <f>ROUND(((B80/B79)*100), 2)</f>
-        <v>69.39</v>
+        <v>68</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A84" s="92" t="s">
+      <c r="A84" s="94" t="s">
         <v>88</v>
       </c>
-      <c r="B84" s="92"/>
-      <c r="C84" s="92"/>
+      <c r="B84" s="94"/>
+      <c r="C84" s="94"/>
     </row>
     <row r="85" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="88" t="s">
@@ -3315,8 +3318,8 @@
       <c r="C100" s="29"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A36:F43">
-    <sortCondition descending="1" ref="B36:B43"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A47:F65">
+    <sortCondition descending="1" ref="B47:B65"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A84:C84"/>

--- a/Achievement Tracker.xlsx
+++ b/Achievement Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Data\AchievementTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DCBE7FB-2E3C-4C8A-8D23-A9BD42A04BFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4D58AD-B0DE-42EA-842F-65ED6F3185EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-4035" windowWidth="29040" windowHeight="15840" xr2:uid="{01F7A889-C794-47A9-89C3-7F43CBAA3EFF}"/>
   </bookViews>
@@ -978,11 +978,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1309,8 +1309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0DD2CDF-28B5-4FF8-81AE-E2FDE175FB34}">
   <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2488,7 +2488,7 @@
         <v>32</v>
       </c>
       <c r="B47" s="12">
-        <f>ROUND((C47/D47)*100, 2)</f>
+        <f t="shared" ref="B47:B65" si="3">ROUND((C47/D47)*100, 2)</f>
         <v>45.83</v>
       </c>
       <c r="C47" s="30">
@@ -2507,7 +2507,7 @@
         <v>50</v>
       </c>
       <c r="B48" s="12">
-        <f>ROUND((C48/D48)*100, 2)</f>
+        <f t="shared" si="3"/>
         <v>43.66</v>
       </c>
       <c r="C48" s="30">
@@ -2524,21 +2524,21 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A49" s="95" t="s">
+      <c r="A49" s="94" t="s">
         <v>140</v>
       </c>
       <c r="B49" s="13">
-        <f>ROUND((C49/D49)*100, 2)</f>
-        <v>8.24</v>
+        <f t="shared" si="3"/>
+        <v>17.649999999999999</v>
       </c>
       <c r="C49" s="30">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D49" s="30">
         <v>85</v>
       </c>
       <c r="E49" s="30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F49" s="29"/>
     </row>
@@ -2547,7 +2547,7 @@
         <v>34</v>
       </c>
       <c r="B50" s="13">
-        <f>ROUND((C50/D50)*100, 2)</f>
+        <f t="shared" si="3"/>
         <v>7.69</v>
       </c>
       <c r="C50" s="30">
@@ -2566,7 +2566,7 @@
         <v>35</v>
       </c>
       <c r="B51" s="13">
-        <f>ROUND((C51/D51)*100, 2)</f>
+        <f t="shared" si="3"/>
         <v>5.26</v>
       </c>
       <c r="C51" s="30">
@@ -2585,7 +2585,7 @@
         <v>15</v>
       </c>
       <c r="B52" s="13">
-        <f>ROUND((C52/D52)*100, 2)</f>
+        <f t="shared" si="3"/>
         <v>2.0699999999999998</v>
       </c>
       <c r="C52" s="1">
@@ -2606,7 +2606,7 @@
         <v>10</v>
       </c>
       <c r="B53" s="14">
-        <f>ROUND((C53/D53)*100, 2)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C53" s="30">
@@ -2625,7 +2625,7 @@
         <v>11</v>
       </c>
       <c r="B54" s="15">
-        <f>ROUND((C54/D54)*100, 2)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C54" s="30">
@@ -2644,7 +2644,7 @@
         <v>12</v>
       </c>
       <c r="B55" s="15">
-        <f>ROUND((C55/D55)*100, 2)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C55" s="30">
@@ -2663,7 +2663,7 @@
         <v>9</v>
       </c>
       <c r="B56" s="14">
-        <f>ROUND((C56/D56)*100, 2)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C56" s="1">
@@ -2681,7 +2681,7 @@
         <v>13</v>
       </c>
       <c r="B57" s="15">
-        <f>ROUND((C57/D57)*100, 2)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C57" s="1">
@@ -2700,7 +2700,7 @@
         <v>17</v>
       </c>
       <c r="B58" s="15">
-        <f>ROUND((C58/D58)*100, 2)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C58" s="1">
@@ -2719,7 +2719,7 @@
         <v>20</v>
       </c>
       <c r="B59" s="15">
-        <f>ROUND((C59/D59)*100, 2)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C59" s="30">
@@ -2738,7 +2738,7 @@
         <v>21</v>
       </c>
       <c r="B60" s="14">
-        <f>ROUND((C60/D60)*100, 2)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C60" s="30">
@@ -2757,7 +2757,7 @@
         <v>115</v>
       </c>
       <c r="B61" s="14">
-        <f>ROUND((C61/D61)*100, 2)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C61" s="30">
@@ -2778,7 +2778,7 @@
         <v>112</v>
       </c>
       <c r="B62" s="14">
-        <f>ROUND((C62/D62)*100, 2)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C62" s="30">
@@ -2797,7 +2797,7 @@
         <v>27</v>
       </c>
       <c r="B63" s="15">
-        <f>ROUND((C63/D63)*100, 2)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C63" s="30">
@@ -2816,7 +2816,7 @@
         <v>141</v>
       </c>
       <c r="B64" s="14">
-        <f>ROUND((C64/D64)*100, 2)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C64" s="30">
@@ -2835,7 +2835,7 @@
         <v>143</v>
       </c>
       <c r="B65" s="14">
-        <f>ROUND((C65/D65)*100, 2)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C65" s="30">
@@ -2854,7 +2854,7 @@
         <v>29</v>
       </c>
       <c r="B66" s="14">
-        <f t="shared" ref="B58:B77" si="3">ROUND((C66/D66)*100, 2)</f>
+        <f t="shared" ref="B66:B77" si="4">ROUND((C66/D66)*100, 2)</f>
         <v>0</v>
       </c>
       <c r="C66" s="30">
@@ -2873,7 +2873,7 @@
         <v>119</v>
       </c>
       <c r="B67" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C67" s="30">
@@ -2892,7 +2892,7 @@
         <v>36</v>
       </c>
       <c r="B68" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C68" s="30">
@@ -2911,7 +2911,7 @@
         <v>38</v>
       </c>
       <c r="B69" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C69" s="30">
@@ -2930,7 +2930,7 @@
         <v>42</v>
       </c>
       <c r="B70" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C70" s="30">
@@ -2949,7 +2949,7 @@
         <v>44</v>
       </c>
       <c r="B71" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C71" s="30">
@@ -2968,7 +2968,7 @@
         <v>46</v>
       </c>
       <c r="B72" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C72" s="30">
@@ -2987,7 +2987,7 @@
         <v>45</v>
       </c>
       <c r="B73" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C73" s="30">
@@ -3006,7 +3006,7 @@
         <v>114</v>
       </c>
       <c r="B74" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C74" s="30">
@@ -3025,7 +3025,7 @@
         <v>54</v>
       </c>
       <c r="B75" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C75" s="30">
@@ -3044,7 +3044,7 @@
         <v>56</v>
       </c>
       <c r="B76" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C76" s="30">
@@ -3063,7 +3063,7 @@
         <v>61</v>
       </c>
       <c r="B77" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C77" s="30">
@@ -3087,7 +3087,7 @@
       </c>
       <c r="C78" s="41">
         <f>SUM(C1:C38, C40:C77)</f>
-        <v>7675</v>
+        <v>7683</v>
       </c>
       <c r="D78" s="41">
         <f>SUM(D1:D38, D40:D77)</f>
@@ -3095,7 +3095,7 @@
       </c>
       <c r="E78" s="41">
         <f>SUM(E1:E38, E40:E77)</f>
-        <v>3255</v>
+        <v>3257</v>
       </c>
       <c r="F78" s="29" t="s">
         <v>104</v>
@@ -3138,7 +3138,7 @@
       </c>
       <c r="B81" s="36">
         <f>(C78/D78)*100</f>
-        <v>78.685667418494972</v>
+        <v>78.76768505228624</v>
       </c>
       <c r="E81" s="29"/>
       <c r="F81" s="29"/>
@@ -3149,11 +3149,11 @@
       </c>
       <c r="B82" s="41">
         <f>AVERAGEIF(B2:B77, "&gt;0")</f>
-        <v>84.816470588235262</v>
+        <v>85.000980392156833</v>
       </c>
       <c r="C82" s="41">
         <f>(C78/D79)*100</f>
-        <v>93.324416342412448</v>
+        <v>93.421692607003891</v>
       </c>
       <c r="D82" s="29" t="s">
         <v>124</v>
@@ -3169,11 +3169,11 @@
       </c>
     </row>
     <row r="84" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A84" s="94" t="s">
+      <c r="A84" s="95" t="s">
         <v>88</v>
       </c>
-      <c r="B84" s="94"/>
-      <c r="C84" s="94"/>
+      <c r="B84" s="95"/>
+      <c r="C84" s="95"/>
     </row>
     <row r="85" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="88" t="s">

--- a/Achievement Tracker.xlsx
+++ b/Achievement Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Data\AchievementTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4D58AD-B0DE-42EA-842F-65ED6F3185EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF61F04-3732-4FA6-A7DD-0657C8C86359}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-4035" windowWidth="29040" windowHeight="15840" xr2:uid="{01F7A889-C794-47A9-89C3-7F43CBAA3EFF}"/>
   </bookViews>
@@ -759,7 +759,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -978,11 +978,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1309,8 +1312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0DD2CDF-28B5-4FF8-81AE-E2FDE175FB34}">
   <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1394,7 +1397,7 @@
         <v>7</v>
       </c>
       <c r="L2" s="26" t="s">
-        <v>99</v>
+        <v>140</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>5</v>
@@ -1428,7 +1431,7 @@
         <v>8</v>
       </c>
       <c r="L3" s="26" t="s">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="N3" s="8" t="s">
         <v>6</v>
@@ -1463,6 +1466,9 @@
       <c r="J4" s="24" t="s">
         <v>16</v>
       </c>
+      <c r="L4" s="26" t="s">
+        <v>32</v>
+      </c>
       <c r="N4" s="8" t="s">
         <v>116</v>
       </c>
@@ -1553,7 +1559,7 @@
       </c>
       <c r="F7" s="29"/>
       <c r="H7" s="60" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N7" s="8" t="s">
         <v>22</v>
@@ -1581,7 +1587,7 @@
       </c>
       <c r="F8" s="29"/>
       <c r="H8" s="60" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="N8" s="8" t="s">
         <v>23</v>
@@ -1610,8 +1616,8 @@
       <c r="F9" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="H9" s="60" t="s">
-        <v>143</v>
+      <c r="H9" s="25" t="s">
+        <v>29</v>
       </c>
       <c r="N9" s="8" t="s">
         <v>24</v>
@@ -1641,7 +1647,7 @@
         <v>84</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="N10" s="8" t="s">
         <v>25</v>
@@ -1669,7 +1675,7 @@
       </c>
       <c r="F11" s="29"/>
       <c r="H11" s="25" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="N11" s="8" t="s">
         <v>26</v>
@@ -1696,8 +1702,8 @@
         <v>39</v>
       </c>
       <c r="F12" s="29"/>
-      <c r="H12" s="25" t="s">
-        <v>44</v>
+      <c r="H12" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="N12" s="8" t="s">
         <v>118</v>
@@ -1724,8 +1730,8 @@
         <v>75</v>
       </c>
       <c r="F13" s="29"/>
-      <c r="H13" s="2" t="s">
-        <v>45</v>
+      <c r="H13" s="60" t="s">
+        <v>114</v>
       </c>
       <c r="N13" s="8" t="s">
         <v>28</v>
@@ -1752,8 +1758,8 @@
         <v>42</v>
       </c>
       <c r="F14" s="29"/>
-      <c r="H14" s="60" t="s">
-        <v>114</v>
+      <c r="H14" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="N14" s="87" t="s">
         <v>139</v>
@@ -1780,8 +1786,8 @@
         <v>3</v>
       </c>
       <c r="F15" s="29"/>
-      <c r="H15" s="2" t="s">
-        <v>54</v>
+      <c r="H15" s="25" t="s">
+        <v>61</v>
       </c>
       <c r="N15" s="8" t="s">
         <v>30</v>
@@ -1808,9 +1814,6 @@
         <v>71</v>
       </c>
       <c r="F16" s="29"/>
-      <c r="H16" s="25" t="s">
-        <v>61</v>
-      </c>
       <c r="N16" s="8" t="s">
         <v>31</v>
       </c>
@@ -2524,21 +2527,21 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A49" s="94" t="s">
+      <c r="A49" s="95" t="s">
         <v>140</v>
       </c>
-      <c r="B49" s="13">
+      <c r="B49" s="96">
         <f t="shared" si="3"/>
-        <v>17.649999999999999</v>
+        <v>37.65</v>
       </c>
       <c r="C49" s="30">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D49" s="30">
         <v>85</v>
       </c>
       <c r="E49" s="30">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F49" s="29"/>
     </row>
@@ -3087,7 +3090,7 @@
       </c>
       <c r="C78" s="41">
         <f>SUM(C1:C38, C40:C77)</f>
-        <v>7683</v>
+        <v>7700</v>
       </c>
       <c r="D78" s="41">
         <f>SUM(D1:D38, D40:D77)</f>
@@ -3095,7 +3098,7 @@
       </c>
       <c r="E78" s="41">
         <f>SUM(E1:E38, E40:E77)</f>
-        <v>3257</v>
+        <v>3263</v>
       </c>
       <c r="F78" s="29" t="s">
         <v>104</v>
@@ -3138,7 +3141,7 @@
       </c>
       <c r="B81" s="36">
         <f>(C78/D78)*100</f>
-        <v>78.76768505228624</v>
+        <v>78.941972524092691</v>
       </c>
       <c r="E81" s="29"/>
       <c r="F81" s="29"/>
@@ -3149,11 +3152,11 @@
       </c>
       <c r="B82" s="41">
         <f>AVERAGEIF(B2:B77, "&gt;0")</f>
-        <v>85.000980392156833</v>
+        <v>85.39313725490193</v>
       </c>
       <c r="C82" s="41">
         <f>(C78/D79)*100</f>
-        <v>93.421692607003891</v>
+        <v>93.628404669260703</v>
       </c>
       <c r="D82" s="29" t="s">
         <v>124</v>
@@ -3169,11 +3172,11 @@
       </c>
     </row>
     <row r="84" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A84" s="95" t="s">
+      <c r="A84" s="94" t="s">
         <v>88</v>
       </c>
-      <c r="B84" s="95"/>
-      <c r="C84" s="95"/>
+      <c r="B84" s="94"/>
+      <c r="C84" s="94"/>
     </row>
     <row r="85" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="88" t="s">
@@ -3318,8 +3321,8 @@
       <c r="C100" s="29"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A47:F65">
-    <sortCondition descending="1" ref="B47:B65"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="L2:L4">
+    <sortCondition ref="L1:L4"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A84:C84"/>

--- a/Achievement Tracker.xlsx
+++ b/Achievement Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Data\AchievementTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF61F04-3732-4FA6-A7DD-0657C8C86359}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD7B74ED-969C-434A-8FB9-F7AC44386553}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-4035" windowWidth="29040" windowHeight="15840" xr2:uid="{01F7A889-C794-47A9-89C3-7F43CBAA3EFF}"/>
   </bookViews>
@@ -284,9 +284,6 @@
     <t>Old game, Unlisted</t>
   </si>
   <si>
-    <t>Active service until end 2020</t>
-  </si>
-  <si>
     <t>F2P, somewhat active service</t>
   </si>
   <si>
@@ -465,6 +462,9 @@
   </si>
   <si>
     <t>Kingdom Rush Vengeance</t>
+  </si>
+  <si>
+    <t>Active service until 2021</t>
   </si>
 </sst>
 </file>
@@ -759,7 +759,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -981,11 +981,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1312,13 +1309,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0DD2CDF-28B5-4FF8-81AE-E2FDE175FB34}">
   <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L4"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.5546875" customWidth="1"/>
     <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.5546875" bestFit="1" customWidth="1"/>
@@ -1397,7 +1394,7 @@
         <v>7</v>
       </c>
       <c r="L2" s="26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>5</v>
@@ -1431,7 +1428,7 @@
         <v>8</v>
       </c>
       <c r="L3" s="26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N3" s="8" t="s">
         <v>6</v>
@@ -1442,7 +1439,7 @@
     </row>
     <row r="4" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="86" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B4" s="10">
         <f t="shared" si="0"/>
@@ -1458,7 +1455,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>21</v>
@@ -1470,7 +1467,7 @@
         <v>32</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P4" s="18" t="s">
         <v>81</v>
@@ -1495,7 +1492,7 @@
       </c>
       <c r="F5" s="29"/>
       <c r="H5" s="60" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J5" s="24" t="s">
         <v>49</v>
@@ -1525,10 +1522,10 @@
         <v>1</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H6" s="60" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J6" s="24" t="s">
         <v>34</v>
@@ -1559,7 +1556,7 @@
       </c>
       <c r="F7" s="29"/>
       <c r="H7" s="60" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N7" s="8" t="s">
         <v>22</v>
@@ -1587,7 +1584,7 @@
       </c>
       <c r="F8" s="29"/>
       <c r="H8" s="60" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N8" s="8" t="s">
         <v>23</v>
@@ -1644,7 +1641,7 @@
         <v>7</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H10" s="25" t="s">
         <v>36</v>
@@ -1686,7 +1683,7 @@
     </row>
     <row r="12" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B12" s="10">
         <f t="shared" si="0"/>
@@ -1706,7 +1703,7 @@
         <v>45</v>
       </c>
       <c r="N12" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P12" s="17" t="s">
         <v>39</v>
@@ -1731,7 +1728,7 @@
       </c>
       <c r="F13" s="29"/>
       <c r="H13" s="60" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N13" s="8" t="s">
         <v>28</v>
@@ -1742,7 +1739,7 @@
     </row>
     <row r="14" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B14" s="10">
         <f t="shared" si="0"/>
@@ -1762,7 +1759,7 @@
         <v>54</v>
       </c>
       <c r="N14" s="87" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P14" s="17" t="s">
         <v>42</v>
@@ -1848,7 +1845,7 @@
     </row>
     <row r="18" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="68" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B18" s="10">
         <f t="shared" si="0"/>
@@ -1864,10 +1861,10 @@
         <v>1</v>
       </c>
       <c r="F18" s="29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N18" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P18" s="33" t="s">
         <v>51</v>
@@ -1888,7 +1885,7 @@
         <v>13</v>
       </c>
       <c r="E19" s="30">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F19" s="29"/>
       <c r="N19" s="8" t="s">
@@ -1967,7 +1964,7 @@
         <v>558</v>
       </c>
       <c r="F22" s="29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N22" s="8" t="s">
         <v>47</v>
@@ -2175,7 +2172,7 @@
     </row>
     <row r="32" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B32" s="10">
         <f t="shared" si="0"/>
@@ -2192,7 +2189,7 @@
       </c>
       <c r="F32" s="29"/>
       <c r="N32" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
@@ -2281,7 +2278,7 @@
         <v>11</v>
       </c>
       <c r="F36" s="29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
@@ -2302,7 +2299,7 @@
         <v>260</v>
       </c>
       <c r="F37" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
@@ -2328,7 +2325,7 @@
     </row>
     <row r="39" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="71" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B39" s="72">
         <f t="shared" si="1"/>
@@ -2344,7 +2341,7 @@
         <v>27</v>
       </c>
       <c r="F39" s="64" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
@@ -2384,7 +2381,7 @@
         <v>315</v>
       </c>
       <c r="F41" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
@@ -2407,45 +2404,45 @@
       <c r="F42" s="29"/>
     </row>
     <row r="43" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="75" t="s">
+      <c r="A43" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="B43" s="76">
+        <f>ROUND((C43/D43)*100, 2)</f>
+        <v>56.76</v>
+      </c>
+      <c r="C43" s="30">
+        <v>21</v>
+      </c>
+      <c r="D43" s="30">
+        <v>37</v>
+      </c>
+      <c r="E43" s="30">
+        <v>11</v>
+      </c>
+      <c r="F43" s="29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="B43" s="76">
-        <f t="shared" si="1"/>
-        <v>58.67</v>
-      </c>
-      <c r="C43" s="1">
+      <c r="B44" s="76">
+        <f>ROUND((C44/D44)*100, 2)</f>
+        <v>56.41</v>
+      </c>
+      <c r="C44" s="1">
         <v>44</v>
       </c>
-      <c r="D43" s="1">
-        <v>75</v>
-      </c>
-      <c r="E43" s="1">
+      <c r="D44" s="1">
+        <v>78</v>
+      </c>
+      <c r="E44" s="1">
         <v>77</v>
       </c>
-      <c r="F43" s="29" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="77" t="s">
-        <v>71</v>
-      </c>
-      <c r="B44" s="76">
-        <f t="shared" ref="B44:B46" si="2">ROUND((C44/D44)*100, 2)</f>
-        <v>56.76</v>
-      </c>
-      <c r="C44" s="30">
-        <v>21</v>
-      </c>
-      <c r="D44" s="30">
-        <v>37</v>
-      </c>
-      <c r="E44" s="30">
-        <v>11</v>
-      </c>
       <c r="F44" s="29" t="s">
-        <v>75</v>
+        <v>143</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
@@ -2453,7 +2450,7 @@
         <v>16</v>
       </c>
       <c r="B45" s="76">
-        <f t="shared" si="2"/>
+        <f>ROUND((C45/D45)*100, 2)</f>
         <v>56.25</v>
       </c>
       <c r="C45" s="1">
@@ -2463,7 +2460,7 @@
         <v>48</v>
       </c>
       <c r="E45" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F45" s="29"/>
     </row>
@@ -2472,7 +2469,7 @@
         <v>49</v>
       </c>
       <c r="B46" s="76">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="B44:B46" si="2">ROUND((C46/D46)*100, 2)</f>
         <v>55.32</v>
       </c>
       <c r="C46" s="30">
@@ -2487,70 +2484,70 @@
       <c r="F46" s="29"/>
     </row>
     <row r="47" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
-        <v>32</v>
+      <c r="A47" s="95" t="s">
+        <v>139</v>
       </c>
       <c r="B47" s="12">
-        <f t="shared" ref="B47:B65" si="3">ROUND((C47/D47)*100, 2)</f>
-        <v>45.83</v>
+        <f>ROUND((C47/D47)*100, 2)</f>
+        <v>47.06</v>
       </c>
       <c r="C47" s="30">
+        <v>40</v>
+      </c>
+      <c r="D47" s="30">
+        <v>85</v>
+      </c>
+      <c r="E47" s="30">
         <v>11</v>
-      </c>
-      <c r="D47" s="30">
-        <v>24</v>
-      </c>
-      <c r="E47" s="30">
-        <v>4</v>
       </c>
       <c r="F47" s="29"/>
     </row>
     <row r="48" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B48" s="12">
+        <f>ROUND((C48/D48)*100, 2)</f>
+        <v>45.83</v>
+      </c>
+      <c r="C48" s="30">
+        <v>11</v>
+      </c>
+      <c r="D48" s="30">
+        <v>24</v>
+      </c>
+      <c r="E48" s="30">
+        <v>4</v>
+      </c>
+      <c r="F48" s="29"/>
+    </row>
+    <row r="49" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B48" s="12">
-        <f t="shared" si="3"/>
+      <c r="B49" s="12">
+        <f>ROUND((C49/D49)*100, 2)</f>
         <v>43.66</v>
       </c>
-      <c r="C48" s="30">
+      <c r="C49" s="30">
         <v>93</v>
       </c>
-      <c r="D48" s="30">
+      <c r="D49" s="30">
         <v>213</v>
       </c>
-      <c r="E48" s="30">
+      <c r="E49" s="30">
         <v>38</v>
       </c>
-      <c r="F48" s="29" t="s">
+      <c r="F49" s="29" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A49" s="95" t="s">
-        <v>140</v>
-      </c>
-      <c r="B49" s="96">
-        <f t="shared" si="3"/>
-        <v>37.65</v>
-      </c>
-      <c r="C49" s="30">
-        <v>32</v>
-      </c>
-      <c r="D49" s="30">
-        <v>85</v>
-      </c>
-      <c r="E49" s="30">
-        <v>9</v>
-      </c>
-      <c r="F49" s="29"/>
     </row>
     <row r="50" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B50" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="B47:B65" si="3">ROUND((C50/D50)*100, 2)</f>
         <v>7.69</v>
       </c>
       <c r="C50" s="30">
@@ -2757,7 +2754,7 @@
     </row>
     <row r="61" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="66" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B61" s="14">
         <f t="shared" si="3"/>
@@ -2773,12 +2770,12 @@
         <v>0</v>
       </c>
       <c r="F61" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="65" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B62" s="14">
         <f t="shared" si="3"/>
@@ -2816,7 +2813,7 @@
     </row>
     <row r="64" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="67" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B64" s="14">
         <f t="shared" si="3"/>
@@ -2835,7 +2832,7 @@
     </row>
     <row r="65" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="67" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B65" s="14">
         <f t="shared" si="3"/>
@@ -2873,7 +2870,7 @@
     </row>
     <row r="67" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="67" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B67" s="14">
         <f t="shared" si="4"/>
@@ -3006,7 +3003,7 @@
     </row>
     <row r="74" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="65" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B74" s="14">
         <f t="shared" si="4"/>
@@ -3090,18 +3087,18 @@
       </c>
       <c r="C78" s="41">
         <f>SUM(C1:C38, C40:C77)</f>
-        <v>7700</v>
+        <v>7708</v>
       </c>
       <c r="D78" s="41">
         <f>SUM(D1:D38, D40:D77)</f>
-        <v>9754</v>
+        <v>9757</v>
       </c>
       <c r="E78" s="41">
         <f>SUM(E1:E38, E40:E77)</f>
-        <v>3263</v>
+        <v>3267</v>
       </c>
       <c r="F78" s="29" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -3115,10 +3112,10 @@
       <c r="C79" s="29"/>
       <c r="D79" s="41">
         <f>SUM(D1:D38, D40:D51)</f>
-        <v>8224</v>
+        <v>8227</v>
       </c>
       <c r="E79" s="29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F79" s="29"/>
     </row>
@@ -3137,34 +3134,34 @@
     </row>
     <row r="81" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="35" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B81" s="36">
         <f>(C78/D78)*100</f>
-        <v>78.941972524092691</v>
+        <v>78.99969252844113</v>
       </c>
       <c r="E81" s="29"/>
       <c r="F81" s="29"/>
     </row>
     <row r="82" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="39" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B82" s="41">
         <f>AVERAGEIF(B2:B77, "&gt;0")</f>
-        <v>85.39313725490193</v>
+        <v>85.533333333333331</v>
       </c>
       <c r="C82" s="41">
         <f>(C78/D79)*100</f>
-        <v>93.628404669260703</v>
+        <v>93.691503585754219</v>
       </c>
       <c r="D82" s="29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="39" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B83" s="39">
         <f>ROUND(((B80/B79)*100), 2)</f>
@@ -3173,144 +3170,144 @@
     </row>
     <row r="84" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="94" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B84" s="94"/>
       <c r="C84" s="94"/>
     </row>
     <row r="85" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="88" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B85" s="85" t="s">
+        <v>88</v>
+      </c>
+      <c r="C85" s="85" t="s">
         <v>89</v>
-      </c>
-      <c r="C85" s="85" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B86" s="29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C86" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="43" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B87" s="56" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C87" s="90" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="79" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B88" s="54" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C88" s="91" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="44" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B89" s="57" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C89" s="32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="80" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B90" s="58" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C90" s="29"/>
     </row>
     <row r="91" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="81" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B91" s="55" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C91" s="29"/>
     </row>
     <row r="92" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="45" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B92" s="61" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C92" s="29"/>
     </row>
     <row r="93" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="82" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B93" s="59" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C93" s="29"/>
     </row>
     <row r="94" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="83" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B94" s="60" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C94" s="29"/>
     </row>
     <row r="95" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="46" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B95" s="62" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C95" s="29"/>
     </row>
     <row r="96" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="47" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B96" s="29"/>
       <c r="C96" s="29"/>
     </row>
     <row r="97" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" s="48" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B97" s="29"/>
       <c r="C97" s="29"/>
     </row>
     <row r="98" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" s="49" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B98" s="29"/>
       <c r="C98" s="29"/>
     </row>
     <row r="99" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="50" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B99" s="29"/>
       <c r="C99" s="29"/>
@@ -3321,8 +3318,8 @@
       <c r="C100" s="29"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="L2:L4">
-    <sortCondition ref="L1:L4"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A43:F45">
+    <sortCondition descending="1" ref="B43:B45"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A84:C84"/>

--- a/Achievement Tracker.xlsx
+++ b/Achievement Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Data\AchievementTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD7B74ED-969C-434A-8FB9-F7AC44386553}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952E7DC6-86BC-4AFF-990F-34DBAEB7EAA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-4035" windowWidth="29040" windowHeight="15840" xr2:uid="{01F7A889-C794-47A9-89C3-7F43CBAA3EFF}"/>
   </bookViews>
@@ -759,7 +759,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -980,9 +980,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1309,8 +1306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0DD2CDF-28B5-4FF8-81AE-E2FDE175FB34}">
   <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2265,7 +2262,7 @@
         <v>39</v>
       </c>
       <c r="B36" s="11">
-        <f t="shared" ref="B36:B43" si="1">ROUND((C36/D36)*100, 2)</f>
+        <f t="shared" ref="B36:B42" si="1">ROUND((C36/D36)*100, 2)</f>
         <v>95.19</v>
       </c>
       <c r="C36" s="30">
@@ -2469,7 +2466,7 @@
         <v>49</v>
       </c>
       <c r="B46" s="76">
-        <f t="shared" ref="B44:B46" si="2">ROUND((C46/D46)*100, 2)</f>
+        <f t="shared" ref="B46" si="2">ROUND((C46/D46)*100, 2)</f>
         <v>55.32</v>
       </c>
       <c r="C46" s="30">
@@ -2484,21 +2481,21 @@
       <c r="F46" s="29"/>
     </row>
     <row r="47" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="95" t="s">
+      <c r="A47" s="75" t="s">
         <v>139</v>
       </c>
-      <c r="B47" s="12">
+      <c r="B47" s="76">
         <f>ROUND((C47/D47)*100, 2)</f>
-        <v>47.06</v>
+        <v>55.29</v>
       </c>
       <c r="C47" s="30">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D47" s="30">
         <v>85</v>
       </c>
       <c r="E47" s="30">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F47" s="29"/>
     </row>
@@ -2547,7 +2544,7 @@
         <v>34</v>
       </c>
       <c r="B50" s="13">
-        <f t="shared" ref="B47:B65" si="3">ROUND((C50/D50)*100, 2)</f>
+        <f t="shared" ref="B50:B65" si="3">ROUND((C50/D50)*100, 2)</f>
         <v>7.69</v>
       </c>
       <c r="C50" s="30">
@@ -3087,7 +3084,7 @@
       </c>
       <c r="C78" s="41">
         <f>SUM(C1:C38, C40:C77)</f>
-        <v>7708</v>
+        <v>7715</v>
       </c>
       <c r="D78" s="41">
         <f>SUM(D1:D38, D40:D77)</f>
@@ -3095,7 +3092,7 @@
       </c>
       <c r="E78" s="41">
         <f>SUM(E1:E38, E40:E77)</f>
-        <v>3267</v>
+        <v>3273</v>
       </c>
       <c r="F78" s="29" t="s">
         <v>103</v>
@@ -3138,7 +3135,7 @@
       </c>
       <c r="B81" s="36">
         <f>(C78/D78)*100</f>
-        <v>78.99969252844113</v>
+        <v>79.071435892179977</v>
       </c>
       <c r="E81" s="29"/>
       <c r="F81" s="29"/>
@@ -3149,11 +3146,11 @@
       </c>
       <c r="B82" s="41">
         <f>AVERAGEIF(B2:B77, "&gt;0")</f>
-        <v>85.533333333333331</v>
+        <v>85.694705882352935</v>
       </c>
       <c r="C82" s="41">
         <f>(C78/D79)*100</f>
-        <v>93.691503585754219</v>
+        <v>93.776589279202625</v>
       </c>
       <c r="D82" s="29" t="s">
         <v>123</v>

--- a/Achievement Tracker.xlsx
+++ b/Achievement Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Data\AchievementTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952E7DC6-86BC-4AFF-990F-34DBAEB7EAA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3955E0BF-EBEF-4CA0-991C-34083082F5ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-4035" windowWidth="29040" windowHeight="15840" xr2:uid="{01F7A889-C794-47A9-89C3-7F43CBAA3EFF}"/>
   </bookViews>
@@ -759,7 +759,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -980,6 +980,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1306,8 +1309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0DD2CDF-28B5-4FF8-81AE-E2FDE175FB34}">
   <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G69" sqref="G69"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2401,101 +2404,101 @@
       <c r="F42" s="29"/>
     </row>
     <row r="43" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="77" t="s">
+      <c r="A43" s="95" t="s">
+        <v>139</v>
+      </c>
+      <c r="B43" s="74">
+        <f>ROUND((C43/D43)*100, 2)</f>
+        <v>60</v>
+      </c>
+      <c r="C43" s="30">
+        <v>51</v>
+      </c>
+      <c r="D43" s="30">
+        <v>85</v>
+      </c>
+      <c r="E43" s="30">
+        <v>19</v>
+      </c>
+      <c r="F43" s="29"/>
+    </row>
+    <row r="44" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="77" t="s">
         <v>71</v>
-      </c>
-      <c r="B43" s="76">
-        <f>ROUND((C43/D43)*100, 2)</f>
-        <v>56.76</v>
-      </c>
-      <c r="C43" s="30">
-        <v>21</v>
-      </c>
-      <c r="D43" s="30">
-        <v>37</v>
-      </c>
-      <c r="E43" s="30">
-        <v>11</v>
-      </c>
-      <c r="F43" s="29" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="75" t="s">
-        <v>8</v>
       </c>
       <c r="B44" s="76">
         <f>ROUND((C44/D44)*100, 2)</f>
-        <v>56.41</v>
-      </c>
-      <c r="C44" s="1">
-        <v>44</v>
-      </c>
-      <c r="D44" s="1">
-        <v>78</v>
-      </c>
-      <c r="E44" s="1">
-        <v>77</v>
+        <v>56.76</v>
+      </c>
+      <c r="C44" s="30">
+        <v>21</v>
+      </c>
+      <c r="D44" s="30">
+        <v>37</v>
+      </c>
+      <c r="E44" s="30">
+        <v>11</v>
       </c>
       <c r="F44" s="29" t="s">
-        <v>143</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="78" t="s">
-        <v>16</v>
+      <c r="A45" s="75" t="s">
+        <v>8</v>
       </c>
       <c r="B45" s="76">
         <f>ROUND((C45/D45)*100, 2)</f>
-        <v>56.25</v>
+        <v>56.41</v>
       </c>
       <c r="C45" s="1">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="D45" s="1">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="E45" s="1">
-        <v>39</v>
-      </c>
-      <c r="F45" s="29"/>
+        <v>77</v>
+      </c>
+      <c r="F45" s="29" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="46" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="78" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46" s="76">
+        <f>ROUND((C46/D46)*100, 2)</f>
+        <v>56.25</v>
+      </c>
+      <c r="C46" s="1">
+        <v>27</v>
+      </c>
+      <c r="D46" s="1">
+        <v>48</v>
+      </c>
+      <c r="E46" s="1">
+        <v>39</v>
+      </c>
+      <c r="F46" s="29"/>
+    </row>
+    <row r="47" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="78" t="s">
         <v>49</v>
-      </c>
-      <c r="B46" s="76">
-        <f t="shared" ref="B46" si="2">ROUND((C46/D46)*100, 2)</f>
-        <v>55.32</v>
-      </c>
-      <c r="C46" s="30">
-        <v>26</v>
-      </c>
-      <c r="D46" s="30">
-        <v>47</v>
-      </c>
-      <c r="E46" s="30">
-        <v>12</v>
-      </c>
-      <c r="F46" s="29"/>
-    </row>
-    <row r="47" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="75" t="s">
-        <v>139</v>
       </c>
       <c r="B47" s="76">
         <f>ROUND((C47/D47)*100, 2)</f>
-        <v>55.29</v>
+        <v>55.32</v>
       </c>
       <c r="C47" s="30">
+        <v>26</v>
+      </c>
+      <c r="D47" s="30">
         <v>47</v>
       </c>
-      <c r="D47" s="30">
-        <v>85</v>
-      </c>
       <c r="E47" s="30">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F47" s="29"/>
     </row>
@@ -2544,7 +2547,7 @@
         <v>34</v>
       </c>
       <c r="B50" s="13">
-        <f t="shared" ref="B50:B65" si="3">ROUND((C50/D50)*100, 2)</f>
+        <f t="shared" ref="B50:B65" si="2">ROUND((C50/D50)*100, 2)</f>
         <v>7.69</v>
       </c>
       <c r="C50" s="30">
@@ -2563,7 +2566,7 @@
         <v>35</v>
       </c>
       <c r="B51" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.26</v>
       </c>
       <c r="C51" s="30">
@@ -2582,7 +2585,7 @@
         <v>15</v>
       </c>
       <c r="B52" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.0699999999999998</v>
       </c>
       <c r="C52" s="1">
@@ -2603,7 +2606,7 @@
         <v>10</v>
       </c>
       <c r="B53" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C53" s="30">
@@ -2622,7 +2625,7 @@
         <v>11</v>
       </c>
       <c r="B54" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C54" s="30">
@@ -2641,7 +2644,7 @@
         <v>12</v>
       </c>
       <c r="B55" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C55" s="30">
@@ -2660,7 +2663,7 @@
         <v>9</v>
       </c>
       <c r="B56" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C56" s="1">
@@ -2678,7 +2681,7 @@
         <v>13</v>
       </c>
       <c r="B57" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C57" s="1">
@@ -2697,7 +2700,7 @@
         <v>17</v>
       </c>
       <c r="B58" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C58" s="1">
@@ -2716,7 +2719,7 @@
         <v>20</v>
       </c>
       <c r="B59" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C59" s="30">
@@ -2735,7 +2738,7 @@
         <v>21</v>
       </c>
       <c r="B60" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C60" s="30">
@@ -2754,7 +2757,7 @@
         <v>114</v>
       </c>
       <c r="B61" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C61" s="30">
@@ -2775,7 +2778,7 @@
         <v>111</v>
       </c>
       <c r="B62" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C62" s="30">
@@ -2794,7 +2797,7 @@
         <v>27</v>
       </c>
       <c r="B63" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C63" s="30">
@@ -2813,7 +2816,7 @@
         <v>140</v>
       </c>
       <c r="B64" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C64" s="30">
@@ -2832,7 +2835,7 @@
         <v>142</v>
       </c>
       <c r="B65" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C65" s="30">
@@ -2851,7 +2854,7 @@
         <v>29</v>
       </c>
       <c r="B66" s="14">
-        <f t="shared" ref="B66:B77" si="4">ROUND((C66/D66)*100, 2)</f>
+        <f t="shared" ref="B66:B77" si="3">ROUND((C66/D66)*100, 2)</f>
         <v>0</v>
       </c>
       <c r="C66" s="30">
@@ -2870,7 +2873,7 @@
         <v>118</v>
       </c>
       <c r="B67" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C67" s="30">
@@ -2889,7 +2892,7 @@
         <v>36</v>
       </c>
       <c r="B68" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C68" s="30">
@@ -2908,7 +2911,7 @@
         <v>38</v>
       </c>
       <c r="B69" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C69" s="30">
@@ -2927,7 +2930,7 @@
         <v>42</v>
       </c>
       <c r="B70" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C70" s="30">
@@ -2946,7 +2949,7 @@
         <v>44</v>
       </c>
       <c r="B71" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C71" s="30">
@@ -2965,7 +2968,7 @@
         <v>46</v>
       </c>
       <c r="B72" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C72" s="30">
@@ -2984,7 +2987,7 @@
         <v>45</v>
       </c>
       <c r="B73" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C73" s="30">
@@ -3003,7 +3006,7 @@
         <v>113</v>
       </c>
       <c r="B74" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C74" s="30">
@@ -3022,7 +3025,7 @@
         <v>54</v>
       </c>
       <c r="B75" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C75" s="30">
@@ -3041,7 +3044,7 @@
         <v>56</v>
       </c>
       <c r="B76" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C76" s="30">
@@ -3060,7 +3063,7 @@
         <v>61</v>
       </c>
       <c r="B77" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C77" s="30">
@@ -3084,7 +3087,7 @@
       </c>
       <c r="C78" s="41">
         <f>SUM(C1:C38, C40:C77)</f>
-        <v>7715</v>
+        <v>7719</v>
       </c>
       <c r="D78" s="41">
         <f>SUM(D1:D38, D40:D77)</f>
@@ -3092,7 +3095,7 @@
       </c>
       <c r="E78" s="41">
         <f>SUM(E1:E38, E40:E77)</f>
-        <v>3273</v>
+        <v>3275</v>
       </c>
       <c r="F78" s="29" t="s">
         <v>103</v>
@@ -3135,7 +3138,7 @@
       </c>
       <c r="B81" s="36">
         <f>(C78/D78)*100</f>
-        <v>79.071435892179977</v>
+        <v>79.112432100030745</v>
       </c>
       <c r="E81" s="29"/>
       <c r="F81" s="29"/>
@@ -3146,11 +3149,11 @@
       </c>
       <c r="B82" s="41">
         <f>AVERAGEIF(B2:B77, "&gt;0")</f>
-        <v>85.694705882352935</v>
+        <v>85.787058823529378</v>
       </c>
       <c r="C82" s="41">
         <f>(C78/D79)*100</f>
-        <v>93.776589279202625</v>
+        <v>93.825209675458851</v>
       </c>
       <c r="D82" s="29" t="s">
         <v>123</v>
@@ -3315,8 +3318,8 @@
       <c r="C100" s="29"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A43:F45">
-    <sortCondition descending="1" ref="B43:B45"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A43:F47">
+    <sortCondition descending="1" ref="B43:B47"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A84:C84"/>

--- a/Achievement Tracker.xlsx
+++ b/Achievement Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Data\AchievementTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3955E0BF-EBEF-4CA0-991C-34083082F5ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6CA5B4-B21B-42BA-B3F5-615CFC6E035B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-4035" windowWidth="29040" windowHeight="15840" xr2:uid="{01F7A889-C794-47A9-89C3-7F43CBAA3EFF}"/>
   </bookViews>
@@ -981,7 +981,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1309,8 +1309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0DD2CDF-28B5-4FF8-81AE-E2FDE175FB34}">
   <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2368,7 +2368,7 @@
         <v>51</v>
       </c>
       <c r="B41" s="93">
-        <f t="shared" si="1"/>
+        <f>ROUND((C41/D41)*100, 2)</f>
         <v>71.930000000000007</v>
       </c>
       <c r="C41" s="30">
@@ -2385,40 +2385,40 @@
       </c>
     </row>
     <row r="42" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="73" t="s">
+      <c r="A42" s="95" t="s">
+        <v>139</v>
+      </c>
+      <c r="B42" s="93">
+        <f>ROUND((C42/D42)*100, 2)</f>
+        <v>70.59</v>
+      </c>
+      <c r="C42" s="30">
+        <v>60</v>
+      </c>
+      <c r="D42" s="30">
+        <v>85</v>
+      </c>
+      <c r="E42" s="30">
+        <v>23</v>
+      </c>
+      <c r="F42" s="29"/>
+    </row>
+    <row r="43" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="73" t="s">
         <v>7</v>
-      </c>
-      <c r="B42" s="74">
-        <f t="shared" si="1"/>
-        <v>69.33</v>
-      </c>
-      <c r="C42" s="1">
-        <v>52</v>
-      </c>
-      <c r="D42" s="1">
-        <v>75</v>
-      </c>
-      <c r="E42" s="1">
-        <v>72</v>
-      </c>
-      <c r="F42" s="29"/>
-    </row>
-    <row r="43" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="95" t="s">
-        <v>139</v>
       </c>
       <c r="B43" s="74">
         <f>ROUND((C43/D43)*100, 2)</f>
-        <v>60</v>
-      </c>
-      <c r="C43" s="30">
-        <v>51</v>
-      </c>
-      <c r="D43" s="30">
-        <v>85</v>
-      </c>
-      <c r="E43" s="30">
-        <v>19</v>
+        <v>69.33</v>
+      </c>
+      <c r="C43" s="1">
+        <v>52</v>
+      </c>
+      <c r="D43" s="1">
+        <v>75</v>
+      </c>
+      <c r="E43" s="1">
+        <v>72</v>
       </c>
       <c r="F43" s="29"/>
     </row>
@@ -2427,7 +2427,7 @@
         <v>71</v>
       </c>
       <c r="B44" s="76">
-        <f>ROUND((C44/D44)*100, 2)</f>
+        <f t="shared" ref="B43:B49" si="2">ROUND((C44/D44)*100, 2)</f>
         <v>56.76</v>
       </c>
       <c r="C44" s="30">
@@ -2448,7 +2448,7 @@
         <v>8</v>
       </c>
       <c r="B45" s="76">
-        <f>ROUND((C45/D45)*100, 2)</f>
+        <f t="shared" si="2"/>
         <v>56.41</v>
       </c>
       <c r="C45" s="1">
@@ -2469,7 +2469,7 @@
         <v>16</v>
       </c>
       <c r="B46" s="76">
-        <f>ROUND((C46/D46)*100, 2)</f>
+        <f t="shared" si="2"/>
         <v>56.25</v>
       </c>
       <c r="C46" s="1">
@@ -2488,7 +2488,7 @@
         <v>49</v>
       </c>
       <c r="B47" s="76">
-        <f>ROUND((C47/D47)*100, 2)</f>
+        <f t="shared" si="2"/>
         <v>55.32</v>
       </c>
       <c r="C47" s="30">
@@ -2507,7 +2507,7 @@
         <v>32</v>
       </c>
       <c r="B48" s="12">
-        <f>ROUND((C48/D48)*100, 2)</f>
+        <f t="shared" si="2"/>
         <v>45.83</v>
       </c>
       <c r="C48" s="30">
@@ -2526,7 +2526,7 @@
         <v>50</v>
       </c>
       <c r="B49" s="12">
-        <f>ROUND((C49/D49)*100, 2)</f>
+        <f t="shared" si="2"/>
         <v>43.66</v>
       </c>
       <c r="C49" s="30">
@@ -2547,7 +2547,7 @@
         <v>34</v>
       </c>
       <c r="B50" s="13">
-        <f t="shared" ref="B50:B65" si="2">ROUND((C50/D50)*100, 2)</f>
+        <f t="shared" ref="B50:B65" si="3">ROUND((C50/D50)*100, 2)</f>
         <v>7.69</v>
       </c>
       <c r="C50" s="30">
@@ -2566,7 +2566,7 @@
         <v>35</v>
       </c>
       <c r="B51" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.26</v>
       </c>
       <c r="C51" s="30">
@@ -2585,7 +2585,7 @@
         <v>15</v>
       </c>
       <c r="B52" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.0699999999999998</v>
       </c>
       <c r="C52" s="1">
@@ -2606,7 +2606,7 @@
         <v>10</v>
       </c>
       <c r="B53" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C53" s="30">
@@ -2625,7 +2625,7 @@
         <v>11</v>
       </c>
       <c r="B54" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C54" s="30">
@@ -2644,7 +2644,7 @@
         <v>12</v>
       </c>
       <c r="B55" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C55" s="30">
@@ -2663,7 +2663,7 @@
         <v>9</v>
       </c>
       <c r="B56" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C56" s="1">
@@ -2681,7 +2681,7 @@
         <v>13</v>
       </c>
       <c r="B57" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C57" s="1">
@@ -2700,7 +2700,7 @@
         <v>17</v>
       </c>
       <c r="B58" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C58" s="1">
@@ -2719,7 +2719,7 @@
         <v>20</v>
       </c>
       <c r="B59" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C59" s="30">
@@ -2738,7 +2738,7 @@
         <v>21</v>
       </c>
       <c r="B60" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C60" s="30">
@@ -2757,7 +2757,7 @@
         <v>114</v>
       </c>
       <c r="B61" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C61" s="30">
@@ -2778,7 +2778,7 @@
         <v>111</v>
       </c>
       <c r="B62" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C62" s="30">
@@ -2797,7 +2797,7 @@
         <v>27</v>
       </c>
       <c r="B63" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C63" s="30">
@@ -2816,7 +2816,7 @@
         <v>140</v>
       </c>
       <c r="B64" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C64" s="30">
@@ -2835,7 +2835,7 @@
         <v>142</v>
       </c>
       <c r="B65" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C65" s="30">
@@ -2854,7 +2854,7 @@
         <v>29</v>
       </c>
       <c r="B66" s="14">
-        <f t="shared" ref="B66:B77" si="3">ROUND((C66/D66)*100, 2)</f>
+        <f t="shared" ref="B66:B77" si="4">ROUND((C66/D66)*100, 2)</f>
         <v>0</v>
       </c>
       <c r="C66" s="30">
@@ -2873,7 +2873,7 @@
         <v>118</v>
       </c>
       <c r="B67" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C67" s="30">
@@ -2892,7 +2892,7 @@
         <v>36</v>
       </c>
       <c r="B68" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C68" s="30">
@@ -2911,7 +2911,7 @@
         <v>38</v>
       </c>
       <c r="B69" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C69" s="30">
@@ -2930,7 +2930,7 @@
         <v>42</v>
       </c>
       <c r="B70" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C70" s="30">
@@ -2949,7 +2949,7 @@
         <v>44</v>
       </c>
       <c r="B71" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C71" s="30">
@@ -2968,7 +2968,7 @@
         <v>46</v>
       </c>
       <c r="B72" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C72" s="30">
@@ -2987,7 +2987,7 @@
         <v>45</v>
       </c>
       <c r="B73" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C73" s="30">
@@ -3006,7 +3006,7 @@
         <v>113</v>
       </c>
       <c r="B74" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C74" s="30">
@@ -3025,7 +3025,7 @@
         <v>54</v>
       </c>
       <c r="B75" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C75" s="30">
@@ -3044,7 +3044,7 @@
         <v>56</v>
       </c>
       <c r="B76" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C76" s="30">
@@ -3063,7 +3063,7 @@
         <v>61</v>
       </c>
       <c r="B77" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C77" s="30">
@@ -3087,7 +3087,7 @@
       </c>
       <c r="C78" s="41">
         <f>SUM(C1:C38, C40:C77)</f>
-        <v>7719</v>
+        <v>7728</v>
       </c>
       <c r="D78" s="41">
         <f>SUM(D1:D38, D40:D77)</f>
@@ -3095,7 +3095,7 @@
       </c>
       <c r="E78" s="41">
         <f>SUM(E1:E38, E40:E77)</f>
-        <v>3275</v>
+        <v>3279</v>
       </c>
       <c r="F78" s="29" t="s">
         <v>103</v>
@@ -3111,8 +3111,8 @@
       </c>
       <c r="C79" s="29"/>
       <c r="D79" s="41">
-        <f>SUM(D1:D38, D40:D51)</f>
-        <v>8227</v>
+        <f>SUM(D1:D38, D40:D52)</f>
+        <v>8420</v>
       </c>
       <c r="E79" s="29" t="s">
         <v>109</v>
@@ -3138,7 +3138,7 @@
       </c>
       <c r="B81" s="36">
         <f>(C78/D78)*100</f>
-        <v>79.112432100030745</v>
+        <v>79.204673567694982</v>
       </c>
       <c r="E81" s="29"/>
       <c r="F81" s="29"/>
@@ -3149,11 +3149,11 @@
       </c>
       <c r="B82" s="41">
         <f>AVERAGEIF(B2:B77, "&gt;0")</f>
-        <v>85.787058823529378</v>
+        <v>85.994705882352918</v>
       </c>
       <c r="C82" s="41">
         <f>(C78/D79)*100</f>
-        <v>93.825209675458851</v>
+        <v>91.781472684085514</v>
       </c>
       <c r="D82" s="29" t="s">
         <v>123</v>
@@ -3318,8 +3318,8 @@
       <c r="C100" s="29"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A43:F47">
-    <sortCondition descending="1" ref="B43:B47"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A41:F43">
+    <sortCondition descending="1" ref="B41:B43"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A84:C84"/>

--- a/Achievement Tracker.xlsx
+++ b/Achievement Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Data\AchievementTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6CA5B4-B21B-42BA-B3F5-615CFC6E035B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D253D381-89E8-40A5-9C6C-A36E7B1115F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-4035" windowWidth="29040" windowHeight="15840" xr2:uid="{01F7A889-C794-47A9-89C3-7F43CBAA3EFF}"/>
   </bookViews>
@@ -978,11 +978,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1309,8 +1309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0DD2CDF-28B5-4FF8-81AE-E2FDE175FB34}">
   <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2265,7 +2265,7 @@
         <v>39</v>
       </c>
       <c r="B36" s="11">
-        <f t="shared" ref="B36:B42" si="1">ROUND((C36/D36)*100, 2)</f>
+        <f t="shared" ref="B36:B40" si="1">ROUND((C36/D36)*100, 2)</f>
         <v>95.19</v>
       </c>
       <c r="C36" s="30">
@@ -2364,44 +2364,44 @@
       <c r="F40" s="29"/>
     </row>
     <row r="41" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="92" t="s">
-        <v>51</v>
+      <c r="A41" s="94" t="s">
+        <v>139</v>
       </c>
       <c r="B41" s="93">
         <f>ROUND((C41/D41)*100, 2)</f>
-        <v>71.930000000000007</v>
+        <v>74.12</v>
       </c>
       <c r="C41" s="30">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="D41" s="30">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="E41" s="30">
-        <v>315</v>
-      </c>
-      <c r="F41" s="29" t="s">
-        <v>84</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="F41" s="29"/>
     </row>
     <row r="42" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="95" t="s">
-        <v>139</v>
+      <c r="A42" s="92" t="s">
+        <v>51</v>
       </c>
       <c r="B42" s="93">
         <f>ROUND((C42/D42)*100, 2)</f>
-        <v>70.59</v>
+        <v>71.930000000000007</v>
       </c>
       <c r="C42" s="30">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="D42" s="30">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="E42" s="30">
-        <v>23</v>
-      </c>
-      <c r="F42" s="29"/>
+        <v>315</v>
+      </c>
+      <c r="F42" s="29" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="43" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="73" t="s">
@@ -2427,7 +2427,7 @@
         <v>71</v>
       </c>
       <c r="B44" s="76">
-        <f t="shared" ref="B43:B49" si="2">ROUND((C44/D44)*100, 2)</f>
+        <f t="shared" ref="B44:B49" si="2">ROUND((C44/D44)*100, 2)</f>
         <v>56.76</v>
       </c>
       <c r="C44" s="30">
@@ -3087,7 +3087,7 @@
       </c>
       <c r="C78" s="41">
         <f>SUM(C1:C38, C40:C77)</f>
-        <v>7728</v>
+        <v>7731</v>
       </c>
       <c r="D78" s="41">
         <f>SUM(D1:D38, D40:D77)</f>
@@ -3095,7 +3095,7 @@
       </c>
       <c r="E78" s="41">
         <f>SUM(E1:E38, E40:E77)</f>
-        <v>3279</v>
+        <v>3281</v>
       </c>
       <c r="F78" s="29" t="s">
         <v>103</v>
@@ -3138,7 +3138,7 @@
       </c>
       <c r="B81" s="36">
         <f>(C78/D78)*100</f>
-        <v>79.204673567694982</v>
+        <v>79.235420723583076</v>
       </c>
       <c r="E81" s="29"/>
       <c r="F81" s="29"/>
@@ -3149,11 +3149,11 @@
       </c>
       <c r="B82" s="41">
         <f>AVERAGEIF(B2:B77, "&gt;0")</f>
-        <v>85.994705882352918</v>
+        <v>86.063921568627421</v>
       </c>
       <c r="C82" s="41">
         <f>(C78/D79)*100</f>
-        <v>91.781472684085514</v>
+        <v>91.817102137767222</v>
       </c>
       <c r="D82" s="29" t="s">
         <v>123</v>
@@ -3169,11 +3169,11 @@
       </c>
     </row>
     <row r="84" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A84" s="94" t="s">
+      <c r="A84" s="95" t="s">
         <v>87</v>
       </c>
-      <c r="B84" s="94"/>
-      <c r="C84" s="94"/>
+      <c r="B84" s="95"/>
+      <c r="C84" s="95"/>
     </row>
     <row r="85" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="88" t="s">
@@ -3318,8 +3318,8 @@
       <c r="C100" s="29"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A41:F43">
-    <sortCondition descending="1" ref="B41:B43"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A41:F42">
+    <sortCondition descending="1" ref="B41:B42"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A84:C84"/>

--- a/Achievement Tracker.xlsx
+++ b/Achievement Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Data\AchievementTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D253D381-89E8-40A5-9C6C-A36E7B1115F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D745AB62-4460-4F06-9F00-7EB0D42F6BA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-4035" windowWidth="29040" windowHeight="15840" xr2:uid="{01F7A889-C794-47A9-89C3-7F43CBAA3EFF}"/>
   </bookViews>
@@ -1309,8 +1309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0DD2CDF-28B5-4FF8-81AE-E2FDE175FB34}">
   <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H62" sqref="H62"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2369,16 +2369,16 @@
       </c>
       <c r="B41" s="93">
         <f>ROUND((C41/D41)*100, 2)</f>
-        <v>74.12</v>
+        <v>76.47</v>
       </c>
       <c r="C41" s="30">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D41" s="30">
         <v>85</v>
       </c>
       <c r="E41" s="30">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F41" s="29"/>
     </row>
@@ -3087,7 +3087,7 @@
       </c>
       <c r="C78" s="41">
         <f>SUM(C1:C38, C40:C77)</f>
-        <v>7731</v>
+        <v>7733</v>
       </c>
       <c r="D78" s="41">
         <f>SUM(D1:D38, D40:D77)</f>
@@ -3095,7 +3095,7 @@
       </c>
       <c r="E78" s="41">
         <f>SUM(E1:E38, E40:E77)</f>
-        <v>3281</v>
+        <v>3282</v>
       </c>
       <c r="F78" s="29" t="s">
         <v>103</v>
@@ -3138,7 +3138,7 @@
       </c>
       <c r="B81" s="36">
         <f>(C78/D78)*100</f>
-        <v>79.235420723583076</v>
+        <v>79.255918827508452</v>
       </c>
       <c r="E81" s="29"/>
       <c r="F81" s="29"/>
@@ -3149,11 +3149,11 @@
       </c>
       <c r="B82" s="41">
         <f>AVERAGEIF(B2:B77, "&gt;0")</f>
-        <v>86.063921568627421</v>
+        <v>86.109999999999971</v>
       </c>
       <c r="C82" s="41">
         <f>(C78/D79)*100</f>
-        <v>91.817102137767222</v>
+        <v>91.84085510688837</v>
       </c>
       <c r="D82" s="29" t="s">
         <v>123</v>

--- a/Achievement Tracker.xlsx
+++ b/Achievement Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Data\AchievementTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D745AB62-4460-4F06-9F00-7EB0D42F6BA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FFF63A3-2D89-49C8-9A71-97E3A75BB7A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-4035" windowWidth="29040" windowHeight="15840" xr2:uid="{01F7A889-C794-47A9-89C3-7F43CBAA3EFF}"/>
   </bookViews>
@@ -978,11 +978,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1309,8 +1309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0DD2CDF-28B5-4FF8-81AE-E2FDE175FB34}">
   <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2286,7 +2286,7 @@
         <v>65</v>
       </c>
       <c r="B37" s="11">
-        <f t="shared" si="1"/>
+        <f>ROUND((C37/D37)*100, 2)</f>
         <v>94.81</v>
       </c>
       <c r="C37" s="30">
@@ -2307,7 +2307,7 @@
         <v>14</v>
       </c>
       <c r="B38" s="70">
-        <f t="shared" si="1"/>
+        <f>ROUND((C38/D38)*100, 2)</f>
         <v>86.23</v>
       </c>
       <c r="C38" s="1">
@@ -2328,7 +2328,7 @@
         <v>98</v>
       </c>
       <c r="B39" s="72">
-        <f t="shared" si="1"/>
+        <f>ROUND((C39/D39)*100, 2)</f>
         <v>84.62</v>
       </c>
       <c r="C39" s="63">
@@ -2349,7 +2349,7 @@
         <v>41</v>
       </c>
       <c r="B40" s="70">
-        <f t="shared" si="1"/>
+        <f>ROUND((C40/D40)*100, 2)</f>
         <v>83.78</v>
       </c>
       <c r="C40" s="30">
@@ -2364,21 +2364,21 @@
       <c r="F40" s="29"/>
     </row>
     <row r="41" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="94" t="s">
+      <c r="A41" s="95" t="s">
         <v>139</v>
       </c>
-      <c r="B41" s="93">
+      <c r="B41" s="70">
         <f>ROUND((C41/D41)*100, 2)</f>
-        <v>76.47</v>
+        <v>83.53</v>
       </c>
       <c r="C41" s="30">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D41" s="30">
         <v>85</v>
       </c>
       <c r="E41" s="30">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="F41" s="29"/>
     </row>
@@ -3087,7 +3087,7 @@
       </c>
       <c r="C78" s="41">
         <f>SUM(C1:C38, C40:C77)</f>
-        <v>7733</v>
+        <v>7739</v>
       </c>
       <c r="D78" s="41">
         <f>SUM(D1:D38, D40:D77)</f>
@@ -3095,7 +3095,7 @@
       </c>
       <c r="E78" s="41">
         <f>SUM(E1:E38, E40:E77)</f>
-        <v>3282</v>
+        <v>3291</v>
       </c>
       <c r="F78" s="29" t="s">
         <v>103</v>
@@ -3138,7 +3138,7 @@
       </c>
       <c r="B81" s="36">
         <f>(C78/D78)*100</f>
-        <v>79.255918827508452</v>
+        <v>79.317413139284625</v>
       </c>
       <c r="E81" s="29"/>
       <c r="F81" s="29"/>
@@ -3149,11 +3149,11 @@
       </c>
       <c r="B82" s="41">
         <f>AVERAGEIF(B2:B77, "&gt;0")</f>
-        <v>86.109999999999971</v>
+        <v>86.248431372549007</v>
       </c>
       <c r="C82" s="41">
         <f>(C78/D79)*100</f>
-        <v>91.84085510688837</v>
+        <v>91.912114014251785</v>
       </c>
       <c r="D82" s="29" t="s">
         <v>123</v>
@@ -3169,11 +3169,11 @@
       </c>
     </row>
     <row r="84" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A84" s="95" t="s">
+      <c r="A84" s="94" t="s">
         <v>87</v>
       </c>
-      <c r="B84" s="95"/>
-      <c r="C84" s="95"/>
+      <c r="B84" s="94"/>
+      <c r="C84" s="94"/>
     </row>
     <row r="85" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="88" t="s">
@@ -3318,8 +3318,8 @@
       <c r="C100" s="29"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A41:F42">
-    <sortCondition descending="1" ref="B41:B42"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A37:F41">
+    <sortCondition descending="1" ref="B37:B41"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A84:C84"/>

--- a/Achievement Tracker.xlsx
+++ b/Achievement Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Data\AchievementTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FFF63A3-2D89-49C8-9A71-97E3A75BB7A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA958DC5-F375-4A09-A645-4F23257C391A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-4035" windowWidth="29040" windowHeight="15840" xr2:uid="{01F7A889-C794-47A9-89C3-7F43CBAA3EFF}"/>
   </bookViews>
@@ -978,11 +978,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1309,8 +1309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0DD2CDF-28B5-4FF8-81AE-E2FDE175FB34}">
   <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H71" sqref="H71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2265,7 +2265,7 @@
         <v>39</v>
       </c>
       <c r="B36" s="11">
-        <f t="shared" ref="B36:B40" si="1">ROUND((C36/D36)*100, 2)</f>
+        <f t="shared" ref="B36" si="1">ROUND((C36/D36)*100, 2)</f>
         <v>95.19</v>
       </c>
       <c r="C36" s="30">
@@ -2286,7 +2286,7 @@
         <v>65</v>
       </c>
       <c r="B37" s="11">
-        <f>ROUND((C37/D37)*100, 2)</f>
+        <f t="shared" ref="B37:B43" si="2">ROUND((C37/D37)*100, 2)</f>
         <v>94.81</v>
       </c>
       <c r="C37" s="30">
@@ -2307,7 +2307,7 @@
         <v>14</v>
       </c>
       <c r="B38" s="70">
-        <f>ROUND((C38/D38)*100, 2)</f>
+        <f t="shared" si="2"/>
         <v>86.23</v>
       </c>
       <c r="C38" s="1">
@@ -2324,61 +2324,61 @@
       </c>
     </row>
     <row r="39" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="71" t="s">
+      <c r="A39" s="94" t="s">
+        <v>139</v>
+      </c>
+      <c r="B39" s="70">
+        <f>ROUND((C39/D39)*100, 2)</f>
+        <v>84.71</v>
+      </c>
+      <c r="C39" s="30">
+        <v>72</v>
+      </c>
+      <c r="D39" s="30">
+        <v>85</v>
+      </c>
+      <c r="E39" s="30">
+        <v>40</v>
+      </c>
+      <c r="F39" s="29"/>
+    </row>
+    <row r="40" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="71" t="s">
         <v>98</v>
       </c>
-      <c r="B39" s="72">
-        <f>ROUND((C39/D39)*100, 2)</f>
+      <c r="B40" s="72">
+        <f>ROUND((C40/D40)*100, 2)</f>
         <v>84.62</v>
       </c>
-      <c r="C39" s="63">
+      <c r="C40" s="63">
         <v>33</v>
       </c>
-      <c r="D39" s="63">
+      <c r="D40" s="63">
         <v>39</v>
       </c>
-      <c r="E39" s="63">
+      <c r="E40" s="63">
         <v>27</v>
       </c>
-      <c r="F39" s="64" t="s">
+      <c r="F40" s="64" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="69" t="s">
+    <row r="41" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="69" t="s">
         <v>41</v>
-      </c>
-      <c r="B40" s="70">
-        <f>ROUND((C40/D40)*100, 2)</f>
-        <v>83.78</v>
-      </c>
-      <c r="C40" s="30">
-        <v>31</v>
-      </c>
-      <c r="D40" s="30">
-        <v>37</v>
-      </c>
-      <c r="E40" s="30">
-        <v>556</v>
-      </c>
-      <c r="F40" s="29"/>
-    </row>
-    <row r="41" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="95" t="s">
-        <v>139</v>
       </c>
       <c r="B41" s="70">
         <f>ROUND((C41/D41)*100, 2)</f>
-        <v>83.53</v>
+        <v>83.78</v>
       </c>
       <c r="C41" s="30">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="D41" s="30">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="E41" s="30">
-        <v>35</v>
+        <v>556</v>
       </c>
       <c r="F41" s="29"/>
     </row>
@@ -2387,7 +2387,7 @@
         <v>51</v>
       </c>
       <c r="B42" s="93">
-        <f>ROUND((C42/D42)*100, 2)</f>
+        <f t="shared" si="2"/>
         <v>71.930000000000007</v>
       </c>
       <c r="C42" s="30">
@@ -2408,7 +2408,7 @@
         <v>7</v>
       </c>
       <c r="B43" s="74">
-        <f>ROUND((C43/D43)*100, 2)</f>
+        <f t="shared" si="2"/>
         <v>69.33</v>
       </c>
       <c r="C43" s="1">
@@ -2427,7 +2427,7 @@
         <v>71</v>
       </c>
       <c r="B44" s="76">
-        <f t="shared" ref="B44:B49" si="2">ROUND((C44/D44)*100, 2)</f>
+        <f t="shared" ref="B44:B49" si="3">ROUND((C44/D44)*100, 2)</f>
         <v>56.76</v>
       </c>
       <c r="C44" s="30">
@@ -2448,7 +2448,7 @@
         <v>8</v>
       </c>
       <c r="B45" s="76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>56.41</v>
       </c>
       <c r="C45" s="1">
@@ -2469,7 +2469,7 @@
         <v>16</v>
       </c>
       <c r="B46" s="76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>56.25</v>
       </c>
       <c r="C46" s="1">
@@ -2488,7 +2488,7 @@
         <v>49</v>
       </c>
       <c r="B47" s="76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>55.32</v>
       </c>
       <c r="C47" s="30">
@@ -2507,7 +2507,7 @@
         <v>32</v>
       </c>
       <c r="B48" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45.83</v>
       </c>
       <c r="C48" s="30">
@@ -2526,7 +2526,7 @@
         <v>50</v>
       </c>
       <c r="B49" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43.66</v>
       </c>
       <c r="C49" s="30">
@@ -2547,7 +2547,7 @@
         <v>34</v>
       </c>
       <c r="B50" s="13">
-        <f t="shared" ref="B50:B65" si="3">ROUND((C50/D50)*100, 2)</f>
+        <f t="shared" ref="B50:B65" si="4">ROUND((C50/D50)*100, 2)</f>
         <v>7.69</v>
       </c>
       <c r="C50" s="30">
@@ -2566,7 +2566,7 @@
         <v>35</v>
       </c>
       <c r="B51" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.26</v>
       </c>
       <c r="C51" s="30">
@@ -2585,7 +2585,7 @@
         <v>15</v>
       </c>
       <c r="B52" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.0699999999999998</v>
       </c>
       <c r="C52" s="1">
@@ -2606,7 +2606,7 @@
         <v>10</v>
       </c>
       <c r="B53" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C53" s="30">
@@ -2625,7 +2625,7 @@
         <v>11</v>
       </c>
       <c r="B54" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C54" s="30">
@@ -2644,7 +2644,7 @@
         <v>12</v>
       </c>
       <c r="B55" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C55" s="30">
@@ -2663,7 +2663,7 @@
         <v>9</v>
       </c>
       <c r="B56" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C56" s="1">
@@ -2681,7 +2681,7 @@
         <v>13</v>
       </c>
       <c r="B57" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C57" s="1">
@@ -2700,7 +2700,7 @@
         <v>17</v>
       </c>
       <c r="B58" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C58" s="1">
@@ -2719,7 +2719,7 @@
         <v>20</v>
       </c>
       <c r="B59" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C59" s="30">
@@ -2738,7 +2738,7 @@
         <v>21</v>
       </c>
       <c r="B60" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C60" s="30">
@@ -2757,7 +2757,7 @@
         <v>114</v>
       </c>
       <c r="B61" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C61" s="30">
@@ -2778,7 +2778,7 @@
         <v>111</v>
       </c>
       <c r="B62" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C62" s="30">
@@ -2797,7 +2797,7 @@
         <v>27</v>
       </c>
       <c r="B63" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C63" s="30">
@@ -2816,7 +2816,7 @@
         <v>140</v>
       </c>
       <c r="B64" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C64" s="30">
@@ -2835,7 +2835,7 @@
         <v>142</v>
       </c>
       <c r="B65" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C65" s="30">
@@ -2854,7 +2854,7 @@
         <v>29</v>
       </c>
       <c r="B66" s="14">
-        <f t="shared" ref="B66:B77" si="4">ROUND((C66/D66)*100, 2)</f>
+        <f t="shared" ref="B66:B77" si="5">ROUND((C66/D66)*100, 2)</f>
         <v>0</v>
       </c>
       <c r="C66" s="30">
@@ -2873,7 +2873,7 @@
         <v>118</v>
       </c>
       <c r="B67" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C67" s="30">
@@ -2892,7 +2892,7 @@
         <v>36</v>
       </c>
       <c r="B68" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C68" s="30">
@@ -2911,7 +2911,7 @@
         <v>38</v>
       </c>
       <c r="B69" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C69" s="30">
@@ -2930,7 +2930,7 @@
         <v>42</v>
       </c>
       <c r="B70" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C70" s="30">
@@ -2949,7 +2949,7 @@
         <v>44</v>
       </c>
       <c r="B71" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C71" s="30">
@@ -2968,7 +2968,7 @@
         <v>46</v>
       </c>
       <c r="B72" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C72" s="30">
@@ -2987,7 +2987,7 @@
         <v>45</v>
       </c>
       <c r="B73" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C73" s="30">
@@ -3006,7 +3006,7 @@
         <v>113</v>
       </c>
       <c r="B74" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C74" s="30">
@@ -3025,7 +3025,7 @@
         <v>54</v>
       </c>
       <c r="B75" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C75" s="30">
@@ -3044,7 +3044,7 @@
         <v>56</v>
       </c>
       <c r="B76" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C76" s="30">
@@ -3063,7 +3063,7 @@
         <v>61</v>
       </c>
       <c r="B77" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C77" s="30">
@@ -3082,20 +3082,20 @@
         <v>66</v>
       </c>
       <c r="B78" s="41">
-        <f>COUNT(B1:B38, B40:B77)</f>
+        <f>COUNT(B1:B39, B41:B77)</f>
         <v>75</v>
       </c>
       <c r="C78" s="41">
-        <f>SUM(C1:C38, C40:C77)</f>
-        <v>7739</v>
+        <f>SUM(C1:C39, C41:C77)</f>
+        <v>7740</v>
       </c>
       <c r="D78" s="41">
-        <f>SUM(D1:D38, D40:D77)</f>
+        <f>SUM(D1:D39, D41:D77)</f>
         <v>9757</v>
       </c>
       <c r="E78" s="41">
-        <f>SUM(E1:E38, E40:E77)</f>
-        <v>3291</v>
+        <f>SUM(E1:E39, E41:E77)</f>
+        <v>3296</v>
       </c>
       <c r="F78" s="29" t="s">
         <v>103</v>
@@ -3111,7 +3111,7 @@
       </c>
       <c r="C79" s="29"/>
       <c r="D79" s="41">
-        <f>SUM(D1:D38, D40:D52)</f>
+        <f>SUM(D1:D39, D41:D52)</f>
         <v>8420</v>
       </c>
       <c r="E79" s="29" t="s">
@@ -3138,7 +3138,7 @@
       </c>
       <c r="B81" s="36">
         <f>(C78/D78)*100</f>
-        <v>79.317413139284625</v>
+        <v>79.327662191247299</v>
       </c>
       <c r="E81" s="29"/>
       <c r="F81" s="29"/>
@@ -3149,11 +3149,11 @@
       </c>
       <c r="B82" s="41">
         <f>AVERAGEIF(B2:B77, "&gt;0")</f>
-        <v>86.248431372549007</v>
+        <v>86.271568627450947</v>
       </c>
       <c r="C82" s="41">
         <f>(C78/D79)*100</f>
-        <v>91.912114014251785</v>
+        <v>91.923990498812344</v>
       </c>
       <c r="D82" s="29" t="s">
         <v>123</v>
@@ -3169,11 +3169,11 @@
       </c>
     </row>
     <row r="84" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A84" s="94" t="s">
+      <c r="A84" s="95" t="s">
         <v>87</v>
       </c>
-      <c r="B84" s="94"/>
-      <c r="C84" s="94"/>
+      <c r="B84" s="95"/>
+      <c r="C84" s="95"/>
     </row>
     <row r="85" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="88" t="s">
@@ -3318,8 +3318,8 @@
       <c r="C100" s="29"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A37:F41">
-    <sortCondition descending="1" ref="B37:B41"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A39:F41">
+    <sortCondition descending="1" ref="B39:B41"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A84:C84"/>

--- a/Achievement Tracker.xlsx
+++ b/Achievement Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Data\AchievementTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA958DC5-F375-4A09-A645-4F23257C391A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F4CEE75-4487-4994-9217-9F29A941704D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-4035" windowWidth="29040" windowHeight="15840" xr2:uid="{01F7A889-C794-47A9-89C3-7F43CBAA3EFF}"/>
   </bookViews>
@@ -978,7 +978,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1309,8 +1309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0DD2CDF-28B5-4FF8-81AE-E2FDE175FB34}">
   <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H71" sqref="H71"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2265,7 +2265,7 @@
         <v>39</v>
       </c>
       <c r="B36" s="11">
-        <f t="shared" ref="B36" si="1">ROUND((C36/D36)*100, 2)</f>
+        <f t="shared" ref="B36:B42" si="1">ROUND((C36/D36)*100, 2)</f>
         <v>95.19</v>
       </c>
       <c r="C36" s="30">
@@ -2286,7 +2286,7 @@
         <v>65</v>
       </c>
       <c r="B37" s="11">
-        <f t="shared" ref="B37:B43" si="2">ROUND((C37/D37)*100, 2)</f>
+        <f t="shared" si="1"/>
         <v>94.81</v>
       </c>
       <c r="C37" s="30">
@@ -2303,51 +2303,51 @@
       </c>
     </row>
     <row r="38" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="69" t="s">
+      <c r="A38" s="94" t="s">
+        <v>139</v>
+      </c>
+      <c r="B38" s="11">
+        <f t="shared" si="1"/>
+        <v>92.94</v>
+      </c>
+      <c r="C38" s="30">
+        <v>79</v>
+      </c>
+      <c r="D38" s="30">
+        <v>85</v>
+      </c>
+      <c r="E38" s="30">
+        <v>48</v>
+      </c>
+      <c r="F38" s="29"/>
+    </row>
+    <row r="39" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="70">
-        <f t="shared" si="2"/>
+      <c r="B39" s="70">
+        <f t="shared" si="1"/>
         <v>86.23</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C39" s="1">
         <v>144</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D39" s="1">
         <v>167</v>
       </c>
-      <c r="E38" s="1">
-        <v>185</v>
-      </c>
-      <c r="F38" s="29" t="s">
+      <c r="E39" s="1">
+        <v>187</v>
+      </c>
+      <c r="F39" s="29" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="94" t="s">
-        <v>139</v>
-      </c>
-      <c r="B39" s="70">
-        <f>ROUND((C39/D39)*100, 2)</f>
-        <v>84.71</v>
-      </c>
-      <c r="C39" s="30">
-        <v>72</v>
-      </c>
-      <c r="D39" s="30">
-        <v>85</v>
-      </c>
-      <c r="E39" s="30">
-        <v>40</v>
-      </c>
-      <c r="F39" s="29"/>
     </row>
     <row r="40" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="71" t="s">
         <v>98</v>
       </c>
       <c r="B40" s="72">
-        <f>ROUND((C40/D40)*100, 2)</f>
+        <f t="shared" si="1"/>
         <v>84.62</v>
       </c>
       <c r="C40" s="63">
@@ -2368,7 +2368,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="70">
-        <f>ROUND((C41/D41)*100, 2)</f>
+        <f t="shared" si="1"/>
         <v>83.78</v>
       </c>
       <c r="C41" s="30">
@@ -2387,7 +2387,7 @@
         <v>51</v>
       </c>
       <c r="B42" s="93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>71.930000000000007</v>
       </c>
       <c r="C42" s="30">
@@ -2408,7 +2408,7 @@
         <v>7</v>
       </c>
       <c r="B43" s="74">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="B43" si="2">ROUND((C43/D43)*100, 2)</f>
         <v>69.33</v>
       </c>
       <c r="C43" s="1">
@@ -3087,7 +3087,7 @@
       </c>
       <c r="C78" s="41">
         <f>SUM(C1:C39, C41:C77)</f>
-        <v>7740</v>
+        <v>7747</v>
       </c>
       <c r="D78" s="41">
         <f>SUM(D1:D39, D41:D77)</f>
@@ -3095,7 +3095,7 @@
       </c>
       <c r="E78" s="41">
         <f>SUM(E1:E39, E41:E77)</f>
-        <v>3296</v>
+        <v>3306</v>
       </c>
       <c r="F78" s="29" t="s">
         <v>103</v>
@@ -3138,7 +3138,7 @@
       </c>
       <c r="B81" s="36">
         <f>(C78/D78)*100</f>
-        <v>79.327662191247299</v>
+        <v>79.399405554986174</v>
       </c>
       <c r="E81" s="29"/>
       <c r="F81" s="29"/>
@@ -3149,11 +3149,11 @@
       </c>
       <c r="B82" s="41">
         <f>AVERAGEIF(B2:B77, "&gt;0")</f>
-        <v>86.271568627450947</v>
+        <v>86.432941176470564</v>
       </c>
       <c r="C82" s="41">
         <f>(C78/D79)*100</f>
-        <v>91.923990498812344</v>
+        <v>92.007125890736347</v>
       </c>
       <c r="D82" s="29" t="s">
         <v>123</v>
@@ -3318,8 +3318,8 @@
       <c r="C100" s="29"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A39:F41">
-    <sortCondition descending="1" ref="B39:B41"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A36:F42">
+    <sortCondition descending="1" ref="B36:B42"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A84:C84"/>

--- a/Achievement Tracker.xlsx
+++ b/Achievement Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Data\AchievementTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F4CEE75-4487-4994-9217-9F29A941704D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB5B9BA-4604-4827-A9B4-83B82E3ED8DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-4035" windowWidth="29040" windowHeight="15840" xr2:uid="{01F7A889-C794-47A9-89C3-7F43CBAA3EFF}"/>
   </bookViews>
@@ -1309,8 +1309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0DD2CDF-28B5-4FF8-81AE-E2FDE175FB34}">
   <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2308,16 +2308,16 @@
       </c>
       <c r="B38" s="11">
         <f t="shared" si="1"/>
-        <v>92.94</v>
+        <v>94.12</v>
       </c>
       <c r="C38" s="30">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D38" s="30">
         <v>85</v>
       </c>
       <c r="E38" s="30">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F38" s="29"/>
     </row>
@@ -2336,7 +2336,7 @@
         <v>167</v>
       </c>
       <c r="E39" s="1">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F39" s="29" t="s">
         <v>74</v>
@@ -3087,7 +3087,7 @@
       </c>
       <c r="C78" s="41">
         <f>SUM(C1:C39, C41:C77)</f>
-        <v>7747</v>
+        <v>7748</v>
       </c>
       <c r="D78" s="41">
         <f>SUM(D1:D39, D41:D77)</f>
@@ -3095,7 +3095,7 @@
       </c>
       <c r="E78" s="41">
         <f>SUM(E1:E39, E41:E77)</f>
-        <v>3306</v>
+        <v>3310</v>
       </c>
       <c r="F78" s="29" t="s">
         <v>103</v>
@@ -3138,7 +3138,7 @@
       </c>
       <c r="B81" s="36">
         <f>(C78/D78)*100</f>
-        <v>79.399405554986174</v>
+        <v>79.409654606948848</v>
       </c>
       <c r="E81" s="29"/>
       <c r="F81" s="29"/>
@@ -3149,11 +3149,11 @@
       </c>
       <c r="B82" s="41">
         <f>AVERAGEIF(B2:B77, "&gt;0")</f>
-        <v>86.432941176470564</v>
+        <v>86.456078431372518</v>
       </c>
       <c r="C82" s="41">
         <f>(C78/D79)*100</f>
-        <v>92.007125890736347</v>
+        <v>92.019002375296907</v>
       </c>
       <c r="D82" s="29" t="s">
         <v>123</v>

--- a/Achievement Tracker.xlsx
+++ b/Achievement Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Data\AchievementTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB5B9BA-4604-4827-A9B4-83B82E3ED8DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF1B180-18C6-4E63-BC06-95D473A880FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-4035" windowWidth="29040" windowHeight="15840" xr2:uid="{01F7A889-C794-47A9-89C3-7F43CBAA3EFF}"/>
   </bookViews>
@@ -1309,8 +1309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0DD2CDF-28B5-4FF8-81AE-E2FDE175FB34}">
   <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2261,72 +2261,72 @@
       </c>
     </row>
     <row r="36" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="28" t="s">
+      <c r="A36" s="94" t="s">
+        <v>139</v>
+      </c>
+      <c r="B36" s="11">
+        <f>ROUND((C36/D36)*100, 2)</f>
+        <v>95.29</v>
+      </c>
+      <c r="C36" s="30">
+        <v>81</v>
+      </c>
+      <c r="D36" s="30">
+        <v>85</v>
+      </c>
+      <c r="E36" s="30">
+        <v>51</v>
+      </c>
+      <c r="F36" s="29"/>
+    </row>
+    <row r="37" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="11">
-        <f t="shared" ref="B36:B42" si="1">ROUND((C36/D36)*100, 2)</f>
+      <c r="B37" s="11">
+        <f>ROUND((C37/D37)*100, 2)</f>
         <v>95.19</v>
       </c>
-      <c r="C36" s="30">
+      <c r="C37" s="30">
         <v>1149</v>
       </c>
-      <c r="D36" s="30">
+      <c r="D37" s="30">
         <v>1207</v>
       </c>
-      <c r="E36" s="30">
+      <c r="E37" s="30">
         <v>11</v>
       </c>
-      <c r="F36" s="29" t="s">
+      <c r="F37" s="29" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="53" t="s">
+    <row r="38" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="B37" s="11">
-        <f t="shared" si="1"/>
+      <c r="B38" s="11">
+        <f>ROUND((C38/D38)*100, 2)</f>
         <v>94.81</v>
       </c>
-      <c r="C37" s="30">
+      <c r="C38" s="30">
         <v>493</v>
       </c>
-      <c r="D37" s="30">
+      <c r="D38" s="30">
         <v>520</v>
       </c>
-      <c r="E37" s="30">
+      <c r="E38" s="30">
         <v>260</v>
       </c>
-      <c r="F37" s="29" t="s">
+      <c r="F38" s="29" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="94" t="s">
-        <v>139</v>
-      </c>
-      <c r="B38" s="11">
-        <f t="shared" si="1"/>
-        <v>94.12</v>
-      </c>
-      <c r="C38" s="30">
-        <v>80</v>
-      </c>
-      <c r="D38" s="30">
-        <v>85</v>
-      </c>
-      <c r="E38" s="30">
-        <v>50</v>
-      </c>
-      <c r="F38" s="29"/>
     </row>
     <row r="39" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="69" t="s">
         <v>14</v>
       </c>
       <c r="B39" s="70">
-        <f t="shared" si="1"/>
+        <f>ROUND((C39/D39)*100, 2)</f>
         <v>86.23</v>
       </c>
       <c r="C39" s="1">
@@ -2347,7 +2347,7 @@
         <v>98</v>
       </c>
       <c r="B40" s="72">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B36:B42" si="1">ROUND((C40/D40)*100, 2)</f>
         <v>84.62</v>
       </c>
       <c r="C40" s="63">
@@ -3087,7 +3087,7 @@
       </c>
       <c r="C78" s="41">
         <f>SUM(C1:C39, C41:C77)</f>
-        <v>7748</v>
+        <v>7749</v>
       </c>
       <c r="D78" s="41">
         <f>SUM(D1:D39, D41:D77)</f>
@@ -3095,7 +3095,7 @@
       </c>
       <c r="E78" s="41">
         <f>SUM(E1:E39, E41:E77)</f>
-        <v>3310</v>
+        <v>3311</v>
       </c>
       <c r="F78" s="29" t="s">
         <v>103</v>
@@ -3138,7 +3138,7 @@
       </c>
       <c r="B81" s="36">
         <f>(C78/D78)*100</f>
-        <v>79.409654606948848</v>
+        <v>79.419903658911551</v>
       </c>
       <c r="E81" s="29"/>
       <c r="F81" s="29"/>
@@ -3149,11 +3149,11 @@
       </c>
       <c r="B82" s="41">
         <f>AVERAGEIF(B2:B77, "&gt;0")</f>
-        <v>86.456078431372518</v>
+        <v>86.479019607843114</v>
       </c>
       <c r="C82" s="41">
         <f>(C78/D79)*100</f>
-        <v>92.019002375296907</v>
+        <v>92.030878859857481</v>
       </c>
       <c r="D82" s="29" t="s">
         <v>123</v>
@@ -3318,8 +3318,8 @@
       <c r="C100" s="29"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A36:F42">
-    <sortCondition descending="1" ref="B36:B42"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A36:F39">
+    <sortCondition descending="1" ref="B36:B39"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A84:C84"/>

--- a/Achievement Tracker.xlsx
+++ b/Achievement Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Data\AchievementTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF1B180-18C6-4E63-BC06-95D473A880FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EFC2BA2-8559-4039-A651-6BA94E626593}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-4035" windowWidth="29040" windowHeight="15840" xr2:uid="{01F7A889-C794-47A9-89C3-7F43CBAA3EFF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{01F7A889-C794-47A9-89C3-7F43CBAA3EFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1309,8 +1309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0DD2CDF-28B5-4FF8-81AE-E2FDE175FB34}">
   <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2275,7 +2275,7 @@
         <v>85</v>
       </c>
       <c r="E36" s="30">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F36" s="29"/>
     </row>
@@ -2347,7 +2347,7 @@
         <v>98</v>
       </c>
       <c r="B40" s="72">
-        <f t="shared" ref="B36:B42" si="1">ROUND((C40/D40)*100, 2)</f>
+        <f t="shared" ref="B40:B42" si="1">ROUND((C40/D40)*100, 2)</f>
         <v>84.62</v>
       </c>
       <c r="C40" s="63">
@@ -3095,7 +3095,7 @@
       </c>
       <c r="E78" s="41">
         <f>SUM(E1:E39, E41:E77)</f>
-        <v>3311</v>
+        <v>3313</v>
       </c>
       <c r="F78" s="29" t="s">
         <v>103</v>

--- a/Achievement Tracker.xlsx
+++ b/Achievement Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Data\AchievementTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EFC2BA2-8559-4039-A651-6BA94E626593}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{890FD52B-60AF-408C-8DE5-19DE19E51566}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{01F7A889-C794-47A9-89C3-7F43CBAA3EFF}"/>
   </bookViews>
@@ -1310,7 +1310,7 @@
   <dimension ref="A1:P100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2275,7 +2275,7 @@
         <v>85</v>
       </c>
       <c r="E36" s="30">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F36" s="29"/>
     </row>
@@ -3095,7 +3095,7 @@
       </c>
       <c r="E78" s="41">
         <f>SUM(E1:E39, E41:E77)</f>
-        <v>3313</v>
+        <v>3315</v>
       </c>
       <c r="F78" s="29" t="s">
         <v>103</v>

--- a/Achievement Tracker.xlsx
+++ b/Achievement Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Data\AchievementTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{890FD52B-60AF-408C-8DE5-19DE19E51566}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFCEA592-2A4D-417C-B0CD-9AC9969BFA48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{01F7A889-C794-47A9-89C3-7F43CBAA3EFF}"/>
   </bookViews>
@@ -1309,8 +1309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0DD2CDF-28B5-4FF8-81AE-E2FDE175FB34}">
   <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2266,16 +2266,16 @@
       </c>
       <c r="B36" s="11">
         <f>ROUND((C36/D36)*100, 2)</f>
-        <v>95.29</v>
+        <v>96.47</v>
       </c>
       <c r="C36" s="30">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D36" s="30">
         <v>85</v>
       </c>
       <c r="E36" s="30">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F36" s="29"/>
     </row>
@@ -3087,7 +3087,7 @@
       </c>
       <c r="C78" s="41">
         <f>SUM(C1:C39, C41:C77)</f>
-        <v>7749</v>
+        <v>7750</v>
       </c>
       <c r="D78" s="41">
         <f>SUM(D1:D39, D41:D77)</f>
@@ -3095,7 +3095,7 @@
       </c>
       <c r="E78" s="41">
         <f>SUM(E1:E39, E41:E77)</f>
-        <v>3315</v>
+        <v>3317</v>
       </c>
       <c r="F78" s="29" t="s">
         <v>103</v>
@@ -3138,7 +3138,7 @@
       </c>
       <c r="B81" s="36">
         <f>(C78/D78)*100</f>
-        <v>79.419903658911551</v>
+        <v>79.430152710874253</v>
       </c>
       <c r="E81" s="29"/>
       <c r="F81" s="29"/>
@@ -3149,11 +3149,11 @@
       </c>
       <c r="B82" s="41">
         <f>AVERAGEIF(B2:B77, "&gt;0")</f>
-        <v>86.479019607843114</v>
+        <v>86.502156862745068</v>
       </c>
       <c r="C82" s="41">
         <f>(C78/D79)*100</f>
-        <v>92.030878859857481</v>
+        <v>92.042755344418055</v>
       </c>
       <c r="D82" s="29" t="s">
         <v>123</v>

--- a/Achievement Tracker.xlsx
+++ b/Achievement Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Data\AchievementTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFCEA592-2A4D-417C-B0CD-9AC9969BFA48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4DC2AA-4D06-436F-A038-CF6E7D01B770}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{01F7A889-C794-47A9-89C3-7F43CBAA3EFF}"/>
   </bookViews>
@@ -1309,7 +1309,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0DD2CDF-28B5-4FF8-81AE-E2FDE175FB34}">
   <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
@@ -2266,16 +2266,16 @@
       </c>
       <c r="B36" s="11">
         <f>ROUND((C36/D36)*100, 2)</f>
-        <v>96.47</v>
+        <v>97.65</v>
       </c>
       <c r="C36" s="30">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D36" s="30">
         <v>85</v>
       </c>
       <c r="E36" s="30">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="F36" s="29"/>
     </row>
@@ -3087,7 +3087,7 @@
       </c>
       <c r="C78" s="41">
         <f>SUM(C1:C39, C41:C77)</f>
-        <v>7750</v>
+        <v>7751</v>
       </c>
       <c r="D78" s="41">
         <f>SUM(D1:D39, D41:D77)</f>
@@ -3095,7 +3095,7 @@
       </c>
       <c r="E78" s="41">
         <f>SUM(E1:E39, E41:E77)</f>
-        <v>3317</v>
+        <v>3328</v>
       </c>
       <c r="F78" s="29" t="s">
         <v>103</v>
@@ -3138,7 +3138,7 @@
       </c>
       <c r="B81" s="36">
         <f>(C78/D78)*100</f>
-        <v>79.430152710874253</v>
+        <v>79.440401762836942</v>
       </c>
       <c r="E81" s="29"/>
       <c r="F81" s="29"/>
@@ -3149,11 +3149,11 @@
       </c>
       <c r="B82" s="41">
         <f>AVERAGEIF(B2:B77, "&gt;0")</f>
-        <v>86.502156862745068</v>
+        <v>86.525294117647036</v>
       </c>
       <c r="C82" s="41">
         <f>(C78/D79)*100</f>
-        <v>92.042755344418055</v>
+        <v>92.054631828978614</v>
       </c>
       <c r="D82" s="29" t="s">
         <v>123</v>

--- a/Achievement Tracker.xlsx
+++ b/Achievement Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Data\AchievementTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4DC2AA-4D06-436F-A038-CF6E7D01B770}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3C7CF1-E052-48DB-92C9-FCB0E5A13C6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{01F7A889-C794-47A9-89C3-7F43CBAA3EFF}"/>
   </bookViews>
@@ -1310,7 +1310,7 @@
   <dimension ref="A1:P100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2266,16 +2266,16 @@
       </c>
       <c r="B36" s="11">
         <f>ROUND((C36/D36)*100, 2)</f>
-        <v>97.65</v>
+        <v>98.82</v>
       </c>
       <c r="C36" s="30">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D36" s="30">
         <v>85</v>
       </c>
       <c r="E36" s="30">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F36" s="29"/>
     </row>
@@ -3087,7 +3087,7 @@
       </c>
       <c r="C78" s="41">
         <f>SUM(C1:C39, C41:C77)</f>
-        <v>7751</v>
+        <v>7752</v>
       </c>
       <c r="D78" s="41">
         <f>SUM(D1:D39, D41:D77)</f>
@@ -3095,7 +3095,7 @@
       </c>
       <c r="E78" s="41">
         <f>SUM(E1:E39, E41:E77)</f>
-        <v>3328</v>
+        <v>3330</v>
       </c>
       <c r="F78" s="29" t="s">
         <v>103</v>
@@ -3138,7 +3138,7 @@
       </c>
       <c r="B81" s="36">
         <f>(C78/D78)*100</f>
-        <v>79.440401762836942</v>
+        <v>79.45065081479963</v>
       </c>
       <c r="E81" s="29"/>
       <c r="F81" s="29"/>
@@ -3149,11 +3149,11 @@
       </c>
       <c r="B82" s="41">
         <f>AVERAGEIF(B2:B77, "&gt;0")</f>
-        <v>86.525294117647036</v>
+        <v>86.548235294117632</v>
       </c>
       <c r="C82" s="41">
         <f>(C78/D79)*100</f>
-        <v>92.054631828978614</v>
+        <v>92.066508313539202</v>
       </c>
       <c r="D82" s="29" t="s">
         <v>123</v>

--- a/Achievement Tracker.xlsx
+++ b/Achievement Tracker.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Data\AchievementTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3C7CF1-E052-48DB-92C9-FCB0E5A13C6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6BF9BFF-3A46-4E9F-AA86-7CEE507ABF5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{01F7A889-C794-47A9-89C3-7F43CBAA3EFF}"/>
   </bookViews>
@@ -759,7 +759,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -977,9 +977,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1310,7 +1307,7 @@
   <dimension ref="A1:P100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1374,7 +1371,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="10">
-        <f t="shared" ref="B2:B35" si="0">ROUND((C2/D2)*100, 2)</f>
+        <f>ROUND((C2/D2)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C2" s="1">
@@ -1408,7 +1405,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="10">
-        <f t="shared" si="0"/>
+        <f>ROUND((C3/D3)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C3" s="1">
@@ -1442,7 +1439,7 @@
         <v>115</v>
       </c>
       <c r="B4" s="10">
-        <f t="shared" si="0"/>
+        <f>ROUND((C4/D4)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C4" s="30">
@@ -1478,7 +1475,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="10">
-        <f t="shared" si="0"/>
+        <f>ROUND((C5/D5)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C5" s="1">
@@ -1509,7 +1506,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="10">
-        <f t="shared" si="0"/>
+        <f>ROUND((C6/D6)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C6" s="1">
@@ -1542,7 +1539,7 @@
         <v>22</v>
       </c>
       <c r="B7" s="10">
-        <f t="shared" si="0"/>
+        <f>ROUND((C7/D7)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C7" s="1">
@@ -1570,7 +1567,7 @@
         <v>23</v>
       </c>
       <c r="B8" s="10">
-        <f t="shared" si="0"/>
+        <f>ROUND((C8/D8)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C8" s="1">
@@ -1598,7 +1595,7 @@
         <v>24</v>
       </c>
       <c r="B9" s="10">
-        <f t="shared" si="0"/>
+        <f>ROUND((C9/D9)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C9" s="1">
@@ -1628,7 +1625,7 @@
         <v>25</v>
       </c>
       <c r="B10" s="10">
-        <f t="shared" si="0"/>
+        <f>ROUND((C10/D10)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C10" s="30">
@@ -1658,7 +1655,7 @@
         <v>26</v>
       </c>
       <c r="B11" s="10">
-        <f t="shared" si="0"/>
+        <f>ROUND((C11/D11)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C11" s="30">
@@ -1686,7 +1683,7 @@
         <v>117</v>
       </c>
       <c r="B12" s="10">
-        <f t="shared" si="0"/>
+        <f>ROUND((C12/D12)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C12" s="30">
@@ -1714,7 +1711,7 @@
         <v>28</v>
       </c>
       <c r="B13" s="10">
-        <f t="shared" si="0"/>
+        <f>ROUND((C13/D13)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C13" s="30">
@@ -1742,7 +1739,7 @@
         <v>138</v>
       </c>
       <c r="B14" s="10">
-        <f t="shared" si="0"/>
+        <f>ROUND((C14/D14)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C14" s="30">
@@ -1767,20 +1764,20 @@
     </row>
     <row r="15" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>30</v>
+        <v>139</v>
       </c>
       <c r="B15" s="10">
-        <f t="shared" si="0"/>
+        <f>ROUND((C15/D15)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C15" s="30">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="D15" s="30">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="E15" s="30">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="F15" s="29"/>
       <c r="H15" s="25" t="s">
@@ -1795,20 +1792,20 @@
     </row>
     <row r="16" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16" s="10">
-        <f t="shared" si="0"/>
+        <f>ROUND((C16/D16)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C16" s="30">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D16" s="30">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="E16" s="30">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="F16" s="29"/>
       <c r="N16" s="8" t="s">
@@ -1820,20 +1817,20 @@
     </row>
     <row r="17" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B17" s="10">
-        <f t="shared" si="0"/>
+        <f>ROUND((C17/D17)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C17" s="30">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="D17" s="30">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="E17" s="30">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="F17" s="29"/>
       <c r="N17" s="8" t="s">
@@ -1844,25 +1841,23 @@
       </c>
     </row>
     <row r="18" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="68" t="s">
-        <v>116</v>
+      <c r="A18" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="B18" s="10">
-        <f t="shared" si="0"/>
+        <f>ROUND((C18/D18)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C18" s="30">
-        <v>251</v>
+        <v>74</v>
       </c>
       <c r="D18" s="30">
-        <v>251</v>
+        <v>74</v>
       </c>
       <c r="E18" s="30">
-        <v>1</v>
-      </c>
-      <c r="F18" s="29" t="s">
-        <v>126</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="F18" s="29"/>
       <c r="N18" s="8" t="s">
         <v>116</v>
       </c>
@@ -1871,23 +1866,25 @@
       </c>
     </row>
     <row r="19" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
-        <v>37</v>
+      <c r="A19" s="68" t="s">
+        <v>116</v>
       </c>
       <c r="B19" s="10">
-        <f t="shared" si="0"/>
+        <f>ROUND((C19/D19)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C19" s="30">
-        <v>13</v>
+        <v>251</v>
       </c>
       <c r="D19" s="30">
-        <v>13</v>
+        <v>251</v>
       </c>
       <c r="E19" s="30">
-        <v>8</v>
-      </c>
-      <c r="F19" s="29"/>
+        <v>1</v>
+      </c>
+      <c r="F19" s="29" t="s">
+        <v>126</v>
+      </c>
       <c r="N19" s="8" t="s">
         <v>37</v>
       </c>
@@ -1896,25 +1893,23 @@
       </c>
     </row>
     <row r="20" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="51" t="s">
-        <v>70</v>
-      </c>
-      <c r="B20" s="89">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="C20" s="63">
-        <v>74</v>
-      </c>
-      <c r="D20" s="63">
-        <v>74</v>
-      </c>
-      <c r="E20" s="63">
-        <v>2</v>
-      </c>
-      <c r="F20" s="63" t="s">
-        <v>77</v>
-      </c>
+      <c r="A20" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="10">
+        <f>ROUND((C20/D20)*100, 2)</f>
+        <v>100</v>
+      </c>
+      <c r="C20" s="30">
+        <v>13</v>
+      </c>
+      <c r="D20" s="30">
+        <v>13</v>
+      </c>
+      <c r="E20" s="30">
+        <v>8</v>
+      </c>
+      <c r="F20" s="29"/>
       <c r="N20" s="8" t="s">
         <v>70</v>
       </c>
@@ -1923,48 +1918,48 @@
       </c>
     </row>
     <row r="21" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="10">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="C21" s="30">
-        <v>466</v>
-      </c>
-      <c r="D21" s="30">
-        <v>466</v>
-      </c>
-      <c r="E21" s="30">
+      <c r="A21" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="89">
+        <f>ROUND((C21/D21)*100, 2)</f>
+        <v>100</v>
+      </c>
+      <c r="C21" s="63">
+        <v>74</v>
+      </c>
+      <c r="D21" s="63">
+        <v>74</v>
+      </c>
+      <c r="E21" s="63">
         <v>2</v>
       </c>
-      <c r="F21" s="29" t="s">
-        <v>82</v>
+      <c r="F21" s="63" t="s">
+        <v>77</v>
       </c>
       <c r="N21" s="8" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
-        <v>47</v>
+      <c r="A22" s="52" t="s">
+        <v>43</v>
       </c>
       <c r="B22" s="10">
-        <f t="shared" si="0"/>
+        <f>ROUND((C22/D22)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C22" s="30">
-        <v>88</v>
+        <v>466</v>
       </c>
       <c r="D22" s="30">
-        <v>88</v>
+        <v>466</v>
       </c>
       <c r="E22" s="30">
-        <v>558</v>
+        <v>2</v>
       </c>
       <c r="F22" s="29" t="s">
-        <v>141</v>
+        <v>82</v>
       </c>
       <c r="N22" s="8" t="s">
         <v>47</v>
@@ -1972,88 +1967,90 @@
     </row>
     <row r="23" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B23" s="10">
-        <f t="shared" si="0"/>
+        <f>ROUND((C23/D23)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C23" s="30">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="D23" s="30">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="E23" s="30">
-        <v>5</v>
-      </c>
-      <c r="F23" s="29"/>
+        <v>558</v>
+      </c>
+      <c r="F23" s="29" t="s">
+        <v>141</v>
+      </c>
       <c r="N23" s="8" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="B24" s="10">
-        <f t="shared" si="0"/>
+        <f>ROUND((C24/D24)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C24" s="30">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="D24" s="30">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="E24" s="30">
-        <v>1</v>
-      </c>
-      <c r="F24" s="29" t="s">
-        <v>74</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F24" s="29"/>
       <c r="N24" s="8" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B25" s="10">
-        <f t="shared" si="0"/>
+        <f>ROUND((C25/D25)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C25" s="30">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="D25" s="30">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="E25" s="30">
-        <v>5</v>
-      </c>
-      <c r="F25" s="29"/>
+        <v>1</v>
+      </c>
+      <c r="F25" s="29" t="s">
+        <v>74</v>
+      </c>
       <c r="N25" s="8" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B26" s="10">
-        <f t="shared" si="0"/>
+        <f>ROUND((C26/D26)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C26" s="30">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="D26" s="30">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="E26" s="30">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="F26" s="29"/>
       <c r="N26" s="8" t="s">
@@ -2062,20 +2059,20 @@
     </row>
     <row r="27" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B27" s="10">
-        <f t="shared" si="0"/>
+        <f>ROUND((C27/D27)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C27" s="30">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D27" s="30">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="E27" s="30">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F27" s="29"/>
       <c r="N27" s="8" t="s">
@@ -2084,17 +2081,17 @@
     </row>
     <row r="28" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B28" s="10">
-        <f t="shared" si="0"/>
+        <f>ROUND((C28/D28)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C28" s="30">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D28" s="30">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E28" s="30">
         <v>12</v>
@@ -2106,20 +2103,20 @@
     </row>
     <row r="29" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B29" s="10">
-        <f t="shared" si="0"/>
+        <f>ROUND((C29/D29)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C29" s="30">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D29" s="30">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E29" s="30">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F29" s="29"/>
       <c r="N29" s="8" t="s">
@@ -2128,20 +2125,20 @@
     </row>
     <row r="30" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B30" s="10">
-        <f t="shared" si="0"/>
+        <f>ROUND((C30/D30)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C30" s="30">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="D30" s="30">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="E30" s="30">
-        <v>201</v>
+        <v>30</v>
       </c>
       <c r="F30" s="29"/>
       <c r="N30" s="8" t="s">
@@ -2150,20 +2147,20 @@
     </row>
     <row r="31" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B31" s="10">
-        <f t="shared" si="0"/>
+        <f>ROUND((C31/D31)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C31" s="30">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="D31" s="30">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="E31" s="30">
-        <v>14</v>
+        <v>201</v>
       </c>
       <c r="F31" s="29"/>
       <c r="N31" s="8" t="s">
@@ -2172,20 +2169,20 @@
     </row>
     <row r="32" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="B32" s="10">
-        <f t="shared" si="0"/>
+        <f>ROUND((C32/D32)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C32" s="30">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="D32" s="30">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E32" s="30">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="F32" s="29"/>
       <c r="N32" s="8" t="s">
@@ -2194,20 +2191,20 @@
     </row>
     <row r="33" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="B33" s="10">
-        <f t="shared" si="0"/>
+        <f>ROUND((C33/D33)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C33" s="30">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="D33" s="30">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E33" s="30">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="F33" s="29"/>
       <c r="N33" s="8" t="s">
@@ -2215,67 +2212,67 @@
       </c>
     </row>
     <row r="34" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="52" t="s">
+      <c r="A34" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="10">
+        <f>ROUND((C34/D34)*100, 2)</f>
+        <v>100</v>
+      </c>
+      <c r="C34" s="30">
         <v>55</v>
       </c>
-      <c r="B34" s="10">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="C34" s="30">
-        <v>1877</v>
-      </c>
       <c r="D34" s="30">
-        <v>1877</v>
+        <v>55</v>
       </c>
       <c r="E34" s="30">
-        <v>1</v>
-      </c>
-      <c r="F34" s="29" t="s">
-        <v>82</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="F34" s="29"/>
       <c r="N34" s="8" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="7" t="s">
-        <v>64</v>
+      <c r="A35" s="52" t="s">
+        <v>55</v>
       </c>
       <c r="B35" s="10">
-        <f t="shared" si="0"/>
+        <f>ROUND((C35/D35)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C35" s="30">
-        <v>1708</v>
+        <v>1877</v>
       </c>
       <c r="D35" s="30">
-        <v>1708</v>
+        <v>1877</v>
       </c>
       <c r="E35" s="30">
-        <v>2</v>
-      </c>
-      <c r="F35" s="29"/>
+        <v>1</v>
+      </c>
+      <c r="F35" s="29" t="s">
+        <v>82</v>
+      </c>
       <c r="N35" s="8" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="94" t="s">
-        <v>139</v>
-      </c>
-      <c r="B36" s="11">
+      <c r="A36" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" s="10">
         <f>ROUND((C36/D36)*100, 2)</f>
-        <v>98.82</v>
+        <v>100</v>
       </c>
       <c r="C36" s="30">
-        <v>84</v>
+        <v>1708</v>
       </c>
       <c r="D36" s="30">
-        <v>85</v>
+        <v>1708</v>
       </c>
       <c r="E36" s="30">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="F36" s="29"/>
     </row>
@@ -2327,16 +2324,16 @@
       </c>
       <c r="B39" s="70">
         <f>ROUND((C39/D39)*100, 2)</f>
-        <v>86.23</v>
+        <v>86.83</v>
       </c>
       <c r="C39" s="1">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D39" s="1">
         <v>167</v>
       </c>
       <c r="E39" s="1">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="F39" s="29" t="s">
         <v>74</v>
@@ -2347,7 +2344,7 @@
         <v>98</v>
       </c>
       <c r="B40" s="72">
-        <f t="shared" ref="B40:B42" si="1">ROUND((C40/D40)*100, 2)</f>
+        <f t="shared" ref="B40:B42" si="0">ROUND((C40/D40)*100, 2)</f>
         <v>84.62</v>
       </c>
       <c r="C40" s="63">
@@ -2368,7 +2365,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>83.78</v>
       </c>
       <c r="C41" s="30">
@@ -2387,7 +2384,7 @@
         <v>51</v>
       </c>
       <c r="B42" s="93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>71.930000000000007</v>
       </c>
       <c r="C42" s="30">
@@ -2397,7 +2394,7 @@
         <v>114</v>
       </c>
       <c r="E42" s="30">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F42" s="29" t="s">
         <v>84</v>
@@ -2408,7 +2405,7 @@
         <v>7</v>
       </c>
       <c r="B43" s="74">
-        <f t="shared" ref="B43" si="2">ROUND((C43/D43)*100, 2)</f>
+        <f t="shared" ref="B43" si="1">ROUND((C43/D43)*100, 2)</f>
         <v>69.33</v>
       </c>
       <c r="C43" s="1">
@@ -2427,7 +2424,7 @@
         <v>71</v>
       </c>
       <c r="B44" s="76">
-        <f t="shared" ref="B44:B49" si="3">ROUND((C44/D44)*100, 2)</f>
+        <f t="shared" ref="B44:B49" si="2">ROUND((C44/D44)*100, 2)</f>
         <v>56.76</v>
       </c>
       <c r="C44" s="30">
@@ -2448,7 +2445,7 @@
         <v>8</v>
       </c>
       <c r="B45" s="76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>56.41</v>
       </c>
       <c r="C45" s="1">
@@ -2469,7 +2466,7 @@
         <v>16</v>
       </c>
       <c r="B46" s="76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>56.25</v>
       </c>
       <c r="C46" s="1">
@@ -2488,7 +2485,7 @@
         <v>49</v>
       </c>
       <c r="B47" s="76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>55.32</v>
       </c>
       <c r="C47" s="30">
@@ -2507,7 +2504,7 @@
         <v>32</v>
       </c>
       <c r="B48" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>45.83</v>
       </c>
       <c r="C48" s="30">
@@ -2526,7 +2523,7 @@
         <v>50</v>
       </c>
       <c r="B49" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>43.66</v>
       </c>
       <c r="C49" s="30">
@@ -2547,7 +2544,7 @@
         <v>34</v>
       </c>
       <c r="B50" s="13">
-        <f t="shared" ref="B50:B65" si="4">ROUND((C50/D50)*100, 2)</f>
+        <f t="shared" ref="B50:B65" si="3">ROUND((C50/D50)*100, 2)</f>
         <v>7.69</v>
       </c>
       <c r="C50" s="30">
@@ -2566,7 +2563,7 @@
         <v>35</v>
       </c>
       <c r="B51" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5.26</v>
       </c>
       <c r="C51" s="30">
@@ -2585,7 +2582,7 @@
         <v>15</v>
       </c>
       <c r="B52" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2.0699999999999998</v>
       </c>
       <c r="C52" s="1">
@@ -2606,7 +2603,7 @@
         <v>10</v>
       </c>
       <c r="B53" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C53" s="30">
@@ -2625,7 +2622,7 @@
         <v>11</v>
       </c>
       <c r="B54" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C54" s="30">
@@ -2644,7 +2641,7 @@
         <v>12</v>
       </c>
       <c r="B55" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C55" s="30">
@@ -2663,7 +2660,7 @@
         <v>9</v>
       </c>
       <c r="B56" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C56" s="1">
@@ -2681,7 +2678,7 @@
         <v>13</v>
       </c>
       <c r="B57" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C57" s="1">
@@ -2700,7 +2697,7 @@
         <v>17</v>
       </c>
       <c r="B58" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C58" s="1">
@@ -2719,7 +2716,7 @@
         <v>20</v>
       </c>
       <c r="B59" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C59" s="30">
@@ -2738,7 +2735,7 @@
         <v>21</v>
       </c>
       <c r="B60" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C60" s="30">
@@ -2757,7 +2754,7 @@
         <v>114</v>
       </c>
       <c r="B61" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C61" s="30">
@@ -2778,7 +2775,7 @@
         <v>111</v>
       </c>
       <c r="B62" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C62" s="30">
@@ -2797,7 +2794,7 @@
         <v>27</v>
       </c>
       <c r="B63" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C63" s="30">
@@ -2816,7 +2813,7 @@
         <v>140</v>
       </c>
       <c r="B64" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C64" s="30">
@@ -2835,7 +2832,7 @@
         <v>142</v>
       </c>
       <c r="B65" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C65" s="30">
@@ -2854,7 +2851,7 @@
         <v>29</v>
       </c>
       <c r="B66" s="14">
-        <f t="shared" ref="B66:B77" si="5">ROUND((C66/D66)*100, 2)</f>
+        <f t="shared" ref="B66:B77" si="4">ROUND((C66/D66)*100, 2)</f>
         <v>0</v>
       </c>
       <c r="C66" s="30">
@@ -2873,7 +2870,7 @@
         <v>118</v>
       </c>
       <c r="B67" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C67" s="30">
@@ -2892,7 +2889,7 @@
         <v>36</v>
       </c>
       <c r="B68" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C68" s="30">
@@ -2911,7 +2908,7 @@
         <v>38</v>
       </c>
       <c r="B69" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C69" s="30">
@@ -2930,7 +2927,7 @@
         <v>42</v>
       </c>
       <c r="B70" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C70" s="30">
@@ -2949,7 +2946,7 @@
         <v>44</v>
       </c>
       <c r="B71" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C71" s="30">
@@ -2968,7 +2965,7 @@
         <v>46</v>
       </c>
       <c r="B72" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C72" s="30">
@@ -2987,7 +2984,7 @@
         <v>45</v>
       </c>
       <c r="B73" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C73" s="30">
@@ -3006,7 +3003,7 @@
         <v>113</v>
       </c>
       <c r="B74" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C74" s="30">
@@ -3025,7 +3022,7 @@
         <v>54</v>
       </c>
       <c r="B75" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C75" s="30">
@@ -3044,7 +3041,7 @@
         <v>56</v>
       </c>
       <c r="B76" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C76" s="30">
@@ -3063,7 +3060,7 @@
         <v>61</v>
       </c>
       <c r="B77" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C77" s="30">
@@ -3087,7 +3084,7 @@
       </c>
       <c r="C78" s="41">
         <f>SUM(C1:C39, C41:C77)</f>
-        <v>7752</v>
+        <v>7754</v>
       </c>
       <c r="D78" s="41">
         <f>SUM(D1:D39, D41:D77)</f>
@@ -3095,7 +3092,7 @@
       </c>
       <c r="E78" s="41">
         <f>SUM(E1:E39, E41:E77)</f>
-        <v>3330</v>
+        <v>3337</v>
       </c>
       <c r="F78" s="29" t="s">
         <v>103</v>
@@ -3125,7 +3122,7 @@
       </c>
       <c r="B80" s="40">
         <f>COUNTIF(B1:B77, "&gt;=100")</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C80" s="29"/>
       <c r="D80" s="29"/>
@@ -3138,7 +3135,7 @@
       </c>
       <c r="B81" s="36">
         <f>(C78/D78)*100</f>
-        <v>79.45065081479963</v>
+        <v>79.471148918725021</v>
       </c>
       <c r="E81" s="29"/>
       <c r="F81" s="29"/>
@@ -3149,11 +3146,11 @@
       </c>
       <c r="B82" s="41">
         <f>AVERAGEIF(B2:B77, "&gt;0")</f>
-        <v>86.548235294117632</v>
+        <v>86.583137254901942</v>
       </c>
       <c r="C82" s="41">
         <f>(C78/D79)*100</f>
-        <v>92.066508313539202</v>
+        <v>92.090261282660336</v>
       </c>
       <c r="D82" s="29" t="s">
         <v>123</v>
@@ -3165,15 +3162,15 @@
       </c>
       <c r="B83" s="39">
         <f>ROUND(((B80/B79)*100), 2)</f>
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A84" s="95" t="s">
+      <c r="A84" s="94" t="s">
         <v>87</v>
       </c>
-      <c r="B84" s="95"/>
-      <c r="C84" s="95"/>
+      <c r="B84" s="94"/>
+      <c r="C84" s="94"/>
     </row>
     <row r="85" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="88" t="s">
@@ -3318,8 +3315,8 @@
       <c r="C100" s="29"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A36:F39">
-    <sortCondition descending="1" ref="B36:B39"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F36">
+    <sortCondition ref="A2:A36"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A84:C84"/>

--- a/Achievement Tracker.xlsx
+++ b/Achievement Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Data\AchievementTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6BF9BFF-3A46-4E9F-AA86-7CEE507ABF5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A972103-A58A-43D5-B6D1-652D42D7CFAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{01F7A889-C794-47A9-89C3-7F43CBAA3EFF}"/>
+    <workbookView xWindow="-28920" yWindow="-4035" windowWidth="29040" windowHeight="15840" xr2:uid="{01F7A889-C794-47A9-89C3-7F43CBAA3EFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1306,8 +1306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0DD2CDF-28B5-4FF8-81AE-E2FDE175FB34}">
   <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1371,7 +1371,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="10">
-        <f>ROUND((C2/D2)*100, 2)</f>
+        <f t="shared" ref="B2:B39" si="0">ROUND((C2/D2)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C2" s="1">
@@ -1405,7 +1405,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="10">
-        <f>ROUND((C3/D3)*100, 2)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="C3" s="1">
@@ -1439,7 +1439,7 @@
         <v>115</v>
       </c>
       <c r="B4" s="10">
-        <f>ROUND((C4/D4)*100, 2)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="C4" s="30">
@@ -1475,7 +1475,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="10">
-        <f>ROUND((C5/D5)*100, 2)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="C5" s="1">
@@ -1506,7 +1506,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="10">
-        <f>ROUND((C6/D6)*100, 2)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="C6" s="1">
@@ -1539,7 +1539,7 @@
         <v>22</v>
       </c>
       <c r="B7" s="10">
-        <f>ROUND((C7/D7)*100, 2)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="C7" s="1">
@@ -1567,7 +1567,7 @@
         <v>23</v>
       </c>
       <c r="B8" s="10">
-        <f>ROUND((C8/D8)*100, 2)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="C8" s="1">
@@ -1595,7 +1595,7 @@
         <v>24</v>
       </c>
       <c r="B9" s="10">
-        <f>ROUND((C9/D9)*100, 2)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="C9" s="1">
@@ -1625,7 +1625,7 @@
         <v>25</v>
       </c>
       <c r="B10" s="10">
-        <f>ROUND((C10/D10)*100, 2)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="C10" s="30">
@@ -1655,7 +1655,7 @@
         <v>26</v>
       </c>
       <c r="B11" s="10">
-        <f>ROUND((C11/D11)*100, 2)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="C11" s="30">
@@ -1683,7 +1683,7 @@
         <v>117</v>
       </c>
       <c r="B12" s="10">
-        <f>ROUND((C12/D12)*100, 2)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="C12" s="30">
@@ -1711,7 +1711,7 @@
         <v>28</v>
       </c>
       <c r="B13" s="10">
-        <f>ROUND((C13/D13)*100, 2)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="C13" s="30">
@@ -1739,7 +1739,7 @@
         <v>138</v>
       </c>
       <c r="B14" s="10">
-        <f>ROUND((C14/D14)*100, 2)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="C14" s="30">
@@ -1767,7 +1767,7 @@
         <v>139</v>
       </c>
       <c r="B15" s="10">
-        <f>ROUND((C15/D15)*100, 2)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="C15" s="30">
@@ -1795,7 +1795,7 @@
         <v>30</v>
       </c>
       <c r="B16" s="10">
-        <f>ROUND((C16/D16)*100, 2)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="C16" s="30">
@@ -1820,7 +1820,7 @@
         <v>31</v>
       </c>
       <c r="B17" s="10">
-        <f>ROUND((C17/D17)*100, 2)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="C17" s="30">
@@ -1845,7 +1845,7 @@
         <v>33</v>
       </c>
       <c r="B18" s="10">
-        <f>ROUND((C18/D18)*100, 2)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="C18" s="30">
@@ -1870,7 +1870,7 @@
         <v>116</v>
       </c>
       <c r="B19" s="10">
-        <f>ROUND((C19/D19)*100, 2)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="C19" s="30">
@@ -1897,7 +1897,7 @@
         <v>37</v>
       </c>
       <c r="B20" s="10">
-        <f>ROUND((C20/D20)*100, 2)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="C20" s="30">
@@ -1922,7 +1922,7 @@
         <v>70</v>
       </c>
       <c r="B21" s="89">
-        <f>ROUND((C21/D21)*100, 2)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="C21" s="63">
@@ -1946,7 +1946,7 @@
         <v>43</v>
       </c>
       <c r="B22" s="10">
-        <f>ROUND((C22/D22)*100, 2)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="C22" s="30">
@@ -1970,7 +1970,7 @@
         <v>47</v>
       </c>
       <c r="B23" s="10">
-        <f>ROUND((C23/D23)*100, 2)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="C23" s="30">
@@ -1994,7 +1994,7 @@
         <v>52</v>
       </c>
       <c r="B24" s="10">
-        <f>ROUND((C24/D24)*100, 2)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="C24" s="30">
@@ -2016,7 +2016,7 @@
         <v>40</v>
       </c>
       <c r="B25" s="10">
-        <f>ROUND((C25/D25)*100, 2)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="C25" s="30">
@@ -2040,7 +2040,7 @@
         <v>48</v>
       </c>
       <c r="B26" s="10">
-        <f>ROUND((C26/D26)*100, 2)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="C26" s="30">
@@ -2062,7 +2062,7 @@
         <v>57</v>
       </c>
       <c r="B27" s="10">
-        <f>ROUND((C27/D27)*100, 2)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="C27" s="30">
@@ -2084,7 +2084,7 @@
         <v>59</v>
       </c>
       <c r="B28" s="10">
-        <f>ROUND((C28/D28)*100, 2)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="C28" s="30">
@@ -2106,7 +2106,7 @@
         <v>58</v>
       </c>
       <c r="B29" s="10">
-        <f>ROUND((C29/D29)*100, 2)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="C29" s="30">
@@ -2128,7 +2128,7 @@
         <v>60</v>
       </c>
       <c r="B30" s="10">
-        <f>ROUND((C30/D30)*100, 2)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="C30" s="30">
@@ -2150,7 +2150,7 @@
         <v>62</v>
       </c>
       <c r="B31" s="10">
-        <f>ROUND((C31/D31)*100, 2)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="C31" s="30">
@@ -2172,7 +2172,7 @@
         <v>63</v>
       </c>
       <c r="B32" s="10">
-        <f>ROUND((C32/D32)*100, 2)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="C32" s="30">
@@ -2194,7 +2194,7 @@
         <v>112</v>
       </c>
       <c r="B33" s="10">
-        <f>ROUND((C33/D33)*100, 2)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="C33" s="30">
@@ -2216,7 +2216,7 @@
         <v>53</v>
       </c>
       <c r="B34" s="10">
-        <f>ROUND((C34/D34)*100, 2)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="C34" s="30">
@@ -2238,7 +2238,7 @@
         <v>55</v>
       </c>
       <c r="B35" s="10">
-        <f>ROUND((C35/D35)*100, 2)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="C35" s="30">
@@ -2262,7 +2262,7 @@
         <v>64</v>
       </c>
       <c r="B36" s="10">
-        <f>ROUND((C36/D36)*100, 2)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="C36" s="30">
@@ -2281,7 +2281,7 @@
         <v>39</v>
       </c>
       <c r="B37" s="11">
-        <f>ROUND((C37/D37)*100, 2)</f>
+        <f t="shared" si="0"/>
         <v>95.19</v>
       </c>
       <c r="C37" s="30">
@@ -2302,7 +2302,7 @@
         <v>65</v>
       </c>
       <c r="B38" s="11">
-        <f>ROUND((C38/D38)*100, 2)</f>
+        <f t="shared" si="0"/>
         <v>94.81</v>
       </c>
       <c r="C38" s="30">
@@ -2323,7 +2323,7 @@
         <v>14</v>
       </c>
       <c r="B39" s="70">
-        <f>ROUND((C39/D39)*100, 2)</f>
+        <f t="shared" si="0"/>
         <v>86.83</v>
       </c>
       <c r="C39" s="1">
@@ -2333,7 +2333,7 @@
         <v>167</v>
       </c>
       <c r="E39" s="1">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F39" s="29" t="s">
         <v>74</v>
@@ -2344,7 +2344,7 @@
         <v>98</v>
       </c>
       <c r="B40" s="72">
-        <f t="shared" ref="B40:B42" si="0">ROUND((C40/D40)*100, 2)</f>
+        <f t="shared" ref="B40:B42" si="1">ROUND((C40/D40)*100, 2)</f>
         <v>84.62</v>
       </c>
       <c r="C40" s="63">
@@ -2365,7 +2365,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="70">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>83.78</v>
       </c>
       <c r="C41" s="30">
@@ -2384,7 +2384,7 @@
         <v>51</v>
       </c>
       <c r="B42" s="93">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>71.930000000000007</v>
       </c>
       <c r="C42" s="30">
@@ -2394,7 +2394,7 @@
         <v>114</v>
       </c>
       <c r="E42" s="30">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="F42" s="29" t="s">
         <v>84</v>
@@ -2405,7 +2405,7 @@
         <v>7</v>
       </c>
       <c r="B43" s="74">
-        <f t="shared" ref="B43" si="1">ROUND((C43/D43)*100, 2)</f>
+        <f t="shared" ref="B43" si="2">ROUND((C43/D43)*100, 2)</f>
         <v>69.33</v>
       </c>
       <c r="C43" s="1">
@@ -2424,7 +2424,7 @@
         <v>71</v>
       </c>
       <c r="B44" s="76">
-        <f t="shared" ref="B44:B49" si="2">ROUND((C44/D44)*100, 2)</f>
+        <f t="shared" ref="B44:B49" si="3">ROUND((C44/D44)*100, 2)</f>
         <v>56.76</v>
       </c>
       <c r="C44" s="30">
@@ -2445,7 +2445,7 @@
         <v>8</v>
       </c>
       <c r="B45" s="76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>56.41</v>
       </c>
       <c r="C45" s="1">
@@ -2466,7 +2466,7 @@
         <v>16</v>
       </c>
       <c r="B46" s="76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>56.25</v>
       </c>
       <c r="C46" s="1">
@@ -2485,7 +2485,7 @@
         <v>49</v>
       </c>
       <c r="B47" s="76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>55.32</v>
       </c>
       <c r="C47" s="30">
@@ -2504,7 +2504,7 @@
         <v>32</v>
       </c>
       <c r="B48" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45.83</v>
       </c>
       <c r="C48" s="30">
@@ -2523,7 +2523,7 @@
         <v>50</v>
       </c>
       <c r="B49" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43.66</v>
       </c>
       <c r="C49" s="30">
@@ -2544,7 +2544,7 @@
         <v>34</v>
       </c>
       <c r="B50" s="13">
-        <f t="shared" ref="B50:B65" si="3">ROUND((C50/D50)*100, 2)</f>
+        <f t="shared" ref="B50:B65" si="4">ROUND((C50/D50)*100, 2)</f>
         <v>7.69</v>
       </c>
       <c r="C50" s="30">
@@ -2563,7 +2563,7 @@
         <v>35</v>
       </c>
       <c r="B51" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.26</v>
       </c>
       <c r="C51" s="30">
@@ -2582,7 +2582,7 @@
         <v>15</v>
       </c>
       <c r="B52" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.0699999999999998</v>
       </c>
       <c r="C52" s="1">
@@ -2603,7 +2603,7 @@
         <v>10</v>
       </c>
       <c r="B53" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C53" s="30">
@@ -2622,7 +2622,7 @@
         <v>11</v>
       </c>
       <c r="B54" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C54" s="30">
@@ -2641,7 +2641,7 @@
         <v>12</v>
       </c>
       <c r="B55" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C55" s="30">
@@ -2660,7 +2660,7 @@
         <v>9</v>
       </c>
       <c r="B56" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C56" s="1">
@@ -2678,7 +2678,7 @@
         <v>13</v>
       </c>
       <c r="B57" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C57" s="1">
@@ -2697,7 +2697,7 @@
         <v>17</v>
       </c>
       <c r="B58" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C58" s="1">
@@ -2716,7 +2716,7 @@
         <v>20</v>
       </c>
       <c r="B59" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C59" s="30">
@@ -2735,7 +2735,7 @@
         <v>21</v>
       </c>
       <c r="B60" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C60" s="30">
@@ -2754,7 +2754,7 @@
         <v>114</v>
       </c>
       <c r="B61" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C61" s="30">
@@ -2775,7 +2775,7 @@
         <v>111</v>
       </c>
       <c r="B62" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C62" s="30">
@@ -2794,7 +2794,7 @@
         <v>27</v>
       </c>
       <c r="B63" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C63" s="30">
@@ -2813,7 +2813,7 @@
         <v>140</v>
       </c>
       <c r="B64" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C64" s="30">
@@ -2832,7 +2832,7 @@
         <v>142</v>
       </c>
       <c r="B65" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C65" s="30">
@@ -2851,7 +2851,7 @@
         <v>29</v>
       </c>
       <c r="B66" s="14">
-        <f t="shared" ref="B66:B77" si="4">ROUND((C66/D66)*100, 2)</f>
+        <f t="shared" ref="B66:B77" si="5">ROUND((C66/D66)*100, 2)</f>
         <v>0</v>
       </c>
       <c r="C66" s="30">
@@ -2870,7 +2870,7 @@
         <v>118</v>
       </c>
       <c r="B67" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C67" s="30">
@@ -2889,7 +2889,7 @@
         <v>36</v>
       </c>
       <c r="B68" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C68" s="30">
@@ -2908,7 +2908,7 @@
         <v>38</v>
       </c>
       <c r="B69" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C69" s="30">
@@ -2927,7 +2927,7 @@
         <v>42</v>
       </c>
       <c r="B70" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C70" s="30">
@@ -2946,7 +2946,7 @@
         <v>44</v>
       </c>
       <c r="B71" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C71" s="30">
@@ -2965,7 +2965,7 @@
         <v>46</v>
       </c>
       <c r="B72" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C72" s="30">
@@ -2984,7 +2984,7 @@
         <v>45</v>
       </c>
       <c r="B73" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C73" s="30">
@@ -3003,7 +3003,7 @@
         <v>113</v>
       </c>
       <c r="B74" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C74" s="30">
@@ -3022,7 +3022,7 @@
         <v>54</v>
       </c>
       <c r="B75" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C75" s="30">
@@ -3041,7 +3041,7 @@
         <v>56</v>
       </c>
       <c r="B76" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C76" s="30">
@@ -3060,7 +3060,7 @@
         <v>61</v>
       </c>
       <c r="B77" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C77" s="30">
@@ -3092,7 +3092,7 @@
       </c>
       <c r="E78" s="41">
         <f>SUM(E1:E39, E41:E77)</f>
-        <v>3337</v>
+        <v>3345</v>
       </c>
       <c r="F78" s="29" t="s">
         <v>103</v>

--- a/Achievement Tracker.xlsx
+++ b/Achievement Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Data\AchievementTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A972103-A58A-43D5-B6D1-652D42D7CFAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD63713-0AED-4A91-BC3C-45AE49106AAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-4035" windowWidth="29040" windowHeight="15840" xr2:uid="{01F7A889-C794-47A9-89C3-7F43CBAA3EFF}"/>
   </bookViews>
@@ -759,7 +759,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -980,6 +980,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1306,8 +1309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0DD2CDF-28B5-4FF8-81AE-E2FDE175FB34}">
   <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1391,7 +1394,7 @@
         <v>7</v>
       </c>
       <c r="L2" s="26" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>5</v>
@@ -1553,7 +1556,7 @@
       </c>
       <c r="F7" s="29"/>
       <c r="H7" s="60" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="N7" s="8" t="s">
         <v>22</v>
@@ -1580,8 +1583,8 @@
         <v>17</v>
       </c>
       <c r="F8" s="29"/>
-      <c r="H8" s="60" t="s">
-        <v>142</v>
+      <c r="H8" s="25" t="s">
+        <v>29</v>
       </c>
       <c r="N8" s="8" t="s">
         <v>23</v>
@@ -1611,7 +1614,7 @@
         <v>73</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="N9" s="8" t="s">
         <v>24</v>
@@ -1641,7 +1644,7 @@
         <v>83</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="N10" s="8" t="s">
         <v>25</v>
@@ -1668,8 +1671,8 @@
         <v>6</v>
       </c>
       <c r="F11" s="29"/>
-      <c r="H11" s="25" t="s">
-        <v>44</v>
+      <c r="H11" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="N11" s="8" t="s">
         <v>26</v>
@@ -1696,8 +1699,8 @@
         <v>39</v>
       </c>
       <c r="F12" s="29"/>
-      <c r="H12" s="2" t="s">
-        <v>45</v>
+      <c r="H12" s="60" t="s">
+        <v>113</v>
       </c>
       <c r="N12" s="8" t="s">
         <v>117</v>
@@ -1724,8 +1727,8 @@
         <v>75</v>
       </c>
       <c r="F13" s="29"/>
-      <c r="H13" s="60" t="s">
-        <v>113</v>
+      <c r="H13" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="N13" s="8" t="s">
         <v>28</v>
@@ -1752,8 +1755,8 @@
         <v>42</v>
       </c>
       <c r="F14" s="29"/>
-      <c r="H14" s="2" t="s">
-        <v>54</v>
+      <c r="H14" s="25" t="s">
+        <v>61</v>
       </c>
       <c r="N14" s="87" t="s">
         <v>138</v>
@@ -1780,11 +1783,8 @@
         <v>71</v>
       </c>
       <c r="F15" s="29"/>
-      <c r="H15" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="N15" s="8" t="s">
-        <v>30</v>
+      <c r="N15" s="87" t="s">
+        <v>139</v>
       </c>
       <c r="P15" s="18" t="s">
         <v>71</v>
@@ -1809,7 +1809,7 @@
       </c>
       <c r="F16" s="29"/>
       <c r="N16" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P16" s="17" t="s">
         <v>46</v>
@@ -1834,7 +1834,7 @@
       </c>
       <c r="F17" s="29"/>
       <c r="N17" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P17" s="17" t="s">
         <v>50</v>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F18" s="29"/>
       <c r="N18" s="8" t="s">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="P18" s="33" t="s">
         <v>51</v>
@@ -1886,7 +1886,7 @@
         <v>126</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>37</v>
+        <v>116</v>
       </c>
       <c r="P19" s="17" t="s">
         <v>65</v>
@@ -1911,7 +1911,7 @@
       </c>
       <c r="F20" s="29"/>
       <c r="N20" s="8" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="P20" s="17" t="s">
         <v>56</v>
@@ -1938,7 +1938,7 @@
         <v>77</v>
       </c>
       <c r="N21" s="8" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
@@ -1962,7 +1962,7 @@
         <v>82</v>
       </c>
       <c r="N22" s="8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
@@ -1986,7 +1986,7 @@
         <v>141</v>
       </c>
       <c r="N23" s="8" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="F24" s="29"/>
       <c r="N24" s="8" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
@@ -2032,7 +2032,7 @@
         <v>74</v>
       </c>
       <c r="N25" s="8" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
@@ -2054,7 +2054,7 @@
       </c>
       <c r="F26" s="29"/>
       <c r="N26" s="8" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
@@ -2076,7 +2076,7 @@
       </c>
       <c r="F27" s="29"/>
       <c r="N27" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
@@ -2098,7 +2098,7 @@
       </c>
       <c r="F28" s="29"/>
       <c r="N28" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
@@ -2120,7 +2120,7 @@
       </c>
       <c r="F29" s="29"/>
       <c r="N29" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
@@ -2142,7 +2142,7 @@
       </c>
       <c r="F30" s="29"/>
       <c r="N30" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
@@ -2164,7 +2164,7 @@
       </c>
       <c r="F31" s="29"/>
       <c r="N31" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
@@ -2186,7 +2186,7 @@
       </c>
       <c r="F32" s="29"/>
       <c r="N32" s="8" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
@@ -2208,7 +2208,7 @@
       </c>
       <c r="F33" s="29"/>
       <c r="N33" s="8" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
@@ -2230,7 +2230,7 @@
       </c>
       <c r="F34" s="29"/>
       <c r="N34" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
@@ -2254,7 +2254,7 @@
         <v>82</v>
       </c>
       <c r="N35" s="8" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
@@ -2275,6 +2275,9 @@
         <v>2</v>
       </c>
       <c r="F36" s="29"/>
+      <c r="N36" s="8" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="37" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="28" t="s">
@@ -2333,7 +2336,7 @@
         <v>167</v>
       </c>
       <c r="E39" s="1">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F39" s="29" t="s">
         <v>74</v>
@@ -2466,7 +2469,7 @@
         <v>16</v>
       </c>
       <c r="B46" s="76">
-        <f t="shared" si="3"/>
+        <f>ROUND((C46/D46)*100, 2)</f>
         <v>56.25</v>
       </c>
       <c r="C46" s="1">
@@ -2485,7 +2488,7 @@
         <v>49</v>
       </c>
       <c r="B47" s="76">
-        <f t="shared" si="3"/>
+        <f>ROUND((C47/D47)*100, 2)</f>
         <v>55.32</v>
       </c>
       <c r="C47" s="30">
@@ -2504,7 +2507,7 @@
         <v>32</v>
       </c>
       <c r="B48" s="12">
-        <f t="shared" si="3"/>
+        <f>ROUND((C48/D48)*100, 2)</f>
         <v>45.83</v>
       </c>
       <c r="C48" s="30">
@@ -2523,7 +2526,7 @@
         <v>50</v>
       </c>
       <c r="B49" s="12">
-        <f t="shared" si="3"/>
+        <f>ROUND((C49/D49)*100, 2)</f>
         <v>43.66</v>
       </c>
       <c r="C49" s="30">
@@ -2540,18 +2543,18 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
-        <v>34</v>
+      <c r="A50" s="95" t="s">
+        <v>140</v>
       </c>
       <c r="B50" s="13">
-        <f t="shared" ref="B50:B65" si="4">ROUND((C50/D50)*100, 2)</f>
-        <v>7.69</v>
+        <f>ROUND((C50/D50)*100, 2)</f>
+        <v>8.43</v>
       </c>
       <c r="C50" s="30">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D50" s="30">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="E50" s="30">
         <v>2</v>
@@ -2560,38 +2563,38 @@
     </row>
     <row r="51" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B51" s="13">
-        <f t="shared" si="4"/>
-        <v>5.26</v>
+        <f>ROUND((C51/D51)*100, 2)</f>
+        <v>7.69</v>
       </c>
       <c r="C51" s="30">
+        <v>4</v>
+      </c>
+      <c r="D51" s="30">
+        <v>52</v>
+      </c>
+      <c r="E51" s="30">
         <v>2</v>
-      </c>
-      <c r="D51" s="30">
-        <v>38</v>
-      </c>
-      <c r="E51" s="30">
-        <v>3</v>
       </c>
       <c r="F51" s="29"/>
     </row>
     <row r="52" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="B52" s="13">
-        <f t="shared" si="4"/>
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="C52" s="1">
-        <v>4</v>
-      </c>
-      <c r="D52" s="1">
-        <v>193</v>
-      </c>
-      <c r="E52" s="1">
+        <f>ROUND((C52/D52)*100, 2)</f>
+        <v>5.26</v>
+      </c>
+      <c r="C52" s="30">
+        <v>2</v>
+      </c>
+      <c r="D52" s="30">
+        <v>38</v>
+      </c>
+      <c r="E52" s="30">
         <v>3</v>
       </c>
       <c r="F52" s="29" t="s">
@@ -2599,37 +2602,37 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A53" s="31" t="s">
+      <c r="A53" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B53" s="13">
+        <f>ROUND((C53/D53)*100, 2)</f>
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="C53" s="1">
+        <v>4</v>
+      </c>
+      <c r="D53" s="1">
+        <v>193</v>
+      </c>
+      <c r="E53" s="1">
+        <v>3</v>
+      </c>
+      <c r="F53" s="29"/>
+    </row>
+    <row r="54" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A54" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="C53" s="30">
-        <v>0</v>
-      </c>
-      <c r="D53" s="30">
+      <c r="B54" s="14">
+        <f>ROUND((C54/D54)*100, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="C54" s="30">
+        <v>0</v>
+      </c>
+      <c r="D54" s="30">
         <v>18</v>
-      </c>
-      <c r="E53" s="30">
-        <v>0</v>
-      </c>
-      <c r="F53" s="29"/>
-    </row>
-    <row r="54" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A54" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="B54" s="15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="C54" s="30">
-        <v>0</v>
-      </c>
-      <c r="D54" s="30">
-        <v>74</v>
       </c>
       <c r="E54" s="30">
         <v>0</v>
@@ -2638,54 +2641,54 @@
     </row>
     <row r="55" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B55" s="15">
+        <f>ROUND((C55/D55)*100, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="C55" s="30">
+        <v>0</v>
+      </c>
+      <c r="D55" s="30">
+        <v>74</v>
+      </c>
+      <c r="E55" s="30">
+        <v>0</v>
+      </c>
+      <c r="F55" s="29"/>
+    </row>
+    <row r="56" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A56" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="C55" s="30">
-        <v>0</v>
-      </c>
-      <c r="D55" s="30">
+      <c r="B56" s="15">
+        <f>ROUND((C56/D56)*100, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="C56" s="30">
+        <v>0</v>
+      </c>
+      <c r="D56" s="30">
         <v>54</v>
       </c>
-      <c r="E55" s="30">
-        <v>0</v>
-      </c>
-      <c r="F55" s="29"/>
-    </row>
-    <row r="56" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="6" t="s">
+      <c r="E56" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B56" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="C56" s="1">
-        <v>0</v>
-      </c>
-      <c r="D56" s="1">
+      <c r="B57" s="14">
+        <f>ROUND((C57/D57)*100, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="C57" s="1">
+        <v>0</v>
+      </c>
+      <c r="D57" s="1">
         <v>63</v>
-      </c>
-      <c r="E56" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A57" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B57" s="15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="C57" s="1">
-        <v>0</v>
-      </c>
-      <c r="D57" s="1">
-        <v>12</v>
       </c>
       <c r="E57" s="1">
         <v>0</v>
@@ -2694,17 +2697,17 @@
     </row>
     <row r="58" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B58" s="15">
-        <f t="shared" si="4"/>
+        <f>ROUND((C58/D58)*100, 2)</f>
         <v>0</v>
       </c>
       <c r="C58" s="1">
         <v>0</v>
       </c>
       <c r="D58" s="1">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="E58" s="1">
         <v>0</v>
@@ -2713,55 +2716,55 @@
     </row>
     <row r="59" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B59" s="15">
+        <f>ROUND((C59/D59)*100, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="C59" s="1">
+        <v>0</v>
+      </c>
+      <c r="D59" s="1">
+        <v>54</v>
+      </c>
+      <c r="E59" s="1">
+        <v>0</v>
+      </c>
+      <c r="F59" s="29"/>
+    </row>
+    <row r="60" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A60" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B59" s="15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="C59" s="30">
-        <v>0</v>
-      </c>
-      <c r="D59" s="1">
+      <c r="B60" s="15">
+        <f>ROUND((C60/D60)*100, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="C60" s="30">
+        <v>0</v>
+      </c>
+      <c r="D60" s="1">
         <v>170</v>
       </c>
-      <c r="E59" s="30">
-        <v>0</v>
-      </c>
-      <c r="F59" s="29"/>
-    </row>
-    <row r="60" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A60" s="6" t="s">
+      <c r="E60" s="30">
+        <v>0</v>
+      </c>
+      <c r="F60" s="29"/>
+    </row>
+    <row r="61" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A61" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B60" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="C60" s="30">
-        <v>0</v>
-      </c>
-      <c r="D60" s="1">
+      <c r="B61" s="14">
+        <f>ROUND((C61/D61)*100, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="C61" s="30">
+        <v>0</v>
+      </c>
+      <c r="D61" s="1">
         <v>33</v>
-      </c>
-      <c r="E60" s="30">
-        <v>0</v>
-      </c>
-      <c r="F60" s="29"/>
-    </row>
-    <row r="61" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A61" s="66" t="s">
-        <v>114</v>
-      </c>
-      <c r="B61" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="C61" s="30">
-        <v>0</v>
-      </c>
-      <c r="D61" s="30">
-        <v>95</v>
       </c>
       <c r="E61" s="30">
         <v>0</v>
@@ -2771,56 +2774,56 @@
       </c>
     </row>
     <row r="62" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A62" s="65" t="s">
+      <c r="A62" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="B62" s="14">
+        <f>ROUND((C62/D62)*100, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="C62" s="30">
+        <v>0</v>
+      </c>
+      <c r="D62" s="30">
+        <v>95</v>
+      </c>
+      <c r="E62" s="30">
+        <v>0</v>
+      </c>
+      <c r="F62" s="29"/>
+    </row>
+    <row r="63" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A63" s="65" t="s">
         <v>111</v>
       </c>
-      <c r="B62" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="C62" s="30">
-        <v>0</v>
-      </c>
-      <c r="D62" s="30">
+      <c r="B63" s="14">
+        <f>ROUND((C63/D63)*100, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="C63" s="30">
+        <v>0</v>
+      </c>
+      <c r="D63" s="30">
         <v>35</v>
       </c>
-      <c r="E62" s="30">
-        <v>0</v>
-      </c>
-      <c r="F62" s="29"/>
-    </row>
-    <row r="63" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A63" s="5" t="s">
+      <c r="E63" s="30">
+        <v>0</v>
+      </c>
+      <c r="F63" s="29"/>
+    </row>
+    <row r="64" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A64" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B63" s="15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="C63" s="30">
-        <v>0</v>
-      </c>
-      <c r="D63" s="30">
+      <c r="B64" s="15">
+        <f>ROUND((C64/D64)*100, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="C64" s="30">
+        <v>0</v>
+      </c>
+      <c r="D64" s="30">
         <v>88</v>
-      </c>
-      <c r="E63" s="30">
-        <v>0</v>
-      </c>
-      <c r="F63" s="29"/>
-    </row>
-    <row r="64" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A64" s="67" t="s">
-        <v>140</v>
-      </c>
-      <c r="B64" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="C64" s="30">
-        <v>0</v>
-      </c>
-      <c r="D64" s="30">
-        <v>83</v>
       </c>
       <c r="E64" s="30">
         <v>0</v>
@@ -2832,7 +2835,7 @@
         <v>142</v>
       </c>
       <c r="B65" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="B50:B65" si="4">ROUND((C65/D65)*100, 2)</f>
         <v>0</v>
       </c>
       <c r="C65" s="30">
@@ -3084,7 +3087,7 @@
       </c>
       <c r="C78" s="41">
         <f>SUM(C1:C39, C41:C77)</f>
-        <v>7754</v>
+        <v>7761</v>
       </c>
       <c r="D78" s="41">
         <f>SUM(D1:D39, D41:D77)</f>
@@ -3092,7 +3095,7 @@
       </c>
       <c r="E78" s="41">
         <f>SUM(E1:E39, E41:E77)</f>
-        <v>3345</v>
+        <v>3349</v>
       </c>
       <c r="F78" s="29" t="s">
         <v>103</v>
@@ -3104,12 +3107,12 @@
       </c>
       <c r="B79" s="40">
         <f>COUNTIF(B1:B77, "&gt;0")-1</f>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C79" s="29"/>
       <c r="D79" s="41">
         <f>SUM(D1:D39, D41:D52)</f>
-        <v>8420</v>
+        <v>8310</v>
       </c>
       <c r="E79" s="29" t="s">
         <v>109</v>
@@ -3135,7 +3138,7 @@
       </c>
       <c r="B81" s="36">
         <f>(C78/D78)*100</f>
-        <v>79.471148918725021</v>
+        <v>79.542892282463868</v>
       </c>
       <c r="E81" s="29"/>
       <c r="F81" s="29"/>
@@ -3146,11 +3149,11 @@
       </c>
       <c r="B82" s="41">
         <f>AVERAGEIF(B2:B77, "&gt;0")</f>
-        <v>86.583137254901942</v>
+        <v>85.080192307692286</v>
       </c>
       <c r="C82" s="41">
         <f>(C78/D79)*100</f>
-        <v>92.090261282660336</v>
+        <v>93.393501805054143</v>
       </c>
       <c r="D82" s="29" t="s">
         <v>123</v>
@@ -3162,7 +3165,7 @@
       </c>
       <c r="B83" s="39">
         <f>ROUND(((B80/B79)*100), 2)</f>
-        <v>70</v>
+        <v>68.63</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -3315,8 +3318,8 @@
       <c r="C100" s="29"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F36">
-    <sortCondition ref="A2:A36"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="N2:N36">
+    <sortCondition ref="N36"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A84:C84"/>

--- a/Achievement Tracker.xlsx
+++ b/Achievement Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Data\AchievementTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD63713-0AED-4A91-BC3C-45AE49106AAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D70A5B8-54F8-40AA-84E6-5A2A94B47007}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-4035" windowWidth="29040" windowHeight="15840" xr2:uid="{01F7A889-C794-47A9-89C3-7F43CBAA3EFF}"/>
   </bookViews>
@@ -759,7 +759,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -981,8 +981,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1309,8 +1312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0DD2CDF-28B5-4FF8-81AE-E2FDE175FB34}">
   <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2336,7 +2339,7 @@
         <v>167</v>
       </c>
       <c r="E39" s="1">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F39" s="29" t="s">
         <v>74</v>
@@ -2427,7 +2430,7 @@
         <v>71</v>
       </c>
       <c r="B44" s="76">
-        <f t="shared" ref="B44:B49" si="3">ROUND((C44/D44)*100, 2)</f>
+        <f t="shared" ref="B44:B45" si="3">ROUND((C44/D44)*100, 2)</f>
         <v>56.76</v>
       </c>
       <c r="C44" s="30">
@@ -2469,7 +2472,7 @@
         <v>16</v>
       </c>
       <c r="B46" s="76">
-        <f>ROUND((C46/D46)*100, 2)</f>
+        <f t="shared" ref="B46:B64" si="4">ROUND((C46/D46)*100, 2)</f>
         <v>56.25</v>
       </c>
       <c r="C46" s="1">
@@ -2488,7 +2491,7 @@
         <v>49</v>
       </c>
       <c r="B47" s="76">
-        <f>ROUND((C47/D47)*100, 2)</f>
+        <f t="shared" si="4"/>
         <v>55.32</v>
       </c>
       <c r="C47" s="30">
@@ -2507,7 +2510,7 @@
         <v>32</v>
       </c>
       <c r="B48" s="12">
-        <f>ROUND((C48/D48)*100, 2)</f>
+        <f t="shared" si="4"/>
         <v>45.83</v>
       </c>
       <c r="C48" s="30">
@@ -2526,7 +2529,7 @@
         <v>50</v>
       </c>
       <c r="B49" s="12">
-        <f>ROUND((C49/D49)*100, 2)</f>
+        <f t="shared" si="4"/>
         <v>43.66</v>
       </c>
       <c r="C49" s="30">
@@ -2546,18 +2549,18 @@
       <c r="A50" s="95" t="s">
         <v>140</v>
       </c>
-      <c r="B50" s="13">
-        <f>ROUND((C50/D50)*100, 2)</f>
-        <v>8.43</v>
+      <c r="B50" s="96">
+        <f t="shared" si="4"/>
+        <v>21.69</v>
       </c>
       <c r="C50" s="30">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D50" s="30">
         <v>83</v>
       </c>
       <c r="E50" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F50" s="29"/>
     </row>
@@ -2566,7 +2569,7 @@
         <v>34</v>
       </c>
       <c r="B51" s="13">
-        <f>ROUND((C51/D51)*100, 2)</f>
+        <f t="shared" si="4"/>
         <v>7.69</v>
       </c>
       <c r="C51" s="30">
@@ -2585,7 +2588,7 @@
         <v>35</v>
       </c>
       <c r="B52" s="13">
-        <f>ROUND((C52/D52)*100, 2)</f>
+        <f t="shared" si="4"/>
         <v>5.26</v>
       </c>
       <c r="C52" s="30">
@@ -2606,7 +2609,7 @@
         <v>15</v>
       </c>
       <c r="B53" s="13">
-        <f>ROUND((C53/D53)*100, 2)</f>
+        <f t="shared" si="4"/>
         <v>2.0699999999999998</v>
       </c>
       <c r="C53" s="1">
@@ -2625,7 +2628,7 @@
         <v>10</v>
       </c>
       <c r="B54" s="14">
-        <f>ROUND((C54/D54)*100, 2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C54" s="30">
@@ -2644,7 +2647,7 @@
         <v>11</v>
       </c>
       <c r="B55" s="15">
-        <f>ROUND((C55/D55)*100, 2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C55" s="30">
@@ -2663,7 +2666,7 @@
         <v>12</v>
       </c>
       <c r="B56" s="15">
-        <f>ROUND((C56/D56)*100, 2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C56" s="30">
@@ -2681,7 +2684,7 @@
         <v>9</v>
       </c>
       <c r="B57" s="14">
-        <f>ROUND((C57/D57)*100, 2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C57" s="1">
@@ -2700,7 +2703,7 @@
         <v>13</v>
       </c>
       <c r="B58" s="15">
-        <f>ROUND((C58/D58)*100, 2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C58" s="1">
@@ -2719,7 +2722,7 @@
         <v>17</v>
       </c>
       <c r="B59" s="15">
-        <f>ROUND((C59/D59)*100, 2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C59" s="1">
@@ -2738,7 +2741,7 @@
         <v>20</v>
       </c>
       <c r="B60" s="15">
-        <f>ROUND((C60/D60)*100, 2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C60" s="30">
@@ -2757,7 +2760,7 @@
         <v>21</v>
       </c>
       <c r="B61" s="14">
-        <f>ROUND((C61/D61)*100, 2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C61" s="30">
@@ -2778,7 +2781,7 @@
         <v>114</v>
       </c>
       <c r="B62" s="14">
-        <f>ROUND((C62/D62)*100, 2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C62" s="30">
@@ -2797,7 +2800,7 @@
         <v>111</v>
       </c>
       <c r="B63" s="14">
-        <f>ROUND((C63/D63)*100, 2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C63" s="30">
@@ -2816,7 +2819,7 @@
         <v>27</v>
       </c>
       <c r="B64" s="15">
-        <f>ROUND((C64/D64)*100, 2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C64" s="30">
@@ -2835,7 +2838,7 @@
         <v>142</v>
       </c>
       <c r="B65" s="14">
-        <f t="shared" ref="B50:B65" si="4">ROUND((C65/D65)*100, 2)</f>
+        <f t="shared" ref="B65" si="5">ROUND((C65/D65)*100, 2)</f>
         <v>0</v>
       </c>
       <c r="C65" s="30">
@@ -2854,7 +2857,7 @@
         <v>29</v>
       </c>
       <c r="B66" s="14">
-        <f t="shared" ref="B66:B77" si="5">ROUND((C66/D66)*100, 2)</f>
+        <f t="shared" ref="B66:B77" si="6">ROUND((C66/D66)*100, 2)</f>
         <v>0</v>
       </c>
       <c r="C66" s="30">
@@ -2873,7 +2876,7 @@
         <v>118</v>
       </c>
       <c r="B67" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C67" s="30">
@@ -2892,7 +2895,7 @@
         <v>36</v>
       </c>
       <c r="B68" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C68" s="30">
@@ -2911,7 +2914,7 @@
         <v>38</v>
       </c>
       <c r="B69" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C69" s="30">
@@ -2930,7 +2933,7 @@
         <v>42</v>
       </c>
       <c r="B70" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C70" s="30">
@@ -2949,7 +2952,7 @@
         <v>44</v>
       </c>
       <c r="B71" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C71" s="30">
@@ -2968,7 +2971,7 @@
         <v>46</v>
       </c>
       <c r="B72" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C72" s="30">
@@ -2987,7 +2990,7 @@
         <v>45</v>
       </c>
       <c r="B73" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C73" s="30">
@@ -3006,7 +3009,7 @@
         <v>113</v>
       </c>
       <c r="B74" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C74" s="30">
@@ -3025,7 +3028,7 @@
         <v>54</v>
       </c>
       <c r="B75" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C75" s="30">
@@ -3044,7 +3047,7 @@
         <v>56</v>
       </c>
       <c r="B76" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C76" s="30">
@@ -3063,7 +3066,7 @@
         <v>61</v>
       </c>
       <c r="B77" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C77" s="30">
@@ -3087,7 +3090,7 @@
       </c>
       <c r="C78" s="41">
         <f>SUM(C1:C39, C41:C77)</f>
-        <v>7761</v>
+        <v>7772</v>
       </c>
       <c r="D78" s="41">
         <f>SUM(D1:D39, D41:D77)</f>
@@ -3095,7 +3098,7 @@
       </c>
       <c r="E78" s="41">
         <f>SUM(E1:E39, E41:E77)</f>
-        <v>3349</v>
+        <v>3353</v>
       </c>
       <c r="F78" s="29" t="s">
         <v>103</v>
@@ -3138,7 +3141,7 @@
       </c>
       <c r="B81" s="36">
         <f>(C78/D78)*100</f>
-        <v>79.542892282463868</v>
+        <v>79.655631854053496</v>
       </c>
       <c r="E81" s="29"/>
       <c r="F81" s="29"/>
@@ -3149,11 +3152,11 @@
       </c>
       <c r="B82" s="41">
         <f>AVERAGEIF(B2:B77, "&gt;0")</f>
-        <v>85.080192307692286</v>
+        <v>85.335192307692282</v>
       </c>
       <c r="C82" s="41">
         <f>(C78/D79)*100</f>
-        <v>93.393501805054143</v>
+        <v>93.525872442839955</v>
       </c>
       <c r="D82" s="29" t="s">
         <v>123</v>

--- a/Achievement Tracker.xlsx
+++ b/Achievement Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Data\AchievementTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D70A5B8-54F8-40AA-84E6-5A2A94B47007}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8DFCA2-B02E-4E32-AD91-A4EB59095FC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-4035" windowWidth="29040" windowHeight="15840" xr2:uid="{01F7A889-C794-47A9-89C3-7F43CBAA3EFF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{01F7A889-C794-47A9-89C3-7F43CBAA3EFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -759,7 +759,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -980,12 +980,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1312,8 +1306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0DD2CDF-28B5-4FF8-81AE-E2FDE175FB34}">
   <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H70" sqref="H70"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2390,7 +2384,7 @@
         <v>51</v>
       </c>
       <c r="B42" s="93">
-        <f t="shared" si="1"/>
+        <f>ROUND((C42/D42)*100, 2)</f>
         <v>71.930000000000007</v>
       </c>
       <c r="C42" s="30">
@@ -2411,7 +2405,7 @@
         <v>7</v>
       </c>
       <c r="B43" s="74">
-        <f t="shared" ref="B43" si="2">ROUND((C43/D43)*100, 2)</f>
+        <f>ROUND((C43/D43)*100, 2)</f>
         <v>69.33</v>
       </c>
       <c r="C43" s="1">
@@ -2430,7 +2424,7 @@
         <v>71</v>
       </c>
       <c r="B44" s="76">
-        <f t="shared" ref="B44:B45" si="3">ROUND((C44/D44)*100, 2)</f>
+        <f>ROUND((C44/D44)*100, 2)</f>
         <v>56.76</v>
       </c>
       <c r="C44" s="30">
@@ -2451,7 +2445,7 @@
         <v>8</v>
       </c>
       <c r="B45" s="76">
-        <f t="shared" si="3"/>
+        <f>ROUND((C45/D45)*100, 2)</f>
         <v>56.41</v>
       </c>
       <c r="C45" s="1">
@@ -2472,7 +2466,7 @@
         <v>16</v>
       </c>
       <c r="B46" s="76">
-        <f t="shared" ref="B46:B64" si="4">ROUND((C46/D46)*100, 2)</f>
+        <f>ROUND((C46/D46)*100, 2)</f>
         <v>56.25</v>
       </c>
       <c r="C46" s="1">
@@ -2491,7 +2485,7 @@
         <v>49</v>
       </c>
       <c r="B47" s="76">
-        <f t="shared" si="4"/>
+        <f>ROUND((C47/D47)*100, 2)</f>
         <v>55.32</v>
       </c>
       <c r="C47" s="30">
@@ -2506,70 +2500,70 @@
       <c r="F47" s="29"/>
     </row>
     <row r="48" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B48" s="12">
-        <f t="shared" si="4"/>
-        <v>45.83</v>
+      <c r="A48" s="75" t="s">
+        <v>140</v>
+      </c>
+      <c r="B48" s="76">
+        <f>ROUND((C48/D48)*100, 2)</f>
+        <v>53.01</v>
       </c>
       <c r="C48" s="30">
+        <v>44</v>
+      </c>
+      <c r="D48" s="30">
+        <v>83</v>
+      </c>
+      <c r="E48" s="30">
         <v>11</v>
-      </c>
-      <c r="D48" s="30">
-        <v>24</v>
-      </c>
-      <c r="E48" s="30">
-        <v>4</v>
       </c>
       <c r="F48" s="29"/>
     </row>
     <row r="49" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B49" s="12">
+        <f>ROUND((C49/D49)*100, 2)</f>
+        <v>45.83</v>
+      </c>
+      <c r="C49" s="30">
+        <v>11</v>
+      </c>
+      <c r="D49" s="30">
+        <v>24</v>
+      </c>
+      <c r="E49" s="30">
+        <v>4</v>
+      </c>
+      <c r="F49" s="29"/>
+    </row>
+    <row r="50" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B49" s="12">
-        <f t="shared" si="4"/>
+      <c r="B50" s="12">
+        <f>ROUND((C50/D50)*100, 2)</f>
         <v>43.66</v>
       </c>
-      <c r="C49" s="30">
+      <c r="C50" s="30">
         <v>93</v>
       </c>
-      <c r="D49" s="30">
+      <c r="D50" s="30">
         <v>213</v>
       </c>
-      <c r="E49" s="30">
+      <c r="E50" s="30">
         <v>38</v>
       </c>
-      <c r="F49" s="29" t="s">
+      <c r="F50" s="29" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A50" s="95" t="s">
-        <v>140</v>
-      </c>
-      <c r="B50" s="96">
-        <f t="shared" si="4"/>
-        <v>21.69</v>
-      </c>
-      <c r="C50" s="30">
-        <v>18</v>
-      </c>
-      <c r="D50" s="30">
-        <v>83</v>
-      </c>
-      <c r="E50" s="30">
-        <v>3</v>
-      </c>
-      <c r="F50" s="29"/>
     </row>
     <row r="51" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B51" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="B46:B64" si="2">ROUND((C51/D51)*100, 2)</f>
         <v>7.69</v>
       </c>
       <c r="C51" s="30">
@@ -2588,7 +2582,7 @@
         <v>35</v>
       </c>
       <c r="B52" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>5.26</v>
       </c>
       <c r="C52" s="30">
@@ -2609,7 +2603,7 @@
         <v>15</v>
       </c>
       <c r="B53" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>2.0699999999999998</v>
       </c>
       <c r="C53" s="1">
@@ -2628,7 +2622,7 @@
         <v>10</v>
       </c>
       <c r="B54" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C54" s="30">
@@ -2647,7 +2641,7 @@
         <v>11</v>
       </c>
       <c r="B55" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C55" s="30">
@@ -2666,7 +2660,7 @@
         <v>12</v>
       </c>
       <c r="B56" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C56" s="30">
@@ -2684,7 +2678,7 @@
         <v>9</v>
       </c>
       <c r="B57" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C57" s="1">
@@ -2703,7 +2697,7 @@
         <v>13</v>
       </c>
       <c r="B58" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C58" s="1">
@@ -2722,7 +2716,7 @@
         <v>17</v>
       </c>
       <c r="B59" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C59" s="1">
@@ -2741,7 +2735,7 @@
         <v>20</v>
       </c>
       <c r="B60" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C60" s="30">
@@ -2760,7 +2754,7 @@
         <v>21</v>
       </c>
       <c r="B61" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C61" s="30">
@@ -2781,7 +2775,7 @@
         <v>114</v>
       </c>
       <c r="B62" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C62" s="30">
@@ -2800,7 +2794,7 @@
         <v>111</v>
       </c>
       <c r="B63" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C63" s="30">
@@ -2819,7 +2813,7 @@
         <v>27</v>
       </c>
       <c r="B64" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C64" s="30">
@@ -2838,7 +2832,7 @@
         <v>142</v>
       </c>
       <c r="B65" s="14">
-        <f t="shared" ref="B65" si="5">ROUND((C65/D65)*100, 2)</f>
+        <f t="shared" ref="B65" si="3">ROUND((C65/D65)*100, 2)</f>
         <v>0</v>
       </c>
       <c r="C65" s="30">
@@ -2857,7 +2851,7 @@
         <v>29</v>
       </c>
       <c r="B66" s="14">
-        <f t="shared" ref="B66:B77" si="6">ROUND((C66/D66)*100, 2)</f>
+        <f t="shared" ref="B66:B77" si="4">ROUND((C66/D66)*100, 2)</f>
         <v>0</v>
       </c>
       <c r="C66" s="30">
@@ -2876,7 +2870,7 @@
         <v>118</v>
       </c>
       <c r="B67" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C67" s="30">
@@ -2895,7 +2889,7 @@
         <v>36</v>
       </c>
       <c r="B68" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C68" s="30">
@@ -2914,7 +2908,7 @@
         <v>38</v>
       </c>
       <c r="B69" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C69" s="30">
@@ -2933,7 +2927,7 @@
         <v>42</v>
       </c>
       <c r="B70" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C70" s="30">
@@ -2952,7 +2946,7 @@
         <v>44</v>
       </c>
       <c r="B71" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C71" s="30">
@@ -2971,7 +2965,7 @@
         <v>46</v>
       </c>
       <c r="B72" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C72" s="30">
@@ -2990,7 +2984,7 @@
         <v>45</v>
       </c>
       <c r="B73" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C73" s="30">
@@ -3009,7 +3003,7 @@
         <v>113</v>
       </c>
       <c r="B74" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C74" s="30">
@@ -3028,7 +3022,7 @@
         <v>54</v>
       </c>
       <c r="B75" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C75" s="30">
@@ -3047,7 +3041,7 @@
         <v>56</v>
       </c>
       <c r="B76" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C76" s="30">
@@ -3066,7 +3060,7 @@
         <v>61</v>
       </c>
       <c r="B77" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C77" s="30">
@@ -3090,7 +3084,7 @@
       </c>
       <c r="C78" s="41">
         <f>SUM(C1:C39, C41:C77)</f>
-        <v>7772</v>
+        <v>7798</v>
       </c>
       <c r="D78" s="41">
         <f>SUM(D1:D39, D41:D77)</f>
@@ -3098,7 +3092,7 @@
       </c>
       <c r="E78" s="41">
         <f>SUM(E1:E39, E41:E77)</f>
-        <v>3353</v>
+        <v>3361</v>
       </c>
       <c r="F78" s="29" t="s">
         <v>103</v>
@@ -3141,7 +3135,7 @@
       </c>
       <c r="B81" s="36">
         <f>(C78/D78)*100</f>
-        <v>79.655631854053496</v>
+        <v>79.92210720508352</v>
       </c>
       <c r="E81" s="29"/>
       <c r="F81" s="29"/>
@@ -3152,11 +3146,11 @@
       </c>
       <c r="B82" s="41">
         <f>AVERAGEIF(B2:B77, "&gt;0")</f>
-        <v>85.335192307692282</v>
+        <v>85.937499999999986</v>
       </c>
       <c r="C82" s="41">
         <f>(C78/D79)*100</f>
-        <v>93.525872442839955</v>
+        <v>93.838748495788209</v>
       </c>
       <c r="D82" s="29" t="s">
         <v>123</v>
@@ -3321,8 +3315,8 @@
       <c r="C100" s="29"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="N2:N36">
-    <sortCondition ref="N36"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A42:F50">
+    <sortCondition descending="1" ref="B42:B50"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A84:C84"/>

--- a/Achievement Tracker.xlsx
+++ b/Achievement Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Data\AchievementTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8DFCA2-B02E-4E32-AD91-A4EB59095FC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6203F4F0-757D-4482-B1FA-7C5ABAF8D738}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{01F7A889-C794-47A9-89C3-7F43CBAA3EFF}"/>
   </bookViews>
@@ -1306,8 +1306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0DD2CDF-28B5-4FF8-81AE-E2FDE175FB34}">
   <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2259,7 +2259,7 @@
         <v>64</v>
       </c>
       <c r="B36" s="10">
-        <f t="shared" si="0"/>
+        <f>ROUND((C36/D36)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C36" s="30">
@@ -2277,45 +2277,45 @@
       </c>
     </row>
     <row r="37" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="28" t="s">
+      <c r="A37" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="B37" s="11">
+        <f>ROUND((C37/D37)*100, 2)</f>
+        <v>94.81</v>
+      </c>
+      <c r="C37" s="30">
+        <v>493</v>
+      </c>
+      <c r="D37" s="30">
+        <v>520</v>
+      </c>
+      <c r="E37" s="30">
+        <v>260</v>
+      </c>
+      <c r="F37" s="29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="11">
-        <f t="shared" si="0"/>
-        <v>95.19</v>
-      </c>
-      <c r="C37" s="30">
+      <c r="B38" s="11">
+        <f>ROUND((C38/D38)*100, 2)</f>
+        <v>94.1</v>
+      </c>
+      <c r="C38" s="30">
         <v>1149</v>
       </c>
-      <c r="D37" s="30">
-        <v>1207</v>
-      </c>
-      <c r="E37" s="30">
+      <c r="D38" s="30">
+        <v>1221</v>
+      </c>
+      <c r="E38" s="30">
         <v>11</v>
       </c>
-      <c r="F37" s="29" t="s">
+      <c r="F38" s="29" t="s">
         <v>119</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="53" t="s">
-        <v>65</v>
-      </c>
-      <c r="B38" s="11">
-        <f t="shared" si="0"/>
-        <v>94.81</v>
-      </c>
-      <c r="C38" s="30">
-        <v>493</v>
-      </c>
-      <c r="D38" s="30">
-        <v>520</v>
-      </c>
-      <c r="E38" s="30">
-        <v>260</v>
-      </c>
-      <c r="F38" s="29" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
@@ -2323,7 +2323,7 @@
         <v>14</v>
       </c>
       <c r="B39" s="70">
-        <f t="shared" si="0"/>
+        <f>ROUND((C39/D39)*100, 2)</f>
         <v>86.83</v>
       </c>
       <c r="C39" s="1">
@@ -2344,7 +2344,7 @@
         <v>98</v>
       </c>
       <c r="B40" s="72">
-        <f t="shared" ref="B40:B42" si="1">ROUND((C40/D40)*100, 2)</f>
+        <f>ROUND((C40/D40)*100, 2)</f>
         <v>84.62</v>
       </c>
       <c r="C40" s="63">
@@ -2365,7 +2365,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="70">
-        <f t="shared" si="1"/>
+        <f>ROUND((C41/D41)*100, 2)</f>
         <v>83.78</v>
       </c>
       <c r="C41" s="30">
@@ -2481,40 +2481,40 @@
       <c r="F46" s="29"/>
     </row>
     <row r="47" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="78" t="s">
-        <v>49</v>
+      <c r="A47" s="75" t="s">
+        <v>140</v>
       </c>
       <c r="B47" s="76">
         <f>ROUND((C47/D47)*100, 2)</f>
-        <v>55.32</v>
+        <v>55.42</v>
       </c>
       <c r="C47" s="30">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="D47" s="30">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="E47" s="30">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F47" s="29"/>
     </row>
     <row r="48" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="75" t="s">
-        <v>140</v>
+      <c r="A48" s="78" t="s">
+        <v>49</v>
       </c>
       <c r="B48" s="76">
         <f>ROUND((C48/D48)*100, 2)</f>
-        <v>53.01</v>
+        <v>55.32</v>
       </c>
       <c r="C48" s="30">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="D48" s="30">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="E48" s="30">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" s="29"/>
     </row>
@@ -2563,7 +2563,7 @@
         <v>34</v>
       </c>
       <c r="B51" s="13">
-        <f t="shared" ref="B46:B64" si="2">ROUND((C51/D51)*100, 2)</f>
+        <f t="shared" ref="B51:B64" si="1">ROUND((C51/D51)*100, 2)</f>
         <v>7.69</v>
       </c>
       <c r="C51" s="30">
@@ -2582,7 +2582,7 @@
         <v>35</v>
       </c>
       <c r="B52" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.26</v>
       </c>
       <c r="C52" s="30">
@@ -2603,7 +2603,7 @@
         <v>15</v>
       </c>
       <c r="B53" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.0699999999999998</v>
       </c>
       <c r="C53" s="1">
@@ -2622,7 +2622,7 @@
         <v>10</v>
       </c>
       <c r="B54" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C54" s="30">
@@ -2641,7 +2641,7 @@
         <v>11</v>
       </c>
       <c r="B55" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C55" s="30">
@@ -2660,7 +2660,7 @@
         <v>12</v>
       </c>
       <c r="B56" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C56" s="30">
@@ -2678,7 +2678,7 @@
         <v>9</v>
       </c>
       <c r="B57" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C57" s="1">
@@ -2697,7 +2697,7 @@
         <v>13</v>
       </c>
       <c r="B58" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C58" s="1">
@@ -2716,7 +2716,7 @@
         <v>17</v>
       </c>
       <c r="B59" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C59" s="1">
@@ -2735,7 +2735,7 @@
         <v>20</v>
       </c>
       <c r="B60" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C60" s="30">
@@ -2754,7 +2754,7 @@
         <v>21</v>
       </c>
       <c r="B61" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C61" s="30">
@@ -2775,7 +2775,7 @@
         <v>114</v>
       </c>
       <c r="B62" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C62" s="30">
@@ -2794,7 +2794,7 @@
         <v>111</v>
       </c>
       <c r="B63" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C63" s="30">
@@ -2813,7 +2813,7 @@
         <v>27</v>
       </c>
       <c r="B64" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C64" s="30">
@@ -2832,7 +2832,7 @@
         <v>142</v>
       </c>
       <c r="B65" s="14">
-        <f t="shared" ref="B65" si="3">ROUND((C65/D65)*100, 2)</f>
+        <f t="shared" ref="B65" si="2">ROUND((C65/D65)*100, 2)</f>
         <v>0</v>
       </c>
       <c r="C65" s="30">
@@ -2851,7 +2851,7 @@
         <v>29</v>
       </c>
       <c r="B66" s="14">
-        <f t="shared" ref="B66:B77" si="4">ROUND((C66/D66)*100, 2)</f>
+        <f t="shared" ref="B66:B77" si="3">ROUND((C66/D66)*100, 2)</f>
         <v>0</v>
       </c>
       <c r="C66" s="30">
@@ -2870,7 +2870,7 @@
         <v>118</v>
       </c>
       <c r="B67" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C67" s="30">
@@ -2889,7 +2889,7 @@
         <v>36</v>
       </c>
       <c r="B68" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C68" s="30">
@@ -2908,7 +2908,7 @@
         <v>38</v>
       </c>
       <c r="B69" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C69" s="30">
@@ -2927,7 +2927,7 @@
         <v>42</v>
       </c>
       <c r="B70" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C70" s="30">
@@ -2946,7 +2946,7 @@
         <v>44</v>
       </c>
       <c r="B71" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C71" s="30">
@@ -2965,7 +2965,7 @@
         <v>46</v>
       </c>
       <c r="B72" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C72" s="30">
@@ -2984,7 +2984,7 @@
         <v>45</v>
       </c>
       <c r="B73" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C73" s="30">
@@ -3003,7 +3003,7 @@
         <v>113</v>
       </c>
       <c r="B74" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C74" s="30">
@@ -3022,7 +3022,7 @@
         <v>54</v>
       </c>
       <c r="B75" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C75" s="30">
@@ -3041,7 +3041,7 @@
         <v>56</v>
       </c>
       <c r="B76" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C76" s="30">
@@ -3060,7 +3060,7 @@
         <v>61</v>
       </c>
       <c r="B77" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C77" s="30">
@@ -3084,15 +3084,15 @@
       </c>
       <c r="C78" s="41">
         <f>SUM(C1:C39, C41:C77)</f>
-        <v>7798</v>
+        <v>7800</v>
       </c>
       <c r="D78" s="41">
         <f>SUM(D1:D39, D41:D77)</f>
-        <v>9757</v>
+        <v>9771</v>
       </c>
       <c r="E78" s="41">
         <f>SUM(E1:E39, E41:E77)</f>
-        <v>3361</v>
+        <v>3363</v>
       </c>
       <c r="F78" s="29" t="s">
         <v>103</v>
@@ -3109,7 +3109,7 @@
       <c r="C79" s="29"/>
       <c r="D79" s="41">
         <f>SUM(D1:D39, D41:D52)</f>
-        <v>8310</v>
+        <v>8324</v>
       </c>
       <c r="E79" s="29" t="s">
         <v>109</v>
@@ -3135,7 +3135,7 @@
       </c>
       <c r="B81" s="36">
         <f>(C78/D78)*100</f>
-        <v>79.92210720508352</v>
+        <v>79.828062634326074</v>
       </c>
       <c r="E81" s="29"/>
       <c r="F81" s="29"/>
@@ -3146,11 +3146,11 @@
       </c>
       <c r="B82" s="41">
         <f>AVERAGEIF(B2:B77, "&gt;0")</f>
-        <v>85.937499999999986</v>
+        <v>85.962884615384596</v>
       </c>
       <c r="C82" s="41">
         <f>(C78/D79)*100</f>
-        <v>93.838748495788209</v>
+        <v>93.704949543488709</v>
       </c>
       <c r="D82" s="29" t="s">
         <v>123</v>
@@ -3315,8 +3315,8 @@
       <c r="C100" s="29"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A42:F50">
-    <sortCondition descending="1" ref="B42:B50"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A36:F50">
+    <sortCondition descending="1" ref="B36:B50"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A84:C84"/>

--- a/Achievement Tracker.xlsx
+++ b/Achievement Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Data\AchievementTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6203F4F0-757D-4482-B1FA-7C5ABAF8D738}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8797ECF2-0D17-409F-938F-D01BCA443FC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{01F7A889-C794-47A9-89C3-7F43CBAA3EFF}"/>
   </bookViews>
@@ -1307,7 +1307,7 @@
   <dimension ref="A1:P100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1371,7 +1371,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="10">
-        <f t="shared" ref="B2:B39" si="0">ROUND((C2/D2)*100, 2)</f>
+        <f t="shared" ref="B2:B35" si="0">ROUND((C2/D2)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C2" s="1">
@@ -2259,7 +2259,7 @@
         <v>64</v>
       </c>
       <c r="B36" s="10">
-        <f>ROUND((C36/D36)*100, 2)</f>
+        <f t="shared" ref="B36:B50" si="1">ROUND((C36/D36)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C36" s="30">
@@ -2281,7 +2281,7 @@
         <v>65</v>
       </c>
       <c r="B37" s="11">
-        <f>ROUND((C37/D37)*100, 2)</f>
+        <f t="shared" si="1"/>
         <v>94.81</v>
       </c>
       <c r="C37" s="30">
@@ -2302,7 +2302,7 @@
         <v>39</v>
       </c>
       <c r="B38" s="11">
-        <f>ROUND((C38/D38)*100, 2)</f>
+        <f t="shared" si="1"/>
         <v>94.1</v>
       </c>
       <c r="C38" s="30">
@@ -2323,7 +2323,7 @@
         <v>14</v>
       </c>
       <c r="B39" s="70">
-        <f>ROUND((C39/D39)*100, 2)</f>
+        <f t="shared" si="1"/>
         <v>86.83</v>
       </c>
       <c r="C39" s="1">
@@ -2344,7 +2344,7 @@
         <v>98</v>
       </c>
       <c r="B40" s="72">
-        <f>ROUND((C40/D40)*100, 2)</f>
+        <f t="shared" si="1"/>
         <v>84.62</v>
       </c>
       <c r="C40" s="63">
@@ -2365,7 +2365,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="70">
-        <f>ROUND((C41/D41)*100, 2)</f>
+        <f t="shared" si="1"/>
         <v>83.78</v>
       </c>
       <c r="C41" s="30">
@@ -2420,82 +2420,82 @@
       <c r="F43" s="29"/>
     </row>
     <row r="44" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="77" t="s">
-        <v>71</v>
+      <c r="A44" s="75" t="s">
+        <v>140</v>
       </c>
       <c r="B44" s="76">
         <f>ROUND((C44/D44)*100, 2)</f>
-        <v>56.76</v>
+        <v>57.83</v>
       </c>
       <c r="C44" s="30">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="D44" s="30">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="E44" s="30">
-        <v>11</v>
-      </c>
-      <c r="F44" s="29" t="s">
-        <v>75</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F44" s="29"/>
     </row>
     <row r="45" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="75" t="s">
-        <v>8</v>
+      <c r="A45" s="77" t="s">
+        <v>71</v>
       </c>
       <c r="B45" s="76">
         <f>ROUND((C45/D45)*100, 2)</f>
-        <v>56.41</v>
-      </c>
-      <c r="C45" s="1">
-        <v>44</v>
-      </c>
-      <c r="D45" s="1">
-        <v>78</v>
-      </c>
-      <c r="E45" s="1">
-        <v>77</v>
+        <v>56.76</v>
+      </c>
+      <c r="C45" s="30">
+        <v>21</v>
+      </c>
+      <c r="D45" s="30">
+        <v>37</v>
+      </c>
+      <c r="E45" s="30">
+        <v>11</v>
       </c>
       <c r="F45" s="29" t="s">
-        <v>143</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="78" t="s">
-        <v>16</v>
+      <c r="A46" s="75" t="s">
+        <v>8</v>
       </c>
       <c r="B46" s="76">
         <f>ROUND((C46/D46)*100, 2)</f>
-        <v>56.25</v>
+        <v>56.41</v>
       </c>
       <c r="C46" s="1">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="D46" s="1">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="E46" s="1">
-        <v>39</v>
-      </c>
-      <c r="F46" s="29"/>
+        <v>77</v>
+      </c>
+      <c r="F46" s="29" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="47" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="75" t="s">
-        <v>140</v>
+      <c r="A47" s="78" t="s">
+        <v>16</v>
       </c>
       <c r="B47" s="76">
         <f>ROUND((C47/D47)*100, 2)</f>
-        <v>55.42</v>
-      </c>
-      <c r="C47" s="30">
-        <v>46</v>
-      </c>
-      <c r="D47" s="30">
-        <v>83</v>
-      </c>
-      <c r="E47" s="30">
-        <v>13</v>
+        <v>56.25</v>
+      </c>
+      <c r="C47" s="1">
+        <v>27</v>
+      </c>
+      <c r="D47" s="1">
+        <v>48</v>
+      </c>
+      <c r="E47" s="1">
+        <v>39</v>
       </c>
       <c r="F47" s="29"/>
     </row>
@@ -2542,7 +2542,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="12">
-        <f>ROUND((C50/D50)*100, 2)</f>
+        <f t="shared" si="1"/>
         <v>43.66</v>
       </c>
       <c r="C50" s="30">
@@ -2563,7 +2563,7 @@
         <v>34</v>
       </c>
       <c r="B51" s="13">
-        <f t="shared" ref="B51:B64" si="1">ROUND((C51/D51)*100, 2)</f>
+        <f t="shared" ref="B51:B64" si="2">ROUND((C51/D51)*100, 2)</f>
         <v>7.69</v>
       </c>
       <c r="C51" s="30">
@@ -2582,7 +2582,7 @@
         <v>35</v>
       </c>
       <c r="B52" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.26</v>
       </c>
       <c r="C52" s="30">
@@ -2603,7 +2603,7 @@
         <v>15</v>
       </c>
       <c r="B53" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.0699999999999998</v>
       </c>
       <c r="C53" s="1">
@@ -2622,7 +2622,7 @@
         <v>10</v>
       </c>
       <c r="B54" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C54" s="30">
@@ -2641,7 +2641,7 @@
         <v>11</v>
       </c>
       <c r="B55" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C55" s="30">
@@ -2660,7 +2660,7 @@
         <v>12</v>
       </c>
       <c r="B56" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C56" s="30">
@@ -2678,7 +2678,7 @@
         <v>9</v>
       </c>
       <c r="B57" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C57" s="1">
@@ -2697,7 +2697,7 @@
         <v>13</v>
       </c>
       <c r="B58" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C58" s="1">
@@ -2716,7 +2716,7 @@
         <v>17</v>
       </c>
       <c r="B59" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C59" s="1">
@@ -2735,7 +2735,7 @@
         <v>20</v>
       </c>
       <c r="B60" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C60" s="30">
@@ -2754,7 +2754,7 @@
         <v>21</v>
       </c>
       <c r="B61" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C61" s="30">
@@ -2775,7 +2775,7 @@
         <v>114</v>
       </c>
       <c r="B62" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C62" s="30">
@@ -2794,7 +2794,7 @@
         <v>111</v>
       </c>
       <c r="B63" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C63" s="30">
@@ -2813,7 +2813,7 @@
         <v>27</v>
       </c>
       <c r="B64" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C64" s="30">
@@ -2832,7 +2832,7 @@
         <v>142</v>
       </c>
       <c r="B65" s="14">
-        <f t="shared" ref="B65" si="2">ROUND((C65/D65)*100, 2)</f>
+        <f t="shared" ref="B65" si="3">ROUND((C65/D65)*100, 2)</f>
         <v>0</v>
       </c>
       <c r="C65" s="30">
@@ -2851,7 +2851,7 @@
         <v>29</v>
       </c>
       <c r="B66" s="14">
-        <f t="shared" ref="B66:B77" si="3">ROUND((C66/D66)*100, 2)</f>
+        <f t="shared" ref="B66:B77" si="4">ROUND((C66/D66)*100, 2)</f>
         <v>0</v>
       </c>
       <c r="C66" s="30">
@@ -2870,7 +2870,7 @@
         <v>118</v>
       </c>
       <c r="B67" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C67" s="30">
@@ -2889,7 +2889,7 @@
         <v>36</v>
       </c>
       <c r="B68" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C68" s="30">
@@ -2908,7 +2908,7 @@
         <v>38</v>
       </c>
       <c r="B69" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C69" s="30">
@@ -2927,7 +2927,7 @@
         <v>42</v>
       </c>
       <c r="B70" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C70" s="30">
@@ -2946,7 +2946,7 @@
         <v>44</v>
       </c>
       <c r="B71" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C71" s="30">
@@ -2965,7 +2965,7 @@
         <v>46</v>
       </c>
       <c r="B72" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C72" s="30">
@@ -2984,7 +2984,7 @@
         <v>45</v>
       </c>
       <c r="B73" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C73" s="30">
@@ -3003,7 +3003,7 @@
         <v>113</v>
       </c>
       <c r="B74" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C74" s="30">
@@ -3022,7 +3022,7 @@
         <v>54</v>
       </c>
       <c r="B75" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C75" s="30">
@@ -3041,7 +3041,7 @@
         <v>56</v>
       </c>
       <c r="B76" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C76" s="30">
@@ -3060,7 +3060,7 @@
         <v>61</v>
       </c>
       <c r="B77" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C77" s="30">
@@ -3084,7 +3084,7 @@
       </c>
       <c r="C78" s="41">
         <f>SUM(C1:C39, C41:C77)</f>
-        <v>7800</v>
+        <v>7802</v>
       </c>
       <c r="D78" s="41">
         <f>SUM(D1:D39, D41:D77)</f>
@@ -3092,7 +3092,7 @@
       </c>
       <c r="E78" s="41">
         <f>SUM(E1:E39, E41:E77)</f>
-        <v>3363</v>
+        <v>3366</v>
       </c>
       <c r="F78" s="29" t="s">
         <v>103</v>
@@ -3135,7 +3135,7 @@
       </c>
       <c r="B81" s="36">
         <f>(C78/D78)*100</f>
-        <v>79.828062634326074</v>
+        <v>79.848531368334861</v>
       </c>
       <c r="E81" s="29"/>
       <c r="F81" s="29"/>
@@ -3146,11 +3146,11 @@
       </c>
       <c r="B82" s="41">
         <f>AVERAGEIF(B2:B77, "&gt;0")</f>
-        <v>85.962884615384596</v>
+        <v>86.00923076923074</v>
       </c>
       <c r="C82" s="41">
         <f>(C78/D79)*100</f>
-        <v>93.704949543488709</v>
+        <v>93.728976453628064</v>
       </c>
       <c r="D82" s="29" t="s">
         <v>123</v>
@@ -3315,8 +3315,8 @@
       <c r="C100" s="29"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A36:F50">
-    <sortCondition descending="1" ref="B36:B50"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A42:F49">
+    <sortCondition descending="1" ref="B42:B49"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A84:C84"/>

--- a/Achievement Tracker.xlsx
+++ b/Achievement Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Data\AchievementTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8797ECF2-0D17-409F-938F-D01BCA443FC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D86297-4D87-4985-AC6F-BB4E8293E91B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{01F7A889-C794-47A9-89C3-7F43CBAA3EFF}"/>
   </bookViews>
@@ -759,7 +759,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -980,6 +980,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1306,7 +1309,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0DD2CDF-28B5-4FF8-81AE-E2FDE175FB34}">
   <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
@@ -2384,7 +2387,7 @@
         <v>51</v>
       </c>
       <c r="B42" s="93">
-        <f>ROUND((C42/D42)*100, 2)</f>
+        <f t="shared" ref="B42:B49" si="2">ROUND((C42/D42)*100, 2)</f>
         <v>71.930000000000007</v>
       </c>
       <c r="C42" s="30">
@@ -2405,7 +2408,7 @@
         <v>7</v>
       </c>
       <c r="B43" s="74">
-        <f>ROUND((C43/D43)*100, 2)</f>
+        <f t="shared" si="2"/>
         <v>69.33</v>
       </c>
       <c r="C43" s="1">
@@ -2420,21 +2423,21 @@
       <c r="F43" s="29"/>
     </row>
     <row r="44" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="75" t="s">
+      <c r="A44" s="95" t="s">
         <v>140</v>
       </c>
-      <c r="B44" s="76">
-        <f>ROUND((C44/D44)*100, 2)</f>
-        <v>57.83</v>
+      <c r="B44" s="74">
+        <f t="shared" si="2"/>
+        <v>61.45</v>
       </c>
       <c r="C44" s="30">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D44" s="30">
         <v>83</v>
       </c>
       <c r="E44" s="30">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F44" s="29"/>
     </row>
@@ -2443,7 +2446,7 @@
         <v>71</v>
       </c>
       <c r="B45" s="76">
-        <f>ROUND((C45/D45)*100, 2)</f>
+        <f t="shared" si="2"/>
         <v>56.76</v>
       </c>
       <c r="C45" s="30">
@@ -2464,7 +2467,7 @@
         <v>8</v>
       </c>
       <c r="B46" s="76">
-        <f>ROUND((C46/D46)*100, 2)</f>
+        <f t="shared" si="2"/>
         <v>56.41</v>
       </c>
       <c r="C46" s="1">
@@ -2485,7 +2488,7 @@
         <v>16</v>
       </c>
       <c r="B47" s="76">
-        <f>ROUND((C47/D47)*100, 2)</f>
+        <f t="shared" si="2"/>
         <v>56.25</v>
       </c>
       <c r="C47" s="1">
@@ -2504,7 +2507,7 @@
         <v>49</v>
       </c>
       <c r="B48" s="76">
-        <f>ROUND((C48/D48)*100, 2)</f>
+        <f t="shared" si="2"/>
         <v>55.32</v>
       </c>
       <c r="C48" s="30">
@@ -2523,7 +2526,7 @@
         <v>32</v>
       </c>
       <c r="B49" s="12">
-        <f>ROUND((C49/D49)*100, 2)</f>
+        <f t="shared" si="2"/>
         <v>45.83</v>
       </c>
       <c r="C49" s="30">
@@ -2563,7 +2566,7 @@
         <v>34</v>
       </c>
       <c r="B51" s="13">
-        <f t="shared" ref="B51:B64" si="2">ROUND((C51/D51)*100, 2)</f>
+        <f t="shared" ref="B51:B64" si="3">ROUND((C51/D51)*100, 2)</f>
         <v>7.69</v>
       </c>
       <c r="C51" s="30">
@@ -2582,7 +2585,7 @@
         <v>35</v>
       </c>
       <c r="B52" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.26</v>
       </c>
       <c r="C52" s="30">
@@ -2603,7 +2606,7 @@
         <v>15</v>
       </c>
       <c r="B53" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.0699999999999998</v>
       </c>
       <c r="C53" s="1">
@@ -2622,7 +2625,7 @@
         <v>10</v>
       </c>
       <c r="B54" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C54" s="30">
@@ -2641,7 +2644,7 @@
         <v>11</v>
       </c>
       <c r="B55" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C55" s="30">
@@ -2660,7 +2663,7 @@
         <v>12</v>
       </c>
       <c r="B56" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C56" s="30">
@@ -2678,7 +2681,7 @@
         <v>9</v>
       </c>
       <c r="B57" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C57" s="1">
@@ -2697,7 +2700,7 @@
         <v>13</v>
       </c>
       <c r="B58" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C58" s="1">
@@ -2716,7 +2719,7 @@
         <v>17</v>
       </c>
       <c r="B59" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C59" s="1">
@@ -2735,7 +2738,7 @@
         <v>20</v>
       </c>
       <c r="B60" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C60" s="30">
@@ -2754,7 +2757,7 @@
         <v>21</v>
       </c>
       <c r="B61" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C61" s="30">
@@ -2775,7 +2778,7 @@
         <v>114</v>
       </c>
       <c r="B62" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C62" s="30">
@@ -2794,7 +2797,7 @@
         <v>111</v>
       </c>
       <c r="B63" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C63" s="30">
@@ -2813,7 +2816,7 @@
         <v>27</v>
       </c>
       <c r="B64" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C64" s="30">
@@ -2832,7 +2835,7 @@
         <v>142</v>
       </c>
       <c r="B65" s="14">
-        <f t="shared" ref="B65" si="3">ROUND((C65/D65)*100, 2)</f>
+        <f t="shared" ref="B65" si="4">ROUND((C65/D65)*100, 2)</f>
         <v>0</v>
       </c>
       <c r="C65" s="30">
@@ -2851,7 +2854,7 @@
         <v>29</v>
       </c>
       <c r="B66" s="14">
-        <f t="shared" ref="B66:B77" si="4">ROUND((C66/D66)*100, 2)</f>
+        <f t="shared" ref="B66:B77" si="5">ROUND((C66/D66)*100, 2)</f>
         <v>0</v>
       </c>
       <c r="C66" s="30">
@@ -2870,7 +2873,7 @@
         <v>118</v>
       </c>
       <c r="B67" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C67" s="30">
@@ -2889,7 +2892,7 @@
         <v>36</v>
       </c>
       <c r="B68" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C68" s="30">
@@ -2908,7 +2911,7 @@
         <v>38</v>
       </c>
       <c r="B69" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C69" s="30">
@@ -2927,7 +2930,7 @@
         <v>42</v>
       </c>
       <c r="B70" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C70" s="30">
@@ -2946,7 +2949,7 @@
         <v>44</v>
       </c>
       <c r="B71" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C71" s="30">
@@ -2965,7 +2968,7 @@
         <v>46</v>
       </c>
       <c r="B72" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C72" s="30">
@@ -2984,7 +2987,7 @@
         <v>45</v>
       </c>
       <c r="B73" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C73" s="30">
@@ -3003,7 +3006,7 @@
         <v>113</v>
       </c>
       <c r="B74" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C74" s="30">
@@ -3022,7 +3025,7 @@
         <v>54</v>
       </c>
       <c r="B75" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C75" s="30">
@@ -3041,7 +3044,7 @@
         <v>56</v>
       </c>
       <c r="B76" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C76" s="30">
@@ -3060,7 +3063,7 @@
         <v>61</v>
       </c>
       <c r="B77" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C77" s="30">
@@ -3084,7 +3087,7 @@
       </c>
       <c r="C78" s="41">
         <f>SUM(C1:C39, C41:C77)</f>
-        <v>7802</v>
+        <v>7805</v>
       </c>
       <c r="D78" s="41">
         <f>SUM(D1:D39, D41:D77)</f>
@@ -3092,7 +3095,7 @@
       </c>
       <c r="E78" s="41">
         <f>SUM(E1:E39, E41:E77)</f>
-        <v>3366</v>
+        <v>3370</v>
       </c>
       <c r="F78" s="29" t="s">
         <v>103</v>
@@ -3135,7 +3138,7 @@
       </c>
       <c r="B81" s="36">
         <f>(C78/D78)*100</f>
-        <v>79.848531368334861</v>
+        <v>79.879234469348077</v>
       </c>
       <c r="E81" s="29"/>
       <c r="F81" s="29"/>
@@ -3146,11 +3149,11 @@
       </c>
       <c r="B82" s="41">
         <f>AVERAGEIF(B2:B77, "&gt;0")</f>
-        <v>86.00923076923074</v>
+        <v>86.078846153846129</v>
       </c>
       <c r="C82" s="41">
         <f>(C78/D79)*100</f>
-        <v>93.728976453628064</v>
+        <v>93.765016818837097</v>
       </c>
       <c r="D82" s="29" t="s">
         <v>123</v>

--- a/Achievement Tracker.xlsx
+++ b/Achievement Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Data\AchievementTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D86297-4D87-4985-AC6F-BB4E8293E91B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A54434-10A3-4333-8C49-ADB2A470A888}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{01F7A889-C794-47A9-89C3-7F43CBAA3EFF}"/>
+    <workbookView xWindow="-28920" yWindow="-4035" windowWidth="29040" windowHeight="15840" xr2:uid="{01F7A889-C794-47A9-89C3-7F43CBAA3EFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -978,11 +978,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2423,21 +2423,21 @@
       <c r="F43" s="29"/>
     </row>
     <row r="44" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="95" t="s">
+      <c r="A44" s="94" t="s">
         <v>140</v>
       </c>
       <c r="B44" s="74">
         <f t="shared" si="2"/>
-        <v>61.45</v>
+        <v>62.65</v>
       </c>
       <c r="C44" s="30">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D44" s="30">
         <v>83</v>
       </c>
       <c r="E44" s="30">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F44" s="29"/>
     </row>
@@ -3087,7 +3087,7 @@
       </c>
       <c r="C78" s="41">
         <f>SUM(C1:C39, C41:C77)</f>
-        <v>7805</v>
+        <v>7806</v>
       </c>
       <c r="D78" s="41">
         <f>SUM(D1:D39, D41:D77)</f>
@@ -3095,7 +3095,7 @@
       </c>
       <c r="E78" s="41">
         <f>SUM(E1:E39, E41:E77)</f>
-        <v>3370</v>
+        <v>3372</v>
       </c>
       <c r="F78" s="29" t="s">
         <v>103</v>
@@ -3138,7 +3138,7 @@
       </c>
       <c r="B81" s="36">
         <f>(C78/D78)*100</f>
-        <v>79.879234469348077</v>
+        <v>79.889468836352478</v>
       </c>
       <c r="E81" s="29"/>
       <c r="F81" s="29"/>
@@ -3149,11 +3149,11 @@
       </c>
       <c r="B82" s="41">
         <f>AVERAGEIF(B2:B77, "&gt;0")</f>
-        <v>86.078846153846129</v>
+        <v>86.101923076923043</v>
       </c>
       <c r="C82" s="41">
         <f>(C78/D79)*100</f>
-        <v>93.765016818837097</v>
+        <v>93.777030273906774</v>
       </c>
       <c r="D82" s="29" t="s">
         <v>123</v>
@@ -3169,11 +3169,11 @@
       </c>
     </row>
     <row r="84" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A84" s="94" t="s">
+      <c r="A84" s="95" t="s">
         <v>87</v>
       </c>
-      <c r="B84" s="94"/>
-      <c r="C84" s="94"/>
+      <c r="B84" s="95"/>
+      <c r="C84" s="95"/>
     </row>
     <row r="85" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="88" t="s">

--- a/Achievement Tracker.xlsx
+++ b/Achievement Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Data\AchievementTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A54434-10A3-4333-8C49-ADB2A470A888}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95A312C-FEF0-4E0D-BB3F-26D7B3808E2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-4035" windowWidth="29040" windowHeight="15840" xr2:uid="{01F7A889-C794-47A9-89C3-7F43CBAA3EFF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{01F7A889-C794-47A9-89C3-7F43CBAA3EFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1310,7 +1310,7 @@
   <dimension ref="A1:P100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2428,16 +2428,16 @@
       </c>
       <c r="B44" s="74">
         <f t="shared" si="2"/>
-        <v>62.65</v>
+        <v>66.27</v>
       </c>
       <c r="C44" s="30">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D44" s="30">
         <v>83</v>
       </c>
       <c r="E44" s="30">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F44" s="29"/>
     </row>
@@ -3087,7 +3087,7 @@
       </c>
       <c r="C78" s="41">
         <f>SUM(C1:C39, C41:C77)</f>
-        <v>7806</v>
+        <v>7809</v>
       </c>
       <c r="D78" s="41">
         <f>SUM(D1:D39, D41:D77)</f>
@@ -3095,7 +3095,7 @@
       </c>
       <c r="E78" s="41">
         <f>SUM(E1:E39, E41:E77)</f>
-        <v>3372</v>
+        <v>3378</v>
       </c>
       <c r="F78" s="29" t="s">
         <v>103</v>
@@ -3138,7 +3138,7 @@
       </c>
       <c r="B81" s="36">
         <f>(C78/D78)*100</f>
-        <v>79.889468836352478</v>
+        <v>79.920171937365666</v>
       </c>
       <c r="E81" s="29"/>
       <c r="F81" s="29"/>
@@ -3149,11 +3149,11 @@
       </c>
       <c r="B82" s="41">
         <f>AVERAGEIF(B2:B77, "&gt;0")</f>
-        <v>86.101923076923043</v>
+        <v>86.171538461538447</v>
       </c>
       <c r="C82" s="41">
         <f>(C78/D79)*100</f>
-        <v>93.777030273906774</v>
+        <v>93.813070639115807</v>
       </c>
       <c r="D82" s="29" t="s">
         <v>123</v>

--- a/Achievement Tracker.xlsx
+++ b/Achievement Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Data\AchievementTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95A312C-FEF0-4E0D-BB3F-26D7B3808E2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B5CE6D7-7343-486C-8103-3EFC136DEC41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{01F7A889-C794-47A9-89C3-7F43CBAA3EFF}"/>
   </bookViews>
@@ -978,11 +978,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1309,8 +1309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0DD2CDF-28B5-4FF8-81AE-E2FDE175FB34}">
   <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2368,7 +2368,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="70">
-        <f t="shared" si="1"/>
+        <f>ROUND((C41/D41)*100, 2)</f>
         <v>83.78</v>
       </c>
       <c r="C41" s="30">
@@ -2383,61 +2383,61 @@
       <c r="F41" s="29"/>
     </row>
     <row r="42" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="92" t="s">
+      <c r="A42" s="95" t="s">
+        <v>140</v>
+      </c>
+      <c r="B42" s="93">
+        <f>ROUND((C42/D42)*100, 2)</f>
+        <v>73.489999999999995</v>
+      </c>
+      <c r="C42" s="30">
+        <v>61</v>
+      </c>
+      <c r="D42" s="30">
+        <v>83</v>
+      </c>
+      <c r="E42" s="30">
+        <v>32</v>
+      </c>
+      <c r="F42" s="29"/>
+    </row>
+    <row r="43" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="92" t="s">
         <v>51</v>
       </c>
-      <c r="B42" s="93">
-        <f t="shared" ref="B42:B49" si="2">ROUND((C42/D42)*100, 2)</f>
+      <c r="B43" s="93">
+        <f>ROUND((C43/D43)*100, 2)</f>
         <v>71.930000000000007</v>
       </c>
-      <c r="C42" s="30">
+      <c r="C43" s="30">
         <v>82</v>
       </c>
-      <c r="D42" s="30">
+      <c r="D43" s="30">
         <v>114</v>
       </c>
-      <c r="E42" s="30">
+      <c r="E43" s="30">
         <v>320</v>
       </c>
-      <c r="F42" s="29" t="s">
+      <c r="F43" s="29" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="73" t="s">
+    <row r="44" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="74">
-        <f t="shared" si="2"/>
+      <c r="B44" s="74">
+        <f>ROUND((C44/D44)*100, 2)</f>
         <v>69.33</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C44" s="1">
         <v>52</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D44" s="1">
         <v>75</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E44" s="1">
         <v>72</v>
-      </c>
-      <c r="F43" s="29"/>
-    </row>
-    <row r="44" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="94" t="s">
-        <v>140</v>
-      </c>
-      <c r="B44" s="74">
-        <f t="shared" si="2"/>
-        <v>66.27</v>
-      </c>
-      <c r="C44" s="30">
-        <v>55</v>
-      </c>
-      <c r="D44" s="30">
-        <v>83</v>
-      </c>
-      <c r="E44" s="30">
-        <v>28</v>
       </c>
       <c r="F44" s="29"/>
     </row>
@@ -2446,7 +2446,7 @@
         <v>71</v>
       </c>
       <c r="B45" s="76">
-        <f t="shared" si="2"/>
+        <f>ROUND((C45/D45)*100, 2)</f>
         <v>56.76</v>
       </c>
       <c r="C45" s="30">
@@ -2467,7 +2467,7 @@
         <v>8</v>
       </c>
       <c r="B46" s="76">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="B42:B49" si="2">ROUND((C46/D46)*100, 2)</f>
         <v>56.41</v>
       </c>
       <c r="C46" s="1">
@@ -3087,7 +3087,7 @@
       </c>
       <c r="C78" s="41">
         <f>SUM(C1:C39, C41:C77)</f>
-        <v>7809</v>
+        <v>7815</v>
       </c>
       <c r="D78" s="41">
         <f>SUM(D1:D39, D41:D77)</f>
@@ -3095,7 +3095,7 @@
       </c>
       <c r="E78" s="41">
         <f>SUM(E1:E39, E41:E77)</f>
-        <v>3378</v>
+        <v>3382</v>
       </c>
       <c r="F78" s="29" t="s">
         <v>103</v>
@@ -3138,7 +3138,7 @@
       </c>
       <c r="B81" s="36">
         <f>(C78/D78)*100</f>
-        <v>79.920171937365666</v>
+        <v>79.98157813939207</v>
       </c>
       <c r="E81" s="29"/>
       <c r="F81" s="29"/>
@@ -3149,11 +3149,11 @@
       </c>
       <c r="B82" s="41">
         <f>AVERAGEIF(B2:B77, "&gt;0")</f>
-        <v>86.171538461538447</v>
+        <v>86.310384615384592</v>
       </c>
       <c r="C82" s="41">
         <f>(C78/D79)*100</f>
-        <v>93.813070639115807</v>
+        <v>93.885151369533887</v>
       </c>
       <c r="D82" s="29" t="s">
         <v>123</v>
@@ -3169,11 +3169,11 @@
       </c>
     </row>
     <row r="84" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A84" s="95" t="s">
+      <c r="A84" s="94" t="s">
         <v>87</v>
       </c>
-      <c r="B84" s="95"/>
-      <c r="C84" s="95"/>
+      <c r="B84" s="94"/>
+      <c r="C84" s="94"/>
     </row>
     <row r="85" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="88" t="s">
@@ -3318,8 +3318,8 @@
       <c r="C100" s="29"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A42:F49">
-    <sortCondition descending="1" ref="B42:B49"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A41:F45">
+    <sortCondition descending="1" ref="B41:B45"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A84:C84"/>

--- a/Achievement Tracker.xlsx
+++ b/Achievement Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Data\AchievementTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B5CE6D7-7343-486C-8103-3EFC136DEC41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD6B17D-93CD-4696-9986-982E2D597B40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{01F7A889-C794-47A9-89C3-7F43CBAA3EFF}"/>
   </bookViews>
@@ -978,11 +978,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1310,7 +1310,7 @@
   <dimension ref="A1:P100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2383,21 +2383,21 @@
       <c r="F41" s="29"/>
     </row>
     <row r="42" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="95" t="s">
+      <c r="A42" s="94" t="s">
         <v>140</v>
       </c>
       <c r="B42" s="93">
         <f>ROUND((C42/D42)*100, 2)</f>
-        <v>73.489999999999995</v>
+        <v>75.900000000000006</v>
       </c>
       <c r="C42" s="30">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D42" s="30">
         <v>83</v>
       </c>
       <c r="E42" s="30">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F42" s="29"/>
     </row>
@@ -2467,7 +2467,7 @@
         <v>8</v>
       </c>
       <c r="B46" s="76">
-        <f t="shared" ref="B42:B49" si="2">ROUND((C46/D46)*100, 2)</f>
+        <f t="shared" ref="B46:B49" si="2">ROUND((C46/D46)*100, 2)</f>
         <v>56.41</v>
       </c>
       <c r="C46" s="1">
@@ -3087,7 +3087,7 @@
       </c>
       <c r="C78" s="41">
         <f>SUM(C1:C39, C41:C77)</f>
-        <v>7815</v>
+        <v>7817</v>
       </c>
       <c r="D78" s="41">
         <f>SUM(D1:D39, D41:D77)</f>
@@ -3095,7 +3095,7 @@
       </c>
       <c r="E78" s="41">
         <f>SUM(E1:E39, E41:E77)</f>
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="F78" s="29" t="s">
         <v>103</v>
@@ -3138,7 +3138,7 @@
       </c>
       <c r="B81" s="36">
         <f>(C78/D78)*100</f>
-        <v>79.98157813939207</v>
+        <v>80.002046873400872</v>
       </c>
       <c r="E81" s="29"/>
       <c r="F81" s="29"/>
@@ -3149,11 +3149,11 @@
       </c>
       <c r="B82" s="41">
         <f>AVERAGEIF(B2:B77, "&gt;0")</f>
-        <v>86.310384615384592</v>
+        <v>86.356730769230751</v>
       </c>
       <c r="C82" s="41">
         <f>(C78/D79)*100</f>
-        <v>93.885151369533887</v>
+        <v>93.909178279673228</v>
       </c>
       <c r="D82" s="29" t="s">
         <v>123</v>
@@ -3169,11 +3169,11 @@
       </c>
     </row>
     <row r="84" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A84" s="94" t="s">
+      <c r="A84" s="95" t="s">
         <v>87</v>
       </c>
-      <c r="B84" s="94"/>
-      <c r="C84" s="94"/>
+      <c r="B84" s="95"/>
+      <c r="C84" s="95"/>
     </row>
     <row r="85" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="88" t="s">

--- a/Achievement Tracker.xlsx
+++ b/Achievement Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Data\AchievementTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD6B17D-93CD-4696-9986-982E2D597B40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412219A7-E347-4CD7-984E-028AFB6DA744}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{01F7A889-C794-47A9-89C3-7F43CBAA3EFF}"/>
   </bookViews>
@@ -978,11 +978,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1309,8 +1309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0DD2CDF-28B5-4FF8-81AE-E2FDE175FB34}">
   <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2383,21 +2383,21 @@
       <c r="F41" s="29"/>
     </row>
     <row r="42" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="94" t="s">
+      <c r="A42" s="95" t="s">
         <v>140</v>
       </c>
-      <c r="B42" s="93">
+      <c r="B42" s="70">
         <f>ROUND((C42/D42)*100, 2)</f>
-        <v>75.900000000000006</v>
+        <v>83.13</v>
       </c>
       <c r="C42" s="30">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D42" s="30">
         <v>83</v>
       </c>
       <c r="E42" s="30">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F42" s="29"/>
     </row>
@@ -3087,7 +3087,7 @@
       </c>
       <c r="C78" s="41">
         <f>SUM(C1:C39, C41:C77)</f>
-        <v>7817</v>
+        <v>7823</v>
       </c>
       <c r="D78" s="41">
         <f>SUM(D1:D39, D41:D77)</f>
@@ -3095,7 +3095,7 @@
       </c>
       <c r="E78" s="41">
         <f>SUM(E1:E39, E41:E77)</f>
-        <v>3383</v>
+        <v>3389</v>
       </c>
       <c r="F78" s="29" t="s">
         <v>103</v>
@@ -3138,7 +3138,7 @@
       </c>
       <c r="B81" s="36">
         <f>(C78/D78)*100</f>
-        <v>80.002046873400872</v>
+        <v>80.063453075427276</v>
       </c>
       <c r="E81" s="29"/>
       <c r="F81" s="29"/>
@@ -3149,11 +3149,11 @@
       </c>
       <c r="B82" s="41">
         <f>AVERAGEIF(B2:B77, "&gt;0")</f>
-        <v>86.356730769230751</v>
+        <v>86.495769230769213</v>
       </c>
       <c r="C82" s="41">
         <f>(C78/D79)*100</f>
-        <v>93.909178279673228</v>
+        <v>93.981259010091307</v>
       </c>
       <c r="D82" s="29" t="s">
         <v>123</v>
@@ -3169,11 +3169,11 @@
       </c>
     </row>
     <row r="84" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A84" s="95" t="s">
+      <c r="A84" s="94" t="s">
         <v>87</v>
       </c>
-      <c r="B84" s="95"/>
-      <c r="C84" s="95"/>
+      <c r="B84" s="94"/>
+      <c r="C84" s="94"/>
     </row>
     <row r="85" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="88" t="s">

--- a/Achievement Tracker.xlsx
+++ b/Achievement Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Data\AchievementTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412219A7-E347-4CD7-984E-028AFB6DA744}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB2BA26-2CEA-474D-B7A0-0935CCBED9AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{01F7A889-C794-47A9-89C3-7F43CBAA3EFF}"/>
+    <workbookView xWindow="-28920" yWindow="-4035" windowWidth="29040" windowHeight="15840" xr2:uid="{01F7A889-C794-47A9-89C3-7F43CBAA3EFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -981,7 +981,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1309,8 +1309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0DD2CDF-28B5-4FF8-81AE-E2FDE175FB34}">
   <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2280,124 +2280,124 @@
       </c>
     </row>
     <row r="37" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="53" t="s">
+      <c r="A37" s="95" t="s">
+        <v>140</v>
+      </c>
+      <c r="B37" s="11">
+        <f>ROUND((C37/D37)*100, 2)</f>
+        <v>95.18</v>
+      </c>
+      <c r="C37" s="30">
+        <v>79</v>
+      </c>
+      <c r="D37" s="30">
+        <v>83</v>
+      </c>
+      <c r="E37" s="30">
+        <v>45</v>
+      </c>
+      <c r="F37" s="29"/>
+    </row>
+    <row r="38" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="B37" s="11">
-        <f t="shared" si="1"/>
+      <c r="B38" s="11">
+        <f>ROUND((C38/D38)*100, 2)</f>
         <v>94.81</v>
       </c>
-      <c r="C37" s="30">
+      <c r="C38" s="30">
         <v>493</v>
       </c>
-      <c r="D37" s="30">
+      <c r="D38" s="30">
         <v>520</v>
       </c>
-      <c r="E37" s="30">
+      <c r="E38" s="30">
         <v>260</v>
       </c>
-      <c r="F37" s="29" t="s">
+      <c r="F38" s="29" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="28" t="s">
+    <row r="39" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="11">
-        <f t="shared" si="1"/>
+      <c r="B39" s="11">
+        <f>ROUND((C39/D39)*100, 2)</f>
         <v>94.1</v>
       </c>
-      <c r="C38" s="30">
+      <c r="C39" s="30">
         <v>1149</v>
       </c>
-      <c r="D38" s="30">
+      <c r="D39" s="30">
         <v>1221</v>
       </c>
-      <c r="E38" s="30">
+      <c r="E39" s="30">
         <v>11</v>
       </c>
-      <c r="F38" s="29" t="s">
+      <c r="F39" s="29" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="69" t="s">
+    <row r="40" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="B39" s="70">
-        <f t="shared" si="1"/>
+      <c r="B40" s="70">
+        <f>ROUND((C40/D40)*100, 2)</f>
         <v>86.83</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C40" s="1">
         <v>145</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D40" s="1">
         <v>167</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E40" s="1">
         <v>203</v>
       </c>
-      <c r="F39" s="29" t="s">
+      <c r="F40" s="29" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="71" t="s">
+    <row r="41" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="71" t="s">
         <v>98</v>
       </c>
-      <c r="B40" s="72">
-        <f t="shared" si="1"/>
+      <c r="B41" s="72">
+        <f>ROUND((C41/D41)*100, 2)</f>
         <v>84.62</v>
       </c>
-      <c r="C40" s="63">
+      <c r="C41" s="63">
         <v>33</v>
       </c>
-      <c r="D40" s="63">
+      <c r="D41" s="63">
         <v>39</v>
       </c>
-      <c r="E40" s="63">
+      <c r="E41" s="63">
         <v>27</v>
       </c>
-      <c r="F40" s="64" t="s">
+      <c r="F41" s="64" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="69" t="s">
+    <row r="42" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="69" t="s">
         <v>41</v>
-      </c>
-      <c r="B41" s="70">
-        <f>ROUND((C41/D41)*100, 2)</f>
-        <v>83.78</v>
-      </c>
-      <c r="C41" s="30">
-        <v>31</v>
-      </c>
-      <c r="D41" s="30">
-        <v>37</v>
-      </c>
-      <c r="E41" s="30">
-        <v>556</v>
-      </c>
-      <c r="F41" s="29"/>
-    </row>
-    <row r="42" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="95" t="s">
-        <v>140</v>
       </c>
       <c r="B42" s="70">
         <f>ROUND((C42/D42)*100, 2)</f>
-        <v>83.13</v>
+        <v>83.78</v>
       </c>
       <c r="C42" s="30">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="D42" s="30">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="E42" s="30">
-        <v>39</v>
+        <v>556</v>
       </c>
       <c r="F42" s="29"/>
     </row>
@@ -3087,15 +3087,15 @@
       </c>
       <c r="C78" s="41">
         <f>SUM(C1:C39, C41:C77)</f>
-        <v>7823</v>
+        <v>7721</v>
       </c>
       <c r="D78" s="41">
         <f>SUM(D1:D39, D41:D77)</f>
-        <v>9771</v>
+        <v>9643</v>
       </c>
       <c r="E78" s="41">
         <f>SUM(E1:E39, E41:E77)</f>
-        <v>3389</v>
+        <v>3219</v>
       </c>
       <c r="F78" s="29" t="s">
         <v>103</v>
@@ -3112,7 +3112,7 @@
       <c r="C79" s="29"/>
       <c r="D79" s="41">
         <f>SUM(D1:D39, D41:D52)</f>
-        <v>8324</v>
+        <v>8196</v>
       </c>
       <c r="E79" s="29" t="s">
         <v>109</v>
@@ -3138,7 +3138,7 @@
       </c>
       <c r="B81" s="36">
         <f>(C78/D78)*100</f>
-        <v>80.063453075427276</v>
+        <v>80.068443430467696</v>
       </c>
       <c r="E81" s="29"/>
       <c r="F81" s="29"/>
@@ -3149,11 +3149,11 @@
       </c>
       <c r="B82" s="41">
         <f>AVERAGEIF(B2:B77, "&gt;0")</f>
-        <v>86.495769230769213</v>
+        <v>86.727499999999978</v>
       </c>
       <c r="C82" s="41">
         <f>(C78/D79)*100</f>
-        <v>93.981259010091307</v>
+        <v>94.204489995119573</v>
       </c>
       <c r="D82" s="29" t="s">
         <v>123</v>
@@ -3318,8 +3318,8 @@
       <c r="C100" s="29"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A41:F45">
-    <sortCondition descending="1" ref="B41:B45"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A37:F43">
+    <sortCondition descending="1" ref="B37:B43"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A84:C84"/>

--- a/Achievement Tracker.xlsx
+++ b/Achievement Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Data\AchievementTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB2BA26-2CEA-474D-B7A0-0935CCBED9AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C639A7C2-64D1-486A-A944-01F0B8824EED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-4035" windowWidth="29040" windowHeight="15840" xr2:uid="{01F7A889-C794-47A9-89C3-7F43CBAA3EFF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{01F7A889-C794-47A9-89C3-7F43CBAA3EFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -978,11 +978,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1309,8 +1309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0DD2CDF-28B5-4FF8-81AE-E2FDE175FB34}">
   <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2280,21 +2280,21 @@
       </c>
     </row>
     <row r="37" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="95" t="s">
+      <c r="A37" s="94" t="s">
         <v>140</v>
       </c>
       <c r="B37" s="11">
-        <f>ROUND((C37/D37)*100, 2)</f>
-        <v>95.18</v>
+        <f t="shared" ref="B37:B45" si="2">ROUND((C37/D37)*100, 2)</f>
+        <v>98.8</v>
       </c>
       <c r="C37" s="30">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D37" s="30">
         <v>83</v>
       </c>
       <c r="E37" s="30">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F37" s="29"/>
     </row>
@@ -2303,7 +2303,7 @@
         <v>65</v>
       </c>
       <c r="B38" s="11">
-        <f>ROUND((C38/D38)*100, 2)</f>
+        <f t="shared" si="2"/>
         <v>94.81</v>
       </c>
       <c r="C38" s="30">
@@ -2324,7 +2324,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="11">
-        <f>ROUND((C39/D39)*100, 2)</f>
+        <f t="shared" si="2"/>
         <v>94.1</v>
       </c>
       <c r="C39" s="30">
@@ -2345,7 +2345,7 @@
         <v>14</v>
       </c>
       <c r="B40" s="70">
-        <f>ROUND((C40/D40)*100, 2)</f>
+        <f t="shared" si="2"/>
         <v>86.83</v>
       </c>
       <c r="C40" s="1">
@@ -2366,7 +2366,7 @@
         <v>98</v>
       </c>
       <c r="B41" s="72">
-        <f>ROUND((C41/D41)*100, 2)</f>
+        <f t="shared" si="2"/>
         <v>84.62</v>
       </c>
       <c r="C41" s="63">
@@ -2387,7 +2387,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="70">
-        <f>ROUND((C42/D42)*100, 2)</f>
+        <f t="shared" si="2"/>
         <v>83.78</v>
       </c>
       <c r="C42" s="30">
@@ -2406,7 +2406,7 @@
         <v>51</v>
       </c>
       <c r="B43" s="93">
-        <f>ROUND((C43/D43)*100, 2)</f>
+        <f t="shared" si="2"/>
         <v>71.930000000000007</v>
       </c>
       <c r="C43" s="30">
@@ -2427,7 +2427,7 @@
         <v>7</v>
       </c>
       <c r="B44" s="74">
-        <f>ROUND((C44/D44)*100, 2)</f>
+        <f t="shared" si="2"/>
         <v>69.33</v>
       </c>
       <c r="C44" s="1">
@@ -2446,7 +2446,7 @@
         <v>71</v>
       </c>
       <c r="B45" s="76">
-        <f>ROUND((C45/D45)*100, 2)</f>
+        <f t="shared" si="2"/>
         <v>56.76</v>
       </c>
       <c r="C45" s="30">
@@ -2467,7 +2467,7 @@
         <v>8</v>
       </c>
       <c r="B46" s="76">
-        <f t="shared" ref="B46:B49" si="2">ROUND((C46/D46)*100, 2)</f>
+        <f t="shared" ref="B46:B49" si="3">ROUND((C46/D46)*100, 2)</f>
         <v>56.41</v>
       </c>
       <c r="C46" s="1">
@@ -2488,7 +2488,7 @@
         <v>16</v>
       </c>
       <c r="B47" s="76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>56.25</v>
       </c>
       <c r="C47" s="1">
@@ -2507,7 +2507,7 @@
         <v>49</v>
       </c>
       <c r="B48" s="76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>55.32</v>
       </c>
       <c r="C48" s="30">
@@ -2526,7 +2526,7 @@
         <v>32</v>
       </c>
       <c r="B49" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45.83</v>
       </c>
       <c r="C49" s="30">
@@ -2566,7 +2566,7 @@
         <v>34</v>
       </c>
       <c r="B51" s="13">
-        <f t="shared" ref="B51:B64" si="3">ROUND((C51/D51)*100, 2)</f>
+        <f t="shared" ref="B51:B64" si="4">ROUND((C51/D51)*100, 2)</f>
         <v>7.69</v>
       </c>
       <c r="C51" s="30">
@@ -2585,7 +2585,7 @@
         <v>35</v>
       </c>
       <c r="B52" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.26</v>
       </c>
       <c r="C52" s="30">
@@ -2606,7 +2606,7 @@
         <v>15</v>
       </c>
       <c r="B53" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.0699999999999998</v>
       </c>
       <c r="C53" s="1">
@@ -2625,7 +2625,7 @@
         <v>10</v>
       </c>
       <c r="B54" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C54" s="30">
@@ -2644,7 +2644,7 @@
         <v>11</v>
       </c>
       <c r="B55" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C55" s="30">
@@ -2663,7 +2663,7 @@
         <v>12</v>
       </c>
       <c r="B56" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C56" s="30">
@@ -2681,7 +2681,7 @@
         <v>9</v>
       </c>
       <c r="B57" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C57" s="1">
@@ -2700,7 +2700,7 @@
         <v>13</v>
       </c>
       <c r="B58" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C58" s="1">
@@ -2719,7 +2719,7 @@
         <v>17</v>
       </c>
       <c r="B59" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C59" s="1">
@@ -2738,7 +2738,7 @@
         <v>20</v>
       </c>
       <c r="B60" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C60" s="30">
@@ -2757,7 +2757,7 @@
         <v>21</v>
       </c>
       <c r="B61" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C61" s="30">
@@ -2778,7 +2778,7 @@
         <v>114</v>
       </c>
       <c r="B62" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C62" s="30">
@@ -2797,7 +2797,7 @@
         <v>111</v>
       </c>
       <c r="B63" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C63" s="30">
@@ -2816,7 +2816,7 @@
         <v>27</v>
       </c>
       <c r="B64" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C64" s="30">
@@ -2835,7 +2835,7 @@
         <v>142</v>
       </c>
       <c r="B65" s="14">
-        <f t="shared" ref="B65" si="4">ROUND((C65/D65)*100, 2)</f>
+        <f t="shared" ref="B65" si="5">ROUND((C65/D65)*100, 2)</f>
         <v>0</v>
       </c>
       <c r="C65" s="30">
@@ -2854,7 +2854,7 @@
         <v>29</v>
       </c>
       <c r="B66" s="14">
-        <f t="shared" ref="B66:B77" si="5">ROUND((C66/D66)*100, 2)</f>
+        <f t="shared" ref="B66:B77" si="6">ROUND((C66/D66)*100, 2)</f>
         <v>0</v>
       </c>
       <c r="C66" s="30">
@@ -2873,7 +2873,7 @@
         <v>118</v>
       </c>
       <c r="B67" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C67" s="30">
@@ -2892,7 +2892,7 @@
         <v>36</v>
       </c>
       <c r="B68" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C68" s="30">
@@ -2911,7 +2911,7 @@
         <v>38</v>
       </c>
       <c r="B69" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C69" s="30">
@@ -2930,7 +2930,7 @@
         <v>42</v>
       </c>
       <c r="B70" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C70" s="30">
@@ -2949,7 +2949,7 @@
         <v>44</v>
       </c>
       <c r="B71" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C71" s="30">
@@ -2968,7 +2968,7 @@
         <v>46</v>
       </c>
       <c r="B72" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C72" s="30">
@@ -2987,7 +2987,7 @@
         <v>45</v>
       </c>
       <c r="B73" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C73" s="30">
@@ -3006,7 +3006,7 @@
         <v>113</v>
       </c>
       <c r="B74" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C74" s="30">
@@ -3025,7 +3025,7 @@
         <v>54</v>
       </c>
       <c r="B75" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C75" s="30">
@@ -3044,7 +3044,7 @@
         <v>56</v>
       </c>
       <c r="B76" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C76" s="30">
@@ -3063,7 +3063,7 @@
         <v>61</v>
       </c>
       <c r="B77" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C77" s="30">
@@ -3087,7 +3087,7 @@
       </c>
       <c r="C78" s="41">
         <f>SUM(C1:C39, C41:C77)</f>
-        <v>7721</v>
+        <v>7724</v>
       </c>
       <c r="D78" s="41">
         <f>SUM(D1:D39, D41:D77)</f>
@@ -3095,7 +3095,7 @@
       </c>
       <c r="E78" s="41">
         <f>SUM(E1:E39, E41:E77)</f>
-        <v>3219</v>
+        <v>3224</v>
       </c>
       <c r="F78" s="29" t="s">
         <v>103</v>
@@ -3138,7 +3138,7 @@
       </c>
       <c r="B81" s="36">
         <f>(C78/D78)*100</f>
-        <v>80.068443430467696</v>
+        <v>80.099554080680292</v>
       </c>
       <c r="E81" s="29"/>
       <c r="F81" s="29"/>
@@ -3149,11 +3149,11 @@
       </c>
       <c r="B82" s="41">
         <f>AVERAGEIF(B2:B77, "&gt;0")</f>
-        <v>86.727499999999978</v>
+        <v>86.797115384615367</v>
       </c>
       <c r="C82" s="41">
         <f>(C78/D79)*100</f>
-        <v>94.204489995119573</v>
+        <v>94.241093216203026</v>
       </c>
       <c r="D82" s="29" t="s">
         <v>123</v>
@@ -3169,11 +3169,11 @@
       </c>
     </row>
     <row r="84" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A84" s="94" t="s">
+      <c r="A84" s="95" t="s">
         <v>87</v>
       </c>
-      <c r="B84" s="94"/>
-      <c r="C84" s="94"/>
+      <c r="B84" s="95"/>
+      <c r="C84" s="95"/>
     </row>
     <row r="85" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="88" t="s">

--- a/Achievement Tracker.xlsx
+++ b/Achievement Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Data\AchievementTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C639A7C2-64D1-486A-A944-01F0B8824EED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D941037-D03A-43A5-BE0B-5ADD427E9C46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{01F7A889-C794-47A9-89C3-7F43CBAA3EFF}"/>
   </bookViews>
@@ -759,7 +759,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -977,9 +977,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1309,8 +1306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0DD2CDF-28B5-4FF8-81AE-E2FDE175FB34}">
   <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1374,7 +1371,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="10">
-        <f t="shared" ref="B2:B35" si="0">ROUND((C2/D2)*100, 2)</f>
+        <f t="shared" ref="B2:B39" si="0">ROUND((C2/D2)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C2" s="1">
@@ -1394,7 +1391,7 @@
         <v>7</v>
       </c>
       <c r="L2" s="26" t="s">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>5</v>
@@ -1428,7 +1425,7 @@
         <v>8</v>
       </c>
       <c r="L3" s="26" t="s">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="N3" s="8" t="s">
         <v>6</v>
@@ -1463,9 +1460,6 @@
       <c r="J4" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="26" t="s">
-        <v>32</v>
-      </c>
       <c r="N4" s="8" t="s">
         <v>115</v>
       </c>
@@ -1792,24 +1786,24 @@
     </row>
     <row r="16" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>30</v>
+        <v>140</v>
       </c>
       <c r="B16" s="10">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="C16" s="30">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="D16" s="30">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="E16" s="30">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="F16" s="29"/>
-      <c r="N16" s="8" t="s">
-        <v>30</v>
+      <c r="N16" s="87" t="s">
+        <v>140</v>
       </c>
       <c r="P16" s="17" t="s">
         <v>46</v>
@@ -1817,24 +1811,24 @@
     </row>
     <row r="17" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17" s="10">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="C17" s="30">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D17" s="30">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="E17" s="30">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="F17" s="29"/>
       <c r="N17" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P17" s="17" t="s">
         <v>50</v>
@@ -1842,468 +1836,471 @@
     </row>
     <row r="18" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B18" s="10">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="C18" s="30">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="D18" s="30">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="E18" s="30">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="F18" s="29"/>
       <c r="N18" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P18" s="33" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="68" t="s">
-        <v>116</v>
+      <c r="A19" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="B19" s="10">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="C19" s="30">
-        <v>251</v>
+        <v>74</v>
       </c>
       <c r="D19" s="30">
-        <v>251</v>
+        <v>74</v>
       </c>
       <c r="E19" s="30">
-        <v>1</v>
-      </c>
-      <c r="F19" s="29" t="s">
-        <v>126</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="F19" s="29"/>
       <c r="N19" s="8" t="s">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="P19" s="17" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
-        <v>37</v>
+      <c r="A20" s="68" t="s">
+        <v>116</v>
       </c>
       <c r="B20" s="10">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="C20" s="30">
-        <v>13</v>
+        <v>251</v>
       </c>
       <c r="D20" s="30">
-        <v>13</v>
+        <v>251</v>
       </c>
       <c r="E20" s="30">
-        <v>8</v>
-      </c>
-      <c r="F20" s="29"/>
+        <v>1</v>
+      </c>
+      <c r="F20" s="29" t="s">
+        <v>126</v>
+      </c>
       <c r="N20" s="8" t="s">
-        <v>37</v>
+        <v>116</v>
       </c>
       <c r="P20" s="17" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="51" t="s">
+      <c r="A21" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="10">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="C21" s="30">
+        <v>13</v>
+      </c>
+      <c r="D21" s="30">
+        <v>13</v>
+      </c>
+      <c r="E21" s="30">
+        <v>8</v>
+      </c>
+      <c r="F21" s="29"/>
+      <c r="N21" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="B21" s="89">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="C21" s="63">
+      <c r="B22" s="89">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="C22" s="63">
         <v>74</v>
       </c>
-      <c r="D21" s="63">
+      <c r="D22" s="63">
         <v>74</v>
       </c>
-      <c r="E21" s="63">
+      <c r="E22" s="63">
         <v>2</v>
       </c>
-      <c r="F21" s="63" t="s">
+      <c r="F22" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="N21" s="8" t="s">
+      <c r="N22" s="8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="52" t="s">
+    <row r="23" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="10">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="C22" s="30">
+      <c r="B23" s="10">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="C23" s="30">
         <v>466</v>
       </c>
-      <c r="D22" s="30">
+      <c r="D23" s="30">
         <v>466</v>
       </c>
-      <c r="E22" s="30">
+      <c r="E23" s="30">
         <v>2</v>
       </c>
-      <c r="F22" s="29" t="s">
+      <c r="F23" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="N22" s="8" t="s">
+      <c r="N23" s="8" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" s="10">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="C23" s="30">
-        <v>88</v>
-      </c>
-      <c r="D23" s="30">
-        <v>88</v>
-      </c>
-      <c r="E23" s="30">
-        <v>558</v>
-      </c>
-      <c r="F23" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="N23" s="8" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B24" s="10">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="C24" s="30">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="D24" s="30">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="E24" s="30">
-        <v>5</v>
-      </c>
-      <c r="F24" s="29"/>
+        <v>558</v>
+      </c>
+      <c r="F24" s="29" t="s">
+        <v>141</v>
+      </c>
       <c r="N24" s="8" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="B25" s="10">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="C25" s="30">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="D25" s="30">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="E25" s="30">
-        <v>1</v>
-      </c>
-      <c r="F25" s="29" t="s">
-        <v>74</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F25" s="29"/>
       <c r="N25" s="8" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B26" s="10">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="C26" s="30">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="D26" s="30">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="E26" s="30">
-        <v>5</v>
-      </c>
-      <c r="F26" s="29"/>
+        <v>1</v>
+      </c>
+      <c r="F26" s="29" t="s">
+        <v>74</v>
+      </c>
       <c r="N26" s="8" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B27" s="10">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="C27" s="30">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="D27" s="30">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="E27" s="30">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="F27" s="29"/>
       <c r="N27" s="8" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B28" s="10">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="C28" s="30">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D28" s="30">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="E28" s="30">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F28" s="29"/>
       <c r="N28" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B29" s="10">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="C29" s="30">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D29" s="30">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E29" s="30">
         <v>12</v>
       </c>
       <c r="F29" s="29"/>
       <c r="N29" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B30" s="10">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="C30" s="30">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D30" s="30">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E30" s="30">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F30" s="29"/>
       <c r="N30" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B31" s="10">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="C31" s="30">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="D31" s="30">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="E31" s="30">
-        <v>201</v>
+        <v>30</v>
       </c>
       <c r="F31" s="29"/>
       <c r="N31" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B32" s="10">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="C32" s="30">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="D32" s="30">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="E32" s="30">
-        <v>14</v>
+        <v>201</v>
       </c>
       <c r="F32" s="29"/>
       <c r="N32" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="B33" s="10">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="C33" s="30">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="D33" s="30">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E33" s="30">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="F33" s="29"/>
       <c r="N33" s="8" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="B34" s="10">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="C34" s="30">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="D34" s="30">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E34" s="30">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="F34" s="29"/>
       <c r="N34" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="7" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="52" t="s">
+      <c r="B35" s="10">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="C35" s="30">
         <v>55</v>
       </c>
-      <c r="B35" s="10">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="C35" s="30">
+      <c r="D35" s="30">
+        <v>55</v>
+      </c>
+      <c r="E35" s="30">
+        <v>110</v>
+      </c>
+      <c r="F35" s="29"/>
+      <c r="N35" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" s="10">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="C36" s="30">
         <v>1877</v>
       </c>
-      <c r="D35" s="30">
+      <c r="D36" s="30">
         <v>1877</v>
       </c>
-      <c r="E35" s="30">
+      <c r="E36" s="30">
         <v>1</v>
       </c>
-      <c r="F35" s="29" t="s">
+      <c r="F36" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="N35" s="8" t="s">
+      <c r="N36" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="7" t="s">
+    <row r="37" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B36" s="10">
-        <f t="shared" ref="B36:B50" si="1">ROUND((C36/D36)*100, 2)</f>
-        <v>100</v>
-      </c>
-      <c r="C36" s="30">
+      <c r="B37" s="10">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="C37" s="30">
         <v>1708</v>
       </c>
-      <c r="D36" s="30">
+      <c r="D37" s="30">
         <v>1708</v>
       </c>
-      <c r="E36" s="30">
+      <c r="E37" s="30">
         <v>2</v>
       </c>
-      <c r="F36" s="29"/>
-      <c r="N36" s="8" t="s">
+      <c r="F37" s="29"/>
+      <c r="N37" s="8" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="94" t="s">
-        <v>140</v>
-      </c>
-      <c r="B37" s="11">
-        <f t="shared" ref="B37:B45" si="2">ROUND((C37/D37)*100, 2)</f>
-        <v>98.8</v>
-      </c>
-      <c r="C37" s="30">
-        <v>82</v>
-      </c>
-      <c r="D37" s="30">
-        <v>83</v>
-      </c>
-      <c r="E37" s="30">
-        <v>50</v>
-      </c>
-      <c r="F37" s="29"/>
     </row>
     <row r="38" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="53" t="s">
         <v>65</v>
       </c>
       <c r="B38" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>94.81</v>
       </c>
       <c r="C38" s="30">
@@ -2324,7 +2321,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>94.1</v>
       </c>
       <c r="C39" s="30">
@@ -2345,7 +2342,7 @@
         <v>14</v>
       </c>
       <c r="B40" s="70">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="B40:B45" si="1">ROUND((C40/D40)*100, 2)</f>
         <v>86.83</v>
       </c>
       <c r="C40" s="1">
@@ -2366,7 +2363,7 @@
         <v>98</v>
       </c>
       <c r="B41" s="72">
-        <f t="shared" si="2"/>
+        <f>ROUND((C41/D41)*100, 2)</f>
         <v>84.62</v>
       </c>
       <c r="C41" s="63">
@@ -2387,7 +2384,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="70">
-        <f t="shared" si="2"/>
+        <f>ROUND((C42/D42)*100, 2)</f>
         <v>83.78</v>
       </c>
       <c r="C42" s="30">
@@ -2406,7 +2403,7 @@
         <v>51</v>
       </c>
       <c r="B43" s="93">
-        <f t="shared" si="2"/>
+        <f>ROUND((C43/D43)*100, 2)</f>
         <v>71.930000000000007</v>
       </c>
       <c r="C43" s="30">
@@ -2427,7 +2424,7 @@
         <v>7</v>
       </c>
       <c r="B44" s="74">
-        <f t="shared" si="2"/>
+        <f>ROUND((C44/D44)*100, 2)</f>
         <v>69.33</v>
       </c>
       <c r="C44" s="1">
@@ -2442,82 +2439,82 @@
       <c r="F44" s="29"/>
     </row>
     <row r="45" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="77" t="s">
+      <c r="A45" s="73" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" s="74">
+        <f>ROUND((C45/D45)*100, 2)</f>
+        <v>68.09</v>
+      </c>
+      <c r="C45" s="30">
+        <v>32</v>
+      </c>
+      <c r="D45" s="30">
+        <v>47</v>
+      </c>
+      <c r="E45" s="30">
+        <v>16</v>
+      </c>
+      <c r="F45" s="29"/>
+    </row>
+    <row r="46" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="B45" s="76">
-        <f t="shared" si="2"/>
+      <c r="B46" s="76">
+        <f>ROUND((C46/D46)*100, 2)</f>
         <v>56.76</v>
       </c>
-      <c r="C45" s="30">
+      <c r="C46" s="30">
         <v>21</v>
       </c>
-      <c r="D45" s="30">
+      <c r="D46" s="30">
         <v>37</v>
       </c>
-      <c r="E45" s="30">
+      <c r="E46" s="30">
         <v>11</v>
       </c>
-      <c r="F45" s="29" t="s">
+      <c r="F46" s="29" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="75" t="s">
+    <row r="47" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="B46" s="76">
-        <f t="shared" ref="B46:B49" si="3">ROUND((C46/D46)*100, 2)</f>
+      <c r="B47" s="76">
+        <f>ROUND((C47/D47)*100, 2)</f>
         <v>56.41</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C47" s="1">
         <v>44</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D47" s="1">
         <v>78</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E47" s="1">
         <v>77</v>
       </c>
-      <c r="F46" s="29" t="s">
+      <c r="F47" s="29" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="78" t="s">
-        <v>16</v>
-      </c>
-      <c r="B47" s="76">
-        <f t="shared" si="3"/>
-        <v>56.25</v>
-      </c>
-      <c r="C47" s="1">
-        <v>27</v>
-      </c>
-      <c r="D47" s="1">
-        <v>48</v>
-      </c>
-      <c r="E47" s="1">
-        <v>39</v>
-      </c>
-      <c r="F47" s="29"/>
     </row>
     <row r="48" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="78" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="B48" s="76">
-        <f t="shared" si="3"/>
-        <v>55.32</v>
-      </c>
-      <c r="C48" s="30">
-        <v>26</v>
-      </c>
-      <c r="D48" s="30">
-        <v>47</v>
-      </c>
-      <c r="E48" s="30">
-        <v>12</v>
+        <f>ROUND((C48/D48)*100, 2)</f>
+        <v>56.25</v>
+      </c>
+      <c r="C48" s="1">
+        <v>27</v>
+      </c>
+      <c r="D48" s="1">
+        <v>48</v>
+      </c>
+      <c r="E48" s="1">
+        <v>39</v>
       </c>
       <c r="F48" s="29"/>
     </row>
@@ -2526,7 +2523,7 @@
         <v>32</v>
       </c>
       <c r="B49" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="B46:B49" si="2">ROUND((C49/D49)*100, 2)</f>
         <v>45.83</v>
       </c>
       <c r="C49" s="30">
@@ -2545,7 +2542,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B50" si="3">ROUND((C50/D50)*100, 2)</f>
         <v>43.66</v>
       </c>
       <c r="C50" s="30">
@@ -3087,7 +3084,7 @@
       </c>
       <c r="C78" s="41">
         <f>SUM(C1:C39, C41:C77)</f>
-        <v>7724</v>
+        <v>7731</v>
       </c>
       <c r="D78" s="41">
         <f>SUM(D1:D39, D41:D77)</f>
@@ -3095,7 +3092,7 @@
       </c>
       <c r="E78" s="41">
         <f>SUM(E1:E39, E41:E77)</f>
-        <v>3224</v>
+        <v>3228</v>
       </c>
       <c r="F78" s="29" t="s">
         <v>103</v>
@@ -3125,7 +3122,7 @@
       </c>
       <c r="B80" s="40">
         <f>COUNTIF(B1:B77, "&gt;=100")</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C80" s="29"/>
       <c r="D80" s="29"/>
@@ -3138,7 +3135,7 @@
       </c>
       <c r="B81" s="36">
         <f>(C78/D78)*100</f>
-        <v>80.099554080680292</v>
+        <v>80.172145597842999</v>
       </c>
       <c r="E81" s="29"/>
       <c r="F81" s="29"/>
@@ -3149,11 +3146,11 @@
       </c>
       <c r="B82" s="41">
         <f>AVERAGEIF(B2:B77, "&gt;0")</f>
-        <v>86.797115384615367</v>
+        <v>87.06576923076922</v>
       </c>
       <c r="C82" s="41">
         <f>(C78/D79)*100</f>
-        <v>94.241093216203026</v>
+        <v>94.326500732064417</v>
       </c>
       <c r="D82" s="29" t="s">
         <v>123</v>
@@ -3165,15 +3162,15 @@
       </c>
       <c r="B83" s="39">
         <f>ROUND(((B80/B79)*100), 2)</f>
-        <v>68.63</v>
+        <v>70.59</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A84" s="95" t="s">
+      <c r="A84" s="94" t="s">
         <v>87</v>
       </c>
-      <c r="B84" s="95"/>
-      <c r="C84" s="95"/>
+      <c r="B84" s="94"/>
+      <c r="C84" s="94"/>
     </row>
     <row r="85" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="88" t="s">
@@ -3318,8 +3315,8 @@
       <c r="C100" s="29"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A37:F43">
-    <sortCondition descending="1" ref="B37:B43"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A41:F48">
+    <sortCondition descending="1" ref="B41:B48"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A84:C84"/>

--- a/Achievement Tracker.xlsx
+++ b/Achievement Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Data\AchievementTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D941037-D03A-43A5-BE0B-5ADD427E9C46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A27D949B-2D20-477F-AC22-07313044837E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{01F7A889-C794-47A9-89C3-7F43CBAA3EFF}"/>
   </bookViews>
@@ -1307,7 +1307,7 @@
   <dimension ref="A1:P100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2342,7 +2342,7 @@
         <v>14</v>
       </c>
       <c r="B40" s="70">
-        <f t="shared" ref="B40:B45" si="1">ROUND((C40/D40)*100, 2)</f>
+        <f t="shared" ref="B40" si="1">ROUND((C40/D40)*100, 2)</f>
         <v>86.83</v>
       </c>
       <c r="C40" s="1">
@@ -2363,7 +2363,7 @@
         <v>98</v>
       </c>
       <c r="B41" s="72">
-        <f>ROUND((C41/D41)*100, 2)</f>
+        <f t="shared" ref="B41:B48" si="2">ROUND((C41/D41)*100, 2)</f>
         <v>84.62</v>
       </c>
       <c r="C41" s="63">
@@ -2384,7 +2384,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="70">
-        <f>ROUND((C42/D42)*100, 2)</f>
+        <f t="shared" si="2"/>
         <v>83.78</v>
       </c>
       <c r="C42" s="30">
@@ -2403,7 +2403,7 @@
         <v>51</v>
       </c>
       <c r="B43" s="93">
-        <f>ROUND((C43/D43)*100, 2)</f>
+        <f t="shared" si="2"/>
         <v>71.930000000000007</v>
       </c>
       <c r="C43" s="30">
@@ -2424,7 +2424,7 @@
         <v>7</v>
       </c>
       <c r="B44" s="74">
-        <f>ROUND((C44/D44)*100, 2)</f>
+        <f t="shared" si="2"/>
         <v>69.33</v>
       </c>
       <c r="C44" s="1">
@@ -2443,7 +2443,7 @@
         <v>49</v>
       </c>
       <c r="B45" s="74">
-        <f>ROUND((C45/D45)*100, 2)</f>
+        <f t="shared" si="2"/>
         <v>68.09</v>
       </c>
       <c r="C45" s="30">
@@ -2453,7 +2453,7 @@
         <v>47</v>
       </c>
       <c r="E45" s="30">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F45" s="29"/>
     </row>
@@ -2462,7 +2462,7 @@
         <v>71</v>
       </c>
       <c r="B46" s="76">
-        <f>ROUND((C46/D46)*100, 2)</f>
+        <f t="shared" si="2"/>
         <v>56.76</v>
       </c>
       <c r="C46" s="30">
@@ -2483,7 +2483,7 @@
         <v>8</v>
       </c>
       <c r="B47" s="76">
-        <f>ROUND((C47/D47)*100, 2)</f>
+        <f t="shared" si="2"/>
         <v>56.41</v>
       </c>
       <c r="C47" s="1">
@@ -2504,7 +2504,7 @@
         <v>16</v>
       </c>
       <c r="B48" s="76">
-        <f>ROUND((C48/D48)*100, 2)</f>
+        <f t="shared" si="2"/>
         <v>56.25</v>
       </c>
       <c r="C48" s="1">
@@ -2523,7 +2523,7 @@
         <v>32</v>
       </c>
       <c r="B49" s="12">
-        <f t="shared" ref="B46:B49" si="2">ROUND((C49/D49)*100, 2)</f>
+        <f t="shared" ref="B49" si="3">ROUND((C49/D49)*100, 2)</f>
         <v>45.83</v>
       </c>
       <c r="C49" s="30">
@@ -2542,7 +2542,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="12">
-        <f t="shared" ref="B50" si="3">ROUND((C50/D50)*100, 2)</f>
+        <f t="shared" ref="B50" si="4">ROUND((C50/D50)*100, 2)</f>
         <v>43.66</v>
       </c>
       <c r="C50" s="30">
@@ -2563,7 +2563,7 @@
         <v>34</v>
       </c>
       <c r="B51" s="13">
-        <f t="shared" ref="B51:B64" si="4">ROUND((C51/D51)*100, 2)</f>
+        <f t="shared" ref="B51:B64" si="5">ROUND((C51/D51)*100, 2)</f>
         <v>7.69</v>
       </c>
       <c r="C51" s="30">
@@ -2582,7 +2582,7 @@
         <v>35</v>
       </c>
       <c r="B52" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.26</v>
       </c>
       <c r="C52" s="30">
@@ -2603,7 +2603,7 @@
         <v>15</v>
       </c>
       <c r="B53" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.0699999999999998</v>
       </c>
       <c r="C53" s="1">
@@ -2622,7 +2622,7 @@
         <v>10</v>
       </c>
       <c r="B54" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C54" s="30">
@@ -2641,7 +2641,7 @@
         <v>11</v>
       </c>
       <c r="B55" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C55" s="30">
@@ -2660,7 +2660,7 @@
         <v>12</v>
       </c>
       <c r="B56" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C56" s="30">
@@ -2678,7 +2678,7 @@
         <v>9</v>
       </c>
       <c r="B57" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C57" s="1">
@@ -2697,7 +2697,7 @@
         <v>13</v>
       </c>
       <c r="B58" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C58" s="1">
@@ -2716,7 +2716,7 @@
         <v>17</v>
       </c>
       <c r="B59" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C59" s="1">
@@ -2735,7 +2735,7 @@
         <v>20</v>
       </c>
       <c r="B60" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C60" s="30">
@@ -2754,7 +2754,7 @@
         <v>21</v>
       </c>
       <c r="B61" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C61" s="30">
@@ -2775,7 +2775,7 @@
         <v>114</v>
       </c>
       <c r="B62" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C62" s="30">
@@ -2794,7 +2794,7 @@
         <v>111</v>
       </c>
       <c r="B63" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C63" s="30">
@@ -2813,7 +2813,7 @@
         <v>27</v>
       </c>
       <c r="B64" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C64" s="30">
@@ -2832,7 +2832,7 @@
         <v>142</v>
       </c>
       <c r="B65" s="14">
-        <f t="shared" ref="B65" si="5">ROUND((C65/D65)*100, 2)</f>
+        <f t="shared" ref="B65" si="6">ROUND((C65/D65)*100, 2)</f>
         <v>0</v>
       </c>
       <c r="C65" s="30">
@@ -2851,7 +2851,7 @@
         <v>29</v>
       </c>
       <c r="B66" s="14">
-        <f t="shared" ref="B66:B77" si="6">ROUND((C66/D66)*100, 2)</f>
+        <f t="shared" ref="B66:B77" si="7">ROUND((C66/D66)*100, 2)</f>
         <v>0</v>
       </c>
       <c r="C66" s="30">
@@ -2870,7 +2870,7 @@
         <v>118</v>
       </c>
       <c r="B67" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="C67" s="30">
@@ -2889,7 +2889,7 @@
         <v>36</v>
       </c>
       <c r="B68" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="C68" s="30">
@@ -2908,7 +2908,7 @@
         <v>38</v>
       </c>
       <c r="B69" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="C69" s="30">
@@ -2927,7 +2927,7 @@
         <v>42</v>
       </c>
       <c r="B70" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="C70" s="30">
@@ -2946,7 +2946,7 @@
         <v>44</v>
       </c>
       <c r="B71" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="C71" s="30">
@@ -2965,7 +2965,7 @@
         <v>46</v>
       </c>
       <c r="B72" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="C72" s="30">
@@ -2984,7 +2984,7 @@
         <v>45</v>
       </c>
       <c r="B73" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="C73" s="30">
@@ -3003,7 +3003,7 @@
         <v>113</v>
       </c>
       <c r="B74" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="C74" s="30">
@@ -3022,7 +3022,7 @@
         <v>54</v>
       </c>
       <c r="B75" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="C75" s="30">
@@ -3041,7 +3041,7 @@
         <v>56</v>
       </c>
       <c r="B76" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="C76" s="30">
@@ -3060,7 +3060,7 @@
         <v>61</v>
       </c>
       <c r="B77" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="C77" s="30">
@@ -3092,7 +3092,7 @@
       </c>
       <c r="E78" s="41">
         <f>SUM(E1:E39, E41:E77)</f>
-        <v>3228</v>
+        <v>3232</v>
       </c>
       <c r="F78" s="29" t="s">
         <v>103</v>

--- a/Achievement Tracker.xlsx
+++ b/Achievement Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Data\AchievementTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A27D949B-2D20-477F-AC22-07313044837E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F62661F-0523-434E-B1C4-EEBF1AA4F68E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{01F7A889-C794-47A9-89C3-7F43CBAA3EFF}"/>
   </bookViews>
@@ -1306,8 +1306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0DD2CDF-28B5-4FF8-81AE-E2FDE175FB34}">
   <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2453,7 +2453,7 @@
         <v>47</v>
       </c>
       <c r="E45" s="30">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F45" s="29"/>
     </row>
@@ -3092,7 +3092,7 @@
       </c>
       <c r="E78" s="41">
         <f>SUM(E1:E39, E41:E77)</f>
-        <v>3232</v>
+        <v>3234</v>
       </c>
       <c r="F78" s="29" t="s">
         <v>103</v>

--- a/Achievement Tracker.xlsx
+++ b/Achievement Tracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Data\AchievementTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F62661F-0523-434E-B1C4-EEBF1AA4F68E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED1472E-A2A8-4C5C-862E-91E2DAE71140}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{01F7A889-C794-47A9-89C3-7F43CBAA3EFF}"/>
+    <workbookView xWindow="-28920" yWindow="-4035" windowWidth="29040" windowHeight="15840" xr2:uid="{01F7A889-C794-47A9-89C3-7F43CBAA3EFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="145">
   <si>
     <t>Name</t>
   </si>
@@ -465,13 +465,16 @@
   </si>
   <si>
     <t>Active service until 2021</t>
+  </si>
+  <si>
+    <t>Inside</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -586,6 +589,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -759,7 +769,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -981,6 +991,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -989,9 +1003,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF005392"/>
       <color rgb="FF7900A4"/>
       <color rgb="FF9148C8"/>
-      <color rgb="FF005392"/>
       <color rgb="FFC92FFF"/>
       <color rgb="FF9900CC"/>
     </mruColors>
@@ -1304,10 +1318,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0DD2CDF-28B5-4FF8-81AE-E2FDE175FB34}">
-  <dimension ref="A1:P100"/>
+  <dimension ref="A1:P101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1460,6 +1474,9 @@
       <c r="J4" s="24" t="s">
         <v>16</v>
       </c>
+      <c r="L4" s="26" t="s">
+        <v>49</v>
+      </c>
       <c r="N4" s="8" t="s">
         <v>115</v>
       </c>
@@ -1489,7 +1506,7 @@
         <v>114</v>
       </c>
       <c r="J5" s="24" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="N5" s="8" t="s">
         <v>18</v>
@@ -1521,9 +1538,6 @@
       <c r="H6" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="J6" s="24" t="s">
-        <v>34</v>
-      </c>
       <c r="N6" s="8" t="s">
         <v>19</v>
       </c>
@@ -2363,7 +2377,7 @@
         <v>98</v>
       </c>
       <c r="B41" s="72">
-        <f t="shared" ref="B41:B48" si="2">ROUND((C41/D41)*100, 2)</f>
+        <f>ROUND((C41/D41)*100, 2)</f>
         <v>84.62</v>
       </c>
       <c r="C41" s="63">
@@ -2384,7 +2398,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="70">
-        <f t="shared" si="2"/>
+        <f>ROUND((C42/D42)*100, 2)</f>
         <v>83.78</v>
       </c>
       <c r="C42" s="30">
@@ -2403,7 +2417,7 @@
         <v>51</v>
       </c>
       <c r="B43" s="93">
-        <f t="shared" si="2"/>
+        <f>ROUND((C43/D43)*100, 2)</f>
         <v>71.930000000000007</v>
       </c>
       <c r="C43" s="30">
@@ -2420,40 +2434,40 @@
       </c>
     </row>
     <row r="44" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="73" t="s">
-        <v>7</v>
-      </c>
-      <c r="B44" s="74">
-        <f t="shared" si="2"/>
-        <v>69.33</v>
-      </c>
-      <c r="C44" s="1">
-        <v>52</v>
-      </c>
-      <c r="D44" s="1">
-        <v>75</v>
-      </c>
-      <c r="E44" s="1">
-        <v>72</v>
+      <c r="A44" s="95" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" s="93">
+        <f>ROUND((C44/D44)*100, 2)</f>
+        <v>70.209999999999994</v>
+      </c>
+      <c r="C44" s="30">
+        <v>33</v>
+      </c>
+      <c r="D44" s="30">
+        <v>47</v>
+      </c>
+      <c r="E44" s="30">
+        <v>24</v>
       </c>
       <c r="F44" s="29"/>
     </row>
     <row r="45" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="73" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="B45" s="74">
-        <f t="shared" si="2"/>
-        <v>68.09</v>
-      </c>
-      <c r="C45" s="30">
-        <v>32</v>
-      </c>
-      <c r="D45" s="30">
-        <v>47</v>
-      </c>
-      <c r="E45" s="30">
-        <v>22</v>
+        <f>ROUND((C45/D45)*100, 2)</f>
+        <v>69.33</v>
+      </c>
+      <c r="C45" s="1">
+        <v>52</v>
+      </c>
+      <c r="D45" s="1">
+        <v>75</v>
+      </c>
+      <c r="E45" s="1">
+        <v>72</v>
       </c>
       <c r="F45" s="29"/>
     </row>
@@ -2462,7 +2476,7 @@
         <v>71</v>
       </c>
       <c r="B46" s="76">
-        <f t="shared" si="2"/>
+        <f>ROUND((C46/D46)*100, 2)</f>
         <v>56.76</v>
       </c>
       <c r="C46" s="30">
@@ -2483,7 +2497,7 @@
         <v>8</v>
       </c>
       <c r="B47" s="76">
-        <f t="shared" si="2"/>
+        <f>ROUND((C47/D47)*100, 2)</f>
         <v>56.41</v>
       </c>
       <c r="C47" s="1">
@@ -2504,7 +2518,7 @@
         <v>16</v>
       </c>
       <c r="B48" s="76">
-        <f t="shared" si="2"/>
+        <f>ROUND((C48/D48)*100, 2)</f>
         <v>56.25</v>
       </c>
       <c r="C48" s="1">
@@ -2523,7 +2537,7 @@
         <v>32</v>
       </c>
       <c r="B49" s="12">
-        <f t="shared" ref="B49" si="3">ROUND((C49/D49)*100, 2)</f>
+        <f>ROUND((C49/D49)*100, 2)</f>
         <v>45.83</v>
       </c>
       <c r="C49" s="30">
@@ -2542,7 +2556,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="12">
-        <f t="shared" ref="B50" si="4">ROUND((C50/D50)*100, 2)</f>
+        <f t="shared" ref="B50" si="2">ROUND((C50/D50)*100, 2)</f>
         <v>43.66</v>
       </c>
       <c r="C50" s="30">
@@ -2563,7 +2577,7 @@
         <v>34</v>
       </c>
       <c r="B51" s="13">
-        <f t="shared" ref="B51:B64" si="5">ROUND((C51/D51)*100, 2)</f>
+        <f t="shared" ref="B51:B65" si="3">ROUND((C51/D51)*100, 2)</f>
         <v>7.69</v>
       </c>
       <c r="C51" s="30">
@@ -2582,7 +2596,7 @@
         <v>35</v>
       </c>
       <c r="B52" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>5.26</v>
       </c>
       <c r="C52" s="30">
@@ -2603,7 +2617,7 @@
         <v>15</v>
       </c>
       <c r="B53" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>2.0699999999999998</v>
       </c>
       <c r="C53" s="1">
@@ -2622,7 +2636,7 @@
         <v>10</v>
       </c>
       <c r="B54" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C54" s="30">
@@ -2641,7 +2655,7 @@
         <v>11</v>
       </c>
       <c r="B55" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C55" s="30">
@@ -2660,7 +2674,7 @@
         <v>12</v>
       </c>
       <c r="B56" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C56" s="30">
@@ -2678,7 +2692,7 @@
         <v>9</v>
       </c>
       <c r="B57" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C57" s="1">
@@ -2697,7 +2711,7 @@
         <v>13</v>
       </c>
       <c r="B58" s="15">
-        <f t="shared" si="5"/>
+        <f>ROUND((C58/D58)*100, 2)</f>
         <v>0</v>
       </c>
       <c r="C58" s="1">
@@ -2716,7 +2730,7 @@
         <v>17</v>
       </c>
       <c r="B59" s="15">
-        <f t="shared" si="5"/>
+        <f>ROUND((C59/D59)*100, 2)</f>
         <v>0</v>
       </c>
       <c r="C59" s="1">
@@ -2735,7 +2749,7 @@
         <v>20</v>
       </c>
       <c r="B60" s="15">
-        <f t="shared" si="5"/>
+        <f>ROUND((C60/D60)*100, 2)</f>
         <v>0</v>
       </c>
       <c r="C60" s="30">
@@ -2754,7 +2768,7 @@
         <v>21</v>
       </c>
       <c r="B61" s="14">
-        <f t="shared" si="5"/>
+        <f>ROUND((C61/D61)*100, 2)</f>
         <v>0</v>
       </c>
       <c r="C61" s="30">
@@ -2775,7 +2789,7 @@
         <v>114</v>
       </c>
       <c r="B62" s="14">
-        <f t="shared" si="5"/>
+        <f>ROUND((C62/D62)*100, 2)</f>
         <v>0</v>
       </c>
       <c r="C62" s="30">
@@ -2794,7 +2808,7 @@
         <v>111</v>
       </c>
       <c r="B63" s="14">
-        <f t="shared" si="5"/>
+        <f>ROUND((C63/D63)*100, 2)</f>
         <v>0</v>
       </c>
       <c r="C63" s="30">
@@ -2813,7 +2827,7 @@
         <v>27</v>
       </c>
       <c r="B64" s="15">
-        <f t="shared" si="5"/>
+        <f>ROUND((C64/D64)*100, 2)</f>
         <v>0</v>
       </c>
       <c r="C64" s="30">
@@ -2828,18 +2842,18 @@
       <c r="F64" s="29"/>
     </row>
     <row r="65" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A65" s="67" t="s">
-        <v>142</v>
+      <c r="A65" s="96" t="s">
+        <v>144</v>
       </c>
       <c r="B65" s="14">
-        <f t="shared" ref="B65" si="6">ROUND((C65/D65)*100, 2)</f>
+        <f>ROUND((C65/D65)*100, 2)</f>
         <v>0</v>
       </c>
       <c r="C65" s="30">
         <v>0</v>
       </c>
       <c r="D65" s="30">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="E65" s="30">
         <v>0</v>
@@ -2848,17 +2862,17 @@
     </row>
     <row r="66" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="67" t="s">
-        <v>29</v>
+        <v>142</v>
       </c>
       <c r="B66" s="14">
-        <f t="shared" ref="B66:B77" si="7">ROUND((C66/D66)*100, 2)</f>
+        <f>ROUND((C66/D66)*100, 2)</f>
         <v>0</v>
       </c>
       <c r="C66" s="30">
         <v>0</v>
       </c>
       <c r="D66" s="30">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="E66" s="30">
         <v>0</v>
@@ -2867,17 +2881,17 @@
     </row>
     <row r="67" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="67" t="s">
-        <v>118</v>
+        <v>29</v>
       </c>
       <c r="B67" s="14">
-        <f t="shared" si="7"/>
+        <f>ROUND((C67/D67)*100, 2)</f>
         <v>0</v>
       </c>
       <c r="C67" s="30">
         <v>0</v>
       </c>
       <c r="D67" s="30">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="E67" s="30">
         <v>0</v>
@@ -2886,36 +2900,36 @@
     </row>
     <row r="68" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="67" t="s">
+        <v>118</v>
+      </c>
+      <c r="B68" s="14">
+        <f>ROUND((C68/D68)*100, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="C68" s="30">
+        <v>0</v>
+      </c>
+      <c r="D68" s="30">
+        <v>72</v>
+      </c>
+      <c r="E68" s="30">
+        <v>0</v>
+      </c>
+      <c r="F68" s="29"/>
+    </row>
+    <row r="69" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A69" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="B68" s="14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="C68" s="30">
-        <v>0</v>
-      </c>
-      <c r="D68" s="30">
+      <c r="B69" s="14">
+        <f>ROUND((C69/D69)*100, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="C69" s="30">
+        <v>0</v>
+      </c>
+      <c r="D69" s="30">
         <v>27</v>
-      </c>
-      <c r="E68" s="30">
-        <v>0</v>
-      </c>
-      <c r="F68" s="29"/>
-    </row>
-    <row r="69" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A69" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B69" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="C69" s="30">
-        <v>0</v>
-      </c>
-      <c r="D69" s="30">
-        <v>20</v>
       </c>
       <c r="E69" s="30">
         <v>0</v>
@@ -2924,402 +2938,421 @@
     </row>
     <row r="70" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B70" s="15">
+        <f>ROUND((C70/D70)*100, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="C70" s="30">
+        <v>0</v>
+      </c>
+      <c r="D70" s="30">
+        <v>20</v>
+      </c>
+      <c r="E70" s="30">
+        <v>0</v>
+      </c>
+      <c r="F70" s="29"/>
+    </row>
+    <row r="71" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A71" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B70" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="C70" s="30">
-        <v>0</v>
-      </c>
-      <c r="D70" s="30">
+      <c r="B71" s="15">
+        <f>ROUND((C71/D71)*100, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="C71" s="30">
+        <v>0</v>
+      </c>
+      <c r="D71" s="30">
         <v>32</v>
       </c>
-      <c r="E70" s="30">
-        <v>0</v>
-      </c>
-      <c r="F70" s="29"/>
-    </row>
-    <row r="71" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A71" s="67" t="s">
+      <c r="E71" s="30">
+        <v>0</v>
+      </c>
+      <c r="F71" s="29"/>
+    </row>
+    <row r="72" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A72" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="B71" s="14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="C71" s="30">
-        <v>0</v>
-      </c>
-      <c r="D71" s="30">
+      <c r="B72" s="14">
+        <f>ROUND((C72/D72)*100, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="C72" s="30">
+        <v>0</v>
+      </c>
+      <c r="D72" s="30">
         <v>56</v>
       </c>
-      <c r="E71" s="30">
-        <v>0</v>
-      </c>
-      <c r="F71" s="29"/>
-    </row>
-    <row r="72" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A72" s="5" t="s">
+      <c r="E72" s="30">
+        <v>0</v>
+      </c>
+      <c r="F72" s="29"/>
+    </row>
+    <row r="73" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A73" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B72" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="C72" s="30">
-        <v>0</v>
-      </c>
-      <c r="D72" s="30">
+      <c r="B73" s="15">
+        <f>ROUND((C73/D73)*100, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="C73" s="30">
+        <v>0</v>
+      </c>
+      <c r="D73" s="30">
         <v>57</v>
       </c>
-      <c r="E72" s="30">
-        <v>0</v>
-      </c>
-      <c r="F72" s="29"/>
-    </row>
-    <row r="73" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A73" s="6" t="s">
+      <c r="E73" s="30">
+        <v>0</v>
+      </c>
+      <c r="F73" s="29"/>
+    </row>
+    <row r="74" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A74" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B73" s="14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="C73" s="30">
-        <v>0</v>
-      </c>
-      <c r="D73" s="30">
+      <c r="B74" s="14">
+        <f>ROUND((C74/D74)*100, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="C74" s="30">
+        <v>0</v>
+      </c>
+      <c r="D74" s="30">
         <v>7</v>
       </c>
-      <c r="E73" s="30">
-        <v>0</v>
-      </c>
-      <c r="F73" s="29"/>
-    </row>
-    <row r="74" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A74" s="65" t="s">
+      <c r="E74" s="30">
+        <v>0</v>
+      </c>
+      <c r="F74" s="29"/>
+    </row>
+    <row r="75" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A75" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="B74" s="14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="C74" s="30">
-        <v>0</v>
-      </c>
-      <c r="D74" s="30">
+      <c r="B75" s="14">
+        <f>ROUND((C75/D75)*100, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="C75" s="30">
+        <v>0</v>
+      </c>
+      <c r="D75" s="30">
         <v>12</v>
       </c>
-      <c r="E74" s="30">
-        <v>0</v>
-      </c>
-      <c r="F74" s="29"/>
-    </row>
-    <row r="75" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A75" s="6" t="s">
+      <c r="E75" s="30">
+        <v>0</v>
+      </c>
+      <c r="F75" s="29"/>
+    </row>
+    <row r="76" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A76" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B75" s="14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="C75" s="30">
-        <v>0</v>
-      </c>
-      <c r="D75" s="30">
+      <c r="B76" s="14">
+        <f>ROUND((C76/D76)*100, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="C76" s="30">
+        <v>0</v>
+      </c>
+      <c r="D76" s="30">
         <v>47</v>
       </c>
-      <c r="E75" s="30">
-        <v>0</v>
-      </c>
-      <c r="F75" s="29"/>
-    </row>
-    <row r="76" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A76" s="5" t="s">
+      <c r="E76" s="30">
+        <v>0</v>
+      </c>
+      <c r="F76" s="29"/>
+    </row>
+    <row r="77" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A77" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B76" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="C76" s="30">
-        <v>0</v>
-      </c>
-      <c r="D76" s="30">
+      <c r="B77" s="15">
+        <f>ROUND((C77/D77)*100, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="C77" s="30">
+        <v>0</v>
+      </c>
+      <c r="D77" s="30">
         <v>70</v>
       </c>
-      <c r="E76" s="30">
-        <v>0</v>
-      </c>
-      <c r="F76" s="29"/>
-    </row>
-    <row r="77" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A77" s="6" t="s">
+      <c r="E77" s="30">
+        <v>0</v>
+      </c>
+      <c r="F77" s="29"/>
+    </row>
+    <row r="78" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A78" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B77" s="14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="C77" s="30">
-        <v>0</v>
-      </c>
-      <c r="D77" s="30">
+      <c r="B78" s="14">
+        <f>ROUND((C78/D78)*100, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="C78" s="30">
+        <v>0</v>
+      </c>
+      <c r="D78" s="30">
         <v>75</v>
       </c>
-      <c r="E77" s="30">
-        <v>0</v>
-      </c>
-      <c r="F77" s="29"/>
-    </row>
-    <row r="78" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A78" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="B78" s="41">
-        <f>COUNT(B1:B39, B41:B77)</f>
-        <v>75</v>
-      </c>
-      <c r="C78" s="41">
-        <f>SUM(C1:C39, C41:C77)</f>
-        <v>7731</v>
-      </c>
-      <c r="D78" s="41">
-        <f>SUM(D1:D39, D41:D77)</f>
-        <v>9643</v>
-      </c>
-      <c r="E78" s="41">
-        <f>SUM(E1:E39, E41:E77)</f>
-        <v>3234</v>
-      </c>
-      <c r="F78" s="29" t="s">
-        <v>103</v>
-      </c>
+      <c r="E78" s="30">
+        <v>0</v>
+      </c>
+      <c r="F78" s="29"/>
     </row>
     <row r="79" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="B79" s="41">
+        <f>COUNT(B1:B39, B41:B78)</f>
+        <v>76</v>
+      </c>
+      <c r="C79" s="41">
+        <f>SUM(C1:C40, C42:C78)</f>
+        <v>7844</v>
+      </c>
+      <c r="D79" s="41">
+        <f>SUM(D1:D40, D42:D78)</f>
+        <v>9785</v>
+      </c>
+      <c r="E79" s="41">
+        <f>SUM(E1:E40, E42:E78)</f>
+        <v>3412</v>
+      </c>
+      <c r="F79" s="29" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A80" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="B79" s="40">
-        <f>COUNTIF(B1:B77, "&gt;0")-1</f>
+      <c r="B80" s="40">
+        <f>COUNTIF(B1:B78, "&gt;0")-1</f>
         <v>51</v>
       </c>
-      <c r="C79" s="29"/>
-      <c r="D79" s="41">
+      <c r="C80" s="29"/>
+      <c r="D80" s="41">
         <f>SUM(D1:D39, D41:D52)</f>
         <v>8196</v>
       </c>
-      <c r="E79" s="29" t="s">
+      <c r="E80" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="F79" s="29"/>
-    </row>
-    <row r="80" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A80" s="39" t="s">
+      <c r="F80" s="29"/>
+    </row>
+    <row r="81" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A81" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="B80" s="40">
-        <f>COUNTIF(B1:B77, "&gt;=100")</f>
+      <c r="B81" s="40">
+        <f>COUNTIF(B1:B78, "&gt;=100")</f>
         <v>36</v>
       </c>
-      <c r="C80" s="29"/>
-      <c r="D80" s="29"/>
-      <c r="E80" s="29"/>
-      <c r="F80" s="29"/>
-    </row>
-    <row r="81" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A81" s="35" t="s">
-        <v>124</v>
-      </c>
-      <c r="B81" s="36">
-        <f>(C78/D78)*100</f>
-        <v>80.172145597842999</v>
-      </c>
+      <c r="C81" s="29"/>
+      <c r="D81" s="29"/>
       <c r="E81" s="29"/>
       <c r="F81" s="29"/>
     </row>
     <row r="82" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A82" s="39" t="s">
-        <v>107</v>
-      </c>
-      <c r="B82" s="41">
-        <f>AVERAGEIF(B2:B77, "&gt;0")</f>
-        <v>87.06576923076922</v>
-      </c>
-      <c r="C82" s="41">
-        <f>(C78/D79)*100</f>
-        <v>94.326500732064417</v>
-      </c>
-      <c r="D82" s="29" t="s">
-        <v>123</v>
-      </c>
+      <c r="A82" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="B82" s="36">
+        <f>(C79/D79)*100</f>
+        <v>80.16351558507921</v>
+      </c>
+      <c r="E82" s="29"/>
+      <c r="F82" s="29"/>
     </row>
     <row r="83" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="B83" s="41">
+        <f>AVERAGEIF(B2:B78, "&gt;0")</f>
+        <v>87.106538461538449</v>
+      </c>
+      <c r="C83" s="41">
+        <f>(C79/D80)*100</f>
+        <v>95.705222059541242</v>
+      </c>
+      <c r="D83" s="29" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A84" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="B83" s="39">
-        <f>ROUND(((B80/B79)*100), 2)</f>
+      <c r="B84" s="39">
+        <f>ROUND(((B81/B80)*100), 2)</f>
         <v>70.59</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A84" s="94" t="s">
+    <row r="85" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A85" s="94" t="s">
         <v>87</v>
       </c>
-      <c r="B84" s="94"/>
-      <c r="C84" s="94"/>
-    </row>
-    <row r="85" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A85" s="88" t="s">
+      <c r="B85" s="94"/>
+      <c r="C85" s="94"/>
+    </row>
+    <row r="86" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A86" s="88" t="s">
         <v>86</v>
       </c>
-      <c r="B85" s="85" t="s">
+      <c r="B86" s="85" t="s">
         <v>88</v>
       </c>
-      <c r="C85" s="85" t="s">
+      <c r="C86" s="85" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A86" s="42" t="s">
+    <row r="87" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A87" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="B86" s="29" t="s">
+      <c r="B87" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="C86" s="31" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A87" s="43" t="s">
+      <c r="C87" s="31" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A88" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="B87" s="56" t="s">
+      <c r="B88" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="C87" s="90" t="s">
+      <c r="C88" s="90" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A88" s="79" t="s">
+    <row r="89" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A89" s="79" t="s">
         <v>131</v>
       </c>
-      <c r="B88" s="54" t="s">
+      <c r="B89" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="C88" s="91" t="s">
+      <c r="C89" s="91" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A89" s="44" t="s">
+    <row r="90" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A90" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="B89" s="57" t="s">
+      <c r="B90" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="C89" s="32" t="s">
+      <c r="C90" s="32" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A90" s="80" t="s">
+    <row r="91" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A91" s="80" t="s">
         <v>132</v>
       </c>
-      <c r="B90" s="58" t="s">
+      <c r="B91" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="C90" s="29"/>
-    </row>
-    <row r="91" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A91" s="81" t="s">
+      <c r="C91" s="29"/>
+    </row>
+    <row r="92" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A92" s="81" t="s">
         <v>129</v>
       </c>
-      <c r="B91" s="55" t="s">
+      <c r="B92" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="C91" s="29"/>
-    </row>
-    <row r="92" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A92" s="45" t="s">
+      <c r="C92" s="29"/>
+    </row>
+    <row r="93" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A93" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="B92" s="61" t="s">
+      <c r="B93" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="C92" s="29"/>
-    </row>
-    <row r="93" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A93" s="82" t="s">
+      <c r="C93" s="29"/>
+    </row>
+    <row r="94" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A94" s="82" t="s">
         <v>133</v>
       </c>
-      <c r="B93" s="59" t="s">
+      <c r="B94" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="C93" s="29"/>
-    </row>
-    <row r="94" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A94" s="83" t="s">
+      <c r="C94" s="29"/>
+    </row>
+    <row r="95" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A95" s="83" t="s">
         <v>134</v>
       </c>
-      <c r="B94" s="60" t="s">
+      <c r="B95" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="C94" s="29"/>
-    </row>
-    <row r="95" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A95" s="46" t="s">
+      <c r="C95" s="29"/>
+    </row>
+    <row r="96" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A96" s="46" t="s">
         <v>135</v>
       </c>
-      <c r="B95" s="62" t="s">
+      <c r="B96" s="62" t="s">
         <v>122</v>
       </c>
-      <c r="C95" s="29"/>
-    </row>
-    <row r="96" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A96" s="47" t="s">
+      <c r="C96" s="29"/>
+    </row>
+    <row r="97" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A97" s="47" t="s">
         <v>136</v>
-      </c>
-      <c r="B96" s="29"/>
-      <c r="C96" s="29"/>
-    </row>
-    <row r="97" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A97" s="48" t="s">
-        <v>91</v>
       </c>
       <c r="B97" s="29"/>
       <c r="C97" s="29"/>
     </row>
     <row r="98" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A98" s="49" t="s">
-        <v>92</v>
+      <c r="A98" s="48" t="s">
+        <v>91</v>
       </c>
       <c r="B98" s="29"/>
       <c r="C98" s="29"/>
     </row>
     <row r="99" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A99" s="50" t="s">
-        <v>93</v>
+      <c r="A99" s="49" t="s">
+        <v>92</v>
       </c>
       <c r="B99" s="29"/>
       <c r="C99" s="29"/>
     </row>
     <row r="100" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A100" s="29"/>
+      <c r="A100" s="50" t="s">
+        <v>93</v>
+      </c>
       <c r="B100" s="29"/>
       <c r="C100" s="29"/>
     </row>
+    <row r="101" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A101" s="29"/>
+      <c r="B101" s="29"/>
+      <c r="C101" s="29"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A41:F48">
-    <sortCondition descending="1" ref="B41:B48"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A58:F78">
+    <sortCondition ref="A57:A78"/>
   </sortState>
   <mergeCells count="1">
-    <mergeCell ref="A84:C84"/>
+    <mergeCell ref="A85:C85"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Achievement Tracker.xlsx
+++ b/Achievement Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Data\AchievementTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED1472E-A2A8-4C5C-862E-91E2DAE71140}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948A0CCD-6E8C-478F-A36C-7E8351B3F6A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-4035" windowWidth="29040" windowHeight="15840" xr2:uid="{01F7A889-C794-47A9-89C3-7F43CBAA3EFF}"/>
   </bookViews>
@@ -769,7 +769,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -988,13 +988,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1320,8 +1323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0DD2CDF-28B5-4FF8-81AE-E2FDE175FB34}">
   <dimension ref="A1:P101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2377,7 +2380,7 @@
         <v>98</v>
       </c>
       <c r="B41" s="72">
-        <f>ROUND((C41/D41)*100, 2)</f>
+        <f t="shared" ref="B41:B49" si="2">ROUND((C41/D41)*100, 2)</f>
         <v>84.62</v>
       </c>
       <c r="C41" s="63">
@@ -2398,7 +2401,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="70">
-        <f>ROUND((C42/D42)*100, 2)</f>
+        <f t="shared" si="2"/>
         <v>83.78</v>
       </c>
       <c r="C42" s="30">
@@ -2417,7 +2420,7 @@
         <v>51</v>
       </c>
       <c r="B43" s="93">
-        <f>ROUND((C43/D43)*100, 2)</f>
+        <f t="shared" si="2"/>
         <v>71.930000000000007</v>
       </c>
       <c r="C43" s="30">
@@ -2434,11 +2437,11 @@
       </c>
     </row>
     <row r="44" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="95" t="s">
+      <c r="A44" s="94" t="s">
         <v>49</v>
       </c>
       <c r="B44" s="93">
-        <f>ROUND((C44/D44)*100, 2)</f>
+        <f t="shared" si="2"/>
         <v>70.209999999999994</v>
       </c>
       <c r="C44" s="30">
@@ -2457,7 +2460,7 @@
         <v>7</v>
       </c>
       <c r="B45" s="74">
-        <f>ROUND((C45/D45)*100, 2)</f>
+        <f t="shared" si="2"/>
         <v>69.33</v>
       </c>
       <c r="C45" s="1">
@@ -2476,7 +2479,7 @@
         <v>71</v>
       </c>
       <c r="B46" s="76">
-        <f>ROUND((C46/D46)*100, 2)</f>
+        <f t="shared" si="2"/>
         <v>56.76</v>
       </c>
       <c r="C46" s="30">
@@ -2556,7 +2559,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="12">
-        <f t="shared" ref="B50" si="2">ROUND((C50/D50)*100, 2)</f>
+        <f>ROUND((C50/D50)*100, 2)</f>
         <v>43.66</v>
       </c>
       <c r="C50" s="30">
@@ -2577,7 +2580,7 @@
         <v>34</v>
       </c>
       <c r="B51" s="13">
-        <f t="shared" ref="B51:B65" si="3">ROUND((C51/D51)*100, 2)</f>
+        <f>ROUND((C51/D51)*100, 2)</f>
         <v>7.69</v>
       </c>
       <c r="C51" s="30">
@@ -2592,77 +2595,77 @@
       <c r="F51" s="29"/>
     </row>
     <row r="52" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A52" s="2" t="s">
-        <v>35</v>
+      <c r="A52" s="97" t="s">
+        <v>142</v>
       </c>
       <c r="B52" s="13">
-        <f t="shared" si="3"/>
-        <v>5.26</v>
+        <f>ROUND((C52/D52)*100, 2)</f>
+        <v>7.14</v>
       </c>
       <c r="C52" s="30">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" s="30">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="E52" s="30">
-        <v>3</v>
-      </c>
-      <c r="F52" s="29" t="s">
-        <v>74</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F52" s="29"/>
     </row>
     <row r="53" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B53" s="13">
+        <f>ROUND((C53/D53)*100, 2)</f>
+        <v>5.26</v>
+      </c>
+      <c r="C53" s="30">
+        <v>2</v>
+      </c>
+      <c r="D53" s="30">
+        <v>38</v>
+      </c>
+      <c r="E53" s="30">
+        <v>3</v>
+      </c>
+      <c r="F53" s="29" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B53" s="13">
-        <f t="shared" si="3"/>
+      <c r="B54" s="13">
+        <f>ROUND((C54/D54)*100, 2)</f>
         <v>2.0699999999999998</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C54" s="1">
         <v>4</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D54" s="1">
         <v>193</v>
       </c>
-      <c r="E53" s="1">
+      <c r="E54" s="1">
         <v>3</v>
       </c>
-      <c r="F53" s="29"/>
-    </row>
-    <row r="54" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A54" s="31" t="s">
+      <c r="F54" s="29"/>
+    </row>
+    <row r="55" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A55" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B54" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="C54" s="30">
-        <v>0</v>
-      </c>
-      <c r="D54" s="30">
+      <c r="B55" s="14">
+        <f>ROUND((C55/D55)*100, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="C55" s="30">
+        <v>0</v>
+      </c>
+      <c r="D55" s="30">
         <v>18</v>
-      </c>
-      <c r="E54" s="30">
-        <v>0</v>
-      </c>
-      <c r="F54" s="29"/>
-    </row>
-    <row r="55" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A55" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="B55" s="15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="C55" s="30">
-        <v>0</v>
-      </c>
-      <c r="D55" s="30">
-        <v>74</v>
       </c>
       <c r="E55" s="30">
         <v>0</v>
@@ -2671,54 +2674,54 @@
     </row>
     <row r="56" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56" s="15">
+        <f>ROUND((C56/D56)*100, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="C56" s="30">
+        <v>0</v>
+      </c>
+      <c r="D56" s="30">
+        <v>74</v>
+      </c>
+      <c r="E56" s="30">
+        <v>0</v>
+      </c>
+      <c r="F56" s="29"/>
+    </row>
+    <row r="57" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="C56" s="30">
-        <v>0</v>
-      </c>
-      <c r="D56" s="30">
+      <c r="B57" s="15">
+        <f>ROUND((C57/D57)*100, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="C57" s="30">
+        <v>0</v>
+      </c>
+      <c r="D57" s="30">
         <v>54</v>
       </c>
-      <c r="E56" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A57" s="6" t="s">
+      <c r="E57" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A58" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B57" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="C57" s="1">
-        <v>0</v>
-      </c>
-      <c r="D57" s="1">
+      <c r="B58" s="14">
+        <f>ROUND((C58/D58)*100, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="C58" s="1">
+        <v>0</v>
+      </c>
+      <c r="D58" s="1">
         <v>63</v>
-      </c>
-      <c r="E57" s="1">
-        <v>0</v>
-      </c>
-      <c r="F57" s="29"/>
-    </row>
-    <row r="58" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A58" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B58" s="15">
-        <f>ROUND((C58/D58)*100, 2)</f>
-        <v>0</v>
-      </c>
-      <c r="C58" s="1">
-        <v>0</v>
-      </c>
-      <c r="D58" s="1">
-        <v>12</v>
       </c>
       <c r="E58" s="1">
         <v>0</v>
@@ -2727,7 +2730,7 @@
     </row>
     <row r="59" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B59" s="15">
         <f>ROUND((C59/D59)*100, 2)</f>
@@ -2737,7 +2740,7 @@
         <v>0</v>
       </c>
       <c r="D59" s="1">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="E59" s="1">
         <v>0</v>
@@ -2746,47 +2749,45 @@
     </row>
     <row r="60" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B60" s="15">
         <f>ROUND((C60/D60)*100, 2)</f>
         <v>0</v>
       </c>
-      <c r="C60" s="30">
+      <c r="C60" s="1">
         <v>0</v>
       </c>
       <c r="D60" s="1">
+        <v>54</v>
+      </c>
+      <c r="E60" s="1">
+        <v>0</v>
+      </c>
+      <c r="F60" s="29"/>
+    </row>
+    <row r="61" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A61" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B61" s="15">
+        <f>ROUND((C61/D61)*100, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="C61" s="30">
+        <v>0</v>
+      </c>
+      <c r="D61" s="1">
         <v>170</v>
       </c>
-      <c r="E60" s="30">
-        <v>0</v>
-      </c>
-      <c r="F60" s="29"/>
-    </row>
-    <row r="61" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A61" s="6" t="s">
+      <c r="E61" s="30">
+        <v>0</v>
+      </c>
+      <c r="F61" s="29"/>
+    </row>
+    <row r="62" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A62" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="B61" s="14">
-        <f>ROUND((C61/D61)*100, 2)</f>
-        <v>0</v>
-      </c>
-      <c r="C61" s="30">
-        <v>0</v>
-      </c>
-      <c r="D61" s="1">
-        <v>33</v>
-      </c>
-      <c r="E61" s="30">
-        <v>0</v>
-      </c>
-      <c r="F61" s="29" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A62" s="66" t="s">
-        <v>114</v>
       </c>
       <c r="B62" s="14">
         <f>ROUND((C62/D62)*100, 2)</f>
@@ -2795,17 +2796,19 @@
       <c r="C62" s="30">
         <v>0</v>
       </c>
-      <c r="D62" s="30">
-        <v>95</v>
+      <c r="D62" s="1">
+        <v>33</v>
       </c>
       <c r="E62" s="30">
         <v>0</v>
       </c>
-      <c r="F62" s="29"/>
+      <c r="F62" s="29" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="63" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A63" s="65" t="s">
-        <v>111</v>
+      <c r="A63" s="66" t="s">
+        <v>114</v>
       </c>
       <c r="B63" s="14">
         <f>ROUND((C63/D63)*100, 2)</f>
@@ -2815,54 +2818,54 @@
         <v>0</v>
       </c>
       <c r="D63" s="30">
+        <v>95</v>
+      </c>
+      <c r="E63" s="30">
+        <v>0</v>
+      </c>
+      <c r="F63" s="29"/>
+    </row>
+    <row r="64" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A64" s="65" t="s">
+        <v>111</v>
+      </c>
+      <c r="B64" s="14">
+        <f>ROUND((C64/D64)*100, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="C64" s="30">
+        <v>0</v>
+      </c>
+      <c r="D64" s="30">
         <v>35</v>
       </c>
-      <c r="E63" s="30">
-        <v>0</v>
-      </c>
-      <c r="F63" s="29"/>
-    </row>
-    <row r="64" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A64" s="5" t="s">
+      <c r="E64" s="30">
+        <v>0</v>
+      </c>
+      <c r="F64" s="29"/>
+    </row>
+    <row r="65" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A65" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B64" s="15">
-        <f>ROUND((C64/D64)*100, 2)</f>
-        <v>0</v>
-      </c>
-      <c r="C64" s="30">
-        <v>0</v>
-      </c>
-      <c r="D64" s="30">
+      <c r="B65" s="15">
+        <f>ROUND((C65/D65)*100, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="C65" s="30">
+        <v>0</v>
+      </c>
+      <c r="D65" s="30">
         <v>88</v>
       </c>
-      <c r="E64" s="30">
-        <v>0</v>
-      </c>
-      <c r="F64" s="29"/>
-    </row>
-    <row r="65" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A65" s="96" t="s">
+      <c r="E65" s="30">
+        <v>0</v>
+      </c>
+      <c r="F65" s="29"/>
+    </row>
+    <row r="66" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A66" s="95" t="s">
         <v>144</v>
-      </c>
-      <c r="B65" s="14">
-        <f>ROUND((C65/D65)*100, 2)</f>
-        <v>0</v>
-      </c>
-      <c r="C65" s="30">
-        <v>0</v>
-      </c>
-      <c r="D65" s="30">
-        <v>14</v>
-      </c>
-      <c r="E65" s="30">
-        <v>0</v>
-      </c>
-      <c r="F65" s="29"/>
-    </row>
-    <row r="66" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A66" s="67" t="s">
-        <v>142</v>
       </c>
       <c r="B66" s="14">
         <f>ROUND((C66/D66)*100, 2)</f>
@@ -2872,7 +2875,7 @@
         <v>0</v>
       </c>
       <c r="D66" s="30">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="E66" s="30">
         <v>0</v>
@@ -2884,7 +2887,7 @@
         <v>29</v>
       </c>
       <c r="B67" s="14">
-        <f>ROUND((C67/D67)*100, 2)</f>
+        <f t="shared" ref="B58:B78" si="3">ROUND((C67/D67)*100, 2)</f>
         <v>0</v>
       </c>
       <c r="C67" s="30">
@@ -2903,7 +2906,7 @@
         <v>118</v>
       </c>
       <c r="B68" s="14">
-        <f>ROUND((C68/D68)*100, 2)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C68" s="30">
@@ -2922,7 +2925,7 @@
         <v>36</v>
       </c>
       <c r="B69" s="14">
-        <f>ROUND((C69/D69)*100, 2)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C69" s="30">
@@ -2941,7 +2944,7 @@
         <v>38</v>
       </c>
       <c r="B70" s="15">
-        <f>ROUND((C70/D70)*100, 2)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C70" s="30">
@@ -2960,7 +2963,7 @@
         <v>42</v>
       </c>
       <c r="B71" s="15">
-        <f>ROUND((C71/D71)*100, 2)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C71" s="30">
@@ -2979,7 +2982,7 @@
         <v>44</v>
       </c>
       <c r="B72" s="14">
-        <f>ROUND((C72/D72)*100, 2)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C72" s="30">
@@ -2998,7 +3001,7 @@
         <v>46</v>
       </c>
       <c r="B73" s="15">
-        <f>ROUND((C73/D73)*100, 2)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C73" s="30">
@@ -3017,7 +3020,7 @@
         <v>45</v>
       </c>
       <c r="B74" s="14">
-        <f>ROUND((C74/D74)*100, 2)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C74" s="30">
@@ -3036,7 +3039,7 @@
         <v>113</v>
       </c>
       <c r="B75" s="14">
-        <f>ROUND((C75/D75)*100, 2)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C75" s="30">
@@ -3055,7 +3058,7 @@
         <v>54</v>
       </c>
       <c r="B76" s="14">
-        <f>ROUND((C76/D76)*100, 2)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C76" s="30">
@@ -3074,7 +3077,7 @@
         <v>56</v>
       </c>
       <c r="B77" s="15">
-        <f>ROUND((C77/D77)*100, 2)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C77" s="30">
@@ -3093,7 +3096,7 @@
         <v>61</v>
       </c>
       <c r="B78" s="14">
-        <f>ROUND((C78/D78)*100, 2)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C78" s="30">
@@ -3117,7 +3120,7 @@
       </c>
       <c r="C79" s="41">
         <f>SUM(C1:C40, C42:C78)</f>
-        <v>7844</v>
+        <v>7849</v>
       </c>
       <c r="D79" s="41">
         <f>SUM(D1:D40, D42:D78)</f>
@@ -3125,7 +3128,7 @@
       </c>
       <c r="E79" s="41">
         <f>SUM(E1:E40, E42:E78)</f>
-        <v>3412</v>
+        <v>3413</v>
       </c>
       <c r="F79" s="29" t="s">
         <v>103</v>
@@ -3137,12 +3140,12 @@
       </c>
       <c r="B80" s="40">
         <f>COUNTIF(B1:B78, "&gt;0")-1</f>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C80" s="29"/>
       <c r="D80" s="41">
         <f>SUM(D1:D39, D41:D52)</f>
-        <v>8196</v>
+        <v>8228</v>
       </c>
       <c r="E80" s="29" t="s">
         <v>109</v>
@@ -3168,7 +3171,7 @@
       </c>
       <c r="B82" s="36">
         <f>(C79/D79)*100</f>
-        <v>80.16351558507921</v>
+        <v>80.214614205416453</v>
       </c>
       <c r="E82" s="29"/>
       <c r="F82" s="29"/>
@@ -3179,11 +3182,11 @@
       </c>
       <c r="B83" s="41">
         <f>AVERAGEIF(B2:B78, "&gt;0")</f>
-        <v>87.106538461538449</v>
+        <v>85.59773584905659</v>
       </c>
       <c r="C83" s="41">
         <f>(C79/D80)*100</f>
-        <v>95.705222059541242</v>
+        <v>95.393777345648999</v>
       </c>
       <c r="D83" s="29" t="s">
         <v>123</v>
@@ -3195,15 +3198,15 @@
       </c>
       <c r="B84" s="39">
         <f>ROUND(((B81/B80)*100), 2)</f>
-        <v>70.59</v>
+        <v>69.23</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A85" s="94" t="s">
+      <c r="A85" s="96" t="s">
         <v>87</v>
       </c>
-      <c r="B85" s="94"/>
-      <c r="C85" s="94"/>
+      <c r="B85" s="96"/>
+      <c r="C85" s="96"/>
     </row>
     <row r="86" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="88" t="s">
@@ -3348,8 +3351,8 @@
       <c r="C101" s="29"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A58:F78">
-    <sortCondition ref="A57:A78"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A47:F66">
+    <sortCondition descending="1" ref="B47:B66"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A85:C85"/>

--- a/Achievement Tracker.xlsx
+++ b/Achievement Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Data\AchievementTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948A0CCD-6E8C-478F-A36C-7E8351B3F6A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C245BF-C86E-4F32-B29E-6E673ECE6B5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-4035" windowWidth="29040" windowHeight="15840" xr2:uid="{01F7A889-C794-47A9-89C3-7F43CBAA3EFF}"/>
   </bookViews>
@@ -995,7 +995,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1323,8 +1323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0DD2CDF-28B5-4FF8-81AE-E2FDE175FB34}">
   <dimension ref="A1:P101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2295,7 +2295,7 @@
         <v>64</v>
       </c>
       <c r="B37" s="10">
-        <f t="shared" si="0"/>
+        <f>ROUND((C37/D37)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C37" s="30">
@@ -2317,7 +2317,7 @@
         <v>65</v>
       </c>
       <c r="B38" s="11">
-        <f t="shared" si="0"/>
+        <f>ROUND((C38/D38)*100, 2)</f>
         <v>94.81</v>
       </c>
       <c r="C38" s="30">
@@ -2338,7 +2338,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="11">
-        <f t="shared" si="0"/>
+        <f>ROUND((C39/D39)*100, 2)</f>
         <v>94.1</v>
       </c>
       <c r="C39" s="30">
@@ -2355,261 +2355,261 @@
       </c>
     </row>
     <row r="40" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="69" t="s">
+      <c r="A40" s="97" t="s">
+        <v>142</v>
+      </c>
+      <c r="B40" s="70">
+        <f>ROUND((C40/D40)*100, 2)</f>
+        <v>88.57</v>
+      </c>
+      <c r="C40" s="30">
+        <v>62</v>
+      </c>
+      <c r="D40" s="30">
+        <v>70</v>
+      </c>
+      <c r="E40" s="30">
+        <v>48</v>
+      </c>
+      <c r="F40" s="29"/>
+    </row>
+    <row r="41" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="B40" s="70">
-        <f t="shared" ref="B40" si="1">ROUND((C40/D40)*100, 2)</f>
+      <c r="B41" s="70">
+        <f>ROUND((C41/D41)*100, 2)</f>
         <v>86.83</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C41" s="1">
         <v>145</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D41" s="1">
         <v>167</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E41" s="1">
         <v>203</v>
       </c>
-      <c r="F40" s="29" t="s">
+      <c r="F41" s="29" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="71" t="s">
+    <row r="42" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="71" t="s">
         <v>98</v>
       </c>
-      <c r="B41" s="72">
-        <f t="shared" ref="B41:B49" si="2">ROUND((C41/D41)*100, 2)</f>
+      <c r="B42" s="72">
+        <f>ROUND((C42/D42)*100, 2)</f>
         <v>84.62</v>
       </c>
-      <c r="C41" s="63">
+      <c r="C42" s="63">
         <v>33</v>
       </c>
-      <c r="D41" s="63">
+      <c r="D42" s="63">
         <v>39</v>
       </c>
-      <c r="E41" s="63">
+      <c r="E42" s="63">
         <v>27</v>
       </c>
-      <c r="F41" s="64" t="s">
+      <c r="F42" s="64" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="69" t="s">
+    <row r="43" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="70">
-        <f t="shared" si="2"/>
+      <c r="B43" s="70">
+        <f>ROUND((C43/D43)*100, 2)</f>
         <v>83.78</v>
       </c>
-      <c r="C42" s="30">
+      <c r="C43" s="30">
         <v>31</v>
       </c>
-      <c r="D42" s="30">
+      <c r="D43" s="30">
         <v>37</v>
       </c>
-      <c r="E42" s="30">
+      <c r="E43" s="30">
         <v>556</v>
       </c>
-      <c r="F42" s="29"/>
-    </row>
-    <row r="43" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="92" t="s">
+      <c r="F43" s="29"/>
+    </row>
+    <row r="44" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="92" t="s">
         <v>51</v>
       </c>
-      <c r="B43" s="93">
-        <f t="shared" si="2"/>
+      <c r="B44" s="93">
+        <f>ROUND((C44/D44)*100, 2)</f>
         <v>71.930000000000007</v>
       </c>
-      <c r="C43" s="30">
+      <c r="C44" s="30">
         <v>82</v>
       </c>
-      <c r="D43" s="30">
+      <c r="D44" s="30">
         <v>114</v>
       </c>
-      <c r="E43" s="30">
+      <c r="E44" s="30">
         <v>320</v>
       </c>
-      <c r="F43" s="29" t="s">
+      <c r="F44" s="29" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="94" t="s">
+    <row r="45" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="94" t="s">
         <v>49</v>
       </c>
-      <c r="B44" s="93">
-        <f t="shared" si="2"/>
+      <c r="B45" s="93">
+        <f>ROUND((C45/D45)*100, 2)</f>
         <v>70.209999999999994</v>
       </c>
-      <c r="C44" s="30">
+      <c r="C45" s="30">
         <v>33</v>
       </c>
-      <c r="D44" s="30">
+      <c r="D45" s="30">
         <v>47</v>
       </c>
-      <c r="E44" s="30">
+      <c r="E45" s="30">
         <v>24</v>
       </c>
-      <c r="F44" s="29"/>
-    </row>
-    <row r="45" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="73" t="s">
+      <c r="F45" s="29"/>
+    </row>
+    <row r="46" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="B45" s="74">
-        <f t="shared" si="2"/>
+      <c r="B46" s="74">
+        <f>ROUND((C46/D46)*100, 2)</f>
         <v>69.33</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C46" s="1">
         <v>52</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D46" s="1">
         <v>75</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E46" s="1">
         <v>72</v>
       </c>
-      <c r="F45" s="29"/>
-    </row>
-    <row r="46" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="77" t="s">
+      <c r="F46" s="29"/>
+    </row>
+    <row r="47" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="77" t="s">
         <v>71</v>
-      </c>
-      <c r="B46" s="76">
-        <f t="shared" si="2"/>
-        <v>56.76</v>
-      </c>
-      <c r="C46" s="30">
-        <v>21</v>
-      </c>
-      <c r="D46" s="30">
-        <v>37</v>
-      </c>
-      <c r="E46" s="30">
-        <v>11</v>
-      </c>
-      <c r="F46" s="29" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="75" t="s">
-        <v>8</v>
       </c>
       <c r="B47" s="76">
         <f>ROUND((C47/D47)*100, 2)</f>
-        <v>56.41</v>
-      </c>
-      <c r="C47" s="1">
-        <v>44</v>
-      </c>
-      <c r="D47" s="1">
-        <v>78</v>
-      </c>
-      <c r="E47" s="1">
-        <v>77</v>
+        <v>56.76</v>
+      </c>
+      <c r="C47" s="30">
+        <v>21</v>
+      </c>
+      <c r="D47" s="30">
+        <v>37</v>
+      </c>
+      <c r="E47" s="30">
+        <v>11</v>
       </c>
       <c r="F47" s="29" t="s">
-        <v>143</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="78" t="s">
-        <v>16</v>
+      <c r="A48" s="75" t="s">
+        <v>8</v>
       </c>
       <c r="B48" s="76">
         <f>ROUND((C48/D48)*100, 2)</f>
+        <v>56.41</v>
+      </c>
+      <c r="C48" s="1">
+        <v>44</v>
+      </c>
+      <c r="D48" s="1">
+        <v>78</v>
+      </c>
+      <c r="E48" s="1">
+        <v>77</v>
+      </c>
+      <c r="F48" s="29" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="78" t="s">
+        <v>16</v>
+      </c>
+      <c r="B49" s="76">
+        <f>ROUND((C49/D49)*100, 2)</f>
         <v>56.25</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C49" s="1">
         <v>27</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D49" s="1">
         <v>48</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E49" s="1">
         <v>39</v>
-      </c>
-      <c r="F48" s="29"/>
-    </row>
-    <row r="49" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A49" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B49" s="12">
-        <f>ROUND((C49/D49)*100, 2)</f>
-        <v>45.83</v>
-      </c>
-      <c r="C49" s="30">
-        <v>11</v>
-      </c>
-      <c r="D49" s="30">
-        <v>24</v>
-      </c>
-      <c r="E49" s="30">
-        <v>4</v>
       </c>
       <c r="F49" s="29"/>
     </row>
     <row r="50" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="B50" s="12">
         <f>ROUND((C50/D50)*100, 2)</f>
+        <v>45.83</v>
+      </c>
+      <c r="C50" s="30">
+        <v>11</v>
+      </c>
+      <c r="D50" s="30">
+        <v>24</v>
+      </c>
+      <c r="E50" s="30">
+        <v>4</v>
+      </c>
+      <c r="F50" s="29"/>
+    </row>
+    <row r="51" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" s="12">
+        <f>ROUND((C51/D51)*100, 2)</f>
         <v>43.66</v>
       </c>
-      <c r="C50" s="30">
+      <c r="C51" s="30">
         <v>93</v>
       </c>
-      <c r="D50" s="30">
+      <c r="D51" s="30">
         <v>213</v>
       </c>
-      <c r="E50" s="30">
+      <c r="E51" s="30">
         <v>38</v>
       </c>
-      <c r="F50" s="29" t="s">
+      <c r="F51" s="29" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
+    <row r="52" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="B51" s="13">
-        <f>ROUND((C51/D51)*100, 2)</f>
-        <v>7.69</v>
-      </c>
-      <c r="C51" s="30">
-        <v>4</v>
-      </c>
-      <c r="D51" s="30">
-        <v>52</v>
-      </c>
-      <c r="E51" s="30">
-        <v>2</v>
-      </c>
-      <c r="F51" s="29"/>
-    </row>
-    <row r="52" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A52" s="97" t="s">
-        <v>142</v>
       </c>
       <c r="B52" s="13">
         <f>ROUND((C52/D52)*100, 2)</f>
-        <v>7.14</v>
+        <v>7.69</v>
       </c>
       <c r="C52" s="30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" s="30">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="E52" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F52" s="29"/>
     </row>
@@ -2639,7 +2639,7 @@
         <v>15</v>
       </c>
       <c r="B54" s="13">
-        <f>ROUND((C54/D54)*100, 2)</f>
+        <f t="shared" ref="B47:B66" si="1">ROUND((C54/D54)*100, 2)</f>
         <v>2.0699999999999998</v>
       </c>
       <c r="C54" s="1">
@@ -2658,7 +2658,7 @@
         <v>10</v>
       </c>
       <c r="B55" s="14">
-        <f>ROUND((C55/D55)*100, 2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C55" s="30">
@@ -2677,7 +2677,7 @@
         <v>11</v>
       </c>
       <c r="B56" s="15">
-        <f>ROUND((C56/D56)*100, 2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C56" s="30">
@@ -2696,7 +2696,7 @@
         <v>12</v>
       </c>
       <c r="B57" s="15">
-        <f>ROUND((C57/D57)*100, 2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C57" s="30">
@@ -2714,7 +2714,7 @@
         <v>9</v>
       </c>
       <c r="B58" s="14">
-        <f>ROUND((C58/D58)*100, 2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C58" s="1">
@@ -2733,7 +2733,7 @@
         <v>13</v>
       </c>
       <c r="B59" s="15">
-        <f>ROUND((C59/D59)*100, 2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C59" s="1">
@@ -2752,7 +2752,7 @@
         <v>17</v>
       </c>
       <c r="B60" s="15">
-        <f>ROUND((C60/D60)*100, 2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C60" s="1">
@@ -2771,7 +2771,7 @@
         <v>20</v>
       </c>
       <c r="B61" s="15">
-        <f>ROUND((C61/D61)*100, 2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C61" s="30">
@@ -2790,7 +2790,7 @@
         <v>21</v>
       </c>
       <c r="B62" s="14">
-        <f>ROUND((C62/D62)*100, 2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C62" s="30">
@@ -2811,7 +2811,7 @@
         <v>114</v>
       </c>
       <c r="B63" s="14">
-        <f>ROUND((C63/D63)*100, 2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C63" s="30">
@@ -2830,7 +2830,7 @@
         <v>111</v>
       </c>
       <c r="B64" s="14">
-        <f>ROUND((C64/D64)*100, 2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C64" s="30">
@@ -2849,7 +2849,7 @@
         <v>27</v>
       </c>
       <c r="B65" s="15">
-        <f>ROUND((C65/D65)*100, 2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C65" s="30">
@@ -2868,7 +2868,7 @@
         <v>144</v>
       </c>
       <c r="B66" s="14">
-        <f>ROUND((C66/D66)*100, 2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C66" s="30">
@@ -2887,7 +2887,7 @@
         <v>29</v>
       </c>
       <c r="B67" s="14">
-        <f t="shared" ref="B58:B78" si="3">ROUND((C67/D67)*100, 2)</f>
+        <f t="shared" ref="B67:B78" si="2">ROUND((C67/D67)*100, 2)</f>
         <v>0</v>
       </c>
       <c r="C67" s="30">
@@ -2906,7 +2906,7 @@
         <v>118</v>
       </c>
       <c r="B68" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C68" s="30">
@@ -2925,7 +2925,7 @@
         <v>36</v>
       </c>
       <c r="B69" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C69" s="30">
@@ -2944,7 +2944,7 @@
         <v>38</v>
       </c>
       <c r="B70" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C70" s="30">
@@ -2963,7 +2963,7 @@
         <v>42</v>
       </c>
       <c r="B71" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C71" s="30">
@@ -2982,7 +2982,7 @@
         <v>44</v>
       </c>
       <c r="B72" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C72" s="30">
@@ -3001,7 +3001,7 @@
         <v>46</v>
       </c>
       <c r="B73" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C73" s="30">
@@ -3020,7 +3020,7 @@
         <v>45</v>
       </c>
       <c r="B74" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C74" s="30">
@@ -3039,7 +3039,7 @@
         <v>113</v>
       </c>
       <c r="B75" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C75" s="30">
@@ -3058,7 +3058,7 @@
         <v>54</v>
       </c>
       <c r="B76" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C76" s="30">
@@ -3077,7 +3077,7 @@
         <v>56</v>
       </c>
       <c r="B77" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C77" s="30">
@@ -3096,7 +3096,7 @@
         <v>61</v>
       </c>
       <c r="B78" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C78" s="30">
@@ -3120,15 +3120,15 @@
       </c>
       <c r="C79" s="41">
         <f>SUM(C1:C40, C42:C78)</f>
-        <v>7849</v>
+        <v>7794</v>
       </c>
       <c r="D79" s="41">
         <f>SUM(D1:D40, D42:D78)</f>
-        <v>9785</v>
+        <v>9657</v>
       </c>
       <c r="E79" s="41">
         <f>SUM(E1:E40, E42:E78)</f>
-        <v>3413</v>
+        <v>3284</v>
       </c>
       <c r="F79" s="29" t="s">
         <v>103</v>
@@ -3145,7 +3145,7 @@
       <c r="C80" s="29"/>
       <c r="D80" s="41">
         <f>SUM(D1:D39, D41:D52)</f>
-        <v>8228</v>
+        <v>8325</v>
       </c>
       <c r="E80" s="29" t="s">
         <v>109</v>
@@ -3171,7 +3171,7 @@
       </c>
       <c r="B82" s="36">
         <f>(C79/D79)*100</f>
-        <v>80.214614205416453</v>
+        <v>80.708294501397944</v>
       </c>
       <c r="E82" s="29"/>
       <c r="F82" s="29"/>
@@ -3182,11 +3182,11 @@
       </c>
       <c r="B83" s="41">
         <f>AVERAGEIF(B2:B78, "&gt;0")</f>
-        <v>85.59773584905659</v>
+        <v>87.134150943396222</v>
       </c>
       <c r="C83" s="41">
         <f>(C79/D80)*100</f>
-        <v>95.393777345648999</v>
+        <v>93.621621621621614</v>
       </c>
       <c r="D83" s="29" t="s">
         <v>123</v>
@@ -3351,8 +3351,8 @@
       <c r="C101" s="29"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A47:F66">
-    <sortCondition descending="1" ref="B47:B66"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A37:F53">
+    <sortCondition descending="1" ref="B37:B53"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A85:C85"/>

--- a/Achievement Tracker.xlsx
+++ b/Achievement Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Data\AchievementTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C245BF-C86E-4F32-B29E-6E673ECE6B5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41283CCE-03D2-4F0F-970D-F4BD6869560B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-4035" windowWidth="29040" windowHeight="15840" xr2:uid="{01F7A889-C794-47A9-89C3-7F43CBAA3EFF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="145">
   <si>
     <t>Name</t>
   </si>
@@ -467,7 +467,7 @@
     <t>Active service until 2021</t>
   </si>
   <si>
-    <t>Inside</t>
+    <t>INSIDE</t>
   </si>
 </sst>
 </file>
@@ -992,11 +992,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1323,8 +1323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0DD2CDF-28B5-4FF8-81AE-E2FDE175FB34}">
   <dimension ref="A1:P101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1388,7 +1388,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="10">
-        <f t="shared" ref="B2:B39" si="0">ROUND((C2/D2)*100, 2)</f>
+        <f t="shared" ref="B2:B36" si="0">ROUND((C2/D2)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C2" s="1">
@@ -1408,7 +1408,7 @@
         <v>7</v>
       </c>
       <c r="L2" s="26" t="s">
-        <v>98</v>
+        <v>142</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>5</v>
@@ -1442,7 +1442,7 @@
         <v>8</v>
       </c>
       <c r="L3" s="26" t="s">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="N3" s="8" t="s">
         <v>6</v>
@@ -1478,7 +1478,7 @@
         <v>16</v>
       </c>
       <c r="L4" s="26" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="N4" s="8" t="s">
         <v>115</v>
@@ -1511,6 +1511,9 @@
       <c r="J5" s="24" t="s">
         <v>34</v>
       </c>
+      <c r="L5" s="26" t="s">
+        <v>49</v>
+      </c>
       <c r="N5" s="8" t="s">
         <v>18</v>
       </c>
@@ -1566,8 +1569,8 @@
         <v>5</v>
       </c>
       <c r="F7" s="29"/>
-      <c r="H7" s="60" t="s">
-        <v>142</v>
+      <c r="H7" s="25" t="s">
+        <v>144</v>
       </c>
       <c r="N7" s="8" t="s">
         <v>22</v>
@@ -1625,7 +1628,7 @@
         <v>73</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>36</v>
+        <v>118</v>
       </c>
       <c r="N9" s="8" t="s">
         <v>24</v>
@@ -1655,7 +1658,7 @@
         <v>83</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="N10" s="8" t="s">
         <v>25</v>
@@ -1682,8 +1685,8 @@
         <v>6</v>
       </c>
       <c r="F11" s="29"/>
-      <c r="H11" s="2" t="s">
-        <v>45</v>
+      <c r="H11" s="25" t="s">
+        <v>44</v>
       </c>
       <c r="N11" s="8" t="s">
         <v>26</v>
@@ -1710,8 +1713,8 @@
         <v>39</v>
       </c>
       <c r="F12" s="29"/>
-      <c r="H12" s="60" t="s">
-        <v>113</v>
+      <c r="H12" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="N12" s="8" t="s">
         <v>117</v>
@@ -1738,8 +1741,8 @@
         <v>75</v>
       </c>
       <c r="F13" s="29"/>
-      <c r="H13" s="2" t="s">
-        <v>54</v>
+      <c r="H13" s="60" t="s">
+        <v>113</v>
       </c>
       <c r="N13" s="8" t="s">
         <v>28</v>
@@ -1766,8 +1769,8 @@
         <v>42</v>
       </c>
       <c r="F14" s="29"/>
-      <c r="H14" s="25" t="s">
-        <v>61</v>
+      <c r="H14" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="N14" s="87" t="s">
         <v>138</v>
@@ -1794,6 +1797,9 @@
         <v>71</v>
       </c>
       <c r="F15" s="29"/>
+      <c r="H15" s="25" t="s">
+        <v>61</v>
+      </c>
       <c r="N15" s="87" t="s">
         <v>139</v>
       </c>
@@ -2295,7 +2301,7 @@
         <v>64</v>
       </c>
       <c r="B37" s="10">
-        <f>ROUND((C37/D37)*100, 2)</f>
+        <f t="shared" ref="B37:B53" si="1">ROUND((C37/D37)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C37" s="30">
@@ -2317,7 +2323,7 @@
         <v>65</v>
       </c>
       <c r="B38" s="11">
-        <f>ROUND((C38/D38)*100, 2)</f>
+        <f t="shared" si="1"/>
         <v>94.81</v>
       </c>
       <c r="C38" s="30">
@@ -2338,7 +2344,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="11">
-        <f>ROUND((C39/D39)*100, 2)</f>
+        <f t="shared" si="1"/>
         <v>94.1</v>
       </c>
       <c r="C39" s="30">
@@ -2355,11 +2361,11 @@
       </c>
     </row>
     <row r="40" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="97" t="s">
+      <c r="A40" s="96" t="s">
         <v>142</v>
       </c>
       <c r="B40" s="70">
-        <f>ROUND((C40/D40)*100, 2)</f>
+        <f t="shared" si="1"/>
         <v>88.57</v>
       </c>
       <c r="C40" s="30">
@@ -2378,7 +2384,7 @@
         <v>14</v>
       </c>
       <c r="B41" s="70">
-        <f>ROUND((C41/D41)*100, 2)</f>
+        <f t="shared" si="1"/>
         <v>86.83</v>
       </c>
       <c r="C41" s="1">
@@ -2399,7 +2405,7 @@
         <v>98</v>
       </c>
       <c r="B42" s="72">
-        <f>ROUND((C42/D42)*100, 2)</f>
+        <f t="shared" si="1"/>
         <v>84.62</v>
       </c>
       <c r="C42" s="63">
@@ -2420,7 +2426,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="70">
-        <f>ROUND((C43/D43)*100, 2)</f>
+        <f t="shared" si="1"/>
         <v>83.78</v>
       </c>
       <c r="C43" s="30">
@@ -2439,7 +2445,7 @@
         <v>51</v>
       </c>
       <c r="B44" s="93">
-        <f>ROUND((C44/D44)*100, 2)</f>
+        <f t="shared" si="1"/>
         <v>71.930000000000007</v>
       </c>
       <c r="C44" s="30">
@@ -2460,7 +2466,7 @@
         <v>49</v>
       </c>
       <c r="B45" s="93">
-        <f>ROUND((C45/D45)*100, 2)</f>
+        <f t="shared" si="1"/>
         <v>70.209999999999994</v>
       </c>
       <c r="C45" s="30">
@@ -2479,7 +2485,7 @@
         <v>7</v>
       </c>
       <c r="B46" s="74">
-        <f>ROUND((C46/D46)*100, 2)</f>
+        <f t="shared" si="1"/>
         <v>69.33</v>
       </c>
       <c r="C46" s="1">
@@ -2498,7 +2504,7 @@
         <v>71</v>
       </c>
       <c r="B47" s="76">
-        <f>ROUND((C47/D47)*100, 2)</f>
+        <f t="shared" si="1"/>
         <v>56.76</v>
       </c>
       <c r="C47" s="30">
@@ -2519,7 +2525,7 @@
         <v>8</v>
       </c>
       <c r="B48" s="76">
-        <f>ROUND((C48/D48)*100, 2)</f>
+        <f t="shared" si="1"/>
         <v>56.41</v>
       </c>
       <c r="C48" s="1">
@@ -2540,7 +2546,7 @@
         <v>16</v>
       </c>
       <c r="B49" s="76">
-        <f>ROUND((C49/D49)*100, 2)</f>
+        <f t="shared" si="1"/>
         <v>56.25</v>
       </c>
       <c r="C49" s="1">
@@ -2559,7 +2565,7 @@
         <v>32</v>
       </c>
       <c r="B50" s="12">
-        <f>ROUND((C50/D50)*100, 2)</f>
+        <f t="shared" si="1"/>
         <v>45.83</v>
       </c>
       <c r="C50" s="30">
@@ -2578,7 +2584,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="12">
-        <f>ROUND((C51/D51)*100, 2)</f>
+        <f t="shared" si="1"/>
         <v>43.66</v>
       </c>
       <c r="C51" s="30">
@@ -2599,7 +2605,7 @@
         <v>34</v>
       </c>
       <c r="B52" s="13">
-        <f>ROUND((C52/D52)*100, 2)</f>
+        <f t="shared" si="1"/>
         <v>7.69</v>
       </c>
       <c r="C52" s="30">
@@ -2618,7 +2624,7 @@
         <v>35</v>
       </c>
       <c r="B53" s="13">
-        <f>ROUND((C53/D53)*100, 2)</f>
+        <f t="shared" si="1"/>
         <v>5.26</v>
       </c>
       <c r="C53" s="30">
@@ -2639,7 +2645,7 @@
         <v>15</v>
       </c>
       <c r="B54" s="13">
-        <f t="shared" ref="B47:B66" si="1">ROUND((C54/D54)*100, 2)</f>
+        <f t="shared" ref="B54:B66" si="2">ROUND((C54/D54)*100, 2)</f>
         <v>2.0699999999999998</v>
       </c>
       <c r="C54" s="1">
@@ -2658,7 +2664,7 @@
         <v>10</v>
       </c>
       <c r="B55" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C55" s="30">
@@ -2677,7 +2683,7 @@
         <v>11</v>
       </c>
       <c r="B56" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C56" s="30">
@@ -2696,7 +2702,7 @@
         <v>12</v>
       </c>
       <c r="B57" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C57" s="30">
@@ -2714,7 +2720,7 @@
         <v>9</v>
       </c>
       <c r="B58" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C58" s="1">
@@ -2733,7 +2739,7 @@
         <v>13</v>
       </c>
       <c r="B59" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C59" s="1">
@@ -2752,7 +2758,7 @@
         <v>17</v>
       </c>
       <c r="B60" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C60" s="1">
@@ -2771,7 +2777,7 @@
         <v>20</v>
       </c>
       <c r="B61" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C61" s="30">
@@ -2790,7 +2796,7 @@
         <v>21</v>
       </c>
       <c r="B62" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C62" s="30">
@@ -2811,7 +2817,7 @@
         <v>114</v>
       </c>
       <c r="B63" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C63" s="30">
@@ -2830,7 +2836,7 @@
         <v>111</v>
       </c>
       <c r="B64" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C64" s="30">
@@ -2849,7 +2855,7 @@
         <v>27</v>
       </c>
       <c r="B65" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C65" s="30">
@@ -2868,7 +2874,7 @@
         <v>144</v>
       </c>
       <c r="B66" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C66" s="30">
@@ -2887,7 +2893,7 @@
         <v>29</v>
       </c>
       <c r="B67" s="14">
-        <f t="shared" ref="B67:B78" si="2">ROUND((C67/D67)*100, 2)</f>
+        <f t="shared" ref="B67:B78" si="3">ROUND((C67/D67)*100, 2)</f>
         <v>0</v>
       </c>
       <c r="C67" s="30">
@@ -2906,7 +2912,7 @@
         <v>118</v>
       </c>
       <c r="B68" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C68" s="30">
@@ -2925,7 +2931,7 @@
         <v>36</v>
       </c>
       <c r="B69" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C69" s="30">
@@ -2944,7 +2950,7 @@
         <v>38</v>
       </c>
       <c r="B70" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C70" s="30">
@@ -2963,7 +2969,7 @@
         <v>42</v>
       </c>
       <c r="B71" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C71" s="30">
@@ -2982,7 +2988,7 @@
         <v>44</v>
       </c>
       <c r="B72" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C72" s="30">
@@ -3001,7 +3007,7 @@
         <v>46</v>
       </c>
       <c r="B73" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C73" s="30">
@@ -3020,7 +3026,7 @@
         <v>45</v>
       </c>
       <c r="B74" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C74" s="30">
@@ -3039,7 +3045,7 @@
         <v>113</v>
       </c>
       <c r="B75" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C75" s="30">
@@ -3058,7 +3064,7 @@
         <v>54</v>
       </c>
       <c r="B76" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C76" s="30">
@@ -3077,7 +3083,7 @@
         <v>56</v>
       </c>
       <c r="B77" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C77" s="30">
@@ -3096,7 +3102,7 @@
         <v>61</v>
       </c>
       <c r="B78" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C78" s="30">
@@ -3119,16 +3125,16 @@
         <v>76</v>
       </c>
       <c r="C79" s="41">
-        <f>SUM(C1:C40, C42:C78)</f>
-        <v>7794</v>
+        <f>SUM(C1:C41, C43:C78)</f>
+        <v>7906</v>
       </c>
       <c r="D79" s="41">
-        <f>SUM(D1:D40, D42:D78)</f>
-        <v>9657</v>
+        <f>SUM(D1:D41, D43:D78)</f>
+        <v>9785</v>
       </c>
       <c r="E79" s="41">
-        <f>SUM(E1:E40, E42:E78)</f>
-        <v>3284</v>
+        <f>SUM(E1:E41, E43:E78)</f>
+        <v>3460</v>
       </c>
       <c r="F79" s="29" t="s">
         <v>103</v>
@@ -3144,8 +3150,8 @@
       </c>
       <c r="C80" s="29"/>
       <c r="D80" s="41">
-        <f>SUM(D1:D39, D41:D52)</f>
-        <v>8325</v>
+        <f>SUM(D1:D41, D43:D52)</f>
+        <v>8356</v>
       </c>
       <c r="E80" s="29" t="s">
         <v>109</v>
@@ -3171,7 +3177,7 @@
       </c>
       <c r="B82" s="36">
         <f>(C79/D79)*100</f>
-        <v>80.708294501397944</v>
+        <v>80.797138477261115</v>
       </c>
       <c r="E82" s="29"/>
       <c r="F82" s="29"/>
@@ -3186,7 +3192,7 @@
       </c>
       <c r="C83" s="41">
         <f>(C79/D80)*100</f>
-        <v>93.621621621621614</v>
+        <v>94.614648157012923</v>
       </c>
       <c r="D83" s="29" t="s">
         <v>123</v>
@@ -3202,11 +3208,11 @@
       </c>
     </row>
     <row r="85" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A85" s="96" t="s">
+      <c r="A85" s="97" t="s">
         <v>87</v>
       </c>
-      <c r="B85" s="96"/>
-      <c r="C85" s="96"/>
+      <c r="B85" s="97"/>
+      <c r="C85" s="97"/>
     </row>
     <row r="86" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="88" t="s">
@@ -3351,8 +3357,8 @@
       <c r="C101" s="29"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A37:F53">
-    <sortCondition descending="1" ref="B37:B53"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H2:H15">
+    <sortCondition ref="H1:H15"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A85:C85"/>

--- a/Achievement Tracker.xlsx
+++ b/Achievement Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Data\AchievementTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41283CCE-03D2-4F0F-970D-F4BD6869560B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9322AF2-BF68-4C39-8299-565073A23A13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-4035" windowWidth="29040" windowHeight="15840" xr2:uid="{01F7A889-C794-47A9-89C3-7F43CBAA3EFF}"/>
   </bookViews>
@@ -769,7 +769,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -992,9 +992,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1323,8 +1320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0DD2CDF-28B5-4FF8-81AE-E2FDE175FB34}">
   <dimension ref="A1:P101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1388,7 +1385,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="10">
-        <f t="shared" ref="B2:B36" si="0">ROUND((C2/D2)*100, 2)</f>
+        <f>ROUND((C2/D2)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C2" s="1">
@@ -1408,7 +1405,7 @@
         <v>7</v>
       </c>
       <c r="L2" s="26" t="s">
-        <v>142</v>
+        <v>98</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>5</v>
@@ -1422,7 +1419,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="10">
-        <f t="shared" si="0"/>
+        <f>ROUND((C3/D3)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C3" s="1">
@@ -1442,7 +1439,7 @@
         <v>8</v>
       </c>
       <c r="L3" s="26" t="s">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="N3" s="8" t="s">
         <v>6</v>
@@ -1456,7 +1453,7 @@
         <v>115</v>
       </c>
       <c r="B4" s="10">
-        <f t="shared" si="0"/>
+        <f>ROUND((C4/D4)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C4" s="30">
@@ -1478,7 +1475,7 @@
         <v>16</v>
       </c>
       <c r="L4" s="26" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="N4" s="8" t="s">
         <v>115</v>
@@ -1492,7 +1489,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="10">
-        <f t="shared" si="0"/>
+        <f>ROUND((C5/D5)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C5" s="1">
@@ -1511,9 +1508,6 @@
       <c r="J5" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="L5" s="26" t="s">
-        <v>49</v>
-      </c>
       <c r="N5" s="8" t="s">
         <v>18</v>
       </c>
@@ -1526,7 +1520,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="10">
-        <f t="shared" si="0"/>
+        <f>ROUND((C6/D6)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C6" s="1">
@@ -1556,7 +1550,7 @@
         <v>22</v>
       </c>
       <c r="B7" s="10">
-        <f t="shared" si="0"/>
+        <f>ROUND((C7/D7)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C7" s="1">
@@ -1584,7 +1578,7 @@
         <v>23</v>
       </c>
       <c r="B8" s="10">
-        <f t="shared" si="0"/>
+        <f>ROUND((C8/D8)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C8" s="1">
@@ -1612,7 +1606,7 @@
         <v>24</v>
       </c>
       <c r="B9" s="10">
-        <f t="shared" si="0"/>
+        <f>ROUND((C9/D9)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C9" s="1">
@@ -1642,7 +1636,7 @@
         <v>25</v>
       </c>
       <c r="B10" s="10">
-        <f t="shared" si="0"/>
+        <f>ROUND((C10/D10)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C10" s="30">
@@ -1672,7 +1666,7 @@
         <v>26</v>
       </c>
       <c r="B11" s="10">
-        <f t="shared" si="0"/>
+        <f>ROUND((C11/D11)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C11" s="30">
@@ -1700,7 +1694,7 @@
         <v>117</v>
       </c>
       <c r="B12" s="10">
-        <f t="shared" si="0"/>
+        <f>ROUND((C12/D12)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C12" s="30">
@@ -1728,7 +1722,7 @@
         <v>28</v>
       </c>
       <c r="B13" s="10">
-        <f t="shared" si="0"/>
+        <f>ROUND((C13/D13)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C13" s="30">
@@ -1756,7 +1750,7 @@
         <v>138</v>
       </c>
       <c r="B14" s="10">
-        <f t="shared" si="0"/>
+        <f>ROUND((C14/D14)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C14" s="30">
@@ -1784,7 +1778,7 @@
         <v>139</v>
       </c>
       <c r="B15" s="10">
-        <f t="shared" si="0"/>
+        <f>ROUND((C15/D15)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C15" s="30">
@@ -1812,7 +1806,7 @@
         <v>140</v>
       </c>
       <c r="B16" s="10">
-        <f t="shared" si="0"/>
+        <f>ROUND((C16/D16)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C16" s="30">
@@ -1834,24 +1828,24 @@
     </row>
     <row r="17" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>30</v>
+        <v>142</v>
       </c>
       <c r="B17" s="10">
-        <f t="shared" si="0"/>
+        <f>ROUND((C17/D17)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C17" s="30">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="D17" s="30">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="E17" s="30">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="F17" s="29"/>
       <c r="N17" s="8" t="s">
-        <v>30</v>
+        <v>142</v>
       </c>
       <c r="P17" s="17" t="s">
         <v>50</v>
@@ -1859,24 +1853,24 @@
     </row>
     <row r="18" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18" s="10">
-        <f t="shared" si="0"/>
+        <f>ROUND((C18/D18)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C18" s="30">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D18" s="30">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="E18" s="30">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="F18" s="29"/>
       <c r="N18" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P18" s="33" t="s">
         <v>51</v>
@@ -1884,507 +1878,510 @@
     </row>
     <row r="19" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B19" s="10">
-        <f t="shared" si="0"/>
+        <f>ROUND((C19/D19)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C19" s="30">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="D19" s="30">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="E19" s="30">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="F19" s="29"/>
       <c r="N19" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P19" s="17" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="68" t="s">
-        <v>116</v>
+      <c r="A20" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="B20" s="10">
-        <f t="shared" si="0"/>
+        <f>ROUND((C20/D20)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C20" s="30">
-        <v>251</v>
+        <v>74</v>
       </c>
       <c r="D20" s="30">
-        <v>251</v>
+        <v>74</v>
       </c>
       <c r="E20" s="30">
-        <v>1</v>
-      </c>
-      <c r="F20" s="29" t="s">
-        <v>126</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="F20" s="29"/>
       <c r="N20" s="8" t="s">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="P20" s="17" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="68" t="s">
+        <v>116</v>
+      </c>
+      <c r="B21" s="10">
+        <f>ROUND((C21/D21)*100, 2)</f>
+        <v>100</v>
+      </c>
+      <c r="C21" s="30">
+        <v>251</v>
+      </c>
+      <c r="D21" s="30">
+        <v>251</v>
+      </c>
+      <c r="E21" s="30">
+        <v>1</v>
+      </c>
+      <c r="F21" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="N21" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="10">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="C21" s="30">
+      <c r="B22" s="10">
+        <f>ROUND((C22/D22)*100, 2)</f>
+        <v>100</v>
+      </c>
+      <c r="C22" s="30">
         <v>13</v>
       </c>
-      <c r="D21" s="30">
+      <c r="D22" s="30">
         <v>13</v>
       </c>
-      <c r="E21" s="30">
+      <c r="E22" s="30">
         <v>8</v>
       </c>
-      <c r="F21" s="29"/>
-      <c r="N21" s="8" t="s">
+      <c r="F22" s="29"/>
+      <c r="N22" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="51" t="s">
+    <row r="23" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="B22" s="89">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="C22" s="63">
+      <c r="B23" s="89">
+        <f>ROUND((C23/D23)*100, 2)</f>
+        <v>100</v>
+      </c>
+      <c r="C23" s="63">
         <v>74</v>
       </c>
-      <c r="D22" s="63">
+      <c r="D23" s="63">
         <v>74</v>
       </c>
-      <c r="E22" s="63">
+      <c r="E23" s="63">
         <v>2</v>
       </c>
-      <c r="F22" s="63" t="s">
+      <c r="F23" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="N22" s="8" t="s">
+      <c r="N23" s="8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="52" t="s">
+    <row r="24" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="10">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="C23" s="30">
+      <c r="B24" s="10">
+        <f>ROUND((C24/D24)*100, 2)</f>
+        <v>100</v>
+      </c>
+      <c r="C24" s="30">
         <v>466</v>
       </c>
-      <c r="D23" s="30">
+      <c r="D24" s="30">
         <v>466</v>
       </c>
-      <c r="E23" s="30">
+      <c r="E24" s="30">
         <v>2</v>
       </c>
-      <c r="F23" s="29" t="s">
+      <c r="F24" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="N23" s="8" t="s">
+      <c r="N24" s="8" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="10">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="C24" s="30">
-        <v>88</v>
-      </c>
-      <c r="D24" s="30">
-        <v>88</v>
-      </c>
-      <c r="E24" s="30">
-        <v>558</v>
-      </c>
-      <c r="F24" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="N24" s="8" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B25" s="10">
-        <f t="shared" si="0"/>
+        <f>ROUND((C25/D25)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C25" s="30">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="D25" s="30">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="E25" s="30">
-        <v>5</v>
-      </c>
-      <c r="F25" s="29"/>
+        <v>558</v>
+      </c>
+      <c r="F25" s="29" t="s">
+        <v>141</v>
+      </c>
       <c r="N25" s="8" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="B26" s="10">
-        <f t="shared" si="0"/>
+        <f>ROUND((C26/D26)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C26" s="30">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="D26" s="30">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="E26" s="30">
-        <v>1</v>
-      </c>
-      <c r="F26" s="29" t="s">
-        <v>74</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F26" s="29"/>
       <c r="N26" s="8" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B27" s="10">
-        <f t="shared" si="0"/>
+        <f>ROUND((C27/D27)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C27" s="30">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="D27" s="30">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="E27" s="30">
-        <v>5</v>
-      </c>
-      <c r="F27" s="29"/>
+        <v>1</v>
+      </c>
+      <c r="F27" s="29" t="s">
+        <v>74</v>
+      </c>
       <c r="N27" s="8" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B28" s="10">
-        <f t="shared" si="0"/>
+        <f>ROUND((C28/D28)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C28" s="30">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="D28" s="30">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="E28" s="30">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="F28" s="29"/>
       <c r="N28" s="8" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B29" s="10">
-        <f t="shared" si="0"/>
+        <f>ROUND((C29/D29)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C29" s="30">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D29" s="30">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="E29" s="30">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F29" s="29"/>
       <c r="N29" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B30" s="10">
-        <f t="shared" si="0"/>
+        <f>ROUND((C30/D30)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C30" s="30">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D30" s="30">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E30" s="30">
         <v>12</v>
       </c>
       <c r="F30" s="29"/>
       <c r="N30" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B31" s="10">
-        <f t="shared" si="0"/>
+        <f>ROUND((C31/D31)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C31" s="30">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D31" s="30">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E31" s="30">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F31" s="29"/>
       <c r="N31" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B32" s="10">
-        <f t="shared" si="0"/>
+        <f>ROUND((C32/D32)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C32" s="30">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="D32" s="30">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="E32" s="30">
-        <v>201</v>
+        <v>30</v>
       </c>
       <c r="F32" s="29"/>
       <c r="N32" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B33" s="10">
-        <f t="shared" si="0"/>
+        <f>ROUND((C33/D33)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C33" s="30">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="D33" s="30">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="E33" s="30">
-        <v>14</v>
+        <v>201</v>
       </c>
       <c r="F33" s="29"/>
       <c r="N33" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="B34" s="10">
-        <f t="shared" si="0"/>
+        <f>ROUND((C34/D34)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C34" s="30">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="D34" s="30">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E34" s="30">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="F34" s="29"/>
       <c r="N34" s="8" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="B35" s="10">
-        <f t="shared" si="0"/>
+        <f>ROUND((C35/D35)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C35" s="30">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="D35" s="30">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E35" s="30">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="F35" s="29"/>
       <c r="N35" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="7" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="52" t="s">
+      <c r="B36" s="10">
+        <f>ROUND((C36/D36)*100, 2)</f>
+        <v>100</v>
+      </c>
+      <c r="C36" s="30">
         <v>55</v>
       </c>
-      <c r="B36" s="10">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="C36" s="30">
+      <c r="D36" s="30">
+        <v>55</v>
+      </c>
+      <c r="E36" s="30">
+        <v>110</v>
+      </c>
+      <c r="F36" s="29"/>
+      <c r="N36" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" s="10">
+        <f>ROUND((C37/D37)*100, 2)</f>
+        <v>100</v>
+      </c>
+      <c r="C37" s="30">
         <v>1877</v>
       </c>
-      <c r="D36" s="30">
+      <c r="D37" s="30">
         <v>1877</v>
       </c>
-      <c r="E36" s="30">
+      <c r="E37" s="30">
         <v>1</v>
       </c>
-      <c r="F36" s="29" t="s">
+      <c r="F37" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="N36" s="8" t="s">
+      <c r="N37" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="7" t="s">
+    <row r="38" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B37" s="10">
-        <f t="shared" ref="B37:B53" si="1">ROUND((C37/D37)*100, 2)</f>
-        <v>100</v>
-      </c>
-      <c r="C37" s="30">
+      <c r="B38" s="10">
+        <f>ROUND((C38/D38)*100, 2)</f>
+        <v>100</v>
+      </c>
+      <c r="C38" s="30">
         <v>1708</v>
       </c>
-      <c r="D37" s="30">
+      <c r="D38" s="30">
         <v>1708</v>
       </c>
-      <c r="E37" s="30">
+      <c r="E38" s="30">
         <v>2</v>
       </c>
-      <c r="F37" s="29"/>
-      <c r="N37" s="8" t="s">
+      <c r="F38" s="29"/>
+      <c r="N38" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="53" t="s">
+    <row r="39" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="B38" s="11">
-        <f t="shared" si="1"/>
+      <c r="B39" s="11">
+        <f>ROUND((C39/D39)*100, 2)</f>
         <v>94.81</v>
       </c>
-      <c r="C38" s="30">
+      <c r="C39" s="30">
         <v>493</v>
       </c>
-      <c r="D38" s="30">
+      <c r="D39" s="30">
         <v>520</v>
       </c>
-      <c r="E38" s="30">
+      <c r="E39" s="30">
         <v>260</v>
       </c>
-      <c r="F38" s="29" t="s">
+      <c r="F39" s="29" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="28" t="s">
+    <row r="40" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="11">
-        <f t="shared" si="1"/>
+      <c r="B40" s="11">
+        <f>ROUND((C40/D40)*100, 2)</f>
         <v>94.1</v>
       </c>
-      <c r="C39" s="30">
+      <c r="C40" s="30">
         <v>1149</v>
       </c>
-      <c r="D39" s="30">
+      <c r="D40" s="30">
         <v>1221</v>
       </c>
-      <c r="E39" s="30">
+      <c r="E40" s="30">
         <v>11</v>
       </c>
-      <c r="F39" s="29" t="s">
+      <c r="F40" s="29" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="96" t="s">
-        <v>142</v>
-      </c>
-      <c r="B40" s="70">
-        <f t="shared" si="1"/>
-        <v>88.57</v>
-      </c>
-      <c r="C40" s="30">
-        <v>62</v>
-      </c>
-      <c r="D40" s="30">
-        <v>70</v>
-      </c>
-      <c r="E40" s="30">
-        <v>48</v>
-      </c>
-      <c r="F40" s="29"/>
     </row>
     <row r="41" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="69" t="s">
         <v>14</v>
       </c>
       <c r="B41" s="70">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B37:B53" si="0">ROUND((C41/D41)*100, 2)</f>
         <v>86.83</v>
       </c>
       <c r="C41" s="1">
@@ -2405,7 +2402,7 @@
         <v>98</v>
       </c>
       <c r="B42" s="72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>84.62</v>
       </c>
       <c r="C42" s="63">
@@ -2426,7 +2423,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>83.78</v>
       </c>
       <c r="C43" s="30">
@@ -2445,7 +2442,7 @@
         <v>51</v>
       </c>
       <c r="B44" s="93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>71.930000000000007</v>
       </c>
       <c r="C44" s="30">
@@ -2466,7 +2463,7 @@
         <v>49</v>
       </c>
       <c r="B45" s="93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>70.209999999999994</v>
       </c>
       <c r="C45" s="30">
@@ -2485,7 +2482,7 @@
         <v>7</v>
       </c>
       <c r="B46" s="74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>69.33</v>
       </c>
       <c r="C46" s="1">
@@ -2504,7 +2501,7 @@
         <v>71</v>
       </c>
       <c r="B47" s="76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>56.76</v>
       </c>
       <c r="C47" s="30">
@@ -2525,7 +2522,7 @@
         <v>8</v>
       </c>
       <c r="B48" s="76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>56.41</v>
       </c>
       <c r="C48" s="1">
@@ -2546,7 +2543,7 @@
         <v>16</v>
       </c>
       <c r="B49" s="76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>56.25</v>
       </c>
       <c r="C49" s="1">
@@ -2565,7 +2562,7 @@
         <v>32</v>
       </c>
       <c r="B50" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>45.83</v>
       </c>
       <c r="C50" s="30">
@@ -2584,7 +2581,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>43.66</v>
       </c>
       <c r="C51" s="30">
@@ -2605,7 +2602,7 @@
         <v>34</v>
       </c>
       <c r="B52" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.69</v>
       </c>
       <c r="C52" s="30">
@@ -2617,14 +2614,13 @@
       <c r="E52" s="30">
         <v>2</v>
       </c>
-      <c r="F52" s="29"/>
     </row>
     <row r="53" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B53" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.26</v>
       </c>
       <c r="C53" s="30">
@@ -2635,9 +2631,6 @@
       </c>
       <c r="E53" s="30">
         <v>3</v>
-      </c>
-      <c r="F53" s="29" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -2645,7 +2638,7 @@
         <v>15</v>
       </c>
       <c r="B54" s="13">
-        <f t="shared" ref="B54:B66" si="2">ROUND((C54/D54)*100, 2)</f>
+        <f t="shared" ref="B54:B66" si="1">ROUND((C54/D54)*100, 2)</f>
         <v>2.0699999999999998</v>
       </c>
       <c r="C54" s="1">
@@ -2657,14 +2650,16 @@
       <c r="E54" s="1">
         <v>3</v>
       </c>
-      <c r="F54" s="29"/>
+      <c r="F54" s="29" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="55" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="31" t="s">
         <v>10</v>
       </c>
       <c r="B55" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C55" s="30">
@@ -2683,7 +2678,7 @@
         <v>11</v>
       </c>
       <c r="B56" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C56" s="30">
@@ -2702,7 +2697,7 @@
         <v>12</v>
       </c>
       <c r="B57" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C57" s="30">
@@ -2720,7 +2715,7 @@
         <v>9</v>
       </c>
       <c r="B58" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C58" s="1">
@@ -2739,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B59" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C59" s="1">
@@ -2758,7 +2753,7 @@
         <v>17</v>
       </c>
       <c r="B60" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C60" s="1">
@@ -2777,7 +2772,7 @@
         <v>20</v>
       </c>
       <c r="B61" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C61" s="30">
@@ -2796,7 +2791,7 @@
         <v>21</v>
       </c>
       <c r="B62" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C62" s="30">
@@ -2807,9 +2802,6 @@
       </c>
       <c r="E62" s="30">
         <v>0</v>
-      </c>
-      <c r="F62" s="29" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -2817,7 +2809,7 @@
         <v>114</v>
       </c>
       <c r="B63" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C63" s="30">
@@ -2829,14 +2821,16 @@
       <c r="E63" s="30">
         <v>0</v>
       </c>
-      <c r="F63" s="29"/>
+      <c r="F63" s="29" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="64" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="65" t="s">
         <v>111</v>
       </c>
       <c r="B64" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C64" s="30">
@@ -2855,7 +2849,7 @@
         <v>27</v>
       </c>
       <c r="B65" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C65" s="30">
@@ -2874,7 +2868,7 @@
         <v>144</v>
       </c>
       <c r="B66" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C66" s="30">
@@ -2893,7 +2887,7 @@
         <v>29</v>
       </c>
       <c r="B67" s="14">
-        <f t="shared" ref="B67:B78" si="3">ROUND((C67/D67)*100, 2)</f>
+        <f t="shared" ref="B67:B78" si="2">ROUND((C67/D67)*100, 2)</f>
         <v>0</v>
       </c>
       <c r="C67" s="30">
@@ -2912,7 +2906,7 @@
         <v>118</v>
       </c>
       <c r="B68" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C68" s="30">
@@ -2931,7 +2925,7 @@
         <v>36</v>
       </c>
       <c r="B69" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C69" s="30">
@@ -2950,7 +2944,7 @@
         <v>38</v>
       </c>
       <c r="B70" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C70" s="30">
@@ -2969,7 +2963,7 @@
         <v>42</v>
       </c>
       <c r="B71" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C71" s="30">
@@ -2988,7 +2982,7 @@
         <v>44</v>
       </c>
       <c r="B72" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C72" s="30">
@@ -3007,7 +3001,7 @@
         <v>46</v>
       </c>
       <c r="B73" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C73" s="30">
@@ -3026,7 +3020,7 @@
         <v>45</v>
       </c>
       <c r="B74" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C74" s="30">
@@ -3045,7 +3039,7 @@
         <v>113</v>
       </c>
       <c r="B75" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C75" s="30">
@@ -3064,7 +3058,7 @@
         <v>54</v>
       </c>
       <c r="B76" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C76" s="30">
@@ -3083,7 +3077,7 @@
         <v>56</v>
       </c>
       <c r="B77" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C77" s="30">
@@ -3102,7 +3096,7 @@
         <v>61</v>
       </c>
       <c r="B78" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C78" s="30">
@@ -3126,7 +3120,7 @@
       </c>
       <c r="C79" s="41">
         <f>SUM(C1:C41, C43:C78)</f>
-        <v>7906</v>
+        <v>7914</v>
       </c>
       <c r="D79" s="41">
         <f>SUM(D1:D41, D43:D78)</f>
@@ -3134,7 +3128,7 @@
       </c>
       <c r="E79" s="41">
         <f>SUM(E1:E41, E43:E78)</f>
-        <v>3460</v>
+        <v>3472</v>
       </c>
       <c r="F79" s="29" t="s">
         <v>103</v>
@@ -3164,7 +3158,7 @@
       </c>
       <c r="B81" s="40">
         <f>COUNTIF(B1:B78, "&gt;=100")</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C81" s="29"/>
       <c r="D81" s="29"/>
@@ -3177,7 +3171,7 @@
       </c>
       <c r="B82" s="36">
         <f>(C79/D79)*100</f>
-        <v>80.797138477261115</v>
+        <v>80.87889626980072</v>
       </c>
       <c r="E82" s="29"/>
       <c r="F82" s="29"/>
@@ -3188,11 +3182,11 @@
       </c>
       <c r="B83" s="41">
         <f>AVERAGEIF(B2:B78, "&gt;0")</f>
-        <v>87.134150943396222</v>
+        <v>87.349811320754696</v>
       </c>
       <c r="C83" s="41">
         <f>(C79/D80)*100</f>
-        <v>94.614648157012923</v>
+        <v>94.710387745332696</v>
       </c>
       <c r="D83" s="29" t="s">
         <v>123</v>
@@ -3204,15 +3198,15 @@
       </c>
       <c r="B84" s="39">
         <f>ROUND(((B81/B80)*100), 2)</f>
-        <v>69.23</v>
+        <v>71.150000000000006</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A85" s="97" t="s">
+      <c r="A85" s="96" t="s">
         <v>87</v>
       </c>
-      <c r="B85" s="97"/>
-      <c r="C85" s="97"/>
+      <c r="B85" s="96"/>
+      <c r="C85" s="96"/>
     </row>
     <row r="86" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="88" t="s">
@@ -3357,8 +3351,8 @@
       <c r="C101" s="29"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H2:H15">
-    <sortCondition ref="H1:H15"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="N2:N38">
+    <sortCondition ref="N38"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A85:C85"/>

--- a/Achievement Tracker.xlsx
+++ b/Achievement Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Data\AchievementTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9322AF2-BF68-4C39-8299-565073A23A13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6754EE-9797-45A2-ADDA-3A806590E66A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-4035" windowWidth="29040" windowHeight="15840" xr2:uid="{01F7A889-C794-47A9-89C3-7F43CBAA3EFF}"/>
   </bookViews>
@@ -1320,8 +1320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0DD2CDF-28B5-4FF8-81AE-E2FDE175FB34}">
   <dimension ref="A1:P101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1385,7 +1385,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="10">
-        <f>ROUND((C2/D2)*100, 2)</f>
+        <f t="shared" ref="B2:B40" si="0">ROUND((C2/D2)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C2" s="1">
@@ -1419,7 +1419,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="10">
-        <f>ROUND((C3/D3)*100, 2)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="C3" s="1">
@@ -1453,7 +1453,7 @@
         <v>115</v>
       </c>
       <c r="B4" s="10">
-        <f>ROUND((C4/D4)*100, 2)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="C4" s="30">
@@ -1489,7 +1489,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="10">
-        <f>ROUND((C5/D5)*100, 2)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="C5" s="1">
@@ -1520,7 +1520,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="10">
-        <f>ROUND((C6/D6)*100, 2)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="C6" s="1">
@@ -1550,7 +1550,7 @@
         <v>22</v>
       </c>
       <c r="B7" s="10">
-        <f>ROUND((C7/D7)*100, 2)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="C7" s="1">
@@ -1578,7 +1578,7 @@
         <v>23</v>
       </c>
       <c r="B8" s="10">
-        <f>ROUND((C8/D8)*100, 2)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="C8" s="1">
@@ -1606,7 +1606,7 @@
         <v>24</v>
       </c>
       <c r="B9" s="10">
-        <f>ROUND((C9/D9)*100, 2)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="C9" s="1">
@@ -1636,7 +1636,7 @@
         <v>25</v>
       </c>
       <c r="B10" s="10">
-        <f>ROUND((C10/D10)*100, 2)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="C10" s="30">
@@ -1666,7 +1666,7 @@
         <v>26</v>
       </c>
       <c r="B11" s="10">
-        <f>ROUND((C11/D11)*100, 2)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="C11" s="30">
@@ -1694,7 +1694,7 @@
         <v>117</v>
       </c>
       <c r="B12" s="10">
-        <f>ROUND((C12/D12)*100, 2)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="C12" s="30">
@@ -1722,7 +1722,7 @@
         <v>28</v>
       </c>
       <c r="B13" s="10">
-        <f>ROUND((C13/D13)*100, 2)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="C13" s="30">
@@ -1750,7 +1750,7 @@
         <v>138</v>
       </c>
       <c r="B14" s="10">
-        <f>ROUND((C14/D14)*100, 2)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="C14" s="30">
@@ -1778,7 +1778,7 @@
         <v>139</v>
       </c>
       <c r="B15" s="10">
-        <f>ROUND((C15/D15)*100, 2)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="C15" s="30">
@@ -1806,7 +1806,7 @@
         <v>140</v>
       </c>
       <c r="B16" s="10">
-        <f>ROUND((C16/D16)*100, 2)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="C16" s="30">
@@ -1831,7 +1831,7 @@
         <v>142</v>
       </c>
       <c r="B17" s="10">
-        <f>ROUND((C17/D17)*100, 2)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="C17" s="30">
@@ -1856,7 +1856,7 @@
         <v>30</v>
       </c>
       <c r="B18" s="10">
-        <f>ROUND((C18/D18)*100, 2)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="C18" s="30">
@@ -1881,7 +1881,7 @@
         <v>31</v>
       </c>
       <c r="B19" s="10">
-        <f>ROUND((C19/D19)*100, 2)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="C19" s="30">
@@ -1906,7 +1906,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="10">
-        <f>ROUND((C20/D20)*100, 2)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="C20" s="30">
@@ -1931,7 +1931,7 @@
         <v>116</v>
       </c>
       <c r="B21" s="10">
-        <f>ROUND((C21/D21)*100, 2)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="C21" s="30">
@@ -1955,7 +1955,7 @@
         <v>37</v>
       </c>
       <c r="B22" s="10">
-        <f>ROUND((C22/D22)*100, 2)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="C22" s="30">
@@ -1977,7 +1977,7 @@
         <v>70</v>
       </c>
       <c r="B23" s="89">
-        <f>ROUND((C23/D23)*100, 2)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="C23" s="63">
@@ -2001,7 +2001,7 @@
         <v>43</v>
       </c>
       <c r="B24" s="10">
-        <f>ROUND((C24/D24)*100, 2)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="C24" s="30">
@@ -2025,7 +2025,7 @@
         <v>47</v>
       </c>
       <c r="B25" s="10">
-        <f>ROUND((C25/D25)*100, 2)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="C25" s="30">
@@ -2049,7 +2049,7 @@
         <v>52</v>
       </c>
       <c r="B26" s="10">
-        <f>ROUND((C26/D26)*100, 2)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="C26" s="30">
@@ -2071,7 +2071,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="10">
-        <f>ROUND((C27/D27)*100, 2)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="C27" s="30">
@@ -2095,7 +2095,7 @@
         <v>48</v>
       </c>
       <c r="B28" s="10">
-        <f>ROUND((C28/D28)*100, 2)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="C28" s="30">
@@ -2117,7 +2117,7 @@
         <v>57</v>
       </c>
       <c r="B29" s="10">
-        <f>ROUND((C29/D29)*100, 2)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="C29" s="30">
@@ -2139,7 +2139,7 @@
         <v>59</v>
       </c>
       <c r="B30" s="10">
-        <f>ROUND((C30/D30)*100, 2)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="C30" s="30">
@@ -2161,7 +2161,7 @@
         <v>58</v>
       </c>
       <c r="B31" s="10">
-        <f>ROUND((C31/D31)*100, 2)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="C31" s="30">
@@ -2183,7 +2183,7 @@
         <v>60</v>
       </c>
       <c r="B32" s="10">
-        <f>ROUND((C32/D32)*100, 2)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="C32" s="30">
@@ -2205,7 +2205,7 @@
         <v>62</v>
       </c>
       <c r="B33" s="10">
-        <f>ROUND((C33/D33)*100, 2)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="C33" s="30">
@@ -2227,7 +2227,7 @@
         <v>63</v>
       </c>
       <c r="B34" s="10">
-        <f>ROUND((C34/D34)*100, 2)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="C34" s="30">
@@ -2249,7 +2249,7 @@
         <v>112</v>
       </c>
       <c r="B35" s="10">
-        <f>ROUND((C35/D35)*100, 2)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="C35" s="30">
@@ -2271,7 +2271,7 @@
         <v>53</v>
       </c>
       <c r="B36" s="10">
-        <f>ROUND((C36/D36)*100, 2)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="C36" s="30">
@@ -2293,7 +2293,7 @@
         <v>55</v>
       </c>
       <c r="B37" s="10">
-        <f>ROUND((C37/D37)*100, 2)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="C37" s="30">
@@ -2317,7 +2317,7 @@
         <v>64</v>
       </c>
       <c r="B38" s="10">
-        <f>ROUND((C38/D38)*100, 2)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="C38" s="30">
@@ -2339,7 +2339,7 @@
         <v>65</v>
       </c>
       <c r="B39" s="11">
-        <f>ROUND((C39/D39)*100, 2)</f>
+        <f t="shared" si="0"/>
         <v>94.81</v>
       </c>
       <c r="C39" s="30">
@@ -2360,7 +2360,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="11">
-        <f>ROUND((C40/D40)*100, 2)</f>
+        <f t="shared" si="0"/>
         <v>94.1</v>
       </c>
       <c r="C40" s="30">
@@ -2381,7 +2381,7 @@
         <v>14</v>
       </c>
       <c r="B41" s="70">
-        <f t="shared" ref="B37:B53" si="0">ROUND((C41/D41)*100, 2)</f>
+        <f t="shared" ref="B41:B53" si="1">ROUND((C41/D41)*100, 2)</f>
         <v>86.83</v>
       </c>
       <c r="C41" s="1">
@@ -2402,7 +2402,7 @@
         <v>98</v>
       </c>
       <c r="B42" s="72">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>84.62</v>
       </c>
       <c r="C42" s="63">
@@ -2423,7 +2423,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="70">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>83.78</v>
       </c>
       <c r="C43" s="30">
@@ -2442,7 +2442,7 @@
         <v>51</v>
       </c>
       <c r="B44" s="93">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>71.930000000000007</v>
       </c>
       <c r="C44" s="30">
@@ -2463,7 +2463,7 @@
         <v>49</v>
       </c>
       <c r="B45" s="93">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>70.209999999999994</v>
       </c>
       <c r="C45" s="30">
@@ -2482,7 +2482,7 @@
         <v>7</v>
       </c>
       <c r="B46" s="74">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>69.33</v>
       </c>
       <c r="C46" s="1">
@@ -2501,7 +2501,7 @@
         <v>71</v>
       </c>
       <c r="B47" s="76">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>56.76</v>
       </c>
       <c r="C47" s="30">
@@ -2522,7 +2522,7 @@
         <v>8</v>
       </c>
       <c r="B48" s="76">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>56.41</v>
       </c>
       <c r="C48" s="1">
@@ -2543,7 +2543,7 @@
         <v>16</v>
       </c>
       <c r="B49" s="76">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>56.25</v>
       </c>
       <c r="C49" s="1">
@@ -2562,7 +2562,7 @@
         <v>32</v>
       </c>
       <c r="B50" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45.83</v>
       </c>
       <c r="C50" s="30">
@@ -2581,7 +2581,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43.66</v>
       </c>
       <c r="C51" s="30">
@@ -2602,7 +2602,7 @@
         <v>34</v>
       </c>
       <c r="B52" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.69</v>
       </c>
       <c r="C52" s="30">
@@ -2620,7 +2620,7 @@
         <v>35</v>
       </c>
       <c r="B53" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.26</v>
       </c>
       <c r="C53" s="30">
@@ -2638,7 +2638,7 @@
         <v>15</v>
       </c>
       <c r="B54" s="13">
-        <f t="shared" ref="B54:B66" si="1">ROUND((C54/D54)*100, 2)</f>
+        <f t="shared" ref="B54:B66" si="2">ROUND((C54/D54)*100, 2)</f>
         <v>2.0699999999999998</v>
       </c>
       <c r="C54" s="1">
@@ -2659,7 +2659,7 @@
         <v>10</v>
       </c>
       <c r="B55" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C55" s="30">
@@ -2678,7 +2678,7 @@
         <v>11</v>
       </c>
       <c r="B56" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C56" s="30">
@@ -2697,7 +2697,7 @@
         <v>12</v>
       </c>
       <c r="B57" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C57" s="30">
@@ -2715,7 +2715,7 @@
         <v>9</v>
       </c>
       <c r="B58" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C58" s="1">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B59" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C59" s="1">
@@ -2753,7 +2753,7 @@
         <v>17</v>
       </c>
       <c r="B60" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C60" s="1">
@@ -2772,7 +2772,7 @@
         <v>20</v>
       </c>
       <c r="B61" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C61" s="30">
@@ -2791,7 +2791,7 @@
         <v>21</v>
       </c>
       <c r="B62" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C62" s="30">
@@ -2809,7 +2809,7 @@
         <v>114</v>
       </c>
       <c r="B63" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C63" s="30">
@@ -2830,7 +2830,7 @@
         <v>111</v>
       </c>
       <c r="B64" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C64" s="30">
@@ -2849,7 +2849,7 @@
         <v>27</v>
       </c>
       <c r="B65" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C65" s="30">
@@ -2868,7 +2868,7 @@
         <v>144</v>
       </c>
       <c r="B66" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C66" s="30">
@@ -2887,7 +2887,7 @@
         <v>29</v>
       </c>
       <c r="B67" s="14">
-        <f t="shared" ref="B67:B78" si="2">ROUND((C67/D67)*100, 2)</f>
+        <f t="shared" ref="B67:B78" si="3">ROUND((C67/D67)*100, 2)</f>
         <v>0</v>
       </c>
       <c r="C67" s="30">
@@ -2906,7 +2906,7 @@
         <v>118</v>
       </c>
       <c r="B68" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C68" s="30">
@@ -2925,7 +2925,7 @@
         <v>36</v>
       </c>
       <c r="B69" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C69" s="30">
@@ -2944,7 +2944,7 @@
         <v>38</v>
       </c>
       <c r="B70" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C70" s="30">
@@ -2963,7 +2963,7 @@
         <v>42</v>
       </c>
       <c r="B71" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C71" s="30">
@@ -2982,7 +2982,7 @@
         <v>44</v>
       </c>
       <c r="B72" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C72" s="30">
@@ -3001,7 +3001,7 @@
         <v>46</v>
       </c>
       <c r="B73" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C73" s="30">
@@ -3020,7 +3020,7 @@
         <v>45</v>
       </c>
       <c r="B74" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C74" s="30">
@@ -3039,7 +3039,7 @@
         <v>113</v>
       </c>
       <c r="B75" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C75" s="30">
@@ -3058,7 +3058,7 @@
         <v>54</v>
       </c>
       <c r="B76" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C76" s="30">
@@ -3077,7 +3077,7 @@
         <v>56</v>
       </c>
       <c r="B77" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C77" s="30">
@@ -3096,7 +3096,7 @@
         <v>61</v>
       </c>
       <c r="B78" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C78" s="30">
@@ -3119,16 +3119,16 @@
         <v>76</v>
       </c>
       <c r="C79" s="41">
-        <f>SUM(C1:C41, C43:C78)</f>
-        <v>7914</v>
+        <f>SUM(C1:C78)</f>
+        <v>7947</v>
       </c>
       <c r="D79" s="41">
-        <f>SUM(D1:D41, D43:D78)</f>
-        <v>9785</v>
+        <f t="shared" ref="D79:E79" si="4">SUM(D1:D78)</f>
+        <v>9824</v>
       </c>
       <c r="E79" s="41">
-        <f>SUM(E1:E41, E43:E78)</f>
-        <v>3472</v>
+        <f t="shared" si="4"/>
+        <v>3499</v>
       </c>
       <c r="F79" s="29" t="s">
         <v>103</v>
@@ -3139,13 +3139,13 @@
         <v>68</v>
       </c>
       <c r="B80" s="40">
-        <f>COUNTIF(B1:B78, "&gt;0")-1</f>
-        <v>52</v>
+        <f>COUNTIF(B1:B78, "&gt;0")</f>
+        <v>53</v>
       </c>
       <c r="C80" s="29"/>
       <c r="D80" s="41">
-        <f>SUM(D1:D41, D43:D52)</f>
-        <v>8356</v>
+        <f>SUM(D1:D54)</f>
+        <v>8626</v>
       </c>
       <c r="E80" s="29" t="s">
         <v>109</v>
@@ -3171,7 +3171,7 @@
       </c>
       <c r="B82" s="36">
         <f>(C79/D79)*100</f>
-        <v>80.87889626980072</v>
+        <v>80.89372964169381</v>
       </c>
       <c r="E82" s="29"/>
       <c r="F82" s="29"/>
@@ -3186,7 +3186,7 @@
       </c>
       <c r="C83" s="41">
         <f>(C79/D80)*100</f>
-        <v>94.710387745332696</v>
+        <v>92.128448875492694</v>
       </c>
       <c r="D83" s="29" t="s">
         <v>123</v>
@@ -3198,7 +3198,7 @@
       </c>
       <c r="B84" s="39">
         <f>ROUND(((B81/B80)*100), 2)</f>
-        <v>71.150000000000006</v>
+        <v>69.81</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">

--- a/Achievement Tracker.xlsx
+++ b/Achievement Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Data\AchievementTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6754EE-9797-45A2-ADDA-3A806590E66A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD8ABAC3-2FDE-44AC-8B6A-9A958002666F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-4035" windowWidth="29040" windowHeight="15840" xr2:uid="{01F7A889-C794-47A9-89C3-7F43CBAA3EFF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{01F7A889-C794-47A9-89C3-7F43CBAA3EFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1320,8 +1320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0DD2CDF-28B5-4FF8-81AE-E2FDE175FB34}">
   <dimension ref="A1:P101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2360,7 +2360,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="11">
-        <f t="shared" si="0"/>
+        <f>ROUND((C40/D40)*100, 2)</f>
         <v>94.1</v>
       </c>
       <c r="C40" s="30">
@@ -2381,7 +2381,7 @@
         <v>14</v>
       </c>
       <c r="B41" s="70">
-        <f t="shared" ref="B41:B53" si="1">ROUND((C41/D41)*100, 2)</f>
+        <f>ROUND((C41/D41)*100, 2)</f>
         <v>86.83</v>
       </c>
       <c r="C41" s="1">
@@ -2402,7 +2402,7 @@
         <v>98</v>
       </c>
       <c r="B42" s="72">
-        <f t="shared" si="1"/>
+        <f>ROUND((C42/D42)*100, 2)</f>
         <v>84.62</v>
       </c>
       <c r="C42" s="63">
@@ -2423,7 +2423,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="70">
-        <f t="shared" si="1"/>
+        <f>ROUND((C43/D43)*100, 2)</f>
         <v>83.78</v>
       </c>
       <c r="C43" s="30">
@@ -2438,51 +2438,51 @@
       <c r="F43" s="29"/>
     </row>
     <row r="44" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="92" t="s">
+      <c r="A44" s="94" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" s="93">
+        <f>ROUND((C44/D44)*100, 2)</f>
+        <v>74.47</v>
+      </c>
+      <c r="C44" s="30">
+        <v>35</v>
+      </c>
+      <c r="D44" s="30">
+        <v>47</v>
+      </c>
+      <c r="E44" s="30">
+        <v>28</v>
+      </c>
+      <c r="F44" s="29"/>
+    </row>
+    <row r="45" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="92" t="s">
         <v>51</v>
       </c>
-      <c r="B44" s="93">
-        <f t="shared" si="1"/>
+      <c r="B45" s="93">
+        <f>ROUND((C45/D45)*100, 2)</f>
         <v>71.930000000000007</v>
       </c>
-      <c r="C44" s="30">
+      <c r="C45" s="30">
         <v>82</v>
       </c>
-      <c r="D44" s="30">
+      <c r="D45" s="30">
         <v>114</v>
       </c>
-      <c r="E44" s="30">
+      <c r="E45" s="30">
         <v>320</v>
       </c>
-      <c r="F44" s="29" t="s">
+      <c r="F45" s="29" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="94" t="s">
-        <v>49</v>
-      </c>
-      <c r="B45" s="93">
-        <f t="shared" si="1"/>
-        <v>70.209999999999994</v>
-      </c>
-      <c r="C45" s="30">
-        <v>33</v>
-      </c>
-      <c r="D45" s="30">
-        <v>47</v>
-      </c>
-      <c r="E45" s="30">
-        <v>24</v>
-      </c>
-      <c r="F45" s="29"/>
     </row>
     <row r="46" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="73" t="s">
         <v>7</v>
       </c>
       <c r="B46" s="74">
-        <f t="shared" si="1"/>
+        <f>ROUND((C46/D46)*100, 2)</f>
         <v>69.33</v>
       </c>
       <c r="C46" s="1">
@@ -2501,7 +2501,7 @@
         <v>71</v>
       </c>
       <c r="B47" s="76">
-        <f t="shared" si="1"/>
+        <f>ROUND((C47/D47)*100, 2)</f>
         <v>56.76</v>
       </c>
       <c r="C47" s="30">
@@ -2522,7 +2522,7 @@
         <v>8</v>
       </c>
       <c r="B48" s="76">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B41:B53" si="1">ROUND((C48/D48)*100, 2)</f>
         <v>56.41</v>
       </c>
       <c r="C48" s="1">
@@ -3120,7 +3120,7 @@
       </c>
       <c r="C79" s="41">
         <f>SUM(C1:C78)</f>
-        <v>7947</v>
+        <v>7949</v>
       </c>
       <c r="D79" s="41">
         <f t="shared" ref="D79:E79" si="4">SUM(D1:D78)</f>
@@ -3128,7 +3128,7 @@
       </c>
       <c r="E79" s="41">
         <f t="shared" si="4"/>
-        <v>3499</v>
+        <v>3503</v>
       </c>
       <c r="F79" s="29" t="s">
         <v>103</v>
@@ -3171,7 +3171,7 @@
       </c>
       <c r="B82" s="36">
         <f>(C79/D79)*100</f>
-        <v>80.89372964169381</v>
+        <v>80.914087947882734</v>
       </c>
       <c r="E82" s="29"/>
       <c r="F82" s="29"/>
@@ -3182,11 +3182,11 @@
       </c>
       <c r="B83" s="41">
         <f>AVERAGEIF(B2:B78, "&gt;0")</f>
-        <v>87.349811320754696</v>
+        <v>87.430188679245276</v>
       </c>
       <c r="C83" s="41">
         <f>(C79/D80)*100</f>
-        <v>92.128448875492694</v>
+        <v>92.151634593090662</v>
       </c>
       <c r="D83" s="29" t="s">
         <v>123</v>
@@ -3351,8 +3351,8 @@
       <c r="C101" s="29"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="N2:N38">
-    <sortCondition ref="N38"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A40:F47">
+    <sortCondition descending="1" ref="B40:B47"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A85:C85"/>

--- a/Achievement Tracker.xlsx
+++ b/Achievement Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Data\AchievementTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD8ABAC3-2FDE-44AC-8B6A-9A958002666F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA2D4877-FE1C-4A20-981B-1C30023BD8F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{01F7A889-C794-47A9-89C3-7F43CBAA3EFF}"/>
   </bookViews>
@@ -988,12 +988,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1320,8 +1320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0DD2CDF-28B5-4FF8-81AE-E2FDE175FB34}">
   <dimension ref="A1:P101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H66" sqref="H66"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1385,7 +1385,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="10">
-        <f t="shared" ref="B2:B40" si="0">ROUND((C2/D2)*100, 2)</f>
+        <f t="shared" ref="B2:B39" si="0">ROUND((C2/D2)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C2" s="1">
@@ -2377,82 +2377,82 @@
       </c>
     </row>
     <row r="41" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="69" t="s">
-        <v>14</v>
+      <c r="A41" s="96" t="s">
+        <v>49</v>
       </c>
       <c r="B41" s="70">
         <f>ROUND((C41/D41)*100, 2)</f>
+        <v>89.36</v>
+      </c>
+      <c r="C41" s="30">
+        <v>42</v>
+      </c>
+      <c r="D41" s="30">
+        <v>47</v>
+      </c>
+      <c r="E41" s="30">
+        <v>37</v>
+      </c>
+      <c r="F41" s="29"/>
+    </row>
+    <row r="42" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="69" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" s="70">
+        <f>ROUND((C42/D42)*100, 2)</f>
         <v>86.83</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C42" s="1">
         <v>145</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D42" s="1">
         <v>167</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E42" s="1">
         <v>203</v>
       </c>
-      <c r="F41" s="29" t="s">
+      <c r="F42" s="29" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="71" t="s">
+    <row r="43" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="71" t="s">
         <v>98</v>
       </c>
-      <c r="B42" s="72">
-        <f>ROUND((C42/D42)*100, 2)</f>
+      <c r="B43" s="72">
+        <f>ROUND((C43/D43)*100, 2)</f>
         <v>84.62</v>
       </c>
-      <c r="C42" s="63">
+      <c r="C43" s="63">
         <v>33</v>
       </c>
-      <c r="D42" s="63">
+      <c r="D43" s="63">
         <v>39</v>
       </c>
-      <c r="E42" s="63">
+      <c r="E43" s="63">
         <v>27</v>
       </c>
-      <c r="F42" s="64" t="s">
+      <c r="F43" s="64" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="69" t="s">
+    <row r="44" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="70">
-        <f>ROUND((C43/D43)*100, 2)</f>
+      <c r="B44" s="70">
+        <f>ROUND((C44/D44)*100, 2)</f>
         <v>83.78</v>
       </c>
-      <c r="C43" s="30">
+      <c r="C44" s="30">
         <v>31</v>
       </c>
-      <c r="D43" s="30">
+      <c r="D44" s="30">
         <v>37</v>
       </c>
-      <c r="E43" s="30">
+      <c r="E44" s="30">
         <v>556</v>
-      </c>
-      <c r="F43" s="29"/>
-    </row>
-    <row r="44" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="94" t="s">
-        <v>49</v>
-      </c>
-      <c r="B44" s="93">
-        <f>ROUND((C44/D44)*100, 2)</f>
-        <v>74.47</v>
-      </c>
-      <c r="C44" s="30">
-        <v>35</v>
-      </c>
-      <c r="D44" s="30">
-        <v>47</v>
-      </c>
-      <c r="E44" s="30">
-        <v>28</v>
       </c>
       <c r="F44" s="29"/>
     </row>
@@ -2501,7 +2501,7 @@
         <v>71</v>
       </c>
       <c r="B47" s="76">
-        <f>ROUND((C47/D47)*100, 2)</f>
+        <f t="shared" ref="B40:B47" si="1">ROUND((C47/D47)*100, 2)</f>
         <v>56.76</v>
       </c>
       <c r="C47" s="30">
@@ -2522,7 +2522,7 @@
         <v>8</v>
       </c>
       <c r="B48" s="76">
-        <f t="shared" ref="B41:B53" si="1">ROUND((C48/D48)*100, 2)</f>
+        <f t="shared" ref="B48:B53" si="2">ROUND((C48/D48)*100, 2)</f>
         <v>56.41</v>
       </c>
       <c r="C48" s="1">
@@ -2543,7 +2543,7 @@
         <v>16</v>
       </c>
       <c r="B49" s="76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>56.25</v>
       </c>
       <c r="C49" s="1">
@@ -2562,7 +2562,7 @@
         <v>32</v>
       </c>
       <c r="B50" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45.83</v>
       </c>
       <c r="C50" s="30">
@@ -2581,7 +2581,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>43.66</v>
       </c>
       <c r="C51" s="30">
@@ -2602,7 +2602,7 @@
         <v>34</v>
       </c>
       <c r="B52" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.69</v>
       </c>
       <c r="C52" s="30">
@@ -2620,7 +2620,7 @@
         <v>35</v>
       </c>
       <c r="B53" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.26</v>
       </c>
       <c r="C53" s="30">
@@ -2638,7 +2638,7 @@
         <v>15</v>
       </c>
       <c r="B54" s="13">
-        <f t="shared" ref="B54:B66" si="2">ROUND((C54/D54)*100, 2)</f>
+        <f t="shared" ref="B54:B66" si="3">ROUND((C54/D54)*100, 2)</f>
         <v>2.0699999999999998</v>
       </c>
       <c r="C54" s="1">
@@ -2659,7 +2659,7 @@
         <v>10</v>
       </c>
       <c r="B55" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C55" s="30">
@@ -2678,7 +2678,7 @@
         <v>11</v>
       </c>
       <c r="B56" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C56" s="30">
@@ -2697,7 +2697,7 @@
         <v>12</v>
       </c>
       <c r="B57" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C57" s="30">
@@ -2715,7 +2715,7 @@
         <v>9</v>
       </c>
       <c r="B58" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C58" s="1">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B59" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C59" s="1">
@@ -2753,7 +2753,7 @@
         <v>17</v>
       </c>
       <c r="B60" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C60" s="1">
@@ -2772,7 +2772,7 @@
         <v>20</v>
       </c>
       <c r="B61" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C61" s="30">
@@ -2791,7 +2791,7 @@
         <v>21</v>
       </c>
       <c r="B62" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C62" s="30">
@@ -2809,7 +2809,7 @@
         <v>114</v>
       </c>
       <c r="B63" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C63" s="30">
@@ -2830,7 +2830,7 @@
         <v>111</v>
       </c>
       <c r="B64" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C64" s="30">
@@ -2849,7 +2849,7 @@
         <v>27</v>
       </c>
       <c r="B65" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C65" s="30">
@@ -2864,11 +2864,11 @@
       <c r="F65" s="29"/>
     </row>
     <row r="66" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A66" s="95" t="s">
+      <c r="A66" s="94" t="s">
         <v>144</v>
       </c>
       <c r="B66" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C66" s="30">
@@ -2887,7 +2887,7 @@
         <v>29</v>
       </c>
       <c r="B67" s="14">
-        <f t="shared" ref="B67:B78" si="3">ROUND((C67/D67)*100, 2)</f>
+        <f t="shared" ref="B67:B78" si="4">ROUND((C67/D67)*100, 2)</f>
         <v>0</v>
       </c>
       <c r="C67" s="30">
@@ -2906,7 +2906,7 @@
         <v>118</v>
       </c>
       <c r="B68" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C68" s="30">
@@ -2925,7 +2925,7 @@
         <v>36</v>
       </c>
       <c r="B69" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C69" s="30">
@@ -2944,7 +2944,7 @@
         <v>38</v>
       </c>
       <c r="B70" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C70" s="30">
@@ -2963,7 +2963,7 @@
         <v>42</v>
       </c>
       <c r="B71" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C71" s="30">
@@ -2982,7 +2982,7 @@
         <v>44</v>
       </c>
       <c r="B72" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C72" s="30">
@@ -3001,7 +3001,7 @@
         <v>46</v>
       </c>
       <c r="B73" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C73" s="30">
@@ -3020,7 +3020,7 @@
         <v>45</v>
       </c>
       <c r="B74" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C74" s="30">
@@ -3039,7 +3039,7 @@
         <v>113</v>
       </c>
       <c r="B75" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C75" s="30">
@@ -3058,7 +3058,7 @@
         <v>54</v>
       </c>
       <c r="B76" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C76" s="30">
@@ -3077,7 +3077,7 @@
         <v>56</v>
       </c>
       <c r="B77" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C77" s="30">
@@ -3096,7 +3096,7 @@
         <v>61</v>
       </c>
       <c r="B78" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C78" s="30">
@@ -3120,15 +3120,15 @@
       </c>
       <c r="C79" s="41">
         <f>SUM(C1:C78)</f>
-        <v>7949</v>
+        <v>7956</v>
       </c>
       <c r="D79" s="41">
-        <f t="shared" ref="D79:E79" si="4">SUM(D1:D78)</f>
+        <f t="shared" ref="D79:E79" si="5">SUM(D1:D78)</f>
         <v>9824</v>
       </c>
       <c r="E79" s="41">
-        <f t="shared" si="4"/>
-        <v>3503</v>
+        <f t="shared" si="5"/>
+        <v>3512</v>
       </c>
       <c r="F79" s="29" t="s">
         <v>103</v>
@@ -3171,7 +3171,7 @@
       </c>
       <c r="B82" s="36">
         <f>(C79/D79)*100</f>
-        <v>80.914087947882734</v>
+        <v>80.985342019543964</v>
       </c>
       <c r="E82" s="29"/>
       <c r="F82" s="29"/>
@@ -3182,11 +3182,11 @@
       </c>
       <c r="B83" s="41">
         <f>AVERAGEIF(B2:B78, "&gt;0")</f>
-        <v>87.430188679245276</v>
+        <v>87.711132075471696</v>
       </c>
       <c r="C83" s="41">
         <f>(C79/D80)*100</f>
-        <v>92.151634593090662</v>
+        <v>92.232784604683516</v>
       </c>
       <c r="D83" s="29" t="s">
         <v>123</v>
@@ -3202,11 +3202,11 @@
       </c>
     </row>
     <row r="85" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A85" s="96" t="s">
+      <c r="A85" s="95" t="s">
         <v>87</v>
       </c>
-      <c r="B85" s="96"/>
-      <c r="C85" s="96"/>
+      <c r="B85" s="95"/>
+      <c r="C85" s="95"/>
     </row>
     <row r="86" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="88" t="s">
@@ -3351,8 +3351,8 @@
       <c r="C101" s="29"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A40:F47">
-    <sortCondition descending="1" ref="B40:B47"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A40:F46">
+    <sortCondition descending="1" ref="B40:B46"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A85:C85"/>

--- a/Achievement Tracker.xlsx
+++ b/Achievement Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Data\AchievementTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA2D4877-FE1C-4A20-981B-1C30023BD8F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3408358D-AB5D-4A7C-8FE7-63F263430A84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{01F7A889-C794-47A9-89C3-7F43CBAA3EFF}"/>
+    <workbookView xWindow="-28920" yWindow="-4035" windowWidth="29040" windowHeight="15840" xr2:uid="{01F7A889-C794-47A9-89C3-7F43CBAA3EFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="145">
   <si>
     <t>Name</t>
   </si>
@@ -769,7 +769,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -989,10 +989,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1321,7 +1324,7 @@
   <dimension ref="A1:P101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1468,8 +1471,8 @@
       <c r="F4" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>21</v>
+      <c r="H4" s="60" t="s">
+        <v>114</v>
       </c>
       <c r="J4" s="24" t="s">
         <v>16</v>
@@ -1503,7 +1506,7 @@
       </c>
       <c r="F5" s="29"/>
       <c r="H5" s="60" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J5" s="24" t="s">
         <v>34</v>
@@ -1535,8 +1538,8 @@
       <c r="F6" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="H6" s="60" t="s">
-        <v>111</v>
+      <c r="H6" s="25" t="s">
+        <v>144</v>
       </c>
       <c r="N6" s="8" t="s">
         <v>19</v>
@@ -1564,7 +1567,7 @@
       </c>
       <c r="F7" s="29"/>
       <c r="H7" s="25" t="s">
-        <v>144</v>
+        <v>29</v>
       </c>
       <c r="N7" s="8" t="s">
         <v>22</v>
@@ -1592,7 +1595,7 @@
       </c>
       <c r="F8" s="29"/>
       <c r="H8" s="25" t="s">
-        <v>29</v>
+        <v>118</v>
       </c>
       <c r="N8" s="8" t="s">
         <v>23</v>
@@ -1622,7 +1625,7 @@
         <v>73</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>118</v>
+        <v>36</v>
       </c>
       <c r="N9" s="8" t="s">
         <v>24</v>
@@ -1652,7 +1655,7 @@
         <v>83</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="N10" s="8" t="s">
         <v>25</v>
@@ -1679,8 +1682,8 @@
         <v>6</v>
       </c>
       <c r="F11" s="29"/>
-      <c r="H11" s="25" t="s">
-        <v>44</v>
+      <c r="H11" s="60" t="s">
+        <v>113</v>
       </c>
       <c r="N11" s="8" t="s">
         <v>26</v>
@@ -1707,9 +1710,6 @@
         <v>39</v>
       </c>
       <c r="F12" s="29"/>
-      <c r="H12" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="N12" s="8" t="s">
         <v>117</v>
       </c>
@@ -1735,9 +1735,6 @@
         <v>75</v>
       </c>
       <c r="F13" s="29"/>
-      <c r="H13" s="60" t="s">
-        <v>113</v>
-      </c>
       <c r="N13" s="8" t="s">
         <v>28</v>
       </c>
@@ -1763,9 +1760,7 @@
         <v>42</v>
       </c>
       <c r="F14" s="29"/>
-      <c r="H14" s="2" t="s">
-        <v>54</v>
-      </c>
+      <c r="H14" s="1"/>
       <c r="N14" s="87" t="s">
         <v>138</v>
       </c>
@@ -1791,9 +1786,7 @@
         <v>71</v>
       </c>
       <c r="F15" s="29"/>
-      <c r="H15" s="25" t="s">
-        <v>61</v>
-      </c>
+      <c r="H15" s="97"/>
       <c r="N15" s="87" t="s">
         <v>139</v>
       </c>
@@ -2360,7 +2353,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="11">
-        <f>ROUND((C40/D40)*100, 2)</f>
+        <f t="shared" ref="B40:B46" si="1">ROUND((C40/D40)*100, 2)</f>
         <v>94.1</v>
       </c>
       <c r="C40" s="30">
@@ -2377,11 +2370,11 @@
       </c>
     </row>
     <row r="41" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="96" t="s">
+      <c r="A41" s="95" t="s">
         <v>49</v>
       </c>
       <c r="B41" s="70">
-        <f>ROUND((C41/D41)*100, 2)</f>
+        <f t="shared" si="1"/>
         <v>89.36</v>
       </c>
       <c r="C41" s="30">
@@ -2400,7 +2393,7 @@
         <v>14</v>
       </c>
       <c r="B42" s="70">
-        <f>ROUND((C42/D42)*100, 2)</f>
+        <f t="shared" si="1"/>
         <v>86.83</v>
       </c>
       <c r="C42" s="1">
@@ -2421,7 +2414,7 @@
         <v>98</v>
       </c>
       <c r="B43" s="72">
-        <f>ROUND((C43/D43)*100, 2)</f>
+        <f t="shared" si="1"/>
         <v>84.62</v>
       </c>
       <c r="C43" s="63">
@@ -2442,7 +2435,7 @@
         <v>41</v>
       </c>
       <c r="B44" s="70">
-        <f>ROUND((C44/D44)*100, 2)</f>
+        <f t="shared" si="1"/>
         <v>83.78</v>
       </c>
       <c r="C44" s="30">
@@ -2461,7 +2454,7 @@
         <v>51</v>
       </c>
       <c r="B45" s="93">
-        <f>ROUND((C45/D45)*100, 2)</f>
+        <f t="shared" si="1"/>
         <v>71.930000000000007</v>
       </c>
       <c r="C45" s="30">
@@ -2482,7 +2475,7 @@
         <v>7</v>
       </c>
       <c r="B46" s="74">
-        <f>ROUND((C46/D46)*100, 2)</f>
+        <f t="shared" si="1"/>
         <v>69.33</v>
       </c>
       <c r="C46" s="1">
@@ -2501,7 +2494,7 @@
         <v>71</v>
       </c>
       <c r="B47" s="76">
-        <f t="shared" ref="B40:B47" si="1">ROUND((C47/D47)*100, 2)</f>
+        <f t="shared" ref="B47" si="2">ROUND((C47/D47)*100, 2)</f>
         <v>56.76</v>
       </c>
       <c r="C47" s="30">
@@ -2522,7 +2515,7 @@
         <v>8</v>
       </c>
       <c r="B48" s="76">
-        <f t="shared" ref="B48:B53" si="2">ROUND((C48/D48)*100, 2)</f>
+        <f t="shared" ref="B48:B53" si="3">ROUND((C48/D48)*100, 2)</f>
         <v>56.41</v>
       </c>
       <c r="C48" s="1">
@@ -2543,7 +2536,7 @@
         <v>16</v>
       </c>
       <c r="B49" s="76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>56.25</v>
       </c>
       <c r="C49" s="1">
@@ -2562,7 +2555,7 @@
         <v>32</v>
       </c>
       <c r="B50" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45.83</v>
       </c>
       <c r="C50" s="30">
@@ -2581,7 +2574,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43.66</v>
       </c>
       <c r="C51" s="30">
@@ -2602,7 +2595,7 @@
         <v>34</v>
       </c>
       <c r="B52" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.69</v>
       </c>
       <c r="C52" s="30">
@@ -2620,7 +2613,7 @@
         <v>35</v>
       </c>
       <c r="B53" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.26</v>
       </c>
       <c r="C53" s="30">
@@ -2638,7 +2631,7 @@
         <v>15</v>
       </c>
       <c r="B54" s="13">
-        <f t="shared" ref="B54:B66" si="3">ROUND((C54/D54)*100, 2)</f>
+        <f t="shared" ref="B54:B66" si="4">ROUND((C54/D54)*100, 2)</f>
         <v>2.0699999999999998</v>
       </c>
       <c r="C54" s="1">
@@ -2659,7 +2652,7 @@
         <v>10</v>
       </c>
       <c r="B55" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C55" s="30">
@@ -2678,7 +2671,7 @@
         <v>11</v>
       </c>
       <c r="B56" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C56" s="30">
@@ -2697,7 +2690,7 @@
         <v>12</v>
       </c>
       <c r="B57" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C57" s="30">
@@ -2715,7 +2708,7 @@
         <v>9</v>
       </c>
       <c r="B58" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C58" s="1">
@@ -2734,7 +2727,7 @@
         <v>13</v>
       </c>
       <c r="B59" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C59" s="1">
@@ -2753,7 +2746,7 @@
         <v>17</v>
       </c>
       <c r="B60" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C60" s="1">
@@ -2772,7 +2765,7 @@
         <v>20</v>
       </c>
       <c r="B61" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C61" s="30">
@@ -2787,11 +2780,11 @@
       <c r="F61" s="29"/>
     </row>
     <row r="62" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A62" s="6" t="s">
+      <c r="A62" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B62" s="14">
-        <f t="shared" si="3"/>
+      <c r="B62" s="15">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C62" s="30">
@@ -2809,7 +2802,7 @@
         <v>114</v>
       </c>
       <c r="B63" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C63" s="30">
@@ -2830,7 +2823,7 @@
         <v>111</v>
       </c>
       <c r="B64" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C64" s="30">
@@ -2849,7 +2842,7 @@
         <v>27</v>
       </c>
       <c r="B65" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C65" s="30">
@@ -2868,7 +2861,7 @@
         <v>144</v>
       </c>
       <c r="B66" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C66" s="30">
@@ -2887,7 +2880,7 @@
         <v>29</v>
       </c>
       <c r="B67" s="14">
-        <f t="shared" ref="B67:B78" si="4">ROUND((C67/D67)*100, 2)</f>
+        <f t="shared" ref="B67:B78" si="5">ROUND((C67/D67)*100, 2)</f>
         <v>0</v>
       </c>
       <c r="C67" s="30">
@@ -2906,7 +2899,7 @@
         <v>118</v>
       </c>
       <c r="B68" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C68" s="30">
@@ -2925,7 +2918,7 @@
         <v>36</v>
       </c>
       <c r="B69" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C69" s="30">
@@ -2944,7 +2937,7 @@
         <v>38</v>
       </c>
       <c r="B70" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C70" s="30">
@@ -2963,7 +2956,7 @@
         <v>42</v>
       </c>
       <c r="B71" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C71" s="30">
@@ -2982,7 +2975,7 @@
         <v>44</v>
       </c>
       <c r="B72" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C72" s="30">
@@ -3001,7 +2994,7 @@
         <v>46</v>
       </c>
       <c r="B73" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C73" s="30">
@@ -3016,11 +3009,11 @@
       <c r="F73" s="29"/>
     </row>
     <row r="74" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A74" s="6" t="s">
+      <c r="A74" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B74" s="14">
-        <f t="shared" si="4"/>
+      <c r="B74" s="15">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C74" s="30">
@@ -3039,7 +3032,7 @@
         <v>113</v>
       </c>
       <c r="B75" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C75" s="30">
@@ -3054,11 +3047,11 @@
       <c r="F75" s="29"/>
     </row>
     <row r="76" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A76" s="6" t="s">
+      <c r="A76" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B76" s="14">
-        <f t="shared" si="4"/>
+      <c r="B76" s="15">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C76" s="30">
@@ -3077,7 +3070,7 @@
         <v>56</v>
       </c>
       <c r="B77" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C77" s="30">
@@ -3092,11 +3085,11 @@
       <c r="F77" s="29"/>
     </row>
     <row r="78" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A78" s="6" t="s">
+      <c r="A78" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B78" s="14">
-        <f t="shared" si="4"/>
+      <c r="B78" s="15">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C78" s="30">
@@ -3123,11 +3116,11 @@
         <v>7956</v>
       </c>
       <c r="D79" s="41">
-        <f t="shared" ref="D79:E79" si="5">SUM(D1:D78)</f>
+        <f t="shared" ref="D79:E79" si="6">SUM(D1:D78)</f>
         <v>9824</v>
       </c>
       <c r="E79" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3512</v>
       </c>
       <c r="F79" s="29" t="s">
@@ -3202,11 +3195,11 @@
       </c>
     </row>
     <row r="85" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A85" s="95" t="s">
+      <c r="A85" s="96" t="s">
         <v>87</v>
       </c>
-      <c r="B85" s="95"/>
-      <c r="C85" s="95"/>
+      <c r="B85" s="96"/>
+      <c r="C85" s="96"/>
     </row>
     <row r="86" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="88" t="s">

--- a/Achievement Tracker.xlsx
+++ b/Achievement Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Data\AchievementTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3408358D-AB5D-4A7C-8FE7-63F263430A84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92CD892B-9E97-499A-BC9A-61D4A9B5E0B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-4035" windowWidth="29040" windowHeight="15840" xr2:uid="{01F7A889-C794-47A9-89C3-7F43CBAA3EFF}"/>
   </bookViews>
@@ -992,11 +992,11 @@
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1323,8 +1323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0DD2CDF-28B5-4FF8-81AE-E2FDE175FB34}">
   <dimension ref="A1:P101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1786,7 +1786,7 @@
         <v>71</v>
       </c>
       <c r="F15" s="29"/>
-      <c r="H15" s="97"/>
+      <c r="H15" s="96"/>
       <c r="N15" s="87" t="s">
         <v>139</v>
       </c>
@@ -2475,7 +2475,7 @@
         <v>7</v>
       </c>
       <c r="B46" s="74">
-        <f t="shared" si="1"/>
+        <f>ROUND((C46/D46)*100, 2)</f>
         <v>69.33</v>
       </c>
       <c r="C46" s="1">
@@ -2490,45 +2490,45 @@
       <c r="F46" s="29"/>
     </row>
     <row r="47" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="77" t="s">
+      <c r="A47" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" s="76">
+        <f>ROUND((C47/D47)*100, 2)</f>
+        <v>57.69</v>
+      </c>
+      <c r="C47" s="1">
+        <v>45</v>
+      </c>
+      <c r="D47" s="1">
+        <v>78</v>
+      </c>
+      <c r="E47" s="1">
+        <v>86</v>
+      </c>
+      <c r="F47" s="29" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="B47" s="76">
-        <f t="shared" ref="B47" si="2">ROUND((C47/D47)*100, 2)</f>
+      <c r="B48" s="76">
+        <f>ROUND((C48/D48)*100, 2)</f>
         <v>56.76</v>
       </c>
-      <c r="C47" s="30">
+      <c r="C48" s="30">
         <v>21</v>
       </c>
-      <c r="D47" s="30">
+      <c r="D48" s="30">
         <v>37</v>
       </c>
-      <c r="E47" s="30">
+      <c r="E48" s="30">
         <v>11</v>
       </c>
-      <c r="F47" s="29" t="s">
+      <c r="F48" s="29" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="75" t="s">
-        <v>8</v>
-      </c>
-      <c r="B48" s="76">
-        <f t="shared" ref="B48:B53" si="3">ROUND((C48/D48)*100, 2)</f>
-        <v>56.41</v>
-      </c>
-      <c r="C48" s="1">
-        <v>44</v>
-      </c>
-      <c r="D48" s="1">
-        <v>78</v>
-      </c>
-      <c r="E48" s="1">
-        <v>77</v>
-      </c>
-      <c r="F48" s="29" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -2536,7 +2536,7 @@
         <v>16</v>
       </c>
       <c r="B49" s="76">
-        <f t="shared" si="3"/>
+        <f>ROUND((C49/D49)*100, 2)</f>
         <v>56.25</v>
       </c>
       <c r="C49" s="1">
@@ -2555,7 +2555,7 @@
         <v>32</v>
       </c>
       <c r="B50" s="12">
-        <f t="shared" si="3"/>
+        <f>ROUND((C50/D50)*100, 2)</f>
         <v>45.83</v>
       </c>
       <c r="C50" s="30">
@@ -2574,7 +2574,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="B48:B53" si="2">ROUND((C51/D51)*100, 2)</f>
         <v>43.66</v>
       </c>
       <c r="C51" s="30">
@@ -2595,7 +2595,7 @@
         <v>34</v>
       </c>
       <c r="B52" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7.69</v>
       </c>
       <c r="C52" s="30">
@@ -2613,7 +2613,7 @@
         <v>35</v>
       </c>
       <c r="B53" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.26</v>
       </c>
       <c r="C53" s="30">
@@ -2631,7 +2631,7 @@
         <v>15</v>
       </c>
       <c r="B54" s="13">
-        <f t="shared" ref="B54:B66" si="4">ROUND((C54/D54)*100, 2)</f>
+        <f t="shared" ref="B54:B66" si="3">ROUND((C54/D54)*100, 2)</f>
         <v>2.0699999999999998</v>
       </c>
       <c r="C54" s="1">
@@ -2652,7 +2652,7 @@
         <v>10</v>
       </c>
       <c r="B55" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C55" s="30">
@@ -2671,7 +2671,7 @@
         <v>11</v>
       </c>
       <c r="B56" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C56" s="30">
@@ -2690,7 +2690,7 @@
         <v>12</v>
       </c>
       <c r="B57" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C57" s="30">
@@ -2708,7 +2708,7 @@
         <v>9</v>
       </c>
       <c r="B58" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C58" s="1">
@@ -2727,7 +2727,7 @@
         <v>13</v>
       </c>
       <c r="B59" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C59" s="1">
@@ -2746,7 +2746,7 @@
         <v>17</v>
       </c>
       <c r="B60" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C60" s="1">
@@ -2765,7 +2765,7 @@
         <v>20</v>
       </c>
       <c r="B61" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C61" s="30">
@@ -2784,7 +2784,7 @@
         <v>21</v>
       </c>
       <c r="B62" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C62" s="30">
@@ -2802,7 +2802,7 @@
         <v>114</v>
       </c>
       <c r="B63" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C63" s="30">
@@ -2823,7 +2823,7 @@
         <v>111</v>
       </c>
       <c r="B64" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C64" s="30">
@@ -2842,7 +2842,7 @@
         <v>27</v>
       </c>
       <c r="B65" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C65" s="30">
@@ -2861,7 +2861,7 @@
         <v>144</v>
       </c>
       <c r="B66" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C66" s="30">
@@ -2880,7 +2880,7 @@
         <v>29</v>
       </c>
       <c r="B67" s="14">
-        <f t="shared" ref="B67:B78" si="5">ROUND((C67/D67)*100, 2)</f>
+        <f t="shared" ref="B67:B78" si="4">ROUND((C67/D67)*100, 2)</f>
         <v>0</v>
       </c>
       <c r="C67" s="30">
@@ -2899,7 +2899,7 @@
         <v>118</v>
       </c>
       <c r="B68" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C68" s="30">
@@ -2918,7 +2918,7 @@
         <v>36</v>
       </c>
       <c r="B69" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C69" s="30">
@@ -2937,7 +2937,7 @@
         <v>38</v>
       </c>
       <c r="B70" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C70" s="30">
@@ -2956,7 +2956,7 @@
         <v>42</v>
       </c>
       <c r="B71" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C71" s="30">
@@ -2975,7 +2975,7 @@
         <v>44</v>
       </c>
       <c r="B72" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C72" s="30">
@@ -2994,7 +2994,7 @@
         <v>46</v>
       </c>
       <c r="B73" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C73" s="30">
@@ -3013,7 +3013,7 @@
         <v>45</v>
       </c>
       <c r="B74" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C74" s="30">
@@ -3032,7 +3032,7 @@
         <v>113</v>
       </c>
       <c r="B75" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C75" s="30">
@@ -3051,7 +3051,7 @@
         <v>54</v>
       </c>
       <c r="B76" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C76" s="30">
@@ -3070,7 +3070,7 @@
         <v>56</v>
       </c>
       <c r="B77" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C77" s="30">
@@ -3089,7 +3089,7 @@
         <v>61</v>
       </c>
       <c r="B78" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C78" s="30">
@@ -3113,15 +3113,15 @@
       </c>
       <c r="C79" s="41">
         <f>SUM(C1:C78)</f>
-        <v>7956</v>
+        <v>7957</v>
       </c>
       <c r="D79" s="41">
-        <f t="shared" ref="D79:E79" si="6">SUM(D1:D78)</f>
+        <f t="shared" ref="D79:E79" si="5">SUM(D1:D78)</f>
         <v>9824</v>
       </c>
       <c r="E79" s="41">
-        <f t="shared" si="6"/>
-        <v>3512</v>
+        <f t="shared" si="5"/>
+        <v>3521</v>
       </c>
       <c r="F79" s="29" t="s">
         <v>103</v>
@@ -3164,7 +3164,7 @@
       </c>
       <c r="B82" s="36">
         <f>(C79/D79)*100</f>
-        <v>80.985342019543964</v>
+        <v>80.995521172638433</v>
       </c>
       <c r="E82" s="29"/>
       <c r="F82" s="29"/>
@@ -3175,11 +3175,11 @@
       </c>
       <c r="B83" s="41">
         <f>AVERAGEIF(B2:B78, "&gt;0")</f>
-        <v>87.711132075471696</v>
+        <v>87.735283018867918</v>
       </c>
       <c r="C83" s="41">
         <f>(C79/D80)*100</f>
-        <v>92.232784604683516</v>
+        <v>92.244377463482493</v>
       </c>
       <c r="D83" s="29" t="s">
         <v>123</v>
@@ -3195,11 +3195,11 @@
       </c>
     </row>
     <row r="85" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A85" s="96" t="s">
+      <c r="A85" s="97" t="s">
         <v>87</v>
       </c>
-      <c r="B85" s="96"/>
-      <c r="C85" s="96"/>
+      <c r="B85" s="97"/>
+      <c r="C85" s="97"/>
     </row>
     <row r="86" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="88" t="s">
@@ -3344,8 +3344,8 @@
       <c r="C101" s="29"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A40:F46">
-    <sortCondition descending="1" ref="B40:B46"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A46:G50">
+    <sortCondition descending="1" ref="B46:B50"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A85:C85"/>

--- a/Achievement Tracker.xlsx
+++ b/Achievement Tracker.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Data\AchievementTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92CD892B-9E97-499A-BC9A-61D4A9B5E0B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D136FC5-2C0F-472E-8F6C-6C258EDC13DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-4035" windowWidth="29040" windowHeight="15840" xr2:uid="{01F7A889-C794-47A9-89C3-7F43CBAA3EFF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="144">
   <si>
     <t>Name</t>
   </si>
@@ -363,9 +363,6 @@
   </si>
   <si>
     <t>&lt;- Total Achievements of only attempted games</t>
-  </si>
-  <si>
-    <t>Steam-limited game with low user count; achievements will not count on profile</t>
   </si>
   <si>
     <t>Game Dev Tycoon</t>
@@ -769,7 +766,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -927,12 +924,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1323,8 +1314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0DD2CDF-28B5-4FF8-81AE-E2FDE175FB34}">
   <dimension ref="A1:P101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F65" sqref="F65"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1438,7 +1429,7 @@
       <c r="H3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="84" t="s">
+      <c r="J3" s="82" t="s">
         <v>8</v>
       </c>
       <c r="L3" s="26" t="s">
@@ -1452,8 +1443,8 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="86" t="s">
-        <v>115</v>
+      <c r="A4" s="84" t="s">
+        <v>114</v>
       </c>
       <c r="B4" s="10">
         <f t="shared" si="0"/>
@@ -1469,19 +1460,19 @@
         <v>13</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H4" s="60" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J4" s="24" t="s">
         <v>16</v>
       </c>
       <c r="L4" s="26" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P4" s="18" t="s">
         <v>81</v>
@@ -1506,7 +1497,7 @@
       </c>
       <c r="F5" s="29"/>
       <c r="H5" s="60" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J5" s="24" t="s">
         <v>34</v>
@@ -1536,10 +1527,13 @@
         <v>1</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>144</v>
+        <v>143</v>
+      </c>
+      <c r="J6" s="24" t="s">
+        <v>49</v>
       </c>
       <c r="N6" s="8" t="s">
         <v>19</v>
@@ -1595,7 +1589,7 @@
       </c>
       <c r="F8" s="29"/>
       <c r="H8" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N8" s="8" t="s">
         <v>23</v>
@@ -1625,7 +1619,7 @@
         <v>73</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="N9" s="8" t="s">
         <v>24</v>
@@ -1654,8 +1648,8 @@
       <c r="F10" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="H10" s="25" t="s">
-        <v>44</v>
+      <c r="H10" s="60" t="s">
+        <v>112</v>
       </c>
       <c r="N10" s="8" t="s">
         <v>25</v>
@@ -1682,9 +1676,6 @@
         <v>6</v>
       </c>
       <c r="F11" s="29"/>
-      <c r="H11" s="60" t="s">
-        <v>113</v>
-      </c>
       <c r="N11" s="8" t="s">
         <v>26</v>
       </c>
@@ -1694,7 +1685,7 @@
     </row>
     <row r="12" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B12" s="10">
         <f t="shared" si="0"/>
@@ -1711,7 +1702,7 @@
       </c>
       <c r="F12" s="29"/>
       <c r="N12" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P12" s="17" t="s">
         <v>39</v>
@@ -1744,7 +1735,7 @@
     </row>
     <row r="14" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B14" s="10">
         <f t="shared" si="0"/>
@@ -1761,8 +1752,8 @@
       </c>
       <c r="F14" s="29"/>
       <c r="H14" s="1"/>
-      <c r="N14" s="87" t="s">
-        <v>138</v>
+      <c r="N14" s="85" t="s">
+        <v>137</v>
       </c>
       <c r="P14" s="17" t="s">
         <v>42</v>
@@ -1770,7 +1761,7 @@
     </row>
     <row r="15" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B15" s="10">
         <f t="shared" si="0"/>
@@ -1786,9 +1777,9 @@
         <v>71</v>
       </c>
       <c r="F15" s="29"/>
-      <c r="H15" s="96"/>
-      <c r="N15" s="87" t="s">
-        <v>139</v>
+      <c r="H15" s="94"/>
+      <c r="N15" s="85" t="s">
+        <v>138</v>
       </c>
       <c r="P15" s="18" t="s">
         <v>71</v>
@@ -1796,7 +1787,7 @@
     </row>
     <row r="16" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B16" s="10">
         <f t="shared" si="0"/>
@@ -1812,8 +1803,8 @@
         <v>50</v>
       </c>
       <c r="F16" s="29"/>
-      <c r="N16" s="87" t="s">
-        <v>140</v>
+      <c r="N16" s="85" t="s">
+        <v>139</v>
       </c>
       <c r="P16" s="17" t="s">
         <v>46</v>
@@ -1821,7 +1812,7 @@
     </row>
     <row r="17" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B17" s="10">
         <f t="shared" si="0"/>
@@ -1838,7 +1829,7 @@
       </c>
       <c r="F17" s="29"/>
       <c r="N17" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P17" s="17" t="s">
         <v>50</v>
@@ -1921,7 +1912,7 @@
     </row>
     <row r="21" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="68" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B21" s="10">
         <f t="shared" si="0"/>
@@ -1937,10 +1928,10 @@
         <v>1</v>
       </c>
       <c r="F21" s="29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N21" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
@@ -1969,7 +1960,7 @@
       <c r="A23" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="B23" s="89">
+      <c r="B23" s="87">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -2031,7 +2022,7 @@
         <v>558</v>
       </c>
       <c r="F25" s="29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N25" s="8" t="s">
         <v>47</v>
@@ -2239,7 +2230,7 @@
     </row>
     <row r="35" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B35" s="10">
         <f t="shared" si="0"/>
@@ -2256,7 +2247,7 @@
       </c>
       <c r="F35" s="29"/>
       <c r="N35" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
@@ -2353,7 +2344,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="11">
-        <f t="shared" ref="B40:B46" si="1">ROUND((C40/D40)*100, 2)</f>
+        <f t="shared" ref="B40" si="1">ROUND((C40/D40)*100, 2)</f>
         <v>94.1</v>
       </c>
       <c r="C40" s="30">
@@ -2366,15 +2357,15 @@
         <v>11</v>
       </c>
       <c r="F40" s="29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="95" t="s">
+      <c r="A41" s="93" t="s">
         <v>49</v>
       </c>
       <c r="B41" s="70">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B41:B69" si="2">ROUND((C41/D41)*100, 2)</f>
         <v>89.36</v>
       </c>
       <c r="C41" s="30">
@@ -2393,7 +2384,7 @@
         <v>14</v>
       </c>
       <c r="B42" s="70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>86.83</v>
       </c>
       <c r="C42" s="1">
@@ -2410,32 +2401,30 @@
       </c>
     </row>
     <row r="43" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="71" t="s">
+      <c r="A43" s="69" t="s">
         <v>98</v>
       </c>
-      <c r="B43" s="72">
-        <f t="shared" si="1"/>
+      <c r="B43" s="70">
+        <f t="shared" si="2"/>
         <v>84.62</v>
       </c>
-      <c r="C43" s="63">
+      <c r="C43" s="1">
         <v>33</v>
       </c>
-      <c r="D43" s="63">
+      <c r="D43" s="1">
         <v>39</v>
       </c>
-      <c r="E43" s="63">
-        <v>27</v>
-      </c>
-      <c r="F43" s="64" t="s">
-        <v>110</v>
-      </c>
+      <c r="E43" s="1">
+        <v>28</v>
+      </c>
+      <c r="F43" s="64"/>
     </row>
     <row r="44" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="69" t="s">
         <v>41</v>
       </c>
       <c r="B44" s="70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>83.78</v>
       </c>
       <c r="C44" s="30">
@@ -2450,11 +2439,11 @@
       <c r="F44" s="29"/>
     </row>
     <row r="45" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="92" t="s">
+      <c r="A45" s="90" t="s">
         <v>51</v>
       </c>
-      <c r="B45" s="93">
-        <f t="shared" si="1"/>
+      <c r="B45" s="91">
+        <f t="shared" si="2"/>
         <v>71.930000000000007</v>
       </c>
       <c r="C45" s="30">
@@ -2471,11 +2460,11 @@
       </c>
     </row>
     <row r="46" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="73" t="s">
+      <c r="A46" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="B46" s="74">
-        <f>ROUND((C46/D46)*100, 2)</f>
+      <c r="B46" s="72">
+        <f t="shared" si="2"/>
         <v>69.33</v>
       </c>
       <c r="C46" s="1">
@@ -2490,195 +2479,195 @@
       <c r="F46" s="29"/>
     </row>
     <row r="47" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="75" t="s">
+      <c r="A47" s="73" t="s">
+        <v>36</v>
+      </c>
+      <c r="B47" s="74">
+        <f t="shared" si="2"/>
+        <v>59.26</v>
+      </c>
+      <c r="C47" s="30">
+        <v>16</v>
+      </c>
+      <c r="D47" s="30">
+        <v>27</v>
+      </c>
+      <c r="E47" s="30">
+        <v>14</v>
+      </c>
+      <c r="F47" s="29"/>
+    </row>
+    <row r="48" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="B47" s="76">
-        <f>ROUND((C47/D47)*100, 2)</f>
+      <c r="B48" s="74">
+        <f t="shared" si="2"/>
         <v>57.69</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C48" s="1">
         <v>45</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D48" s="1">
         <v>78</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E48" s="1">
         <v>86</v>
       </c>
-      <c r="F47" s="29" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="77" t="s">
+      <c r="F48" s="29" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="B48" s="76">
-        <f>ROUND((C48/D48)*100, 2)</f>
+      <c r="B49" s="74">
+        <f t="shared" si="2"/>
         <v>56.76</v>
       </c>
-      <c r="C48" s="30">
+      <c r="C49" s="30">
         <v>21</v>
       </c>
-      <c r="D48" s="30">
+      <c r="D49" s="30">
         <v>37</v>
       </c>
-      <c r="E48" s="30">
+      <c r="E49" s="30">
         <v>11</v>
       </c>
-      <c r="F48" s="29" t="s">
+      <c r="F49" s="29" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A49" s="78" t="s">
+    <row r="50" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="B49" s="76">
-        <f>ROUND((C49/D49)*100, 2)</f>
+      <c r="B50" s="74">
+        <f t="shared" si="2"/>
         <v>56.25</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C50" s="1">
         <v>27</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D50" s="1">
         <v>48</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E50" s="1">
         <v>39</v>
-      </c>
-      <c r="F49" s="29"/>
-    </row>
-    <row r="50" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A50" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B50" s="12">
-        <f>ROUND((C50/D50)*100, 2)</f>
-        <v>45.83</v>
-      </c>
-      <c r="C50" s="30">
-        <v>11</v>
-      </c>
-      <c r="D50" s="30">
-        <v>24</v>
-      </c>
-      <c r="E50" s="30">
-        <v>4</v>
       </c>
       <c r="F50" s="29"/>
     </row>
     <row r="51" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B51" s="12">
+        <f t="shared" si="2"/>
+        <v>45.83</v>
+      </c>
+      <c r="C51" s="30">
+        <v>11</v>
+      </c>
+      <c r="D51" s="30">
+        <v>24</v>
+      </c>
+      <c r="E51" s="30">
+        <v>4</v>
+      </c>
+      <c r="F51" s="29"/>
+    </row>
+    <row r="52" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B51" s="12">
-        <f t="shared" ref="B48:B53" si="2">ROUND((C51/D51)*100, 2)</f>
+      <c r="B52" s="12">
+        <f t="shared" si="2"/>
         <v>43.66</v>
       </c>
-      <c r="C51" s="30">
+      <c r="C52" s="30">
         <v>93</v>
       </c>
-      <c r="D51" s="30">
+      <c r="D52" s="30">
         <v>213</v>
       </c>
-      <c r="E51" s="30">
+      <c r="E52" s="30">
         <v>38</v>
       </c>
-      <c r="F51" s="29" t="s">
+      <c r="F52" s="29" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A52" s="2" t="s">
+    <row r="53" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B52" s="13">
+      <c r="B53" s="13">
         <f t="shared" si="2"/>
         <v>7.69</v>
       </c>
-      <c r="C52" s="30">
+      <c r="C53" s="30">
         <v>4</v>
       </c>
-      <c r="D52" s="30">
+      <c r="D53" s="30">
         <v>52</v>
       </c>
-      <c r="E52" s="30">
+      <c r="E53" s="30">
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
+    <row r="54" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B53" s="13">
+      <c r="B54" s="13">
         <f t="shared" si="2"/>
         <v>5.26</v>
       </c>
-      <c r="C53" s="30">
+      <c r="C54" s="30">
         <v>2</v>
       </c>
-      <c r="D53" s="30">
+      <c r="D54" s="30">
         <v>38</v>
       </c>
-      <c r="E53" s="30">
+      <c r="E54" s="30">
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
+    <row r="55" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B54" s="13">
-        <f t="shared" ref="B54:B66" si="3">ROUND((C54/D54)*100, 2)</f>
+      <c r="B55" s="13">
+        <f t="shared" si="2"/>
         <v>2.0699999999999998</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C55" s="1">
         <v>4</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D55" s="1">
         <v>193</v>
       </c>
-      <c r="E54" s="1">
+      <c r="E55" s="1">
         <v>3</v>
       </c>
-      <c r="F54" s="29" t="s">
+      <c r="F55" s="29" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A55" s="31" t="s">
+    <row r="56" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A56" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B55" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="C55" s="30">
-        <v>0</v>
-      </c>
-      <c r="D55" s="30">
+      <c r="B56" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C56" s="30">
+        <v>0</v>
+      </c>
+      <c r="D56" s="30">
         <v>18</v>
-      </c>
-      <c r="E55" s="30">
-        <v>0</v>
-      </c>
-      <c r="F55" s="29"/>
-    </row>
-    <row r="56" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="B56" s="15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="C56" s="30">
-        <v>0</v>
-      </c>
-      <c r="D56" s="30">
-        <v>74</v>
       </c>
       <c r="E56" s="30">
         <v>0</v>
@@ -2687,54 +2676,54 @@
     </row>
     <row r="57" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C57" s="30">
+        <v>0</v>
+      </c>
+      <c r="D57" s="30">
+        <v>74</v>
+      </c>
+      <c r="E57" s="30">
+        <v>0</v>
+      </c>
+      <c r="F57" s="29"/>
+    </row>
+    <row r="58" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A58" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B57" s="15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="C57" s="30">
-        <v>0</v>
-      </c>
-      <c r="D57" s="30">
+      <c r="B58" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C58" s="30">
+        <v>0</v>
+      </c>
+      <c r="D58" s="30">
         <v>54</v>
       </c>
-      <c r="E57" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A58" s="6" t="s">
+      <c r="E58" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B58" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="C58" s="1">
-        <v>0</v>
-      </c>
-      <c r="D58" s="1">
+      <c r="B59" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C59" s="1">
+        <v>0</v>
+      </c>
+      <c r="D59" s="1">
         <v>63</v>
-      </c>
-      <c r="E58" s="1">
-        <v>0</v>
-      </c>
-      <c r="F58" s="29"/>
-    </row>
-    <row r="59" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A59" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B59" s="15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="C59" s="1">
-        <v>0</v>
-      </c>
-      <c r="D59" s="1">
-        <v>12</v>
       </c>
       <c r="E59" s="1">
         <v>0</v>
@@ -2743,17 +2732,17 @@
     </row>
     <row r="60" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B60" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C60" s="1">
         <v>0</v>
       </c>
       <c r="D60" s="1">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="E60" s="1">
         <v>0</v>
@@ -2762,132 +2751,132 @@
     </row>
     <row r="61" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B61" s="15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="C61" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C61" s="1">
         <v>0</v>
       </c>
       <c r="D61" s="1">
-        <v>170</v>
-      </c>
-      <c r="E61" s="30">
+        <v>54</v>
+      </c>
+      <c r="E61" s="1">
         <v>0</v>
       </c>
       <c r="F61" s="29"/>
     </row>
     <row r="62" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B62" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C62" s="30">
+        <v>0</v>
+      </c>
+      <c r="D62" s="1">
+        <v>170</v>
+      </c>
+      <c r="E62" s="30">
+        <v>0</v>
+      </c>
+      <c r="F62" s="29"/>
+    </row>
+    <row r="63" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A63" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B62" s="15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="C62" s="30">
-        <v>0</v>
-      </c>
-      <c r="D62" s="1">
+      <c r="B63" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C63" s="30">
+        <v>0</v>
+      </c>
+      <c r="D63" s="1">
         <v>33</v>
       </c>
-      <c r="E62" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A63" s="66" t="s">
-        <v>114</v>
-      </c>
-      <c r="B63" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="C63" s="30">
-        <v>0</v>
-      </c>
-      <c r="D63" s="30">
+      <c r="E63" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A64" s="66" t="s">
+        <v>113</v>
+      </c>
+      <c r="B64" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C64" s="30">
+        <v>0</v>
+      </c>
+      <c r="D64" s="30">
         <v>95</v>
       </c>
-      <c r="E63" s="30">
-        <v>0</v>
-      </c>
-      <c r="F63" s="29" t="s">
+      <c r="E64" s="30">
+        <v>0</v>
+      </c>
+      <c r="F64" s="29" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A64" s="65" t="s">
-        <v>111</v>
-      </c>
-      <c r="B64" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="C64" s="30">
-        <v>0</v>
-      </c>
-      <c r="D64" s="30">
+    <row r="65" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A65" s="65" t="s">
+        <v>110</v>
+      </c>
+      <c r="B65" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C65" s="30">
+        <v>0</v>
+      </c>
+      <c r="D65" s="30">
         <v>35</v>
       </c>
-      <c r="E64" s="30">
-        <v>0</v>
-      </c>
-      <c r="F64" s="29"/>
-    </row>
-    <row r="65" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A65" s="5" t="s">
+      <c r="E65" s="30">
+        <v>0</v>
+      </c>
+      <c r="F65" s="29"/>
+    </row>
+    <row r="66" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A66" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B65" s="15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="C65" s="30">
-        <v>0</v>
-      </c>
-      <c r="D65" s="30">
+      <c r="B66" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C66" s="30">
+        <v>0</v>
+      </c>
+      <c r="D66" s="30">
         <v>88</v>
       </c>
-      <c r="E65" s="30">
-        <v>0</v>
-      </c>
-      <c r="F65" s="29"/>
-    </row>
-    <row r="66" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A66" s="94" t="s">
-        <v>144</v>
-      </c>
-      <c r="B66" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="C66" s="30">
-        <v>0</v>
-      </c>
-      <c r="D66" s="30">
+      <c r="E66" s="30">
+        <v>0</v>
+      </c>
+      <c r="F66" s="29"/>
+    </row>
+    <row r="67" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A67" s="92" t="s">
+        <v>143</v>
+      </c>
+      <c r="B67" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C67" s="30">
+        <v>0</v>
+      </c>
+      <c r="D67" s="30">
         <v>14</v>
-      </c>
-      <c r="E66" s="30">
-        <v>0</v>
-      </c>
-      <c r="F66" s="29"/>
-    </row>
-    <row r="67" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A67" s="67" t="s">
-        <v>29</v>
-      </c>
-      <c r="B67" s="14">
-        <f t="shared" ref="B67:B78" si="4">ROUND((C67/D67)*100, 2)</f>
-        <v>0</v>
-      </c>
-      <c r="C67" s="30">
-        <v>0</v>
-      </c>
-      <c r="D67" s="30">
-        <v>13</v>
       </c>
       <c r="E67" s="30">
         <v>0</v>
@@ -2896,17 +2885,17 @@
     </row>
     <row r="68" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="67" t="s">
-        <v>118</v>
+        <v>29</v>
       </c>
       <c r="B68" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C68" s="30">
         <v>0</v>
       </c>
       <c r="D68" s="30">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="E68" s="30">
         <v>0</v>
@@ -2915,17 +2904,17 @@
     </row>
     <row r="69" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="67" t="s">
-        <v>36</v>
+        <v>117</v>
       </c>
       <c r="B69" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C69" s="30">
         <v>0</v>
       </c>
       <c r="D69" s="30">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="E69" s="30">
         <v>0</v>
@@ -2937,7 +2926,7 @@
         <v>38</v>
       </c>
       <c r="B70" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="B70:B78" si="3">ROUND((C70/D70)*100, 2)</f>
         <v>0</v>
       </c>
       <c r="C70" s="30">
@@ -2956,7 +2945,7 @@
         <v>42</v>
       </c>
       <c r="B71" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C71" s="30">
@@ -2975,7 +2964,7 @@
         <v>44</v>
       </c>
       <c r="B72" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C72" s="30">
@@ -2994,7 +2983,7 @@
         <v>46</v>
       </c>
       <c r="B73" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C73" s="30">
@@ -3013,7 +3002,7 @@
         <v>45</v>
       </c>
       <c r="B74" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C74" s="30">
@@ -3029,10 +3018,10 @@
     </row>
     <row r="75" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="65" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B75" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C75" s="30">
@@ -3051,7 +3040,7 @@
         <v>54</v>
       </c>
       <c r="B76" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C76" s="30">
@@ -3070,7 +3059,7 @@
         <v>56</v>
       </c>
       <c r="B77" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C77" s="30">
@@ -3089,7 +3078,7 @@
         <v>61</v>
       </c>
       <c r="B78" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C78" s="30">
@@ -3113,15 +3102,15 @@
       </c>
       <c r="C79" s="41">
         <f>SUM(C1:C78)</f>
-        <v>7957</v>
+        <v>7973</v>
       </c>
       <c r="D79" s="41">
-        <f t="shared" ref="D79:E79" si="5">SUM(D1:D78)</f>
+        <f t="shared" ref="D79:E79" si="4">SUM(D1:D78)</f>
         <v>9824</v>
       </c>
       <c r="E79" s="41">
-        <f t="shared" si="5"/>
-        <v>3521</v>
+        <f t="shared" si="4"/>
+        <v>3536</v>
       </c>
       <c r="F79" s="29" t="s">
         <v>103</v>
@@ -3133,12 +3122,12 @@
       </c>
       <c r="B80" s="40">
         <f>COUNTIF(B1:B78, "&gt;0")</f>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C80" s="29"/>
       <c r="D80" s="41">
         <f>SUM(D1:D54)</f>
-        <v>8626</v>
+        <v>8460</v>
       </c>
       <c r="E80" s="29" t="s">
         <v>109</v>
@@ -3160,11 +3149,11 @@
     </row>
     <row r="82" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="35" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B82" s="36">
         <f>(C79/D79)*100</f>
-        <v>80.995521172638433</v>
+        <v>81.158387622149846</v>
       </c>
       <c r="E82" s="29"/>
       <c r="F82" s="29"/>
@@ -3175,40 +3164,40 @@
       </c>
       <c r="B83" s="41">
         <f>AVERAGEIF(B2:B78, "&gt;0")</f>
-        <v>87.735283018867918</v>
+        <v>87.207962962962952</v>
       </c>
       <c r="C83" s="41">
         <f>(C79/D80)*100</f>
-        <v>92.244377463482493</v>
+        <v>94.243498817966895</v>
       </c>
       <c r="D83" s="29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B84" s="39">
         <f>ROUND(((B81/B80)*100), 2)</f>
-        <v>69.81</v>
+        <v>68.52</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A85" s="97" t="s">
+      <c r="A85" s="95" t="s">
         <v>87</v>
       </c>
-      <c r="B85" s="97"/>
-      <c r="C85" s="97"/>
+      <c r="B85" s="95"/>
+      <c r="C85" s="95"/>
     </row>
     <row r="86" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A86" s="88" t="s">
+      <c r="A86" s="86" t="s">
         <v>86</v>
       </c>
-      <c r="B86" s="85" t="s">
+      <c r="B86" s="83" t="s">
         <v>88</v>
       </c>
-      <c r="C86" s="85" t="s">
+      <c r="C86" s="83" t="s">
         <v>89</v>
       </c>
     </row>
@@ -3225,29 +3214,29 @@
     </row>
     <row r="88" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="43" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B88" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="C88" s="90" t="s">
+      <c r="C88" s="88" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A89" s="79" t="s">
-        <v>131</v>
+      <c r="A89" s="77" t="s">
+        <v>130</v>
       </c>
       <c r="B89" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="C89" s="91" t="s">
+      <c r="C89" s="89" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="44" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B90" s="57" t="s">
         <v>94</v>
@@ -3257,8 +3246,8 @@
       </c>
     </row>
     <row r="91" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A91" s="80" t="s">
-        <v>132</v>
+      <c r="A91" s="78" t="s">
+        <v>131</v>
       </c>
       <c r="B91" s="58" t="s">
         <v>97</v>
@@ -3266,8 +3255,8 @@
       <c r="C91" s="29"/>
     </row>
     <row r="92" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A92" s="81" t="s">
-        <v>129</v>
+      <c r="A92" s="79" t="s">
+        <v>128</v>
       </c>
       <c r="B92" s="55" t="s">
         <v>95</v>
@@ -3276,16 +3265,16 @@
     </row>
     <row r="93" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="45" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B93" s="61" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C93" s="29"/>
     </row>
     <row r="94" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A94" s="82" t="s">
-        <v>133</v>
+      <c r="A94" s="80" t="s">
+        <v>132</v>
       </c>
       <c r="B94" s="59" t="s">
         <v>108</v>
@@ -3293,8 +3282,8 @@
       <c r="C94" s="29"/>
     </row>
     <row r="95" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A95" s="83" t="s">
-        <v>134</v>
+      <c r="A95" s="81" t="s">
+        <v>133</v>
       </c>
       <c r="B95" s="60" t="s">
         <v>104</v>
@@ -3303,16 +3292,16 @@
     </row>
     <row r="96" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="46" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B96" s="62" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C96" s="29"/>
     </row>
     <row r="97" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" s="47" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B97" s="29"/>
       <c r="C97" s="29"/>
@@ -3344,8 +3333,8 @@
       <c r="C101" s="29"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A46:G50">
-    <sortCondition descending="1" ref="B46:B50"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="L2:L5">
+    <sortCondition ref="L1:L5"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A85:C85"/>

--- a/Achievement Tracker.xlsx
+++ b/Achievement Tracker.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Data\AchievementTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D136FC5-2C0F-472E-8F6C-6C258EDC13DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74055E32-8469-4BB4-840D-9E425B0E4E7D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-4035" windowWidth="29040" windowHeight="15840" xr2:uid="{01F7A889-C794-47A9-89C3-7F43CBAA3EFF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="149">
   <si>
     <t>Name</t>
   </si>
@@ -465,13 +465,28 @@
   </si>
   <si>
     <t>INSIDE</t>
+  </si>
+  <si>
+    <t>Disco Elysium</t>
+  </si>
+  <si>
+    <t>Metro 2033</t>
+  </si>
+  <si>
+    <t>Kingdom: Classic</t>
+  </si>
+  <si>
+    <t>Claimed in giveaway</t>
+  </si>
+  <si>
+    <t>Final Cut Edition releasing March, maybe new achievements</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -586,13 +601,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -766,7 +774,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -774,7 +782,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -979,7 +986,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -989,6 +995,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1312,10 +1319,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0DD2CDF-28B5-4FF8-81AE-E2FDE175FB34}">
-  <dimension ref="A1:P101"/>
+  <dimension ref="A1:P104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H74" sqref="H74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1336,49 +1343,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="16" t="s">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="21" t="s">
+      <c r="I1" s="19"/>
+      <c r="J1" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="K1" s="20"/>
-      <c r="L1" s="22" t="s">
+      <c r="K1" s="19"/>
+      <c r="L1" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="M1" s="20"/>
-      <c r="N1" s="9" t="s">
+      <c r="M1" s="19"/>
+      <c r="N1" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="O1" s="20"/>
-      <c r="P1" s="23" t="s">
+      <c r="O1" s="19"/>
+      <c r="P1" s="22" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="9">
         <f t="shared" ref="B2:B39" si="0">ROUND((C2/D2)*100, 2)</f>
         <v>100</v>
       </c>
@@ -1391,28 +1398,28 @@
       <c r="E2" s="1">
         <v>6</v>
       </c>
-      <c r="F2" s="29"/>
-      <c r="H2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="24" t="s">
+      <c r="F2" s="28"/>
+      <c r="H2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="26" t="s">
+      <c r="L2" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="18" t="s">
+      <c r="P2" s="17" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="9">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -1425,64 +1432,64 @@
       <c r="E3" s="1">
         <v>270</v>
       </c>
-      <c r="F3" s="29"/>
-      <c r="H3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="82" t="s">
+      <c r="F3" s="28"/>
+      <c r="H3" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="J3" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="26" t="s">
+      <c r="L3" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="N3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="18" t="s">
+      <c r="P3" s="17" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="83" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="10">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="C4" s="30">
+      <c r="B4" s="9">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="C4" s="29">
         <v>19</v>
       </c>
-      <c r="D4" s="30">
+      <c r="D4" s="29">
         <v>19</v>
       </c>
-      <c r="E4" s="30">
+      <c r="E4" s="29">
         <v>13</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="H4" s="60" t="s">
+      <c r="H4" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="J4" s="24" t="s">
+      <c r="J4" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="26" t="s">
+      <c r="L4" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="N4" s="8" t="s">
+      <c r="N4" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P4" s="18" t="s">
+      <c r="P4" s="17" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="9">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -1495,25 +1502,25 @@
       <c r="E5" s="1">
         <v>5</v>
       </c>
-      <c r="F5" s="29"/>
-      <c r="H5" s="60" t="s">
+      <c r="F5" s="28"/>
+      <c r="H5" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="J5" s="24" t="s">
+      <c r="J5" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="N5" s="8" t="s">
+      <c r="N5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="P5" s="34" t="s">
+      <c r="P5" s="33" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="9">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -1526,27 +1533,27 @@
       <c r="E6" s="1">
         <v>1</v>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="F6" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="H6" s="25" t="s">
+      <c r="H6" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="J6" s="24" t="s">
+      <c r="J6" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="N6" s="8" t="s">
+      <c r="N6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="P6" s="17" t="s">
+      <c r="P6" s="16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="9">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -1556,25 +1563,25 @@
       <c r="D7" s="1">
         <v>13</v>
       </c>
-      <c r="E7" s="30">
+      <c r="E7" s="29">
         <v>5</v>
       </c>
-      <c r="F7" s="29"/>
-      <c r="H7" s="25" t="s">
+      <c r="F7" s="28"/>
+      <c r="H7" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="N7" s="8" t="s">
+      <c r="N7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="P7" s="17" t="s">
+      <c r="P7" s="16" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="9">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -1584,25 +1591,25 @@
       <c r="D8" s="1">
         <v>25</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="29">
         <v>17</v>
       </c>
-      <c r="F8" s="29"/>
-      <c r="H8" s="25" t="s">
+      <c r="F8" s="28"/>
+      <c r="H8" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="N8" s="8" t="s">
+      <c r="N8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="P8" s="17" t="s">
+      <c r="P8" s="16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="9">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -1615,775 +1622,775 @@
       <c r="E9" s="1">
         <v>2</v>
       </c>
-      <c r="F9" s="29" t="s">
+      <c r="F9" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="H9" s="25" t="s">
+      <c r="H9" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="N9" s="8" t="s">
+      <c r="N9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="P9" s="17" t="s">
+      <c r="P9" s="16" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="10">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="C10" s="30">
+      <c r="B10" s="9">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="C10" s="29">
         <v>14</v>
       </c>
-      <c r="D10" s="30">
+      <c r="D10" s="29">
         <v>14</v>
       </c>
-      <c r="E10" s="30">
+      <c r="E10" s="29">
         <v>7</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="F10" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="H10" s="60" t="s">
+      <c r="H10" s="59" t="s">
         <v>112</v>
       </c>
-      <c r="N10" s="8" t="s">
+      <c r="N10" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="P10" s="17" t="s">
+      <c r="P10" s="16" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="10">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="C11" s="30">
+      <c r="B11" s="9">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="C11" s="29">
         <v>1</v>
       </c>
-      <c r="D11" s="30">
+      <c r="D11" s="29">
         <v>1</v>
       </c>
-      <c r="E11" s="30">
+      <c r="E11" s="29">
         <v>6</v>
       </c>
-      <c r="F11" s="29"/>
-      <c r="N11" s="8" t="s">
+      <c r="F11" s="28"/>
+      <c r="N11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="P11" s="17" t="s">
+      <c r="P11" s="16" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B12" s="10">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="C12" s="30">
+      <c r="B12" s="9">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="C12" s="29">
         <v>41</v>
       </c>
-      <c r="D12" s="30">
+      <c r="D12" s="29">
         <v>41</v>
       </c>
-      <c r="E12" s="30">
+      <c r="E12" s="29">
         <v>39</v>
       </c>
-      <c r="F12" s="29"/>
-      <c r="N12" s="8" t="s">
+      <c r="F12" s="28"/>
+      <c r="N12" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="P12" s="17" t="s">
+      <c r="P12" s="16" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="10">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="C13" s="30">
+      <c r="B13" s="9">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="C13" s="29">
         <v>66</v>
       </c>
-      <c r="D13" s="30">
+      <c r="D13" s="29">
         <v>66</v>
       </c>
-      <c r="E13" s="30">
+      <c r="E13" s="29">
         <v>75</v>
       </c>
-      <c r="F13" s="29"/>
-      <c r="N13" s="8" t="s">
+      <c r="F13" s="28"/>
+      <c r="N13" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="P13" s="17" t="s">
+      <c r="P13" s="16" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B14" s="10">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="C14" s="30">
+      <c r="B14" s="9">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="C14" s="29">
         <v>74</v>
       </c>
-      <c r="D14" s="30">
+      <c r="D14" s="29">
         <v>74</v>
       </c>
-      <c r="E14" s="30">
+      <c r="E14" s="29">
         <v>42</v>
       </c>
-      <c r="F14" s="29"/>
+      <c r="F14" s="28"/>
       <c r="H14" s="1"/>
-      <c r="N14" s="85" t="s">
+      <c r="N14" s="84" t="s">
         <v>137</v>
       </c>
-      <c r="P14" s="17" t="s">
+      <c r="P14" s="16" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="B15" s="10">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="C15" s="30">
+      <c r="B15" s="9">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="C15" s="29">
         <v>85</v>
       </c>
-      <c r="D15" s="30">
+      <c r="D15" s="29">
         <v>85</v>
       </c>
-      <c r="E15" s="30">
+      <c r="E15" s="29">
         <v>71</v>
       </c>
-      <c r="F15" s="29"/>
-      <c r="H15" s="94"/>
-      <c r="N15" s="85" t="s">
+      <c r="F15" s="28"/>
+      <c r="H15" s="92"/>
+      <c r="N15" s="84" t="s">
         <v>138</v>
       </c>
-      <c r="P15" s="18" t="s">
+      <c r="P15" s="17" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="B16" s="10">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="C16" s="30">
+      <c r="B16" s="9">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="C16" s="29">
         <v>83</v>
       </c>
-      <c r="D16" s="30">
+      <c r="D16" s="29">
         <v>83</v>
       </c>
-      <c r="E16" s="30">
+      <c r="E16" s="29">
         <v>50</v>
       </c>
-      <c r="F16" s="29"/>
-      <c r="N16" s="85" t="s">
+      <c r="F16" s="28"/>
+      <c r="N16" s="84" t="s">
         <v>139</v>
       </c>
-      <c r="P16" s="17" t="s">
+      <c r="P16" s="16" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="B17" s="10">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="C17" s="30">
+      <c r="B17" s="9">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="C17" s="29">
         <v>70</v>
       </c>
-      <c r="D17" s="30">
+      <c r="D17" s="29">
         <v>70</v>
       </c>
-      <c r="E17" s="30">
+      <c r="E17" s="29">
         <v>60</v>
       </c>
-      <c r="F17" s="29"/>
-      <c r="N17" s="8" t="s">
+      <c r="F17" s="28"/>
+      <c r="N17" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="P17" s="17" t="s">
+      <c r="P17" s="16" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="10">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="C18" s="30">
+      <c r="B18" s="9">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="C18" s="29">
         <v>33</v>
       </c>
-      <c r="D18" s="30">
+      <c r="D18" s="29">
         <v>33</v>
       </c>
-      <c r="E18" s="30">
+      <c r="E18" s="29">
         <v>3</v>
       </c>
-      <c r="F18" s="29"/>
-      <c r="N18" s="8" t="s">
+      <c r="F18" s="28"/>
+      <c r="N18" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="P18" s="33" t="s">
+      <c r="P18" s="32" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="10">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="C19" s="30">
+      <c r="B19" s="9">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="C19" s="29">
         <v>49</v>
       </c>
-      <c r="D19" s="30">
+      <c r="D19" s="29">
         <v>49</v>
       </c>
-      <c r="E19" s="30">
+      <c r="E19" s="29">
         <v>71</v>
       </c>
-      <c r="F19" s="29"/>
-      <c r="N19" s="8" t="s">
+      <c r="F19" s="28"/>
+      <c r="N19" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="P19" s="17" t="s">
+      <c r="P19" s="16" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="10">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="C20" s="30">
+      <c r="B20" s="9">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="C20" s="29">
         <v>74</v>
       </c>
-      <c r="D20" s="30">
+      <c r="D20" s="29">
         <v>74</v>
       </c>
-      <c r="E20" s="30">
+      <c r="E20" s="29">
         <v>51</v>
       </c>
-      <c r="F20" s="29"/>
-      <c r="N20" s="8" t="s">
+      <c r="F20" s="28"/>
+      <c r="N20" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="P20" s="17" t="s">
+      <c r="P20" s="16" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="68" t="s">
+      <c r="A21" s="67" t="s">
         <v>115</v>
       </c>
-      <c r="B21" s="10">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="C21" s="30">
+      <c r="B21" s="9">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="C21" s="29">
         <v>251</v>
       </c>
-      <c r="D21" s="30">
+      <c r="D21" s="29">
         <v>251</v>
       </c>
-      <c r="E21" s="30">
+      <c r="E21" s="29">
         <v>1</v>
       </c>
-      <c r="F21" s="29" t="s">
+      <c r="F21" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="N21" s="8" t="s">
+      <c r="N21" s="7" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="10">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="C22" s="30">
+      <c r="B22" s="9">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="C22" s="29">
         <v>13</v>
       </c>
-      <c r="D22" s="30">
+      <c r="D22" s="29">
         <v>13</v>
       </c>
-      <c r="E22" s="30">
+      <c r="E22" s="29">
         <v>8</v>
       </c>
-      <c r="F22" s="29"/>
-      <c r="N22" s="8" t="s">
+      <c r="F22" s="28"/>
+      <c r="N22" s="7" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="51" t="s">
+      <c r="A23" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="B23" s="87">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="C23" s="63">
+      <c r="B23" s="86">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="C23" s="62">
         <v>74</v>
       </c>
-      <c r="D23" s="63">
+      <c r="D23" s="62">
         <v>74</v>
       </c>
-      <c r="E23" s="63">
+      <c r="E23" s="62">
         <v>2</v>
       </c>
-      <c r="F23" s="63" t="s">
+      <c r="F23" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="N23" s="8" t="s">
+      <c r="N23" s="7" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="52" t="s">
+      <c r="A24" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="10">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="C24" s="30">
+      <c r="B24" s="9">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="C24" s="29">
         <v>466</v>
       </c>
-      <c r="D24" s="30">
+      <c r="D24" s="29">
         <v>466</v>
       </c>
-      <c r="E24" s="30">
+      <c r="E24" s="29">
         <v>2</v>
       </c>
-      <c r="F24" s="29" t="s">
+      <c r="F24" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="N24" s="8" t="s">
+      <c r="N24" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="10">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="C25" s="30">
+      <c r="B25" s="9">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="C25" s="29">
         <v>88</v>
       </c>
-      <c r="D25" s="30">
+      <c r="D25" s="29">
         <v>88</v>
       </c>
-      <c r="E25" s="30">
+      <c r="E25" s="29">
         <v>558</v>
       </c>
-      <c r="F25" s="29" t="s">
+      <c r="F25" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="N25" s="8" t="s">
+      <c r="N25" s="7" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="10">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="C26" s="30">
+      <c r="B26" s="9">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="C26" s="29">
         <v>28</v>
       </c>
-      <c r="D26" s="30">
+      <c r="D26" s="29">
         <v>28</v>
       </c>
-      <c r="E26" s="30">
+      <c r="E26" s="29">
         <v>5</v>
       </c>
-      <c r="F26" s="29"/>
-      <c r="N26" s="8" t="s">
+      <c r="F26" s="28"/>
+      <c r="N26" s="7" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="10">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="C27" s="30">
+      <c r="B27" s="9">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="C27" s="29">
         <v>1</v>
       </c>
-      <c r="D27" s="30">
+      <c r="D27" s="29">
         <v>1</v>
       </c>
-      <c r="E27" s="30">
+      <c r="E27" s="29">
         <v>1</v>
       </c>
-      <c r="F27" s="29" t="s">
+      <c r="F27" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="N27" s="8" t="s">
+      <c r="N27" s="7" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B28" s="10">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="C28" s="30">
+      <c r="B28" s="9">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="C28" s="29">
         <v>24</v>
       </c>
-      <c r="D28" s="30">
+      <c r="D28" s="29">
         <v>24</v>
       </c>
-      <c r="E28" s="30">
+      <c r="E28" s="29">
         <v>5</v>
       </c>
-      <c r="F28" s="29"/>
-      <c r="N28" s="8" t="s">
+      <c r="F28" s="28"/>
+      <c r="N28" s="7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="10">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="C29" s="30">
+      <c r="B29" s="9">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="C29" s="29">
         <v>48</v>
       </c>
-      <c r="D29" s="30">
+      <c r="D29" s="29">
         <v>48</v>
       </c>
-      <c r="E29" s="30">
+      <c r="E29" s="29">
         <v>16</v>
       </c>
-      <c r="F29" s="29"/>
-      <c r="N29" s="8" t="s">
+      <c r="F29" s="28"/>
+      <c r="N29" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B30" s="10">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="C30" s="30">
+      <c r="B30" s="9">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="C30" s="29">
         <v>30</v>
       </c>
-      <c r="D30" s="30">
+      <c r="D30" s="29">
         <v>30</v>
       </c>
-      <c r="E30" s="30">
+      <c r="E30" s="29">
         <v>12</v>
       </c>
-      <c r="F30" s="29"/>
-      <c r="N30" s="8" t="s">
+      <c r="F30" s="28"/>
+      <c r="N30" s="7" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="10">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="C31" s="30">
+      <c r="B31" s="9">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="C31" s="29">
         <v>40</v>
       </c>
-      <c r="D31" s="30">
+      <c r="D31" s="29">
         <v>40</v>
       </c>
-      <c r="E31" s="30">
+      <c r="E31" s="29">
         <v>12</v>
       </c>
-      <c r="F31" s="29"/>
-      <c r="N31" s="8" t="s">
+      <c r="F31" s="28"/>
+      <c r="N31" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="10">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="C32" s="30">
+      <c r="B32" s="9">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="C32" s="29">
         <v>48</v>
       </c>
-      <c r="D32" s="30">
+      <c r="D32" s="29">
         <v>48</v>
       </c>
-      <c r="E32" s="30">
+      <c r="E32" s="29">
         <v>30</v>
       </c>
-      <c r="F32" s="29"/>
-      <c r="N32" s="8" t="s">
+      <c r="F32" s="28"/>
+      <c r="N32" s="7" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="10">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="C33" s="30">
+      <c r="B33" s="9">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="C33" s="29">
         <v>78</v>
       </c>
-      <c r="D33" s="30">
+      <c r="D33" s="29">
         <v>78</v>
       </c>
-      <c r="E33" s="30">
+      <c r="E33" s="29">
         <v>201</v>
       </c>
-      <c r="F33" s="29"/>
-      <c r="N33" s="8" t="s">
+      <c r="F33" s="28"/>
+      <c r="N33" s="7" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B34" s="10">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="C34" s="30">
+      <c r="B34" s="9">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="C34" s="29">
         <v>35</v>
       </c>
-      <c r="D34" s="30">
+      <c r="D34" s="29">
         <v>35</v>
       </c>
-      <c r="E34" s="30">
+      <c r="E34" s="29">
         <v>14</v>
       </c>
-      <c r="F34" s="29"/>
-      <c r="N34" s="8" t="s">
+      <c r="F34" s="28"/>
+      <c r="N34" s="7" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B35" s="10">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="C35" s="30">
+      <c r="B35" s="9">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="C35" s="29">
         <v>10</v>
       </c>
-      <c r="D35" s="30">
+      <c r="D35" s="29">
         <v>10</v>
       </c>
-      <c r="E35" s="30">
+      <c r="E35" s="29">
         <v>75</v>
       </c>
-      <c r="F35" s="29"/>
-      <c r="N35" s="8" t="s">
+      <c r="F35" s="28"/>
+      <c r="N35" s="7" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B36" s="10">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="C36" s="30">
+      <c r="B36" s="9">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="C36" s="29">
         <v>55</v>
       </c>
-      <c r="D36" s="30">
+      <c r="D36" s="29">
         <v>55</v>
       </c>
-      <c r="E36" s="30">
+      <c r="E36" s="29">
         <v>110</v>
       </c>
-      <c r="F36" s="29"/>
-      <c r="N36" s="8" t="s">
+      <c r="F36" s="28"/>
+      <c r="N36" s="7" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="52" t="s">
+      <c r="A37" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="B37" s="10">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="C37" s="30">
+      <c r="B37" s="9">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="C37" s="29">
         <v>1877</v>
       </c>
-      <c r="D37" s="30">
+      <c r="D37" s="29">
         <v>1877</v>
       </c>
-      <c r="E37" s="30">
+      <c r="E37" s="29">
         <v>1</v>
       </c>
-      <c r="F37" s="29" t="s">
+      <c r="F37" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="N37" s="8" t="s">
+      <c r="N37" s="7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B38" s="10">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="C38" s="30">
+      <c r="B38" s="9">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="C38" s="29">
         <v>1708</v>
       </c>
-      <c r="D38" s="30">
+      <c r="D38" s="29">
         <v>1708</v>
       </c>
-      <c r="E38" s="30">
+      <c r="E38" s="29">
         <v>2</v>
       </c>
-      <c r="F38" s="29"/>
-      <c r="N38" s="8" t="s">
+      <c r="F38" s="28"/>
+      <c r="N38" s="7" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="53" t="s">
+      <c r="A39" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="B39" s="11">
+      <c r="B39" s="10">
         <f t="shared" si="0"/>
         <v>94.81</v>
       </c>
-      <c r="C39" s="30">
+      <c r="C39" s="29">
         <v>493</v>
       </c>
-      <c r="D39" s="30">
+      <c r="D39" s="29">
         <v>520</v>
       </c>
-      <c r="E39" s="30">
+      <c r="E39" s="29">
         <v>260</v>
       </c>
-      <c r="F39" s="29" t="s">
+      <c r="F39" s="28" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="28" t="s">
+      <c r="A40" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="11">
+      <c r="B40" s="10">
         <f t="shared" ref="B40" si="1">ROUND((C40/D40)*100, 2)</f>
         <v>94.1</v>
       </c>
-      <c r="C40" s="30">
+      <c r="C40" s="29">
         <v>1149</v>
       </c>
-      <c r="D40" s="30">
+      <c r="D40" s="29">
         <v>1221</v>
       </c>
-      <c r="E40" s="30">
+      <c r="E40" s="29">
         <v>11</v>
       </c>
-      <c r="F40" s="29" t="s">
+      <c r="F40" s="28" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="93" t="s">
+      <c r="A41" s="91" t="s">
         <v>49</v>
       </c>
-      <c r="B41" s="70">
-        <f t="shared" ref="B41:B69" si="2">ROUND((C41/D41)*100, 2)</f>
+      <c r="B41" s="69">
+        <f t="shared" ref="B41:B72" si="2">ROUND((C41/D41)*100, 2)</f>
         <v>89.36</v>
       </c>
-      <c r="C41" s="30">
+      <c r="C41" s="29">
         <v>42</v>
       </c>
-      <c r="D41" s="30">
+      <c r="D41" s="29">
         <v>47</v>
       </c>
-      <c r="E41" s="30">
+      <c r="E41" s="29">
         <v>37</v>
       </c>
-      <c r="F41" s="29"/>
+      <c r="F41" s="28"/>
     </row>
     <row r="42" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="69" t="s">
+      <c r="A42" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="B42" s="70">
+      <c r="B42" s="69">
         <f t="shared" si="2"/>
         <v>86.83</v>
       </c>
@@ -2396,15 +2403,15 @@
       <c r="E42" s="1">
         <v>203</v>
       </c>
-      <c r="F42" s="29" t="s">
+      <c r="F42" s="28" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="69" t="s">
+      <c r="A43" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="B43" s="70">
+      <c r="B43" s="69">
         <f t="shared" si="2"/>
         <v>84.62</v>
       </c>
@@ -2417,53 +2424,53 @@
       <c r="E43" s="1">
         <v>28</v>
       </c>
-      <c r="F43" s="64"/>
+      <c r="F43" s="63"/>
     </row>
     <row r="44" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="69" t="s">
+      <c r="A44" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="B44" s="70">
+      <c r="B44" s="69">
         <f t="shared" si="2"/>
         <v>83.78</v>
       </c>
-      <c r="C44" s="30">
+      <c r="C44" s="29">
         <v>31</v>
       </c>
-      <c r="D44" s="30">
+      <c r="D44" s="29">
         <v>37</v>
       </c>
-      <c r="E44" s="30">
+      <c r="E44" s="29">
         <v>556</v>
       </c>
-      <c r="F44" s="29"/>
+      <c r="F44" s="28"/>
     </row>
     <row r="45" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="90" t="s">
+      <c r="A45" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="B45" s="91">
+      <c r="B45" s="90">
         <f t="shared" si="2"/>
         <v>71.930000000000007</v>
       </c>
-      <c r="C45" s="30">
+      <c r="C45" s="29">
         <v>82</v>
       </c>
-      <c r="D45" s="30">
+      <c r="D45" s="29">
         <v>114</v>
       </c>
-      <c r="E45" s="30">
+      <c r="E45" s="29">
         <v>320</v>
       </c>
-      <c r="F45" s="29" t="s">
+      <c r="F45" s="28" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="71" t="s">
+      <c r="A46" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="B46" s="72">
+      <c r="B46" s="71">
         <f t="shared" si="2"/>
         <v>69.33</v>
       </c>
@@ -2476,32 +2483,32 @@
       <c r="E46" s="1">
         <v>72</v>
       </c>
-      <c r="F46" s="29"/>
+      <c r="F46" s="28"/>
     </row>
     <row r="47" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="73" t="s">
+      <c r="A47" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="B47" s="74">
+      <c r="B47" s="73">
         <f t="shared" si="2"/>
         <v>59.26</v>
       </c>
-      <c r="C47" s="30">
+      <c r="C47" s="29">
         <v>16</v>
       </c>
-      <c r="D47" s="30">
+      <c r="D47" s="29">
         <v>27</v>
       </c>
-      <c r="E47" s="30">
+      <c r="E47" s="29">
         <v>14</v>
       </c>
-      <c r="F47" s="29"/>
+      <c r="F47" s="28"/>
     </row>
     <row r="48" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="73" t="s">
+      <c r="A48" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="B48" s="74">
+      <c r="B48" s="73">
         <f t="shared" si="2"/>
         <v>57.69</v>
       </c>
@@ -2514,36 +2521,36 @@
       <c r="E48" s="1">
         <v>86</v>
       </c>
-      <c r="F48" s="29" t="s">
+      <c r="F48" s="28" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A49" s="75" t="s">
+      <c r="A49" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="B49" s="74">
+      <c r="B49" s="73">
         <f t="shared" si="2"/>
         <v>56.76</v>
       </c>
-      <c r="C49" s="30">
+      <c r="C49" s="29">
         <v>21</v>
       </c>
-      <c r="D49" s="30">
+      <c r="D49" s="29">
         <v>37</v>
       </c>
-      <c r="E49" s="30">
+      <c r="E49" s="29">
         <v>11</v>
       </c>
-      <c r="F49" s="29" t="s">
+      <c r="F49" s="28" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A50" s="76" t="s">
+      <c r="A50" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="B50" s="74">
+      <c r="B50" s="73">
         <f t="shared" si="2"/>
         <v>56.25</v>
       </c>
@@ -2556,45 +2563,45 @@
       <c r="E50" s="1">
         <v>39</v>
       </c>
-      <c r="F50" s="29"/>
+      <c r="F50" s="28"/>
     </row>
     <row r="51" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B51" s="12">
+      <c r="B51" s="11">
         <f t="shared" si="2"/>
         <v>45.83</v>
       </c>
-      <c r="C51" s="30">
+      <c r="C51" s="29">
         <v>11</v>
       </c>
-      <c r="D51" s="30">
+      <c r="D51" s="29">
         <v>24</v>
       </c>
-      <c r="E51" s="30">
+      <c r="E51" s="29">
         <v>4</v>
       </c>
-      <c r="F51" s="29"/>
+      <c r="F51" s="28"/>
     </row>
     <row r="52" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B52" s="12">
+      <c r="B52" s="11">
         <f t="shared" si="2"/>
         <v>43.66</v>
       </c>
-      <c r="C52" s="30">
+      <c r="C52" s="29">
         <v>93</v>
       </c>
-      <c r="D52" s="30">
+      <c r="D52" s="29">
         <v>213</v>
       </c>
-      <c r="E52" s="30">
+      <c r="E52" s="29">
         <v>38</v>
       </c>
-      <c r="F52" s="29" t="s">
+      <c r="F52" s="28" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2602,17 +2609,17 @@
       <c r="A53" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B53" s="13">
+      <c r="B53" s="12">
         <f t="shared" si="2"/>
         <v>7.69</v>
       </c>
-      <c r="C53" s="30">
+      <c r="C53" s="29">
         <v>4</v>
       </c>
-      <c r="D53" s="30">
+      <c r="D53" s="29">
         <v>52</v>
       </c>
-      <c r="E53" s="30">
+      <c r="E53" s="29">
         <v>2</v>
       </c>
     </row>
@@ -2620,17 +2627,17 @@
       <c r="A54" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B54" s="13">
+      <c r="B54" s="12">
         <f t="shared" si="2"/>
         <v>5.26</v>
       </c>
-      <c r="C54" s="30">
+      <c r="C54" s="29">
         <v>2</v>
       </c>
-      <c r="D54" s="30">
+      <c r="D54" s="29">
         <v>38</v>
       </c>
-      <c r="E54" s="30">
+      <c r="E54" s="29">
         <v>3</v>
       </c>
     </row>
@@ -2638,7 +2645,7 @@
       <c r="A55" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B55" s="13">
+      <c r="B55" s="12">
         <f t="shared" si="2"/>
         <v>2.0699999999999998</v>
       </c>
@@ -2651,7 +2658,7 @@
       <c r="E55" s="1">
         <v>3</v>
       </c>
-      <c r="F55" s="29" t="s">
+      <c r="F55" s="28" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2663,59 +2670,59 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="C56" s="30">
-        <v>0</v>
-      </c>
-      <c r="D56" s="30">
+      <c r="C56" s="29">
+        <v>0</v>
+      </c>
+      <c r="D56" s="29">
         <v>18</v>
       </c>
-      <c r="E56" s="30">
-        <v>0</v>
-      </c>
-      <c r="F56" s="29"/>
+      <c r="E56" s="29">
+        <v>0</v>
+      </c>
+      <c r="F56" s="28"/>
     </row>
     <row r="57" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A57" s="32" t="s">
+      <c r="A57" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B57" s="15">
+      <c r="B57" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="C57" s="30">
-        <v>0</v>
-      </c>
-      <c r="D57" s="30">
+      <c r="C57" s="29">
+        <v>0</v>
+      </c>
+      <c r="D57" s="29">
         <v>74</v>
       </c>
-      <c r="E57" s="30">
-        <v>0</v>
-      </c>
-      <c r="F57" s="29"/>
+      <c r="E57" s="29">
+        <v>0</v>
+      </c>
+      <c r="F57" s="28"/>
     </row>
     <row r="58" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A58" s="32" t="s">
+      <c r="A58" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B58" s="15">
+      <c r="B58" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="C58" s="30">
-        <v>0</v>
-      </c>
-      <c r="D58" s="30">
+      <c r="C58" s="29">
+        <v>0</v>
+      </c>
+      <c r="D58" s="29">
         <v>54</v>
       </c>
-      <c r="E58" s="30">
+      <c r="E58" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A59" s="6" t="s">
+      <c r="A59" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B59" s="14">
+      <c r="B59" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2728,13 +2735,13 @@
       <c r="E59" s="1">
         <v>0</v>
       </c>
-      <c r="F59" s="29"/>
+      <c r="F59" s="28"/>
     </row>
     <row r="60" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A60" s="5" t="s">
+      <c r="A60" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B60" s="15">
+      <c r="B60" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2747,13 +2754,13 @@
       <c r="E60" s="1">
         <v>0</v>
       </c>
-      <c r="F60" s="29"/>
+      <c r="F60" s="28"/>
     </row>
     <row r="61" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A61" s="5" t="s">
+      <c r="A61" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B61" s="15">
+      <c r="B61" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2766,578 +2773,639 @@
       <c r="E61" s="1">
         <v>0</v>
       </c>
-      <c r="F61" s="29"/>
+      <c r="F61" s="28"/>
     </row>
     <row r="62" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A62" s="5" t="s">
+      <c r="A62" s="65" t="s">
+        <v>144</v>
+      </c>
+      <c r="B62" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C62" s="1">
+        <v>0</v>
+      </c>
+      <c r="D62" s="1">
+        <v>25</v>
+      </c>
+      <c r="E62" s="1">
+        <v>0</v>
+      </c>
+      <c r="F62" s="28" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A63" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B62" s="15">
+      <c r="B63" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="C62" s="30">
-        <v>0</v>
-      </c>
-      <c r="D62" s="1">
+      <c r="C63" s="29">
+        <v>0</v>
+      </c>
+      <c r="D63" s="1">
         <v>170</v>
       </c>
-      <c r="E62" s="30">
-        <v>0</v>
-      </c>
-      <c r="F62" s="29"/>
-    </row>
-    <row r="63" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A63" s="5" t="s">
+      <c r="E63" s="29">
+        <v>0</v>
+      </c>
+      <c r="F63" s="28"/>
+    </row>
+    <row r="64" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A64" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="B63" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C63" s="30">
-        <v>0</v>
-      </c>
-      <c r="D63" s="1">
-        <v>33</v>
-      </c>
-      <c r="E63" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A64" s="66" t="s">
-        <v>113</v>
       </c>
       <c r="B64" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="C64" s="30">
-        <v>0</v>
-      </c>
-      <c r="D64" s="30">
-        <v>95</v>
-      </c>
-      <c r="E64" s="30">
-        <v>0</v>
-      </c>
-      <c r="F64" s="29" t="s">
-        <v>84</v>
+      <c r="C64" s="29">
+        <v>0</v>
+      </c>
+      <c r="D64" s="1">
+        <v>33</v>
+      </c>
+      <c r="E64" s="29">
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="65" t="s">
+        <v>113</v>
+      </c>
+      <c r="B65" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C65" s="29">
+        <v>0</v>
+      </c>
+      <c r="D65" s="29">
+        <v>95</v>
+      </c>
+      <c r="E65" s="29">
+        <v>0</v>
+      </c>
+      <c r="F65" s="28" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A66" s="64" t="s">
         <v>110</v>
       </c>
-      <c r="B65" s="14">
+      <c r="B66" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="C65" s="30">
-        <v>0</v>
-      </c>
-      <c r="D65" s="30">
+      <c r="C66" s="29">
+        <v>0</v>
+      </c>
+      <c r="D66" s="29">
         <v>35</v>
       </c>
-      <c r="E65" s="30">
-        <v>0</v>
-      </c>
-      <c r="F65" s="29"/>
-    </row>
-    <row r="66" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A66" s="5" t="s">
+      <c r="E66" s="29">
+        <v>0</v>
+      </c>
+      <c r="F66" s="28"/>
+    </row>
+    <row r="67" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A67" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="B66" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C66" s="30">
-        <v>0</v>
-      </c>
-      <c r="D66" s="30">
-        <v>88</v>
-      </c>
-      <c r="E66" s="30">
-        <v>0</v>
-      </c>
-      <c r="F66" s="29"/>
-    </row>
-    <row r="67" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A67" s="92" t="s">
-        <v>143</v>
       </c>
       <c r="B67" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="C67" s="30">
-        <v>0</v>
-      </c>
-      <c r="D67" s="30">
+      <c r="C67" s="29">
+        <v>0</v>
+      </c>
+      <c r="D67" s="29">
+        <v>88</v>
+      </c>
+      <c r="E67" s="29">
+        <v>0</v>
+      </c>
+      <c r="F67" s="28"/>
+    </row>
+    <row r="68" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A68" s="94" t="s">
+        <v>143</v>
+      </c>
+      <c r="B68" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C68" s="29">
+        <v>0</v>
+      </c>
+      <c r="D68" s="29">
         <v>14</v>
       </c>
-      <c r="E67" s="30">
-        <v>0</v>
-      </c>
-      <c r="F67" s="29"/>
-    </row>
-    <row r="68" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A68" s="67" t="s">
+      <c r="E68" s="29">
+        <v>0</v>
+      </c>
+      <c r="F68" s="28"/>
+    </row>
+    <row r="69" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A69" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B68" s="14">
+      <c r="B69" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="C68" s="30">
-        <v>0</v>
-      </c>
-      <c r="D68" s="30">
+      <c r="C69" s="29">
+        <v>0</v>
+      </c>
+      <c r="D69" s="29">
         <v>13</v>
       </c>
-      <c r="E68" s="30">
-        <v>0</v>
-      </c>
-      <c r="F68" s="29"/>
-    </row>
-    <row r="69" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A69" s="67" t="s">
+      <c r="E69" s="29">
+        <v>0</v>
+      </c>
+      <c r="F69" s="28"/>
+    </row>
+    <row r="70" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A70" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B70" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C70" s="29">
+        <v>0</v>
+      </c>
+      <c r="D70" s="29">
+        <v>34</v>
+      </c>
+      <c r="E70" s="29">
+        <v>0</v>
+      </c>
+      <c r="F70" s="28" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B71" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C71" s="29">
+        <v>0</v>
+      </c>
+      <c r="D71" s="29">
+        <v>48</v>
+      </c>
+      <c r="E71" s="29">
+        <v>0</v>
+      </c>
+      <c r="F71" s="28"/>
+    </row>
+    <row r="72" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A72" s="66" t="s">
         <v>117</v>
       </c>
-      <c r="B69" s="14">
+      <c r="B72" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="C69" s="30">
-        <v>0</v>
-      </c>
-      <c r="D69" s="30">
+      <c r="C72" s="29">
+        <v>0</v>
+      </c>
+      <c r="D72" s="29">
         <v>72</v>
       </c>
-      <c r="E69" s="30">
-        <v>0</v>
-      </c>
-      <c r="F69" s="29"/>
-    </row>
-    <row r="70" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A70" s="5" t="s">
+      <c r="E72" s="29">
+        <v>0</v>
+      </c>
+      <c r="F72" s="28"/>
+    </row>
+    <row r="73" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A73" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B70" s="15">
-        <f t="shared" ref="B70:B78" si="3">ROUND((C70/D70)*100, 2)</f>
-        <v>0</v>
-      </c>
-      <c r="C70" s="30">
-        <v>0</v>
-      </c>
-      <c r="D70" s="30">
+      <c r="B73" s="14">
+        <f t="shared" ref="B73:B81" si="3">ROUND((C73/D73)*100, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="C73" s="29">
+        <v>0</v>
+      </c>
+      <c r="D73" s="29">
         <v>20</v>
       </c>
-      <c r="E70" s="30">
-        <v>0</v>
-      </c>
-      <c r="F70" s="29"/>
-    </row>
-    <row r="71" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A71" s="5" t="s">
+      <c r="E73" s="29">
+        <v>0</v>
+      </c>
+      <c r="F73" s="28"/>
+    </row>
+    <row r="74" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A74" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B71" s="15">
+      <c r="B74" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="C71" s="30">
-        <v>0</v>
-      </c>
-      <c r="D71" s="30">
+      <c r="C74" s="29">
+        <v>0</v>
+      </c>
+      <c r="D74" s="29">
         <v>32</v>
       </c>
-      <c r="E71" s="30">
-        <v>0</v>
-      </c>
-      <c r="F71" s="29"/>
-    </row>
-    <row r="72" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A72" s="67" t="s">
+      <c r="E74" s="29">
+        <v>0</v>
+      </c>
+      <c r="F74" s="28"/>
+    </row>
+    <row r="75" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A75" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="B72" s="14">
+      <c r="B75" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="C72" s="30">
-        <v>0</v>
-      </c>
-      <c r="D72" s="30">
+      <c r="C75" s="29">
+        <v>0</v>
+      </c>
+      <c r="D75" s="29">
         <v>56</v>
       </c>
-      <c r="E72" s="30">
-        <v>0</v>
-      </c>
-      <c r="F72" s="29"/>
-    </row>
-    <row r="73" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A73" s="5" t="s">
+      <c r="E75" s="29">
+        <v>0</v>
+      </c>
+      <c r="F75" s="28"/>
+    </row>
+    <row r="76" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A76" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B73" s="15">
+      <c r="B76" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="C73" s="30">
-        <v>0</v>
-      </c>
-      <c r="D73" s="30">
+      <c r="C76" s="29">
+        <v>0</v>
+      </c>
+      <c r="D76" s="29">
         <v>57</v>
       </c>
-      <c r="E73" s="30">
-        <v>0</v>
-      </c>
-      <c r="F73" s="29"/>
-    </row>
-    <row r="74" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A74" s="5" t="s">
+      <c r="E76" s="29">
+        <v>0</v>
+      </c>
+      <c r="F76" s="28"/>
+    </row>
+    <row r="77" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A77" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B74" s="15">
+      <c r="B77" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="C74" s="30">
-        <v>0</v>
-      </c>
-      <c r="D74" s="30">
+      <c r="C77" s="29">
+        <v>0</v>
+      </c>
+      <c r="D77" s="29">
         <v>7</v>
       </c>
-      <c r="E74" s="30">
-        <v>0</v>
-      </c>
-      <c r="F74" s="29"/>
-    </row>
-    <row r="75" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A75" s="65" t="s">
+      <c r="E77" s="29">
+        <v>0</v>
+      </c>
+      <c r="F77" s="28"/>
+    </row>
+    <row r="78" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A78" s="64" t="s">
         <v>112</v>
       </c>
-      <c r="B75" s="14">
+      <c r="B78" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="C75" s="30">
-        <v>0</v>
-      </c>
-      <c r="D75" s="30">
+      <c r="C78" s="29">
+        <v>0</v>
+      </c>
+      <c r="D78" s="29">
         <v>12</v>
       </c>
-      <c r="E75" s="30">
-        <v>0</v>
-      </c>
-      <c r="F75" s="29"/>
-    </row>
-    <row r="76" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A76" s="5" t="s">
+      <c r="E78" s="29">
+        <v>0</v>
+      </c>
+      <c r="F78" s="28"/>
+    </row>
+    <row r="79" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A79" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B76" s="15">
+      <c r="B79" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="C76" s="30">
-        <v>0</v>
-      </c>
-      <c r="D76" s="30">
+      <c r="C79" s="29">
+        <v>0</v>
+      </c>
+      <c r="D79" s="29">
         <v>47</v>
       </c>
-      <c r="E76" s="30">
-        <v>0</v>
-      </c>
-      <c r="F76" s="29"/>
-    </row>
-    <row r="77" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A77" s="5" t="s">
+      <c r="E79" s="29">
+        <v>0</v>
+      </c>
+      <c r="F79" s="28"/>
+    </row>
+    <row r="80" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A80" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B77" s="15">
+      <c r="B80" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="C77" s="30">
-        <v>0</v>
-      </c>
-      <c r="D77" s="30">
+      <c r="C80" s="29">
+        <v>0</v>
+      </c>
+      <c r="D80" s="29">
         <v>70</v>
       </c>
-      <c r="E77" s="30">
-        <v>0</v>
-      </c>
-      <c r="F77" s="29"/>
-    </row>
-    <row r="78" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A78" s="5" t="s">
+      <c r="E80" s="29">
+        <v>0</v>
+      </c>
+      <c r="F80" s="28"/>
+    </row>
+    <row r="81" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A81" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B78" s="15">
+      <c r="B81" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="C78" s="30">
-        <v>0</v>
-      </c>
-      <c r="D78" s="30">
+      <c r="C81" s="29">
+        <v>0</v>
+      </c>
+      <c r="D81" s="29">
         <v>75</v>
       </c>
-      <c r="E78" s="30">
-        <v>0</v>
-      </c>
-      <c r="F78" s="29"/>
-    </row>
-    <row r="79" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A79" s="39" t="s">
+      <c r="E81" s="29">
+        <v>0</v>
+      </c>
+      <c r="F81" s="28"/>
+    </row>
+    <row r="82" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A82" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="B79" s="41">
-        <f>COUNT(B1:B39, B41:B78)</f>
-        <v>76</v>
-      </c>
-      <c r="C79" s="41">
-        <f>SUM(C1:C78)</f>
+      <c r="B82" s="40">
+        <f>COUNT(B1:B39, B41:B81)</f>
+        <v>79</v>
+      </c>
+      <c r="C82" s="40">
+        <f>SUM(C1:C81)</f>
         <v>7973</v>
       </c>
-      <c r="D79" s="41">
-        <f t="shared" ref="D79:E79" si="4">SUM(D1:D78)</f>
-        <v>9824</v>
-      </c>
-      <c r="E79" s="41">
+      <c r="D82" s="40">
+        <f t="shared" ref="D82:E82" si="4">SUM(D1:D81)</f>
+        <v>9931</v>
+      </c>
+      <c r="E82" s="40">
         <f t="shared" si="4"/>
         <v>3536</v>
       </c>
-      <c r="F79" s="29" t="s">
+      <c r="F82" s="28" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A80" s="39" t="s">
+    <row r="83" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A83" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="B80" s="40">
-        <f>COUNTIF(B1:B78, "&gt;0")</f>
+      <c r="B83" s="39">
+        <f>COUNTIF(B1:B81, "&gt;0")</f>
         <v>54</v>
       </c>
-      <c r="C80" s="29"/>
-      <c r="D80" s="41">
+      <c r="C83" s="28"/>
+      <c r="D83" s="40">
         <f>SUM(D1:D54)</f>
         <v>8460</v>
       </c>
-      <c r="E80" s="29" t="s">
+      <c r="E83" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="F80" s="29"/>
-    </row>
-    <row r="81" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A81" s="39" t="s">
+      <c r="F83" s="28"/>
+    </row>
+    <row r="84" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A84" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="B81" s="40">
-        <f>COUNTIF(B1:B78, "&gt;=100")</f>
+      <c r="B84" s="39">
+        <f>COUNTIF(B1:B81, "&gt;=100")</f>
         <v>37</v>
       </c>
-      <c r="C81" s="29"/>
-      <c r="D81" s="29"/>
-      <c r="E81" s="29"/>
-      <c r="F81" s="29"/>
-    </row>
-    <row r="82" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A82" s="35" t="s">
+      <c r="C84" s="28"/>
+      <c r="D84" s="28"/>
+      <c r="E84" s="28"/>
+      <c r="F84" s="28"/>
+    </row>
+    <row r="85" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A85" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="B82" s="36">
-        <f>(C79/D79)*100</f>
-        <v>81.158387622149846</v>
-      </c>
-      <c r="E82" s="29"/>
-      <c r="F82" s="29"/>
-    </row>
-    <row r="83" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A83" s="39" t="s">
+      <c r="B85" s="35">
+        <f>(C82/D82)*100</f>
+        <v>80.283959319303193</v>
+      </c>
+      <c r="E85" s="28"/>
+      <c r="F85" s="28"/>
+    </row>
+    <row r="86" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A86" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="B83" s="41">
-        <f>AVERAGEIF(B2:B78, "&gt;0")</f>
+      <c r="B86" s="40">
+        <f>AVERAGEIF(B2:B81, "&gt;0")</f>
         <v>87.207962962962952</v>
       </c>
-      <c r="C83" s="41">
-        <f>(C79/D80)*100</f>
+      <c r="C86" s="40">
+        <f>(C82/D83)*100</f>
         <v>94.243498817966895</v>
       </c>
-      <c r="D83" s="29" t="s">
+      <c r="D86" s="28" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A84" s="39" t="s">
+    <row r="87" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A87" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="B84" s="39">
-        <f>ROUND(((B81/B80)*100), 2)</f>
+      <c r="B87" s="38">
+        <f>ROUND(((B84/B83)*100), 2)</f>
         <v>68.52</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A85" s="95" t="s">
+    <row r="88" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A88" s="93" t="s">
         <v>87</v>
       </c>
-      <c r="B85" s="95"/>
-      <c r="C85" s="95"/>
-    </row>
-    <row r="86" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A86" s="86" t="s">
+      <c r="B88" s="93"/>
+      <c r="C88" s="93"/>
+    </row>
+    <row r="89" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A89" s="85" t="s">
         <v>86</v>
       </c>
-      <c r="B86" s="83" t="s">
+      <c r="B89" s="82" t="s">
         <v>88</v>
       </c>
-      <c r="C86" s="83" t="s">
+      <c r="C89" s="82" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A87" s="42" t="s">
+    <row r="90" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A90" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="B87" s="29" t="s">
+      <c r="B90" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="C87" s="31" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A88" s="43" t="s">
+      <c r="C90" s="30" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A91" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="B88" s="56" t="s">
+      <c r="B91" s="55" t="s">
         <v>102</v>
       </c>
-      <c r="C88" s="88" t="s">
+      <c r="C91" s="87" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A89" s="77" t="s">
+    <row r="92" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A92" s="76" t="s">
         <v>130</v>
       </c>
-      <c r="B89" s="54" t="s">
+      <c r="B92" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="C89" s="89" t="s">
+      <c r="C92" s="88" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A90" s="44" t="s">
+    <row r="93" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A93" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="B90" s="57" t="s">
+      <c r="B93" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="C90" s="32" t="s">
+      <c r="C93" s="31" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A91" s="78" t="s">
+    <row r="94" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A94" s="77" t="s">
         <v>131</v>
       </c>
-      <c r="B91" s="58" t="s">
+      <c r="B94" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="C91" s="29"/>
-    </row>
-    <row r="92" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A92" s="79" t="s">
+      <c r="C94" s="28"/>
+    </row>
+    <row r="95" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A95" s="78" t="s">
         <v>128</v>
       </c>
-      <c r="B92" s="55" t="s">
+      <c r="B95" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="C92" s="29"/>
-    </row>
-    <row r="93" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A93" s="45" t="s">
+      <c r="C95" s="28"/>
+    </row>
+    <row r="96" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A96" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="B93" s="61" t="s">
+      <c r="B96" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="C93" s="29"/>
-    </row>
-    <row r="94" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A94" s="80" t="s">
+      <c r="C96" s="28"/>
+    </row>
+    <row r="97" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A97" s="79" t="s">
         <v>132</v>
       </c>
-      <c r="B94" s="59" t="s">
+      <c r="B97" s="58" t="s">
         <v>108</v>
       </c>
-      <c r="C94" s="29"/>
-    </row>
-    <row r="95" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A95" s="81" t="s">
+      <c r="C97" s="28"/>
+    </row>
+    <row r="98" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A98" s="80" t="s">
         <v>133</v>
       </c>
-      <c r="B95" s="60" t="s">
+      <c r="B98" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="C95" s="29"/>
-    </row>
-    <row r="96" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A96" s="46" t="s">
+      <c r="C98" s="28"/>
+    </row>
+    <row r="99" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A99" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="B96" s="62" t="s">
+      <c r="B99" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="C96" s="29"/>
-    </row>
-    <row r="97" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A97" s="47" t="s">
+      <c r="C99" s="28"/>
+    </row>
+    <row r="100" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A100" s="46" t="s">
         <v>135</v>
       </c>
-      <c r="B97" s="29"/>
-      <c r="C97" s="29"/>
-    </row>
-    <row r="98" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A98" s="48" t="s">
+      <c r="B100" s="28"/>
+      <c r="C100" s="28"/>
+    </row>
+    <row r="101" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A101" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="B98" s="29"/>
-      <c r="C98" s="29"/>
-    </row>
-    <row r="99" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A99" s="49" t="s">
+      <c r="B101" s="28"/>
+      <c r="C101" s="28"/>
+    </row>
+    <row r="102" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A102" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="B99" s="29"/>
-      <c r="C99" s="29"/>
-    </row>
-    <row r="100" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A100" s="50" t="s">
+      <c r="B102" s="28"/>
+      <c r="C102" s="28"/>
+    </row>
+    <row r="103" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A103" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="B100" s="29"/>
-      <c r="C100" s="29"/>
-    </row>
-    <row r="101" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A101" s="29"/>
-      <c r="B101" s="29"/>
-      <c r="C101" s="29"/>
+      <c r="B103" s="28"/>
+      <c r="C103" s="28"/>
+    </row>
+    <row r="104" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A104" s="28"/>
+      <c r="B104" s="28"/>
+      <c r="C104" s="28"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="L2:L5">
-    <sortCondition ref="L1:L5"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H2:H11">
+    <sortCondition ref="H1:H11"/>
   </sortState>
   <mergeCells count="1">
-    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="A88:C88"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Achievement Tracker.xlsx
+++ b/Achievement Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Data\AchievementTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74055E32-8469-4BB4-840D-9E425B0E4E7D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB9EA8B-7E7A-467A-BF37-7FDA75E8F87F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-4035" windowWidth="29040" windowHeight="15840" xr2:uid="{01F7A889-C794-47A9-89C3-7F43CBAA3EFF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="152">
   <si>
     <t>Name</t>
   </si>
@@ -480,13 +480,22 @@
   </si>
   <si>
     <t>Final Cut Edition releasing March, maybe new achievements</t>
+  </si>
+  <si>
+    <t>ZZ Train Journey</t>
+  </si>
+  <si>
+    <t>ZZ Rage Parking Simulator 2016</t>
+  </si>
+  <si>
+    <t>Games that were removed from my achievement counts</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -601,6 +610,30 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -774,7 +807,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -992,10 +1025,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1321,8 +1367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0DD2CDF-28B5-4FF8-81AE-E2FDE175FB34}">
   <dimension ref="A1:P104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H74" sqref="H74"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1386,7 +1432,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="9">
-        <f t="shared" ref="B2:B39" si="0">ROUND((C2/D2)*100, 2)</f>
+        <f>ROUND((C2/D2)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C2" s="1">
@@ -1420,7 +1466,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="9">
-        <f t="shared" si="0"/>
+        <f>ROUND((C3/D3)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C3" s="1">
@@ -1454,7 +1500,7 @@
         <v>114</v>
       </c>
       <c r="B4" s="9">
-        <f t="shared" si="0"/>
+        <f>ROUND((C4/D4)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C4" s="29">
@@ -1490,7 +1536,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="9">
-        <f t="shared" si="0"/>
+        <f>ROUND((C5/D5)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C5" s="1">
@@ -1521,7 +1567,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="9">
-        <f t="shared" si="0"/>
+        <f>ROUND((C6/D6)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C6" s="1">
@@ -1554,7 +1600,7 @@
         <v>22</v>
       </c>
       <c r="B7" s="9">
-        <f t="shared" si="0"/>
+        <f>ROUND((C7/D7)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C7" s="1">
@@ -1582,7 +1628,7 @@
         <v>23</v>
       </c>
       <c r="B8" s="9">
-        <f t="shared" si="0"/>
+        <f>ROUND((C8/D8)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C8" s="1">
@@ -1610,7 +1656,7 @@
         <v>24</v>
       </c>
       <c r="B9" s="9">
-        <f t="shared" si="0"/>
+        <f>ROUND((C9/D9)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C9" s="1">
@@ -1640,7 +1686,7 @@
         <v>25</v>
       </c>
       <c r="B10" s="9">
-        <f t="shared" si="0"/>
+        <f>ROUND((C10/D10)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C10" s="29">
@@ -1670,7 +1716,7 @@
         <v>26</v>
       </c>
       <c r="B11" s="9">
-        <f t="shared" si="0"/>
+        <f>ROUND((C11/D11)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C11" s="29">
@@ -1695,7 +1741,7 @@
         <v>116</v>
       </c>
       <c r="B12" s="9">
-        <f t="shared" si="0"/>
+        <f>ROUND((C12/D12)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C12" s="29">
@@ -1720,7 +1766,7 @@
         <v>28</v>
       </c>
       <c r="B13" s="9">
-        <f t="shared" si="0"/>
+        <f>ROUND((C13/D13)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C13" s="29">
@@ -1745,7 +1791,7 @@
         <v>137</v>
       </c>
       <c r="B14" s="9">
-        <f t="shared" si="0"/>
+        <f>ROUND((C14/D14)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C14" s="29">
@@ -1771,7 +1817,7 @@
         <v>138</v>
       </c>
       <c r="B15" s="9">
-        <f t="shared" si="0"/>
+        <f>ROUND((C15/D15)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C15" s="29">
@@ -1797,7 +1843,7 @@
         <v>139</v>
       </c>
       <c r="B16" s="9">
-        <f t="shared" si="0"/>
+        <f>ROUND((C16/D16)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C16" s="29">
@@ -1822,7 +1868,7 @@
         <v>141</v>
       </c>
       <c r="B17" s="9">
-        <f t="shared" si="0"/>
+        <f>ROUND((C17/D17)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C17" s="29">
@@ -1847,7 +1893,7 @@
         <v>30</v>
       </c>
       <c r="B18" s="9">
-        <f t="shared" si="0"/>
+        <f>ROUND((C18/D18)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C18" s="29">
@@ -1872,7 +1918,7 @@
         <v>31</v>
       </c>
       <c r="B19" s="9">
-        <f t="shared" si="0"/>
+        <f>ROUND((C19/D19)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C19" s="29">
@@ -1897,7 +1943,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="9">
-        <f t="shared" si="0"/>
+        <f>ROUND((C20/D20)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C20" s="29">
@@ -1922,7 +1968,7 @@
         <v>115</v>
       </c>
       <c r="B21" s="9">
-        <f t="shared" si="0"/>
+        <f>ROUND((C21/D21)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C21" s="29">
@@ -1946,7 +1992,7 @@
         <v>37</v>
       </c>
       <c r="B22" s="9">
-        <f t="shared" si="0"/>
+        <f>ROUND((C22/D22)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C22" s="29">
@@ -1968,7 +2014,7 @@
         <v>70</v>
       </c>
       <c r="B23" s="86">
-        <f t="shared" si="0"/>
+        <f>ROUND((C23/D23)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C23" s="62">
@@ -1988,24 +2034,24 @@
       </c>
     </row>
     <row r="24" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="51" t="s">
-        <v>43</v>
+      <c r="A24" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="B24" s="9">
-        <f t="shared" si="0"/>
+        <f>ROUND((C24/D24)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C24" s="29">
-        <v>466</v>
+        <v>88</v>
       </c>
       <c r="D24" s="29">
-        <v>466</v>
+        <v>88</v>
       </c>
       <c r="E24" s="29">
-        <v>2</v>
+        <v>558</v>
       </c>
       <c r="F24" s="28" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
       <c r="N24" s="7" t="s">
         <v>43</v>
@@ -2013,90 +2059,88 @@
     </row>
     <row r="25" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B25" s="9">
-        <f t="shared" si="0"/>
+        <f>ROUND((C25/D25)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C25" s="29">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="D25" s="29">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="E25" s="29">
-        <v>558</v>
-      </c>
-      <c r="F25" s="28" t="s">
-        <v>140</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F25" s="28"/>
       <c r="N25" s="7" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="B26" s="9">
-        <f t="shared" si="0"/>
+        <f>ROUND((C26/D26)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C26" s="29">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="D26" s="29">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="E26" s="29">
-        <v>5</v>
-      </c>
-      <c r="F26" s="28"/>
+        <v>1</v>
+      </c>
+      <c r="F26" s="28" t="s">
+        <v>74</v>
+      </c>
       <c r="N26" s="7" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B27" s="9">
-        <f t="shared" si="0"/>
+        <f>ROUND((C27/D27)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C27" s="29">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="D27" s="29">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="E27" s="29">
-        <v>1</v>
-      </c>
-      <c r="F27" s="28" t="s">
-        <v>74</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F27" s="28"/>
       <c r="N27" s="7" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="9">
+        <f>ROUND((C28/D28)*100, 2)</f>
+        <v>100</v>
+      </c>
+      <c r="C28" s="29">
         <v>48</v>
       </c>
-      <c r="B28" s="9">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="C28" s="29">
-        <v>24</v>
-      </c>
       <c r="D28" s="29">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="E28" s="29">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="F28" s="28"/>
       <c r="N28" s="7" t="s">
@@ -2105,20 +2149,20 @@
     </row>
     <row r="29" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B29" s="9">
-        <f t="shared" si="0"/>
+        <f>ROUND((C29/D29)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C29" s="29">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="D29" s="29">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="E29" s="29">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F29" s="28"/>
       <c r="N29" s="7" t="s">
@@ -2127,17 +2171,17 @@
     </row>
     <row r="30" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B30" s="9">
-        <f t="shared" si="0"/>
+        <f>ROUND((C30/D30)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C30" s="29">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D30" s="29">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E30" s="29">
         <v>12</v>
@@ -2149,20 +2193,20 @@
     </row>
     <row r="31" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B31" s="9">
-        <f t="shared" si="0"/>
+        <f>ROUND((C31/D31)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C31" s="29">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D31" s="29">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E31" s="29">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F31" s="28"/>
       <c r="N31" s="7" t="s">
@@ -2171,20 +2215,20 @@
     </row>
     <row r="32" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B32" s="9">
-        <f t="shared" si="0"/>
+        <f>ROUND((C32/D32)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C32" s="29">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="D32" s="29">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="E32" s="29">
-        <v>30</v>
+        <v>201</v>
       </c>
       <c r="F32" s="28"/>
       <c r="N32" s="7" t="s">
@@ -2193,20 +2237,20 @@
     </row>
     <row r="33" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B33" s="9">
-        <f t="shared" si="0"/>
+        <f>ROUND((C33/D33)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C33" s="29">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="D33" s="29">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="E33" s="29">
-        <v>201</v>
+        <v>14</v>
       </c>
       <c r="F33" s="28"/>
       <c r="N33" s="7" t="s">
@@ -2215,20 +2259,20 @@
     </row>
     <row r="34" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="B34" s="9">
-        <f t="shared" si="0"/>
+        <f>ROUND((C34/D34)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C34" s="29">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="D34" s="29">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E34" s="29">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="F34" s="28"/>
       <c r="N34" s="7" t="s">
@@ -2237,20 +2281,20 @@
     </row>
     <row r="35" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
-        <v>111</v>
+        <v>53</v>
       </c>
       <c r="B35" s="9">
-        <f t="shared" si="0"/>
+        <f>ROUND((C35/D35)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C35" s="29">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="D35" s="29">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="E35" s="29">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="F35" s="28"/>
       <c r="N35" s="7" t="s">
@@ -2259,20 +2303,20 @@
     </row>
     <row r="36" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="B36" s="9">
-        <f t="shared" si="0"/>
+        <f>ROUND((C36/D36)*100, 2)</f>
         <v>100</v>
       </c>
       <c r="C36" s="29">
-        <v>55</v>
+        <v>1708</v>
       </c>
       <c r="D36" s="29">
-        <v>55</v>
+        <v>1708</v>
       </c>
       <c r="E36" s="29">
-        <v>110</v>
+        <v>2</v>
       </c>
       <c r="F36" s="28"/>
       <c r="N36" s="7" t="s">
@@ -2280,420 +2324,422 @@
       </c>
     </row>
     <row r="37" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="51" t="s">
-        <v>55</v>
-      </c>
-      <c r="B37" s="9">
-        <f t="shared" si="0"/>
-        <v>100</v>
+      <c r="A37" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="B37" s="10">
+        <f>ROUND((C37/D37)*100, 2)</f>
+        <v>94.81</v>
       </c>
       <c r="C37" s="29">
-        <v>1877</v>
+        <v>493</v>
       </c>
       <c r="D37" s="29">
-        <v>1877</v>
+        <v>520</v>
       </c>
       <c r="E37" s="29">
-        <v>1</v>
+        <v>260</v>
       </c>
       <c r="F37" s="28" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="N37" s="7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B38" s="9">
-        <f t="shared" si="0"/>
-        <v>100</v>
+      <c r="A38" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="10">
+        <f>ROUND((C38/D38)*100, 2)</f>
+        <v>94.1</v>
       </c>
       <c r="C38" s="29">
-        <v>1708</v>
+        <v>1149</v>
       </c>
       <c r="D38" s="29">
-        <v>1708</v>
+        <v>1221</v>
       </c>
       <c r="E38" s="29">
-        <v>2</v>
-      </c>
-      <c r="F38" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="F38" s="28" t="s">
+        <v>118</v>
+      </c>
       <c r="N38" s="7" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="B39" s="10">
-        <f t="shared" si="0"/>
-        <v>94.81</v>
+      <c r="A39" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" s="69">
+        <f>ROUND((C39/D39)*100, 2)</f>
+        <v>89.36</v>
       </c>
       <c r="C39" s="29">
-        <v>493</v>
+        <v>42</v>
       </c>
       <c r="D39" s="29">
-        <v>520</v>
+        <v>47</v>
       </c>
       <c r="E39" s="29">
-        <v>260</v>
-      </c>
-      <c r="F39" s="28" t="s">
-        <v>85</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="F39" s="28"/>
     </row>
     <row r="40" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="27" t="s">
+      <c r="A40" s="68" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" s="69">
+        <f>ROUND((C40/D40)*100, 2)</f>
+        <v>86.83</v>
+      </c>
+      <c r="C40" s="1">
+        <v>145</v>
+      </c>
+      <c r="D40" s="1">
+        <v>167</v>
+      </c>
+      <c r="E40" s="1">
+        <v>203</v>
+      </c>
+      <c r="F40" s="28" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="68" t="s">
+        <v>98</v>
+      </c>
+      <c r="B41" s="69">
+        <f>ROUND((C41/D41)*100, 2)</f>
+        <v>84.62</v>
+      </c>
+      <c r="C41" s="1">
+        <v>33</v>
+      </c>
+      <c r="D41" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="10">
-        <f t="shared" ref="B40" si="1">ROUND((C40/D40)*100, 2)</f>
-        <v>94.1</v>
-      </c>
-      <c r="C40" s="29">
-        <v>1149</v>
-      </c>
-      <c r="D40" s="29">
-        <v>1221</v>
-      </c>
-      <c r="E40" s="29">
-        <v>11</v>
-      </c>
-      <c r="F40" s="28" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="91" t="s">
-        <v>49</v>
-      </c>
-      <c r="B41" s="69">
-        <f t="shared" ref="B41:B72" si="2">ROUND((C41/D41)*100, 2)</f>
-        <v>89.36</v>
-      </c>
-      <c r="C41" s="29">
-        <v>42</v>
-      </c>
-      <c r="D41" s="29">
-        <v>47</v>
-      </c>
-      <c r="E41" s="29">
-        <v>37</v>
-      </c>
-      <c r="F41" s="28"/>
+      <c r="E41" s="1">
+        <v>28</v>
+      </c>
+      <c r="F41" s="63"/>
     </row>
     <row r="42" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="69">
+        <f>ROUND((C42/D42)*100, 2)</f>
+        <v>83.78</v>
+      </c>
+      <c r="C42" s="29">
+        <v>31</v>
+      </c>
+      <c r="D42" s="29">
+        <v>37</v>
+      </c>
+      <c r="E42" s="29">
+        <v>556</v>
+      </c>
+      <c r="F42" s="28"/>
+    </row>
+    <row r="43" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="89" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" s="90">
+        <f>ROUND((C43/D43)*100, 2)</f>
+        <v>71.930000000000007</v>
+      </c>
+      <c r="C43" s="29">
+        <v>82</v>
+      </c>
+      <c r="D43" s="29">
+        <v>114</v>
+      </c>
+      <c r="E43" s="29">
+        <v>320</v>
+      </c>
+      <c r="F43" s="28" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="71">
+        <f>ROUND((C44/D44)*100, 2)</f>
+        <v>69.33</v>
+      </c>
+      <c r="C44" s="1">
+        <v>52</v>
+      </c>
+      <c r="D44" s="1">
+        <v>75</v>
+      </c>
+      <c r="E44" s="1">
+        <v>72</v>
+      </c>
+      <c r="F44" s="28"/>
+    </row>
+    <row r="45" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="72" t="s">
+        <v>36</v>
+      </c>
+      <c r="B45" s="73">
+        <f>ROUND((C45/D45)*100, 2)</f>
+        <v>59.26</v>
+      </c>
+      <c r="C45" s="29">
+        <v>16</v>
+      </c>
+      <c r="D45" s="29">
+        <v>27</v>
+      </c>
+      <c r="E45" s="29">
         <v>14</v>
       </c>
-      <c r="B42" s="69">
-        <f t="shared" si="2"/>
-        <v>86.83</v>
-      </c>
-      <c r="C42" s="1">
-        <v>145</v>
-      </c>
-      <c r="D42" s="1">
-        <v>167</v>
-      </c>
-      <c r="E42" s="1">
-        <v>203</v>
-      </c>
-      <c r="F42" s="28" t="s">
+      <c r="F45" s="28"/>
+    </row>
+    <row r="46" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="72" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" s="73">
+        <f>ROUND((C46/D46)*100, 2)</f>
+        <v>57.69</v>
+      </c>
+      <c r="C46" s="1">
+        <v>45</v>
+      </c>
+      <c r="D46" s="1">
+        <v>78</v>
+      </c>
+      <c r="E46" s="1">
+        <v>86</v>
+      </c>
+      <c r="F46" s="28" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="74" t="s">
+        <v>71</v>
+      </c>
+      <c r="B47" s="73">
+        <f>ROUND((C47/D47)*100, 2)</f>
+        <v>56.76</v>
+      </c>
+      <c r="C47" s="29">
+        <v>21</v>
+      </c>
+      <c r="D47" s="29">
+        <v>37</v>
+      </c>
+      <c r="E47" s="29">
+        <v>11</v>
+      </c>
+      <c r="F47" s="28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48" s="73">
+        <f>ROUND((C48/D48)*100, 2)</f>
+        <v>56.25</v>
+      </c>
+      <c r="C48" s="1">
+        <v>27</v>
+      </c>
+      <c r="D48" s="1">
+        <v>48</v>
+      </c>
+      <c r="E48" s="1">
+        <v>39</v>
+      </c>
+      <c r="F48" s="28"/>
+    </row>
+    <row r="49" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B49" s="11">
+        <f>ROUND((C49/D49)*100, 2)</f>
+        <v>45.83</v>
+      </c>
+      <c r="C49" s="29">
+        <v>11</v>
+      </c>
+      <c r="D49" s="29">
+        <v>24</v>
+      </c>
+      <c r="E49" s="29">
+        <v>4</v>
+      </c>
+      <c r="F49" s="28"/>
+    </row>
+    <row r="50" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" s="11">
+        <f>ROUND((C50/D50)*100, 2)</f>
+        <v>43.66</v>
+      </c>
+      <c r="C50" s="29">
+        <v>93</v>
+      </c>
+      <c r="D50" s="29">
+        <v>213</v>
+      </c>
+      <c r="E50" s="29">
+        <v>38</v>
+      </c>
+      <c r="F50" s="28" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="68" t="s">
-        <v>98</v>
-      </c>
-      <c r="B43" s="69">
-        <f t="shared" si="2"/>
-        <v>84.62</v>
-      </c>
-      <c r="C43" s="1">
-        <v>33</v>
-      </c>
-      <c r="D43" s="1">
-        <v>39</v>
-      </c>
-      <c r="E43" s="1">
-        <v>28</v>
-      </c>
-      <c r="F43" s="63"/>
-    </row>
-    <row r="44" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="68" t="s">
-        <v>41</v>
-      </c>
-      <c r="B44" s="69">
-        <f t="shared" si="2"/>
-        <v>83.78</v>
-      </c>
-      <c r="C44" s="29">
-        <v>31</v>
-      </c>
-      <c r="D44" s="29">
-        <v>37</v>
-      </c>
-      <c r="E44" s="29">
-        <v>556</v>
-      </c>
-      <c r="F44" s="28"/>
-    </row>
-    <row r="45" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="89" t="s">
-        <v>51</v>
-      </c>
-      <c r="B45" s="90">
-        <f t="shared" si="2"/>
-        <v>71.930000000000007</v>
-      </c>
-      <c r="C45" s="29">
-        <v>82</v>
-      </c>
-      <c r="D45" s="29">
-        <v>114</v>
-      </c>
-      <c r="E45" s="29">
-        <v>320</v>
-      </c>
-      <c r="F45" s="28" t="s">
+    <row r="51" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="95" t="s">
+        <v>113</v>
+      </c>
+      <c r="B51" s="96">
+        <f>ROUND((C51/D51)*100, 2)</f>
+        <v>25.22</v>
+      </c>
+      <c r="C51" s="29">
+        <v>29</v>
+      </c>
+      <c r="D51" s="29">
+        <v>115</v>
+      </c>
+      <c r="E51" s="29">
+        <v>32</v>
+      </c>
+      <c r="F51" s="28" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="70" t="s">
-        <v>7</v>
-      </c>
-      <c r="B46" s="71">
-        <f t="shared" si="2"/>
-        <v>69.33</v>
-      </c>
-      <c r="C46" s="1">
+    <row r="52" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B52" s="12">
+        <f>ROUND((C52/D52)*100, 2)</f>
+        <v>7.69</v>
+      </c>
+      <c r="C52" s="29">
+        <v>4</v>
+      </c>
+      <c r="D52" s="29">
         <v>52</v>
       </c>
-      <c r="D46" s="1">
-        <v>75</v>
-      </c>
-      <c r="E46" s="1">
-        <v>72</v>
-      </c>
-      <c r="F46" s="28"/>
-    </row>
-    <row r="47" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="72" t="s">
-        <v>36</v>
-      </c>
-      <c r="B47" s="73">
-        <f t="shared" si="2"/>
-        <v>59.26</v>
-      </c>
-      <c r="C47" s="29">
-        <v>16</v>
-      </c>
-      <c r="D47" s="29">
-        <v>27</v>
-      </c>
-      <c r="E47" s="29">
-        <v>14</v>
-      </c>
-      <c r="F47" s="28"/>
-    </row>
-    <row r="48" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="72" t="s">
-        <v>8</v>
-      </c>
-      <c r="B48" s="73">
-        <f t="shared" si="2"/>
-        <v>57.69</v>
-      </c>
-      <c r="C48" s="1">
-        <v>45</v>
-      </c>
-      <c r="D48" s="1">
-        <v>78</v>
-      </c>
-      <c r="E48" s="1">
-        <v>86</v>
-      </c>
-      <c r="F48" s="28" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A49" s="74" t="s">
-        <v>71</v>
-      </c>
-      <c r="B49" s="73">
-        <f t="shared" si="2"/>
-        <v>56.76</v>
-      </c>
-      <c r="C49" s="29">
-        <v>21</v>
-      </c>
-      <c r="D49" s="29">
-        <v>37</v>
-      </c>
-      <c r="E49" s="29">
-        <v>11</v>
-      </c>
-      <c r="F49" s="28" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A50" s="75" t="s">
-        <v>16</v>
-      </c>
-      <c r="B50" s="73">
-        <f t="shared" si="2"/>
-        <v>56.25</v>
-      </c>
-      <c r="C50" s="1">
-        <v>27</v>
-      </c>
-      <c r="D50" s="1">
-        <v>48</v>
-      </c>
-      <c r="E50" s="1">
-        <v>39</v>
-      </c>
-      <c r="F50" s="28"/>
-    </row>
-    <row r="51" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B51" s="11">
-        <f t="shared" si="2"/>
-        <v>45.83</v>
-      </c>
-      <c r="C51" s="29">
-        <v>11</v>
-      </c>
-      <c r="D51" s="29">
-        <v>24</v>
-      </c>
-      <c r="E51" s="29">
-        <v>4</v>
-      </c>
-      <c r="F51" s="28"/>
-    </row>
-    <row r="52" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A52" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B52" s="11">
-        <f t="shared" si="2"/>
-        <v>43.66</v>
-      </c>
-      <c r="C52" s="29">
-        <v>93</v>
-      </c>
-      <c r="D52" s="29">
-        <v>213</v>
-      </c>
       <c r="E52" s="29">
-        <v>38</v>
-      </c>
-      <c r="F52" s="28" t="s">
-        <v>74</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B53" s="12">
-        <f t="shared" si="2"/>
-        <v>7.69</v>
+        <f>ROUND((C53/D53)*100, 2)</f>
+        <v>5.26</v>
       </c>
       <c r="C53" s="29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" s="29">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="E53" s="29">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="B54" s="12">
-        <f t="shared" si="2"/>
-        <v>5.26</v>
-      </c>
-      <c r="C54" s="29">
+        <f>ROUND((C54/D54)*100, 2)</f>
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="C54" s="1">
+        <v>4</v>
+      </c>
+      <c r="D54" s="1">
+        <v>193</v>
+      </c>
+      <c r="E54" s="1">
+        <v>3</v>
+      </c>
+      <c r="F54" s="28" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A55" s="97" t="s">
+        <v>150</v>
+      </c>
+      <c r="B55" s="100">
+        <v>0</v>
+      </c>
+      <c r="C55" s="98">
+        <v>466</v>
+      </c>
+      <c r="D55" s="98">
+        <v>466</v>
+      </c>
+      <c r="E55" s="98">
         <v>2</v>
       </c>
-      <c r="D54" s="29">
-        <v>38</v>
-      </c>
-      <c r="E54" s="29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A55" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B55" s="12">
-        <f t="shared" si="2"/>
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="C55" s="1">
-        <v>4</v>
-      </c>
-      <c r="D55" s="1">
-        <v>193</v>
-      </c>
-      <c r="E55" s="1">
-        <v>3</v>
-      </c>
-      <c r="F55" s="28" t="s">
-        <v>74</v>
+      <c r="F55" s="99" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="B56" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C56" s="29">
-        <v>0</v>
-      </c>
-      <c r="D56" s="29">
-        <v>18</v>
-      </c>
-      <c r="E56" s="29">
-        <v>0</v>
-      </c>
-      <c r="F56" s="28"/>
+      <c r="A56" s="97" t="s">
+        <v>149</v>
+      </c>
+      <c r="B56" s="100">
+        <v>0</v>
+      </c>
+      <c r="C56" s="98">
+        <v>1877</v>
+      </c>
+      <c r="D56" s="98">
+        <v>1877</v>
+      </c>
+      <c r="E56" s="98">
+        <v>1</v>
+      </c>
+      <c r="F56" s="99" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="57" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B57" s="14">
-        <f t="shared" si="2"/>
+        <f>ROUND((C57/D57)*100, 2)</f>
         <v>0</v>
       </c>
       <c r="C57" s="29">
         <v>0</v>
       </c>
       <c r="D57" s="29">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="E57" s="29">
         <v>0</v>
@@ -2702,54 +2748,54 @@
     </row>
     <row r="58" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58" s="14">
+        <f>ROUND((C58/D58)*100, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="C58" s="29">
+        <v>0</v>
+      </c>
+      <c r="D58" s="29">
+        <v>74</v>
+      </c>
+      <c r="E58" s="29">
+        <v>0</v>
+      </c>
+      <c r="F58" s="28"/>
+    </row>
+    <row r="59" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B58" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C58" s="29">
-        <v>0</v>
-      </c>
-      <c r="D58" s="29">
+      <c r="B59" s="14">
+        <f>ROUND((C59/D59)*100, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="C59" s="29">
+        <v>0</v>
+      </c>
+      <c r="D59" s="29">
         <v>54</v>
       </c>
-      <c r="E58" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A59" s="5" t="s">
+      <c r="E59" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A60" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B59" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C59" s="1">
-        <v>0</v>
-      </c>
-      <c r="D59" s="1">
+      <c r="B60" s="13">
+        <f>ROUND((C60/D60)*100, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="C60" s="1">
+        <v>0</v>
+      </c>
+      <c r="D60" s="1">
         <v>63</v>
-      </c>
-      <c r="E59" s="1">
-        <v>0</v>
-      </c>
-      <c r="F59" s="28"/>
-    </row>
-    <row r="60" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A60" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B60" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C60" s="1">
-        <v>0</v>
-      </c>
-      <c r="D60" s="1">
-        <v>12</v>
       </c>
       <c r="E60" s="1">
         <v>0</v>
@@ -2758,100 +2804,98 @@
     </row>
     <row r="61" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B61" s="14">
+        <f>ROUND((C61/D61)*100, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="C61" s="1">
+        <v>0</v>
+      </c>
+      <c r="D61" s="1">
+        <v>12</v>
+      </c>
+      <c r="E61" s="1">
+        <v>0</v>
+      </c>
+      <c r="F61" s="28"/>
+    </row>
+    <row r="62" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A62" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B61" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C61" s="1">
-        <v>0</v>
-      </c>
-      <c r="D61" s="1">
+      <c r="B62" s="14">
+        <f>ROUND((C62/D62)*100, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="C62" s="1">
+        <v>0</v>
+      </c>
+      <c r="D62" s="1">
         <v>54</v>
       </c>
-      <c r="E61" s="1">
-        <v>0</v>
-      </c>
-      <c r="F61" s="28"/>
-    </row>
-    <row r="62" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A62" s="65" t="s">
+      <c r="E62" s="1">
+        <v>0</v>
+      </c>
+      <c r="F62" s="28"/>
+    </row>
+    <row r="63" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A63" s="65" t="s">
         <v>144</v>
       </c>
-      <c r="B62" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C62" s="1">
-        <v>0</v>
-      </c>
-      <c r="D62" s="1">
+      <c r="B63" s="13">
+        <f>ROUND((C63/D63)*100, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="C63" s="1">
+        <v>0</v>
+      </c>
+      <c r="D63" s="1">
         <v>25</v>
       </c>
-      <c r="E62" s="1">
-        <v>0</v>
-      </c>
-      <c r="F62" s="28" t="s">
+      <c r="E63" s="1">
+        <v>0</v>
+      </c>
+      <c r="F63" s="28" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A63" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B63" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C63" s="29">
-        <v>0</v>
-      </c>
-      <c r="D63" s="1">
-        <v>170</v>
-      </c>
-      <c r="E63" s="29">
-        <v>0</v>
-      </c>
-      <c r="F63" s="28"/>
     </row>
     <row r="64" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B64" s="14">
+        <f>ROUND((C64/D64)*100, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="C64" s="29">
+        <v>0</v>
+      </c>
+      <c r="D64" s="1">
+        <v>170</v>
+      </c>
+      <c r="E64" s="29">
+        <v>0</v>
+      </c>
+      <c r="F64" s="28"/>
+    </row>
+    <row r="65" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A65" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B64" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C64" s="29">
-        <v>0</v>
-      </c>
-      <c r="D64" s="1">
+      <c r="B65" s="14">
+        <f>ROUND((C65/D65)*100, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="C65" s="29">
+        <v>0</v>
+      </c>
+      <c r="D65" s="1">
         <v>33</v>
       </c>
-      <c r="E64" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A65" s="65" t="s">
-        <v>113</v>
-      </c>
-      <c r="B65" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C65" s="29">
-        <v>0</v>
-      </c>
-      <c r="D65" s="29">
-        <v>95</v>
-      </c>
       <c r="E65" s="29">
         <v>0</v>
-      </c>
-      <c r="F65" s="28" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -2859,7 +2903,7 @@
         <v>110</v>
       </c>
       <c r="B66" s="13">
-        <f t="shared" si="2"/>
+        <f>ROUND((C66/D66)*100, 2)</f>
         <v>0</v>
       </c>
       <c r="C66" s="29">
@@ -2878,7 +2922,7 @@
         <v>27</v>
       </c>
       <c r="B67" s="14">
-        <f t="shared" si="2"/>
+        <f>ROUND((C67/D67)*100, 2)</f>
         <v>0</v>
       </c>
       <c r="C67" s="29">
@@ -2893,11 +2937,11 @@
       <c r="F67" s="28"/>
     </row>
     <row r="68" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A68" s="94" t="s">
+      <c r="A68" s="93" t="s">
         <v>143</v>
       </c>
       <c r="B68" s="13">
-        <f t="shared" si="2"/>
+        <f>ROUND((C68/D68)*100, 2)</f>
         <v>0</v>
       </c>
       <c r="C68" s="29">
@@ -2916,7 +2960,7 @@
         <v>29</v>
       </c>
       <c r="B69" s="13">
-        <f t="shared" si="2"/>
+        <f>ROUND((C69/D69)*100, 2)</f>
         <v>0</v>
       </c>
       <c r="C69" s="29">
@@ -2935,7 +2979,7 @@
         <v>146</v>
       </c>
       <c r="B70" s="14">
-        <f t="shared" si="2"/>
+        <f>ROUND((C70/D70)*100, 2)</f>
         <v>0</v>
       </c>
       <c r="C70" s="29">
@@ -2956,7 +3000,7 @@
         <v>145</v>
       </c>
       <c r="B71" s="14">
-        <f t="shared" si="2"/>
+        <f>ROUND((C71/D71)*100, 2)</f>
         <v>0</v>
       </c>
       <c r="C71" s="29">
@@ -2975,7 +3019,7 @@
         <v>117</v>
       </c>
       <c r="B72" s="13">
-        <f t="shared" si="2"/>
+        <f>ROUND((C72/D72)*100, 2)</f>
         <v>0</v>
       </c>
       <c r="C72" s="29">
@@ -2994,7 +3038,7 @@
         <v>38</v>
       </c>
       <c r="B73" s="14">
-        <f t="shared" ref="B73:B81" si="3">ROUND((C73/D73)*100, 2)</f>
+        <f>ROUND((C73/D73)*100, 2)</f>
         <v>0</v>
       </c>
       <c r="C73" s="29">
@@ -3013,7 +3057,7 @@
         <v>42</v>
       </c>
       <c r="B74" s="14">
-        <f t="shared" si="3"/>
+        <f>ROUND((C74/D74)*100, 2)</f>
         <v>0</v>
       </c>
       <c r="C74" s="29">
@@ -3032,7 +3076,7 @@
         <v>44</v>
       </c>
       <c r="B75" s="13">
-        <f t="shared" si="3"/>
+        <f>ROUND((C75/D75)*100, 2)</f>
         <v>0</v>
       </c>
       <c r="C75" s="29">
@@ -3051,7 +3095,7 @@
         <v>46</v>
       </c>
       <c r="B76" s="14">
-        <f t="shared" si="3"/>
+        <f>ROUND((C76/D76)*100, 2)</f>
         <v>0</v>
       </c>
       <c r="C76" s="29">
@@ -3070,7 +3114,7 @@
         <v>45</v>
       </c>
       <c r="B77" s="14">
-        <f t="shared" si="3"/>
+        <f>ROUND((C77/D77)*100, 2)</f>
         <v>0</v>
       </c>
       <c r="C77" s="29">
@@ -3089,7 +3133,7 @@
         <v>112</v>
       </c>
       <c r="B78" s="13">
-        <f t="shared" si="3"/>
+        <f>ROUND((C78/D78)*100, 2)</f>
         <v>0</v>
       </c>
       <c r="C78" s="29">
@@ -3108,7 +3152,7 @@
         <v>54</v>
       </c>
       <c r="B79" s="14">
-        <f t="shared" si="3"/>
+        <f>ROUND((C79/D79)*100, 2)</f>
         <v>0</v>
       </c>
       <c r="C79" s="29">
@@ -3127,7 +3171,7 @@
         <v>56</v>
       </c>
       <c r="B80" s="14">
-        <f t="shared" si="3"/>
+        <f>ROUND((C80/D80)*100, 2)</f>
         <v>0</v>
       </c>
       <c r="C80" s="29">
@@ -3146,7 +3190,7 @@
         <v>61</v>
       </c>
       <c r="B81" s="14">
-        <f t="shared" si="3"/>
+        <f>ROUND((C81/D81)*100, 2)</f>
         <v>0</v>
       </c>
       <c r="C81" s="29">
@@ -3169,16 +3213,16 @@
         <v>79</v>
       </c>
       <c r="C82" s="40">
-        <f>SUM(C1:C81)</f>
-        <v>7973</v>
+        <f>SUM(C1:C54, C57:C81)</f>
+        <v>5659</v>
       </c>
       <c r="D82" s="40">
-        <f t="shared" ref="D82:E82" si="4">SUM(D1:D81)</f>
-        <v>9931</v>
+        <f t="shared" ref="D82:E82" si="0">SUM(D1:D54, D57:D81)</f>
+        <v>7608</v>
       </c>
       <c r="E82" s="40">
-        <f t="shared" si="4"/>
-        <v>3536</v>
+        <f t="shared" si="0"/>
+        <v>3565</v>
       </c>
       <c r="F82" s="28" t="s">
         <v>103</v>
@@ -3190,12 +3234,12 @@
       </c>
       <c r="B83" s="39">
         <f>COUNTIF(B1:B81, "&gt;0")</f>
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C83" s="28"/>
       <c r="D83" s="40">
         <f>SUM(D1:D54)</f>
-        <v>8460</v>
+        <v>6425</v>
       </c>
       <c r="E83" s="28" t="s">
         <v>109</v>
@@ -3208,7 +3252,7 @@
       </c>
       <c r="B84" s="39">
         <f>COUNTIF(B1:B81, "&gt;=100")</f>
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C84" s="28"/>
       <c r="D84" s="28"/>
@@ -3221,7 +3265,7 @@
       </c>
       <c r="B85" s="35">
         <f>(C82/D82)*100</f>
-        <v>80.283959319303193</v>
+        <v>74.382229232386962</v>
       </c>
       <c r="E85" s="28"/>
       <c r="F85" s="28"/>
@@ -3232,11 +3276,11 @@
       </c>
       <c r="B86" s="40">
         <f>AVERAGEIF(B2:B81, "&gt;0")</f>
-        <v>87.207962962962952</v>
+        <v>85.555660377358492</v>
       </c>
       <c r="C86" s="40">
         <f>(C82/D83)*100</f>
-        <v>94.243498817966895</v>
+        <v>88.077821011673151</v>
       </c>
       <c r="D86" s="28" t="s">
         <v>122</v>
@@ -3248,15 +3292,15 @@
       </c>
       <c r="B87" s="38">
         <f>ROUND(((B84/B83)*100), 2)</f>
-        <v>68.52</v>
+        <v>66.040000000000006</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A88" s="93" t="s">
+      <c r="A88" s="94" t="s">
         <v>87</v>
       </c>
-      <c r="B88" s="93"/>
-      <c r="C88" s="93"/>
+      <c r="B88" s="94"/>
+      <c r="C88" s="94"/>
     </row>
     <row r="89" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="85" t="s">
@@ -3326,8 +3370,8 @@
       <c r="A95" s="78" t="s">
         <v>128</v>
       </c>
-      <c r="B95" s="54" t="s">
-        <v>95</v>
+      <c r="B95" s="101" t="s">
+        <v>151</v>
       </c>
       <c r="C95" s="28"/>
     </row>
@@ -3335,8 +3379,8 @@
       <c r="A96" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="B96" s="60" t="s">
-        <v>120</v>
+      <c r="B96" s="54" t="s">
+        <v>95</v>
       </c>
       <c r="C96" s="28"/>
     </row>
@@ -3344,8 +3388,8 @@
       <c r="A97" s="79" t="s">
         <v>132</v>
       </c>
-      <c r="B97" s="58" t="s">
-        <v>108</v>
+      <c r="B97" s="60" t="s">
+        <v>120</v>
       </c>
       <c r="C97" s="28"/>
     </row>
@@ -3353,8 +3397,8 @@
       <c r="A98" s="80" t="s">
         <v>133</v>
       </c>
-      <c r="B98" s="59" t="s">
-        <v>104</v>
+      <c r="B98" s="58" t="s">
+        <v>108</v>
       </c>
       <c r="C98" s="28"/>
     </row>
@@ -3362,8 +3406,8 @@
       <c r="A99" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="B99" s="61" t="s">
-        <v>121</v>
+      <c r="B99" s="59" t="s">
+        <v>104</v>
       </c>
       <c r="C99" s="28"/>
     </row>
@@ -3371,7 +3415,9 @@
       <c r="A100" s="46" t="s">
         <v>135</v>
       </c>
-      <c r="B100" s="28"/>
+      <c r="B100" s="61" t="s">
+        <v>121</v>
+      </c>
       <c r="C100" s="28"/>
     </row>
     <row r="101" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3401,8 +3447,8 @@
       <c r="C104" s="28"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H2:H11">
-    <sortCondition ref="H1:H11"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F81">
+    <sortCondition descending="1" ref="B2:B81"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A88:C88"/>
